--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2066" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2904" uniqueCount="417">
   <si>
     <t>description</t>
   </si>
@@ -1300,6 +1300,15 @@
   </si>
   <si>
     <t>storeKeys(var,profile,keyPattern)</t>
+  </si>
+  <si>
+    <t>saveRowCount(var)</t>
+  </si>
+  <si>
+    <t>saveTableRowsRange(var,beginRow,endRow)</t>
+  </si>
+  <si>
+    <t>assertBetween(num,min,max)</t>
   </si>
 </sst>
 </file>
@@ -1307,7 +1316,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="56">
+  <fonts count="80">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1660,8 +1669,160 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="87">
+  <fills count="129">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2150,8 +2311,246 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="82">
+  <borders count="122">
     <border>
       <left/>
       <right/>
@@ -2950,13 +3349,401 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="91">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3127,40 +3914,112 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="43" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="68" borderId="69" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="69" fillId="68" fontId="44" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="45" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="71" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="71" fontId="46" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="47" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="74" borderId="73" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="73" fillId="74" fontId="48" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="77" borderId="77" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="77" fillId="77" fontId="49" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="80" borderId="81" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="81" fillId="80" fontId="50" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="80" borderId="81" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="81" fillId="80" fontId="51" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="83" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="83" fontId="52" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="86" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="86" fontId="53" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="83" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="83" fontId="54" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="55" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="89" fillId="89" fontId="56" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="57" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="92" fontId="58" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="59" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="93" fillId="95" fontId="60" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="97" fillId="98" fontId="61" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="101" fillId="101" fontId="62" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="101" fillId="101" fontId="63" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="104" fontId="64" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="107" fontId="65" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="104" fontId="66" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="67" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="110" borderId="109" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="113" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="116" borderId="113" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="119" borderId="117" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="122" borderId="121" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="122" borderId="121" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="125" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="128" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="125" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3576,7 +4435,7 @@
         <v>190</v>
       </c>
       <c r="M2" t="s">
-        <v>398</v>
+        <v>416</v>
       </c>
       <c r="N2" t="s">
         <v>246</v>
@@ -4537,7 +5396,7 @@
     </row>
     <row r="52">
       <c r="E52" t="s">
-        <v>360</v>
+        <v>334</v>
       </c>
       <c r="S52" t="s">
         <v>125</v>
@@ -4545,7 +5404,7 @@
     </row>
     <row r="53">
       <c r="E53" t="s">
-        <v>361</v>
+        <v>271</v>
       </c>
       <c r="S53" t="s">
         <v>126</v>
@@ -4553,7 +5412,7 @@
     </row>
     <row r="54">
       <c r="E54" t="s">
-        <v>334</v>
+        <v>295</v>
       </c>
       <c r="S54" t="s">
         <v>127</v>
@@ -4561,7 +5420,7 @@
     </row>
     <row r="55">
       <c r="E55" t="s">
-        <v>271</v>
+        <v>296</v>
       </c>
       <c r="S55" t="s">
         <v>128</v>
@@ -4569,7 +5428,7 @@
     </row>
     <row r="56">
       <c r="E56" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="S56" t="s">
         <v>129</v>
@@ -4577,7 +5436,7 @@
     </row>
     <row r="57">
       <c r="E57" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="S57" t="s">
         <v>130</v>
@@ -4585,7 +5444,7 @@
     </row>
     <row r="58">
       <c r="E58" t="s">
-        <v>297</v>
+        <v>316</v>
       </c>
       <c r="S58" t="s">
         <v>208</v>
@@ -4593,7 +5452,7 @@
     </row>
     <row r="59">
       <c r="E59" t="s">
-        <v>307</v>
+        <v>340</v>
       </c>
       <c r="S59" t="s">
         <v>394</v>
@@ -4601,7 +5460,7 @@
     </row>
     <row r="60">
       <c r="E60" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="S60" t="s">
         <v>131</v>
@@ -4609,7 +5468,7 @@
     </row>
     <row r="61">
       <c r="E61" t="s">
-        <v>340</v>
+        <v>314</v>
       </c>
       <c r="S61" t="s">
         <v>132</v>
@@ -4617,7 +5476,7 @@
     </row>
     <row r="62">
       <c r="E62" t="s">
-        <v>313</v>
+        <v>374</v>
       </c>
       <c r="S62" t="s">
         <v>133</v>
@@ -4625,7 +5484,7 @@
     </row>
     <row r="63">
       <c r="E63" t="s">
-        <v>314</v>
+        <v>375</v>
       </c>
       <c r="S63" t="s">
         <v>134</v>
@@ -4633,7 +5492,7 @@
     </row>
     <row r="64">
       <c r="E64" t="s">
-        <v>374</v>
+        <v>348</v>
       </c>
       <c r="S64" t="s">
         <v>191</v>
@@ -4641,7 +5500,7 @@
     </row>
     <row r="65">
       <c r="E65" t="s">
-        <v>375</v>
+        <v>317</v>
       </c>
       <c r="S65" t="s">
         <v>192</v>
@@ -4649,7 +5508,7 @@
     </row>
     <row r="66">
       <c r="E66" t="s">
-        <v>348</v>
+        <v>272</v>
       </c>
       <c r="S66" t="s">
         <v>135</v>
@@ -4657,7 +5516,7 @@
     </row>
     <row r="67">
       <c r="E67" t="s">
-        <v>317</v>
+        <v>356</v>
       </c>
       <c r="S67" t="s">
         <v>136</v>
@@ -4665,7 +5524,7 @@
     </row>
     <row r="68">
       <c r="E68" t="s">
-        <v>272</v>
+        <v>318</v>
       </c>
       <c r="S68" t="s">
         <v>137</v>
@@ -4673,7 +5532,7 @@
     </row>
     <row r="69">
       <c r="E69" t="s">
-        <v>356</v>
+        <v>414</v>
       </c>
       <c r="S69" t="s">
         <v>138</v>
@@ -4681,7 +5540,7 @@
     </row>
     <row r="70">
       <c r="E70" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="S70" t="s">
         <v>139</v>
@@ -4689,7 +5548,7 @@
     </row>
     <row r="71">
       <c r="E71" t="s">
-        <v>308</v>
+        <v>415</v>
       </c>
       <c r="S71" t="s">
         <v>193</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro.xlsx
@@ -17,33 +17,36 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$31</definedName>
+    <definedName name="base">'#system'!$C$2:$C$33</definedName>
     <definedName name="csv">'#system'!$D$2:$D$4</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$E$2:$E$91</definedName>
+    <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
     <definedName name="excel">'#system'!$F$2:$F$8</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$21</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$11</definedName>
+    <definedName name="json">'#system'!$K$2:$K$12</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$M$2:$M$14</definedName>
+    <definedName name="number">'#system'!$M$2:$M$15</definedName>
     <definedName name="pdf">'#system'!$N$2:$N$16</definedName>
-    <definedName name="rdbms">'#system'!$O$2:$O$6</definedName>
-    <definedName name="ssh">'#system'!$Q$2:$Q$9</definedName>
-    <definedName name="target">'#system'!$A$2:$A$23</definedName>
-    <definedName name="web">'#system'!$S$2:$S$108</definedName>
-    <definedName name="webalert">'#system'!$T$2:$T$6</definedName>
-    <definedName name="webcookie">'#system'!$U$2:$U$8</definedName>
-    <definedName name="ws">'#system'!$V$2:$V$16</definedName>
-    <definedName name="xml">'#system'!$W$2:$W$11</definedName>
-    <definedName name="step">'#system'!$R$2:$R$4</definedName>
+    <definedName name="rdbms">'#system'!$O$2:$O$7</definedName>
+    <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
+    <definedName name="target">'#system'!$A$2:$A$26</definedName>
+    <definedName name="web">'#system'!$U$2:$U$111</definedName>
+    <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
+    <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
+    <definedName name="ws">'#system'!$X$2:$X$16</definedName>
+    <definedName name="xml">'#system'!$Z$2:$Z$11</definedName>
+    <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="redis">'#system'!$P$2:$P$10</definedName>
+    <definedName name="sms">'#system'!$Q$2:$Q$2</definedName>
+    <definedName name="sound">'#system'!$R$2:$R$5</definedName>
+    <definedName name="ws.async">'#system'!$Y$2:$Y$8</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
   <extLst>
@@ -58,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2904" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6472" uniqueCount="445">
   <si>
     <t>description</t>
   </si>
@@ -1309,6 +1312,90 @@
   </si>
   <si>
     <t>assertBetween(num,min,max)</t>
+  </si>
+  <si>
+    <t>sms</t>
+  </si>
+  <si>
+    <t>sound</t>
+  </si>
+  <si>
+    <t>ws.async</t>
+  </si>
+  <si>
+    <t>clear(vars)</t>
+  </si>
+  <si>
+    <t>section(steps)</t>
+  </si>
+  <si>
+    <t>sendKeysToTextBox(name,text1,text2,text3,text4)</t>
+  </si>
+  <si>
+    <t>addOrReplace(json,jsonpath,input,var)</t>
+  </si>
+  <si>
+    <t>send(profile,to,subject,body)</t>
+  </si>
+  <si>
+    <t>assertBetween(num,minNum,maxNum)</t>
+  </si>
+  <si>
+    <t>assertEqual(num1,num2)</t>
+  </si>
+  <si>
+    <t>decrement(var,amount)</t>
+  </si>
+  <si>
+    <t>saveResults(db,sqls,outputDir)</t>
+  </si>
+  <si>
+    <t>sendText(phones,text)</t>
+  </si>
+  <si>
+    <t>laser(repeats)</t>
+  </si>
+  <si>
+    <t>play(audio)</t>
+  </si>
+  <si>
+    <t>speak(text)</t>
+  </si>
+  <si>
+    <t>speakNoWait(text)</t>
+  </si>
+  <si>
+    <t>assertTextMatches(text,minMatch,scrollTo)</t>
+  </si>
+  <si>
+    <t>jsSelect(locator,text)</t>
+  </si>
+  <si>
+    <t>savePageAsFile(sessionIdName,url,file)</t>
+  </si>
+  <si>
+    <t>saveTableAsCsv(locator,file)</t>
+  </si>
+  <si>
+    <t>delete(url,body,output)</t>
+  </si>
+  <si>
+    <t>get(url,queryString,output)</t>
+  </si>
+  <si>
+    <t>head(url,output)</t>
+  </si>
+  <si>
+    <t>patch(url,body,output)</t>
+  </si>
+  <si>
+    <t>post(url,body,output)</t>
+  </si>
+  <si>
+    <t>put(url,body,output)</t>
+  </si>
+  <si>
+    <t>saveTableAsCsv(locator,nextPageLocator,file)</t>
   </si>
 </sst>
 </file>
@@ -1316,7 +1403,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="80">
+  <fonts count="200">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1821,8 +1908,760 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="129">
+  <fills count="345">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2549,8 +3388,1232 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="122">
+  <borders count="346">
     <border>
       <left/>
       <right/>
@@ -3737,13 +5800,2269 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="211">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3986,40 +8305,400 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="67" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="110" borderId="109" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="109" fillId="110" fontId="68" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="69" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="113" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="113" fontId="70" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="71" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="116" borderId="113" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="113" fillId="116" fontId="72" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="119" borderId="117" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="117" fillId="119" fontId="73" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="122" borderId="121" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="121" fillId="122" fontId="74" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="122" borderId="121" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="121" fillId="122" fontId="75" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="125" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="125" fontId="76" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="128" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="128" fontId="77" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="125" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="125" fontId="78" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="79" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="129" fillId="131" fontId="80" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="81" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="133" fillId="134" fontId="82" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="137" fillId="137" fontId="83" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="84" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="140" fontId="85" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="86" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="141" fillId="143" fontId="87" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="145" fillId="146" fontId="88" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="149" fillId="149" fontId="89" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="149" fillId="149" fontId="90" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="152" fontId="91" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="155" fontId="92" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="152" fontId="93" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="94" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="157" fillId="158" fontId="95" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="96" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="161" fillId="161" fontId="97" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="165" fillId="164" fontId="98" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="99" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="167" fontId="100" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="101" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="169" fillId="170" fontId="102" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="173" fillId="173" fontId="103" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="177" fillId="176" fontId="104" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="177" fillId="176" fontId="105" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="179" fontId="106" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="182" fontId="107" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="179" fontId="108" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="109" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="185" fillId="185" fontId="110" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="111" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="189" fillId="188" fontId="112" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="193" fillId="191" fontId="113" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="114" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="194" fontId="115" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="116" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="197" fillId="197" fontId="117" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="201" fillId="200" fontId="118" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="205" fillId="203" fontId="119" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="205" fillId="203" fontId="120" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="206" fontId="121" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="209" fontId="122" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="206" fontId="123" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="124" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="213" fillId="212" fontId="125" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="126" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="217" fillId="215" fontId="127" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="221" fillId="218" fontId="128" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="129" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="221" fontId="130" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="131" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="225" fillId="224" fontId="132" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="229" fillId="227" fontId="133" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="233" fillId="230" fontId="134" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="233" fillId="230" fontId="135" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="233" fontId="136" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="236" fontId="137" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="233" fontId="138" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="139" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="241" fillId="239" fontId="140" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="141" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="245" fillId="242" fontId="142" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="249" fillId="245" fontId="143" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="144" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="248" fontId="145" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="146" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="253" fillId="251" fontId="147" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="257" fillId="254" fontId="148" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="261" fillId="257" fontId="149" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="261" fillId="257" fontId="150" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="260" fontId="151" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="263" fontId="152" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="260" fontId="153" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="154" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="269" fillId="266" fontId="155" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="156" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="273" fillId="269" fontId="157" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="277" fillId="272" fontId="158" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="159" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="275" fontId="160" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="161" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="281" fillId="278" fontId="162" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="285" fillId="281" fontId="163" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="289" fillId="284" fontId="164" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="289" fillId="284" fontId="165" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="287" fontId="166" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="290" fontId="167" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="287" fontId="168" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="169" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="297" fillId="293" fontId="170" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="171" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="301" fillId="296" fontId="172" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="305" fillId="299" fontId="173" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="174" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="302" fontId="175" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="176" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="309" fillId="305" fontId="177" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="313" fillId="308" fontId="178" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="317" fillId="311" fontId="179" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="317" fillId="311" fontId="180" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="314" fontId="181" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="317" fontId="182" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="314" fontId="183" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="184" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="185" fillId="320" borderId="325" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="186" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="187" fillId="323" borderId="329" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="188" fillId="326" borderId="333" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="189" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="190" fillId="329" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="192" fillId="332" borderId="337" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="335" borderId="341" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="194" fillId="338" borderId="345" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="195" fillId="338" borderId="345" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="196" fillId="341" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="344" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="198" fillId="341" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="199" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4317,7 +8996,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X108"/>
+  <dimension ref="A1:AA111"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -4376,24 +9055,33 @@
         <v>404</v>
       </c>
       <c r="Q1" t="s">
+        <v>417</v>
+      </c>
+      <c r="R1" t="s">
+        <v>418</v>
+      </c>
+      <c r="S1" t="s">
         <v>362</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>400</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>46</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>47</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>48</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>49</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Z1" t="s">
         <v>220</v>
       </c>
     </row>
@@ -4429,13 +9117,13 @@
         <v>389</v>
       </c>
       <c r="K2" t="s">
-        <v>78</v>
+        <v>423</v>
       </c>
       <c r="L2" t="s">
-        <v>190</v>
+        <v>424</v>
       </c>
       <c r="M2" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="N2" t="s">
         <v>246</v>
@@ -4447,24 +9135,33 @@
         <v>405</v>
       </c>
       <c r="Q2" t="s">
+        <v>429</v>
+      </c>
+      <c r="R2" t="s">
+        <v>430</v>
+      </c>
+      <c r="S2" t="s">
         <v>386</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>401</v>
       </c>
-      <c r="S2" t="s">
+      <c r="U2" t="s">
         <v>89</v>
       </c>
-      <c r="T2" t="s">
+      <c r="V2" t="s">
         <v>164</v>
       </c>
-      <c r="U2" t="s">
+      <c r="W2" t="s">
         <v>169</v>
       </c>
-      <c r="V2" t="s">
+      <c r="X2" t="s">
         <v>176</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Y2" t="s">
+        <v>438</v>
+      </c>
+      <c r="Z2" t="s">
         <v>221</v>
       </c>
     </row>
@@ -4500,10 +9197,10 @@
         <v>337</v>
       </c>
       <c r="K3" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="M3" t="s">
-        <v>319</v>
+        <v>426</v>
       </c>
       <c r="N3" t="s">
         <v>233</v>
@@ -4514,25 +9211,31 @@
       <c r="P3" t="s">
         <v>406</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
+        <v>431</v>
+      </c>
+      <c r="S3" t="s">
         <v>387</v>
       </c>
-      <c r="R3" t="s">
+      <c r="T3" t="s">
         <v>402</v>
       </c>
-      <c r="S3" t="s">
+      <c r="U3" t="s">
         <v>90</v>
       </c>
-      <c r="T3" t="s">
+      <c r="V3" t="s">
         <v>165</v>
       </c>
-      <c r="U3" t="s">
+      <c r="W3" t="s">
         <v>170</v>
       </c>
-      <c r="V3" t="s">
+      <c r="X3" t="s">
         <v>369</v>
       </c>
-      <c r="W3" t="s">
+      <c r="Y3" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z3" t="s">
         <v>222</v>
       </c>
     </row>
@@ -4565,7 +9268,7 @@
         <v>338</v>
       </c>
       <c r="K4" t="s">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="M4" t="s">
         <v>19</v>
@@ -4579,25 +9282,31 @@
       <c r="P4" t="s">
         <v>407</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
+        <v>432</v>
+      </c>
+      <c r="S4" t="s">
         <v>363</v>
       </c>
-      <c r="R4" t="s">
+      <c r="T4" t="s">
         <v>403</v>
       </c>
-      <c r="S4" t="s">
+      <c r="U4" t="s">
         <v>357</v>
       </c>
-      <c r="T4" t="s">
+      <c r="V4" t="s">
         <v>166</v>
       </c>
-      <c r="U4" t="s">
+      <c r="W4" t="s">
         <v>171</v>
       </c>
-      <c r="V4" t="s">
+      <c r="X4" t="s">
         <v>177</v>
       </c>
-      <c r="W4" t="s">
+      <c r="Y4" t="s">
+        <v>439</v>
+      </c>
+      <c r="Z4" t="s">
         <v>223</v>
       </c>
     </row>
@@ -4624,7 +9333,7 @@
         <v>64</v>
       </c>
       <c r="K5" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="M5" t="s">
         <v>23</v>
@@ -4638,22 +9347,28 @@
       <c r="P5" t="s">
         <v>408</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
+        <v>433</v>
+      </c>
+      <c r="S5" t="s">
         <v>364</v>
       </c>
-      <c r="S5" t="s">
+      <c r="U5" t="s">
         <v>358</v>
       </c>
-      <c r="T5" t="s">
+      <c r="V5" t="s">
         <v>167</v>
       </c>
-      <c r="U5" t="s">
+      <c r="W5" t="s">
         <v>172</v>
       </c>
-      <c r="V5" t="s">
+      <c r="X5" t="s">
         <v>178</v>
       </c>
-      <c r="W5" t="s">
+      <c r="Y5" t="s">
+        <v>440</v>
+      </c>
+      <c r="Z5" t="s">
         <v>224</v>
       </c>
     </row>
@@ -4677,7 +9392,7 @@
         <v>12</v>
       </c>
       <c r="K6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="M6" t="s">
         <v>24</v>
@@ -4691,22 +9406,25 @@
       <c r="P6" t="s">
         <v>409</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="S6" t="s">
         <v>366</v>
       </c>
-      <c r="S6" t="s">
+      <c r="U6" t="s">
         <v>91</v>
       </c>
-      <c r="T6" t="s">
+      <c r="V6" t="s">
         <v>168</v>
       </c>
-      <c r="U6" t="s">
+      <c r="W6" t="s">
         <v>173</v>
       </c>
-      <c r="V6" t="s">
+      <c r="X6" t="s">
         <v>179</v>
       </c>
-      <c r="W6" t="s">
+      <c r="Y6" t="s">
+        <v>441</v>
+      </c>
+      <c r="Z6" t="s">
         <v>225</v>
       </c>
     </row>
@@ -4730,7 +9448,7 @@
         <v>72</v>
       </c>
       <c r="K7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M7" t="s">
         <v>26</v>
@@ -4738,22 +9456,28 @@
       <c r="N7" t="s">
         <v>237</v>
       </c>
+      <c r="O7" t="s">
+        <v>428</v>
+      </c>
       <c r="P7" t="s">
         <v>410</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="S7" t="s">
         <v>365</v>
       </c>
-      <c r="S7" t="s">
+      <c r="U7" t="s">
         <v>92</v>
       </c>
-      <c r="U7" t="s">
+      <c r="W7" t="s">
         <v>174</v>
       </c>
-      <c r="V7" t="s">
+      <c r="X7" t="s">
         <v>180</v>
       </c>
-      <c r="W7" t="s">
+      <c r="Y7" t="s">
+        <v>442</v>
+      </c>
+      <c r="Z7" t="s">
         <v>226</v>
       </c>
     </row>
@@ -4777,7 +9501,7 @@
         <v>31</v>
       </c>
       <c r="K8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M8" t="s">
         <v>83</v>
@@ -4788,19 +9512,22 @@
       <c r="P8" t="s">
         <v>411</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="S8" t="s">
         <v>367</v>
       </c>
-      <c r="S8" t="s">
+      <c r="U8" t="s">
         <v>93</v>
       </c>
-      <c r="U8" t="s">
+      <c r="W8" t="s">
         <v>175</v>
       </c>
-      <c r="V8" t="s">
+      <c r="X8" t="s">
         <v>181</v>
       </c>
-      <c r="W8" t="s">
+      <c r="Y8" t="s">
+        <v>443</v>
+      </c>
+      <c r="Z8" t="s">
         <v>227</v>
       </c>
     </row>
@@ -4821,7 +9548,7 @@
         <v>395</v>
       </c>
       <c r="K9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M9" t="s">
         <v>84</v>
@@ -4832,16 +9559,16 @@
       <c r="P9" t="s">
         <v>412</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="S9" t="s">
         <v>368</v>
       </c>
-      <c r="S9" t="s">
+      <c r="U9" t="s">
         <v>203</v>
       </c>
-      <c r="V9" t="s">
+      <c r="X9" t="s">
         <v>182</v>
       </c>
-      <c r="W9" t="s">
+      <c r="Z9" t="s">
         <v>228</v>
       </c>
     </row>
@@ -4859,10 +9586,10 @@
         <v>13</v>
       </c>
       <c r="K10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M10" t="s">
-        <v>85</v>
+        <v>427</v>
       </c>
       <c r="N10" t="s">
         <v>240</v>
@@ -4870,13 +9597,13 @@
       <c r="P10" t="s">
         <v>413</v>
       </c>
-      <c r="S10" t="s">
+      <c r="U10" t="s">
         <v>260</v>
       </c>
-      <c r="V10" t="s">
+      <c r="X10" t="s">
         <v>183</v>
       </c>
-      <c r="W10" t="s">
+      <c r="Z10" t="s">
         <v>229</v>
       </c>
     </row>
@@ -4894,21 +9621,21 @@
         <v>35</v>
       </c>
       <c r="K11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M11" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="N11" t="s">
         <v>241</v>
       </c>
-      <c r="S11" t="s">
+      <c r="U11" t="s">
         <v>261</v>
       </c>
-      <c r="V11" t="s">
+      <c r="X11" t="s">
         <v>262</v>
       </c>
-      <c r="W11" t="s">
+      <c r="Z11" t="s">
         <v>230</v>
       </c>
     </row>
@@ -4925,16 +9652,19 @@
       <c r="I12" t="s">
         <v>73</v>
       </c>
+      <c r="K12" t="s">
+        <v>36</v>
+      </c>
       <c r="M12" t="s">
-        <v>86</v>
+        <v>34</v>
       </c>
       <c r="N12" t="s">
         <v>242</v>
       </c>
-      <c r="S12" t="s">
+      <c r="U12" t="s">
         <v>94</v>
       </c>
-      <c r="V12" t="s">
+      <c r="X12" t="s">
         <v>184</v>
       </c>
     </row>
@@ -4952,15 +9682,15 @@
         <v>74</v>
       </c>
       <c r="M13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N13" t="s">
         <v>247</v>
       </c>
-      <c r="S13" t="s">
+      <c r="U13" t="s">
         <v>329</v>
       </c>
-      <c r="V13" t="s">
+      <c r="X13" t="s">
         <v>185</v>
       </c>
     </row>
@@ -4978,15 +9708,15 @@
         <v>75</v>
       </c>
       <c r="M14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N14" t="s">
         <v>243</v>
       </c>
-      <c r="S14" t="s">
+      <c r="U14" t="s">
         <v>95</v>
       </c>
-      <c r="V14" t="s">
+      <c r="X14" t="s">
         <v>186</v>
       </c>
     </row>
@@ -5003,13 +9733,16 @@
       <c r="I15" t="s">
         <v>76</v>
       </c>
+      <c r="M15" t="s">
+        <v>88</v>
+      </c>
       <c r="N15" t="s">
         <v>244</v>
       </c>
-      <c r="S15" t="s">
+      <c r="U15" t="s">
         <v>96</v>
       </c>
-      <c r="V15" t="s">
+      <c r="X15" t="s">
         <v>187</v>
       </c>
     </row>
@@ -5018,7 +9751,7 @@
         <v>404</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>420</v>
       </c>
       <c r="E16" t="s">
         <v>321</v>
@@ -5029,19 +9762,19 @@
       <c r="N16" t="s">
         <v>245</v>
       </c>
-      <c r="S16" t="s">
+      <c r="U16" t="s">
         <v>67</v>
       </c>
-      <c r="V16" t="s">
+      <c r="X16" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>362</v>
+        <v>417</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" t="s">
         <v>81</v>
@@ -5049,16 +9782,16 @@
       <c r="I17" t="s">
         <v>37</v>
       </c>
-      <c r="S17" t="s">
+      <c r="U17" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>400</v>
+        <v>418</v>
       </c>
       <c r="C18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E18" t="s">
         <v>82</v>
@@ -5066,16 +9799,16 @@
       <c r="I18" t="s">
         <v>397</v>
       </c>
-      <c r="S18" t="s">
+      <c r="U18" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>362</v>
       </c>
       <c r="C19" t="s">
-        <v>324</v>
+        <v>54</v>
       </c>
       <c r="E19" t="s">
         <v>299</v>
@@ -5083,16 +9816,16 @@
       <c r="I19" t="s">
         <v>77</v>
       </c>
-      <c r="S19" t="s">
+      <c r="U19" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>400</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>324</v>
       </c>
       <c r="E20" t="s">
         <v>300</v>
@@ -5100,16 +9833,16 @@
       <c r="I20" t="s">
         <v>38</v>
       </c>
-      <c r="S20" t="s">
+      <c r="U20" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>218</v>
+        <v>55</v>
       </c>
       <c r="E21" t="s">
         <v>301</v>
@@ -5117,128 +9850,143 @@
       <c r="I21" t="s">
         <v>39</v>
       </c>
-      <c r="S21" t="s">
+      <c r="U21" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C22" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E22" t="s">
         <v>302</v>
       </c>
-      <c r="S22" t="s">
+      <c r="U22" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>220</v>
+        <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>56</v>
+        <v>219</v>
       </c>
       <c r="E23" t="s">
         <v>293</v>
       </c>
-      <c r="S23" t="s">
+      <c r="U23" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="s">
+        <v>49</v>
+      </c>
       <c r="C24" t="s">
-        <v>57</v>
+        <v>421</v>
       </c>
       <c r="E24" t="s">
         <v>282</v>
       </c>
-      <c r="S24" t="s">
+      <c r="U24" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="s">
+        <v>419</v>
+      </c>
       <c r="C25" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E25" t="s">
         <v>68</v>
       </c>
-      <c r="S25" t="s">
+      <c r="U25" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="s">
+        <v>220</v>
+      </c>
       <c r="C26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E26" t="s">
         <v>285</v>
       </c>
-      <c r="S26" t="s">
+      <c r="U26" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="27">
       <c r="C27" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E27" t="s">
         <v>269</v>
       </c>
-      <c r="S27" t="s">
+      <c r="U27" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="28">
       <c r="C28" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E28" t="s">
         <v>286</v>
       </c>
-      <c r="S28" t="s">
+      <c r="U28" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="29">
       <c r="C29" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E29" t="s">
         <v>287</v>
       </c>
-      <c r="S29" t="s">
+      <c r="U29" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="30">
       <c r="C30" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E30" t="s">
         <v>210</v>
       </c>
-      <c r="S30" t="s">
+      <c r="U30" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="31">
+      <c r="C31" t="s">
+        <v>62</v>
+      </c>
       <c r="E31" t="s">
         <v>278</v>
       </c>
-      <c r="S31" t="s">
+      <c r="U31" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="32">
+      <c r="C32" t="s">
+        <v>63</v>
+      </c>
       <c r="E32" t="s">
         <v>288</v>
       </c>
-      <c r="S32" t="s">
+      <c r="U32" t="s">
         <v>111</v>
       </c>
     </row>
@@ -5246,7 +9994,7 @@
       <c r="E33" t="s">
         <v>263</v>
       </c>
-      <c r="S33" t="s">
+      <c r="U33" t="s">
         <v>112</v>
       </c>
     </row>
@@ -5254,7 +10002,7 @@
       <c r="E34" t="s">
         <v>333</v>
       </c>
-      <c r="S34" t="s">
+      <c r="U34" t="s">
         <v>204</v>
       </c>
     </row>
@@ -5262,7 +10010,7 @@
       <c r="E35" t="s">
         <v>311</v>
       </c>
-      <c r="S35" t="s">
+      <c r="U35" t="s">
         <v>113</v>
       </c>
     </row>
@@ -5270,7 +10018,7 @@
       <c r="E36" t="s">
         <v>264</v>
       </c>
-      <c r="S36" t="s">
+      <c r="U36" t="s">
         <v>341</v>
       </c>
     </row>
@@ -5278,524 +10026,542 @@
       <c r="E37" t="s">
         <v>312</v>
       </c>
-      <c r="S37" t="s">
-        <v>399</v>
+      <c r="U37" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="38">
       <c r="E38" t="s">
         <v>270</v>
       </c>
-      <c r="S38" t="s">
-        <v>114</v>
+      <c r="U38" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="39">
       <c r="E39" t="s">
         <v>70</v>
       </c>
-      <c r="S39" t="s">
-        <v>115</v>
+      <c r="U39" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="40">
       <c r="E40" t="s">
         <v>206</v>
       </c>
-      <c r="S40" t="s">
-        <v>116</v>
+      <c r="U40" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="41">
       <c r="E41" t="s">
         <v>292</v>
       </c>
-      <c r="S41" t="s">
-        <v>117</v>
+      <c r="U41" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="42">
       <c r="E42" t="s">
         <v>303</v>
       </c>
-      <c r="S42" t="s">
-        <v>118</v>
+      <c r="U42" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="43">
       <c r="E43" t="s">
         <v>304</v>
       </c>
-      <c r="S43" t="s">
-        <v>119</v>
+      <c r="U43" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="44">
       <c r="E44" t="s">
         <v>346</v>
       </c>
-      <c r="S44" t="s">
-        <v>207</v>
+      <c r="U44" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="45">
       <c r="E45" t="s">
         <v>345</v>
       </c>
-      <c r="S45" t="s">
-        <v>69</v>
+      <c r="U45" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="46">
       <c r="E46" t="s">
         <v>205</v>
       </c>
-      <c r="S46" t="s">
-        <v>120</v>
+      <c r="U46" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="47">
       <c r="E47" t="s">
         <v>305</v>
       </c>
-      <c r="S47" t="s">
-        <v>121</v>
+      <c r="U47" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="48">
       <c r="E48" t="s">
         <v>342</v>
       </c>
-      <c r="S48" t="s">
-        <v>122</v>
+      <c r="U48" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="49">
       <c r="E49" t="s">
         <v>373</v>
       </c>
-      <c r="S49" t="s">
-        <v>123</v>
+      <c r="U49" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="50">
       <c r="E50" t="s">
         <v>306</v>
       </c>
-      <c r="S50" t="s">
-        <v>349</v>
+      <c r="U50" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="51">
       <c r="E51" t="s">
         <v>359</v>
       </c>
-      <c r="S51" t="s">
-        <v>124</v>
+      <c r="U51" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="52">
       <c r="E52" t="s">
         <v>334</v>
       </c>
-      <c r="S52" t="s">
-        <v>125</v>
+      <c r="U52" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="53">
       <c r="E53" t="s">
         <v>271</v>
       </c>
-      <c r="S53" t="s">
-        <v>126</v>
+      <c r="U53" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="54">
       <c r="E54" t="s">
         <v>295</v>
       </c>
-      <c r="S54" t="s">
-        <v>127</v>
+      <c r="U54" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="55">
       <c r="E55" t="s">
         <v>296</v>
       </c>
-      <c r="S55" t="s">
-        <v>128</v>
+      <c r="U55" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="56">
       <c r="E56" t="s">
         <v>297</v>
       </c>
-      <c r="S56" t="s">
-        <v>129</v>
+      <c r="U56" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="57">
       <c r="E57" t="s">
         <v>307</v>
       </c>
-      <c r="S57" t="s">
-        <v>130</v>
+      <c r="U57" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="58">
       <c r="E58" t="s">
         <v>316</v>
       </c>
-      <c r="S58" t="s">
-        <v>208</v>
+      <c r="U58" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="59">
       <c r="E59" t="s">
         <v>340</v>
       </c>
-      <c r="S59" t="s">
-        <v>394</v>
+      <c r="U59" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="60">
       <c r="E60" t="s">
         <v>313</v>
       </c>
-      <c r="S60" t="s">
-        <v>131</v>
+      <c r="U60" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="61">
       <c r="E61" t="s">
         <v>314</v>
       </c>
-      <c r="S61" t="s">
-        <v>132</v>
+      <c r="U61" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="62">
       <c r="E62" t="s">
         <v>374</v>
       </c>
-      <c r="S62" t="s">
-        <v>133</v>
+      <c r="U62" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="63">
       <c r="E63" t="s">
         <v>375</v>
       </c>
-      <c r="S63" t="s">
-        <v>134</v>
+      <c r="U63" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="64">
       <c r="E64" t="s">
         <v>348</v>
       </c>
-      <c r="S64" t="s">
-        <v>191</v>
+      <c r="U64" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="65">
       <c r="E65" t="s">
         <v>317</v>
       </c>
-      <c r="S65" t="s">
-        <v>192</v>
+      <c r="U65" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="66">
       <c r="E66" t="s">
         <v>272</v>
       </c>
-      <c r="S66" t="s">
-        <v>135</v>
+      <c r="U66" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="67">
       <c r="E67" t="s">
         <v>356</v>
       </c>
-      <c r="S67" t="s">
-        <v>136</v>
+      <c r="U67" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="68">
       <c r="E68" t="s">
         <v>318</v>
       </c>
-      <c r="S68" t="s">
-        <v>137</v>
+      <c r="U68" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="69">
       <c r="E69" t="s">
         <v>414</v>
       </c>
-      <c r="S69" t="s">
-        <v>138</v>
+      <c r="U69" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="70">
       <c r="E70" t="s">
         <v>308</v>
       </c>
-      <c r="S70" t="s">
-        <v>139</v>
+      <c r="U70" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="71">
       <c r="E71" t="s">
         <v>415</v>
       </c>
-      <c r="S71" t="s">
-        <v>193</v>
+      <c r="U71" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="72">
       <c r="E72" t="s">
         <v>265</v>
       </c>
-      <c r="S72" t="s">
-        <v>194</v>
+      <c r="U72" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="73">
       <c r="E73" t="s">
         <v>347</v>
       </c>
-      <c r="S73" t="s">
-        <v>195</v>
+      <c r="U73" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="74">
       <c r="E74" t="s">
         <v>283</v>
       </c>
-      <c r="S74" t="s">
-        <v>196</v>
+      <c r="U74" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="75">
       <c r="E75" t="s">
         <v>289</v>
       </c>
-      <c r="S75" t="s">
-        <v>209</v>
+      <c r="U75" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="76">
       <c r="E76" t="s">
         <v>294</v>
       </c>
-      <c r="S76" t="s">
-        <v>140</v>
+      <c r="U76" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="77">
       <c r="E77" t="s">
-        <v>335</v>
-      </c>
-      <c r="S77" t="s">
-        <v>197</v>
+        <v>422</v>
+      </c>
+      <c r="U77" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="78">
       <c r="E78" t="s">
-        <v>273</v>
-      </c>
-      <c r="S78" t="s">
-        <v>141</v>
+        <v>335</v>
+      </c>
+      <c r="U78" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="79">
       <c r="E79" t="s">
-        <v>284</v>
-      </c>
-      <c r="S79" t="s">
-        <v>198</v>
+        <v>273</v>
+      </c>
+      <c r="U79" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="80">
       <c r="E80" t="s">
-        <v>290</v>
-      </c>
-      <c r="S80" t="s">
-        <v>199</v>
+        <v>284</v>
+      </c>
+      <c r="U80" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="81">
       <c r="E81" t="s">
-        <v>279</v>
-      </c>
-      <c r="S81" t="s">
-        <v>200</v>
+        <v>290</v>
+      </c>
+      <c r="U81" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="82">
       <c r="E82" t="s">
-        <v>274</v>
-      </c>
-      <c r="S82" t="s">
-        <v>201</v>
+        <v>279</v>
+      </c>
+      <c r="U82" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="83">
       <c r="E83" t="s">
-        <v>291</v>
-      </c>
-      <c r="S83" t="s">
-        <v>216</v>
+        <v>274</v>
+      </c>
+      <c r="U83" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="84">
       <c r="E84" t="s">
-        <v>275</v>
-      </c>
-      <c r="S84" t="s">
-        <v>202</v>
+        <v>291</v>
+      </c>
+      <c r="U84" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="85">
       <c r="E85" t="s">
-        <v>276</v>
-      </c>
-      <c r="S85" t="s">
-        <v>142</v>
+        <v>275</v>
+      </c>
+      <c r="U85" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="86">
       <c r="E86" t="s">
-        <v>309</v>
-      </c>
-      <c r="S86" t="s">
-        <v>388</v>
+        <v>276</v>
+      </c>
+      <c r="U86" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="87">
       <c r="E87" t="s">
-        <v>315</v>
-      </c>
-      <c r="S87" t="s">
-        <v>143</v>
+        <v>309</v>
+      </c>
+      <c r="U87" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="88">
       <c r="E88" t="s">
-        <v>298</v>
-      </c>
-      <c r="S88" t="s">
-        <v>144</v>
+        <v>315</v>
+      </c>
+      <c r="U88" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="89">
       <c r="E89" t="s">
-        <v>343</v>
-      </c>
-      <c r="S89" t="s">
-        <v>145</v>
+        <v>298</v>
+      </c>
+      <c r="U89" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="90">
       <c r="E90" t="s">
-        <v>280</v>
-      </c>
-      <c r="S90" t="s">
-        <v>146</v>
+        <v>343</v>
+      </c>
+      <c r="U90" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="91">
       <c r="E91" t="s">
+        <v>280</v>
+      </c>
+      <c r="U91" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="E92" t="s">
         <v>281</v>
       </c>
-      <c r="S91" t="s">
+      <c r="U92" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="U93" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="U94" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="92">
-      <c r="S92" t="s">
+    <row r="95">
+      <c r="U95" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="93">
-      <c r="S93" t="s">
+    <row r="96">
+      <c r="U96" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="94">
-      <c r="S94" t="s">
+    <row r="97">
+      <c r="U97" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="95">
-      <c r="S95" t="s">
+    <row r="98">
+      <c r="U98" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="96">
-      <c r="S96" t="s">
+    <row r="99">
+      <c r="U99" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="97">
-      <c r="S97" t="s">
+    <row r="100">
+      <c r="U100" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="98">
-      <c r="S98" t="s">
+    <row r="101">
+      <c r="U101" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="99">
-      <c r="S99" t="s">
+    <row r="102">
+      <c r="U102" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="100">
-      <c r="S100" t="s">
+    <row r="103">
+      <c r="U103" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="101">
-      <c r="S101" t="s">
+    <row r="104">
+      <c r="U104" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="102">
-      <c r="S102" t="s">
+    <row r="105">
+      <c r="U105" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="103">
-      <c r="S103" t="s">
+    <row r="106">
+      <c r="U106" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="104">
-      <c r="S104" t="s">
+    <row r="107">
+      <c r="U107" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="105">
-      <c r="S105" t="s">
+    <row r="108">
+      <c r="U108" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="106">
-      <c r="S106" t="s">
+    <row r="109">
+      <c r="U109" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="107">
-      <c r="S107" t="s">
+    <row r="110">
+      <c r="U110" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="108">
-      <c r="S108" t="s">
+    <row r="111">
+      <c r="U111" t="s">
         <v>163</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro.xlsx
@@ -37,7 +37,7 @@
     <definedName name="rdbms">'#system'!$O$2:$O$7</definedName>
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$111</definedName>
+    <definedName name="web">'#system'!$U$2:$U$112</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6472" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6919" uniqueCount="446">
   <si>
     <t>description</t>
   </si>
@@ -1396,6 +1396,9 @@
   </si>
   <si>
     <t>saveTableAsCsv(locator,nextPageLocator,file)</t>
+  </si>
+  <si>
+    <t>dragAndDrop(fromLocator,toLocator)</t>
   </si>
 </sst>
 </file>
@@ -1403,7 +1406,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="200">
+  <fonts count="215">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2660,8 +2663,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="345">
+  <fills count="372">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4612,8 +4709,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="346">
+  <borders count="374">
     <border>
       <left/>
       <right/>
@@ -8056,13 +8306,295 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="211">
+  <cellXfs count="226">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -8656,49 +9188,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="184" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="185" fillId="320" borderId="325" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="325" fillId="320" fontId="185" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="186" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="186" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="187" fillId="323" borderId="329" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="329" fillId="323" fontId="187" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="188" fillId="326" borderId="333" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="333" fillId="326" fontId="188" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="189" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="189" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="190" fillId="329" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="329" fontId="190" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="191" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="191" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="192" fillId="332" borderId="337" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="337" fillId="332" fontId="192" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="193" fillId="335" borderId="341" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="341" fillId="335" fontId="193" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="194" fillId="338" borderId="345" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="345" fillId="338" fontId="194" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="195" fillId="338" borderId="345" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="345" fillId="338" fontId="195" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="196" fillId="341" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="341" fontId="196" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="197" fillId="344" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="344" fontId="197" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="198" fillId="341" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="341" fontId="198" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="199" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="199" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="200" fillId="347" borderId="353" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="201" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="202" fillId="350" borderId="357" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="203" fillId="353" borderId="361" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="204" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="205" fillId="356" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="206" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="207" fillId="359" borderId="365" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="208" fillId="362" borderId="369" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="209" fillId="365" borderId="373" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="210" fillId="365" borderId="373" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="211" fillId="368" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="212" fillId="371" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="213" fillId="368" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="214" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8996,7 +9573,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA111"/>
+  <dimension ref="A1:AA112"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -10203,7 +10780,7 @@
         <v>340</v>
       </c>
       <c r="U59" t="s">
-        <v>208</v>
+        <v>445</v>
       </c>
     </row>
     <row r="60">
@@ -10211,7 +10788,7 @@
         <v>313</v>
       </c>
       <c r="U60" t="s">
-        <v>394</v>
+        <v>208</v>
       </c>
     </row>
     <row r="61">
@@ -10219,7 +10796,7 @@
         <v>314</v>
       </c>
       <c r="U61" t="s">
-        <v>131</v>
+        <v>394</v>
       </c>
     </row>
     <row r="62">
@@ -10227,7 +10804,7 @@
         <v>374</v>
       </c>
       <c r="U62" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="63">
@@ -10235,7 +10812,7 @@
         <v>375</v>
       </c>
       <c r="U63" t="s">
-        <v>435</v>
+        <v>132</v>
       </c>
     </row>
     <row r="64">
@@ -10243,7 +10820,7 @@
         <v>348</v>
       </c>
       <c r="U64" t="s">
-        <v>133</v>
+        <v>435</v>
       </c>
     </row>
     <row r="65">
@@ -10251,7 +10828,7 @@
         <v>317</v>
       </c>
       <c r="U65" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="66">
@@ -10259,7 +10836,7 @@
         <v>272</v>
       </c>
       <c r="U66" t="s">
-        <v>191</v>
+        <v>134</v>
       </c>
     </row>
     <row r="67">
@@ -10267,7 +10844,7 @@
         <v>356</v>
       </c>
       <c r="U67" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="68">
@@ -10275,7 +10852,7 @@
         <v>318</v>
       </c>
       <c r="U68" t="s">
-        <v>135</v>
+        <v>192</v>
       </c>
     </row>
     <row r="69">
@@ -10283,7 +10860,7 @@
         <v>414</v>
       </c>
       <c r="U69" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="70">
@@ -10291,7 +10868,7 @@
         <v>308</v>
       </c>
       <c r="U70" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="71">
@@ -10299,7 +10876,7 @@
         <v>415</v>
       </c>
       <c r="U71" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="72">
@@ -10307,7 +10884,7 @@
         <v>265</v>
       </c>
       <c r="U72" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="73">
@@ -10315,7 +10892,7 @@
         <v>347</v>
       </c>
       <c r="U73" t="s">
-        <v>193</v>
+        <v>139</v>
       </c>
     </row>
     <row r="74">
@@ -10323,7 +10900,7 @@
         <v>283</v>
       </c>
       <c r="U74" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="75">
@@ -10331,7 +10908,7 @@
         <v>289</v>
       </c>
       <c r="U75" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="76">
@@ -10339,7 +10916,7 @@
         <v>294</v>
       </c>
       <c r="U76" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="77">
@@ -10347,7 +10924,7 @@
         <v>422</v>
       </c>
       <c r="U77" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
     </row>
     <row r="78">
@@ -10355,7 +10932,7 @@
         <v>335</v>
       </c>
       <c r="U78" t="s">
-        <v>140</v>
+        <v>209</v>
       </c>
     </row>
     <row r="79">
@@ -10363,7 +10940,7 @@
         <v>273</v>
       </c>
       <c r="U79" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
     </row>
     <row r="80">
@@ -10371,7 +10948,7 @@
         <v>284</v>
       </c>
       <c r="U80" t="s">
-        <v>436</v>
+        <v>197</v>
       </c>
     </row>
     <row r="81">
@@ -10379,7 +10956,7 @@
         <v>290</v>
       </c>
       <c r="U81" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
     </row>
     <row r="82">
@@ -10387,7 +10964,7 @@
         <v>279</v>
       </c>
       <c r="U82" t="s">
-        <v>198</v>
+        <v>444</v>
       </c>
     </row>
     <row r="83">
@@ -10395,7 +10972,7 @@
         <v>274</v>
       </c>
       <c r="U83" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="84">
@@ -10403,7 +10980,7 @@
         <v>291</v>
       </c>
       <c r="U84" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="85">
@@ -10411,7 +10988,7 @@
         <v>275</v>
       </c>
       <c r="U85" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="86">
@@ -10419,7 +10996,7 @@
         <v>276</v>
       </c>
       <c r="U86" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
     </row>
     <row r="87">
@@ -10427,7 +11004,7 @@
         <v>309</v>
       </c>
       <c r="U87" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
     </row>
     <row r="88">
@@ -10435,7 +11012,7 @@
         <v>315</v>
       </c>
       <c r="U88" t="s">
-        <v>142</v>
+        <v>202</v>
       </c>
     </row>
     <row r="89">
@@ -10443,7 +11020,7 @@
         <v>298</v>
       </c>
       <c r="U89" t="s">
-        <v>388</v>
+        <v>142</v>
       </c>
     </row>
     <row r="90">
@@ -10451,7 +11028,7 @@
         <v>343</v>
       </c>
       <c r="U90" t="s">
-        <v>143</v>
+        <v>388</v>
       </c>
     </row>
     <row r="91">
@@ -10459,7 +11036,7 @@
         <v>280</v>
       </c>
       <c r="U91" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="92">
@@ -10467,101 +11044,106 @@
         <v>281</v>
       </c>
       <c r="U92" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>40</v>
+        <v>159</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>160</v>
+        <v>40</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="U112" t="s">
         <v>163</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro.xlsx
@@ -18,16 +18,16 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="base">'#system'!$C$2:$C$33</definedName>
-    <definedName name="csv">'#system'!$D$2:$D$4</definedName>
+    <definedName name="csv">'#system'!$D$2:$D$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
     <definedName name="excel">'#system'!$F$2:$F$8</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$21</definedName>
+    <definedName name="io">'#system'!$I$2:$I$22</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$12</definedName>
+    <definedName name="json">'#system'!$K$2:$K$13</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -37,8 +37,8 @@
     <definedName name="rdbms">'#system'!$O$2:$O$7</definedName>
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$112</definedName>
-    <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
+    <definedName name="web">'#system'!$U$2:$U$114</definedName>
+    <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
     <definedName name="xml">'#system'!$Z$2:$Z$11</definedName>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6919" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7373" uniqueCount="454">
   <si>
     <t>description</t>
   </si>
@@ -1399,6 +1399,30 @@
   </si>
   <si>
     <t>dragAndDrop(fromLocator,toLocator)</t>
+  </si>
+  <si>
+    <t>fromExcel(excel,worksheet,csvFile)</t>
+  </si>
+  <si>
+    <t>writeFileAsIs(file,content,append)</t>
+  </si>
+  <si>
+    <t>fromCsv(csv,header,jsonFile)</t>
+  </si>
+  <si>
+    <t>checkAll(locator)</t>
+  </si>
+  <si>
+    <t>focus(locator)</t>
+  </si>
+  <si>
+    <t>uncheckAll(locator)</t>
+  </si>
+  <si>
+    <t>replyCancel(text)</t>
+  </si>
+  <si>
+    <t>replyOK(text)</t>
   </si>
 </sst>
 </file>
@@ -1406,7 +1430,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="215">
+  <fonts count="230">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2757,8 +2781,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="372">
+  <fills count="399">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4862,8 +4980,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="374">
+  <borders count="402">
     <border>
       <left/>
       <right/>
@@ -8588,13 +8859,295 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="226">
+  <cellXfs count="241">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -9233,49 +9786,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="199" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="200" fillId="347" borderId="353" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="353" fillId="347" fontId="200" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="201" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="201" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="202" fillId="350" borderId="357" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="357" fillId="350" fontId="202" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="203" fillId="353" borderId="361" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="361" fillId="353" fontId="203" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="204" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="204" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="205" fillId="356" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="356" fontId="205" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="206" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="206" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="207" fillId="359" borderId="365" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="365" fillId="359" fontId="207" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="208" fillId="362" borderId="369" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="369" fillId="362" fontId="208" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="209" fillId="365" borderId="373" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="373" fillId="365" fontId="209" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="210" fillId="365" borderId="373" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="373" fillId="365" fontId="210" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="211" fillId="368" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="368" fontId="211" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="212" fillId="371" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="371" fontId="212" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="213" fillId="368" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="368" fontId="213" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="214" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="214" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="215" fillId="374" borderId="381" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="216" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="217" fillId="377" borderId="385" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="218" fillId="380" borderId="389" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="219" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="220" fillId="383" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="222" fillId="386" borderId="393" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="223" fillId="389" borderId="397" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="224" fillId="392" borderId="401" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="225" fillId="392" borderId="401" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="226" fillId="395" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="227" fillId="398" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="228" fillId="395" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="229" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9573,7 +10171,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA112"/>
+  <dimension ref="A1:AA114"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -9897,6 +10495,9 @@
       <c r="C5" t="s">
         <v>217</v>
       </c>
+      <c r="D5" t="s">
+        <v>446</v>
+      </c>
       <c r="E5" t="s">
         <v>339</v>
       </c>
@@ -9990,7 +10591,7 @@
         <v>91</v>
       </c>
       <c r="V6" t="s">
-        <v>168</v>
+        <v>452</v>
       </c>
       <c r="W6" t="s">
         <v>173</v>
@@ -10045,6 +10646,9 @@
       <c r="U7" t="s">
         <v>92</v>
       </c>
+      <c r="V7" t="s">
+        <v>453</v>
+      </c>
       <c r="W7" t="s">
         <v>174</v>
       </c>
@@ -10095,6 +10699,9 @@
       <c r="U8" t="s">
         <v>93</v>
       </c>
+      <c r="V8" t="s">
+        <v>168</v>
+      </c>
       <c r="W8" t="s">
         <v>175</v>
       </c>
@@ -10163,7 +10770,7 @@
         <v>13</v>
       </c>
       <c r="K10" t="s">
-        <v>32</v>
+        <v>448</v>
       </c>
       <c r="M10" t="s">
         <v>427</v>
@@ -10198,7 +10805,7 @@
         <v>35</v>
       </c>
       <c r="K11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M11" t="s">
         <v>85</v>
@@ -10230,7 +10837,7 @@
         <v>73</v>
       </c>
       <c r="K12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M12" t="s">
         <v>34</v>
@@ -10258,6 +10865,9 @@
       <c r="I13" t="s">
         <v>74</v>
       </c>
+      <c r="K13" t="s">
+        <v>36</v>
+      </c>
       <c r="M13" t="s">
         <v>86</v>
       </c>
@@ -10408,7 +11018,7 @@
         <v>300</v>
       </c>
       <c r="I20" t="s">
-        <v>38</v>
+        <v>447</v>
       </c>
       <c r="U20" t="s">
         <v>100</v>
@@ -10425,7 +11035,7 @@
         <v>301</v>
       </c>
       <c r="I21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U21" t="s">
         <v>101</v>
@@ -10441,6 +11051,9 @@
       <c r="E22" t="s">
         <v>302</v>
       </c>
+      <c r="I22" t="s">
+        <v>39</v>
+      </c>
       <c r="U22" t="s">
         <v>102</v>
       </c>
@@ -10668,7 +11281,7 @@
         <v>345</v>
       </c>
       <c r="U45" t="s">
-        <v>207</v>
+        <v>449</v>
       </c>
     </row>
     <row r="46">
@@ -10676,7 +11289,7 @@
         <v>205</v>
       </c>
       <c r="U46" t="s">
-        <v>69</v>
+        <v>207</v>
       </c>
     </row>
     <row r="47">
@@ -10684,7 +11297,7 @@
         <v>305</v>
       </c>
       <c r="U47" t="s">
-        <v>120</v>
+        <v>69</v>
       </c>
     </row>
     <row r="48">
@@ -10692,7 +11305,7 @@
         <v>342</v>
       </c>
       <c r="U48" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="49">
@@ -10700,7 +11313,7 @@
         <v>373</v>
       </c>
       <c r="U49" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="50">
@@ -10708,7 +11321,7 @@
         <v>306</v>
       </c>
       <c r="U50" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="51">
@@ -10716,7 +11329,7 @@
         <v>359</v>
       </c>
       <c r="U51" t="s">
-        <v>349</v>
+        <v>123</v>
       </c>
     </row>
     <row r="52">
@@ -10724,7 +11337,7 @@
         <v>334</v>
       </c>
       <c r="U52" t="s">
-        <v>124</v>
+        <v>349</v>
       </c>
     </row>
     <row r="53">
@@ -10732,7 +11345,7 @@
         <v>271</v>
       </c>
       <c r="U53" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="54">
@@ -10740,7 +11353,7 @@
         <v>295</v>
       </c>
       <c r="U54" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="55">
@@ -10748,7 +11361,7 @@
         <v>296</v>
       </c>
       <c r="U55" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="56">
@@ -10756,7 +11369,7 @@
         <v>297</v>
       </c>
       <c r="U56" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="57">
@@ -10764,7 +11377,7 @@
         <v>307</v>
       </c>
       <c r="U57" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="58">
@@ -10772,7 +11385,7 @@
         <v>316</v>
       </c>
       <c r="U58" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="59">
@@ -10780,7 +11393,7 @@
         <v>340</v>
       </c>
       <c r="U59" t="s">
-        <v>445</v>
+        <v>130</v>
       </c>
     </row>
     <row r="60">
@@ -10788,7 +11401,7 @@
         <v>313</v>
       </c>
       <c r="U60" t="s">
-        <v>208</v>
+        <v>445</v>
       </c>
     </row>
     <row r="61">
@@ -10796,7 +11409,7 @@
         <v>314</v>
       </c>
       <c r="U61" t="s">
-        <v>394</v>
+        <v>208</v>
       </c>
     </row>
     <row r="62">
@@ -10804,7 +11417,7 @@
         <v>374</v>
       </c>
       <c r="U62" t="s">
-        <v>131</v>
+        <v>394</v>
       </c>
     </row>
     <row r="63">
@@ -10812,7 +11425,7 @@
         <v>375</v>
       </c>
       <c r="U63" t="s">
-        <v>132</v>
+        <v>450</v>
       </c>
     </row>
     <row r="64">
@@ -10820,7 +11433,7 @@
         <v>348</v>
       </c>
       <c r="U64" t="s">
-        <v>435</v>
+        <v>131</v>
       </c>
     </row>
     <row r="65">
@@ -10828,7 +11441,7 @@
         <v>317</v>
       </c>
       <c r="U65" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="66">
@@ -10836,7 +11449,7 @@
         <v>272</v>
       </c>
       <c r="U66" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="67">
@@ -10844,7 +11457,7 @@
         <v>356</v>
       </c>
       <c r="U67" t="s">
-        <v>191</v>
+        <v>134</v>
       </c>
     </row>
     <row r="68">
@@ -10852,7 +11465,7 @@
         <v>318</v>
       </c>
       <c r="U68" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="69">
@@ -10860,7 +11473,7 @@
         <v>414</v>
       </c>
       <c r="U69" t="s">
-        <v>135</v>
+        <v>192</v>
       </c>
     </row>
     <row r="70">
@@ -10868,7 +11481,7 @@
         <v>308</v>
       </c>
       <c r="U70" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="71">
@@ -10876,7 +11489,7 @@
         <v>415</v>
       </c>
       <c r="U71" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="72">
@@ -10884,7 +11497,7 @@
         <v>265</v>
       </c>
       <c r="U72" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="73">
@@ -10892,7 +11505,7 @@
         <v>347</v>
       </c>
       <c r="U73" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="74">
@@ -10900,7 +11513,7 @@
         <v>283</v>
       </c>
       <c r="U74" t="s">
-        <v>193</v>
+        <v>139</v>
       </c>
     </row>
     <row r="75">
@@ -10908,7 +11521,7 @@
         <v>289</v>
       </c>
       <c r="U75" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="76">
@@ -10916,7 +11529,7 @@
         <v>294</v>
       </c>
       <c r="U76" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="77">
@@ -10924,7 +11537,7 @@
         <v>422</v>
       </c>
       <c r="U77" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="78">
@@ -10932,7 +11545,7 @@
         <v>335</v>
       </c>
       <c r="U78" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
     </row>
     <row r="79">
@@ -10940,7 +11553,7 @@
         <v>273</v>
       </c>
       <c r="U79" t="s">
-        <v>140</v>
+        <v>209</v>
       </c>
     </row>
     <row r="80">
@@ -10948,7 +11561,7 @@
         <v>284</v>
       </c>
       <c r="U80" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
     </row>
     <row r="81">
@@ -10956,7 +11569,7 @@
         <v>290</v>
       </c>
       <c r="U81" t="s">
-        <v>436</v>
+        <v>197</v>
       </c>
     </row>
     <row r="82">
@@ -10964,7 +11577,7 @@
         <v>279</v>
       </c>
       <c r="U82" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
     </row>
     <row r="83">
@@ -10972,7 +11585,7 @@
         <v>274</v>
       </c>
       <c r="U83" t="s">
-        <v>198</v>
+        <v>444</v>
       </c>
     </row>
     <row r="84">
@@ -10980,7 +11593,7 @@
         <v>291</v>
       </c>
       <c r="U84" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="85">
@@ -10988,7 +11601,7 @@
         <v>275</v>
       </c>
       <c r="U85" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="86">
@@ -10996,7 +11609,7 @@
         <v>276</v>
       </c>
       <c r="U86" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="87">
@@ -11004,7 +11617,7 @@
         <v>309</v>
       </c>
       <c r="U87" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
     </row>
     <row r="88">
@@ -11012,7 +11625,7 @@
         <v>315</v>
       </c>
       <c r="U88" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
     </row>
     <row r="89">
@@ -11020,7 +11633,7 @@
         <v>298</v>
       </c>
       <c r="U89" t="s">
-        <v>142</v>
+        <v>202</v>
       </c>
     </row>
     <row r="90">
@@ -11028,7 +11641,7 @@
         <v>343</v>
       </c>
       <c r="U90" t="s">
-        <v>388</v>
+        <v>142</v>
       </c>
     </row>
     <row r="91">
@@ -11036,7 +11649,7 @@
         <v>280</v>
       </c>
       <c r="U91" t="s">
-        <v>143</v>
+        <v>388</v>
       </c>
     </row>
     <row r="92">
@@ -11044,106 +11657,116 @@
         <v>281</v>
       </c>
       <c r="U92" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>157</v>
+        <v>451</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>40</v>
+        <v>158</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>161</v>
+        <v>40</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="U113" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="U114" t="s">
         <v>163</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro.xlsx
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7373" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7827" uniqueCount="454">
   <si>
     <t>description</t>
   </si>
@@ -1430,7 +1430,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="230">
+  <fonts count="245">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2875,8 +2875,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="399">
+  <fills count="426">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5133,8 +5227,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="402">
+  <borders count="430">
     <border>
       <left/>
       <right/>
@@ -9141,13 +9388,295 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="241">
+  <cellXfs count="256">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -9831,49 +10360,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="214" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="215" fillId="374" borderId="381" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="381" fillId="374" fontId="215" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="216" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="216" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="217" fillId="377" borderId="385" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="385" fillId="377" fontId="217" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="218" fillId="380" borderId="389" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="389" fillId="380" fontId="218" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="219" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="219" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="220" fillId="383" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="383" fontId="220" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="221" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="222" fillId="386" borderId="393" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="393" fillId="386" fontId="222" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="223" fillId="389" borderId="397" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="397" fillId="389" fontId="223" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="224" fillId="392" borderId="401" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="401" fillId="392" fontId="224" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="225" fillId="392" borderId="401" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="401" fillId="392" fontId="225" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="226" fillId="395" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="395" fontId="226" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="227" fillId="398" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="398" fontId="227" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="228" fillId="395" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="395" fontId="228" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="229" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="229" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="230" fillId="401" borderId="409" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="231" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="232" fillId="404" borderId="413" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="233" fillId="407" borderId="417" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="234" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="235" fillId="410" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="236" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="237" fillId="413" borderId="421" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="238" fillId="416" borderId="425" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="239" fillId="419" borderId="429" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="240" fillId="419" borderId="429" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="241" fillId="422" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="242" fillId="425" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="243" fillId="422" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="244" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro.xlsx
@@ -27,7 +27,7 @@
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$13</definedName>
+    <definedName name="json">'#system'!$K$2:$K$14</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7827" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8282" uniqueCount="454">
   <si>
     <t>description</t>
   </si>
@@ -1430,7 +1430,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="245">
+  <fonts count="260">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2969,8 +2969,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="426">
+  <fills count="453">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5380,8 +5474,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="430">
+  <borders count="458">
     <border>
       <left/>
       <right/>
@@ -9670,13 +9917,295 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="256">
+  <cellXfs count="271">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -10405,49 +10934,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="229" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="230" fillId="401" borderId="409" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="409" fillId="401" fontId="230" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="231" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="231" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="232" fillId="404" borderId="413" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="413" fillId="404" fontId="232" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="233" fillId="407" borderId="417" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="417" fillId="407" fontId="233" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="234" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="234" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="235" fillId="410" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="410" fontId="235" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="236" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="236" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="237" fillId="413" borderId="421" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="421" fillId="413" fontId="237" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="238" fillId="416" borderId="425" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="425" fillId="416" fontId="238" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="239" fillId="419" borderId="429" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="429" fillId="419" fontId="239" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="240" fillId="419" borderId="429" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="429" fillId="419" fontId="240" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="241" fillId="422" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="422" fontId="241" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="242" fillId="425" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="425" fontId="242" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="243" fillId="422" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="422" fontId="243" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="244" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="244" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="245" fillId="428" borderId="437" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="246" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="247" fillId="431" borderId="441" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="248" fillId="434" borderId="445" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="249" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="250" fillId="437" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="251" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="252" fillId="440" borderId="449" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="253" fillId="443" borderId="453" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="254" fillId="446" borderId="457" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="255" fillId="446" borderId="457" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="256" fillId="449" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="257" fillId="452" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="258" fillId="449" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="259" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -11200,7 +11774,7 @@
         <v>72</v>
       </c>
       <c r="K7" t="s">
-        <v>27</v>
+        <v>319</v>
       </c>
       <c r="M7" t="s">
         <v>26</v>
@@ -11256,7 +11830,7 @@
         <v>31</v>
       </c>
       <c r="K8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M8" t="s">
         <v>83</v>
@@ -11306,7 +11880,7 @@
         <v>395</v>
       </c>
       <c r="K9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M9" t="s">
         <v>84</v>
@@ -11344,7 +11918,7 @@
         <v>13</v>
       </c>
       <c r="K10" t="s">
-        <v>448</v>
+        <v>29</v>
       </c>
       <c r="M10" t="s">
         <v>427</v>
@@ -11379,7 +11953,7 @@
         <v>35</v>
       </c>
       <c r="K11" t="s">
-        <v>32</v>
+        <v>448</v>
       </c>
       <c r="M11" t="s">
         <v>85</v>
@@ -11411,7 +11985,7 @@
         <v>73</v>
       </c>
       <c r="K12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M12" t="s">
         <v>34</v>
@@ -11440,7 +12014,7 @@
         <v>74</v>
       </c>
       <c r="K13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M13" t="s">
         <v>86</v>
@@ -11467,6 +12041,9 @@
       </c>
       <c r="I14" t="s">
         <v>75</v>
+      </c>
+      <c r="K14" t="s">
+        <v>36</v>
       </c>
       <c r="M14" t="s">
         <v>87</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro.xlsx
@@ -22,7 +22,7 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$8</definedName>
+    <definedName name="excel">'#system'!$F$2:$F$10</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8282" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9653" uniqueCount="457">
   <si>
     <t>description</t>
   </si>
@@ -1423,6 +1423,15 @@
   </si>
   <si>
     <t>replyOK(text)</t>
+  </si>
+  <si>
+    <t>csv(file,worksheet,range,header,output)</t>
+  </si>
+  <si>
+    <t>json(file,worksheet,range,header,output)</t>
+  </si>
+  <si>
+    <t>csv(file,worksheet,range,output)</t>
   </si>
 </sst>
 </file>
@@ -1430,7 +1439,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="260">
+  <fonts count="305">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3063,8 +3072,290 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="453">
+  <fills count="534">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5627,8 +5918,467 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="458">
+  <borders count="542">
     <border>
       <left/>
       <right/>
@@ -10199,13 +10949,859 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="271">
+  <cellXfs count="316">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -10979,49 +12575,184 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="244" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="245" fillId="428" borderId="437" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="437" fillId="428" fontId="245" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="246" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="246" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="247" fillId="431" borderId="441" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="441" fillId="431" fontId="247" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="248" fillId="434" borderId="445" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="445" fillId="434" fontId="248" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="249" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="249" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="250" fillId="437" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="437" fontId="250" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="251" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="251" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="252" fillId="440" borderId="449" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="449" fillId="440" fontId="252" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="253" fillId="443" borderId="453" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="453" fillId="443" fontId="253" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="254" fillId="446" borderId="457" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="457" fillId="446" fontId="254" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="255" fillId="446" borderId="457" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="457" fillId="446" fontId="255" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="256" fillId="449" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="449" fontId="256" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="257" fillId="452" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="452" fontId="257" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="258" fillId="449" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="449" fontId="258" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="259" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="259" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="465" fillId="455" fontId="260" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="261" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="469" fillId="458" fontId="262" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="473" fillId="461" fontId="263" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="264" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="464" fontId="265" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="266" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="477" fillId="467" fontId="267" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="481" fillId="470" fontId="268" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="485" fillId="473" fontId="269" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="485" fillId="473" fontId="270" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="476" fontId="271" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="479" fontId="272" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="476" fontId="273" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="274" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="493" fillId="482" fontId="275" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="276" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="497" fillId="485" fontId="277" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="501" fillId="488" fontId="278" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="279" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="491" fontId="280" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="281" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="505" fillId="494" fontId="282" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="509" fillId="497" fontId="283" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="513" fillId="500" fontId="284" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="513" fillId="500" fontId="285" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="503" fontId="286" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="506" fontId="287" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="503" fontId="288" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="289" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="290" fillId="509" borderId="521" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="291" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="292" fillId="512" borderId="525" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="515" borderId="529" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="294" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="295" fillId="518" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="296" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="297" fillId="521" borderId="533" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="298" fillId="524" borderId="537" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="299" fillId="527" borderId="541" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="300" fillId="527" borderId="541" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="301" fillId="530" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="302" fillId="533" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="303" fillId="530" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="304" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -11505,7 +13236,7 @@
         <v>80</v>
       </c>
       <c r="F3" t="s">
-        <v>331</v>
+        <v>456</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
@@ -11579,7 +13310,7 @@
         <v>392</v>
       </c>
       <c r="F4" t="s">
-        <v>332</v>
+        <v>455</v>
       </c>
       <c r="H4" t="s">
         <v>354</v>
@@ -11650,7 +13381,7 @@
         <v>339</v>
       </c>
       <c r="F5" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="H5" t="s">
         <v>351</v>
@@ -11712,7 +13443,7 @@
         <v>393</v>
       </c>
       <c r="F6" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="I6" t="s">
         <v>12</v>
@@ -11768,7 +13499,7 @@
         <v>371</v>
       </c>
       <c r="F7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="I7" t="s">
         <v>72</v>
@@ -11824,7 +13555,7 @@
         <v>372</v>
       </c>
       <c r="F8" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="I8" t="s">
         <v>31</v>
@@ -11876,6 +13607,9 @@
       <c r="E9" t="s">
         <v>310</v>
       </c>
+      <c r="F9" t="s">
+        <v>327</v>
+      </c>
       <c r="I9" t="s">
         <v>395</v>
       </c>
@@ -11913,6 +13647,9 @@
       </c>
       <c r="E10" t="s">
         <v>355</v>
+      </c>
+      <c r="F10" t="s">
+        <v>328</v>
       </c>
       <c r="I10" t="s">
         <v>13</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro.xlsx
@@ -17,12 +17,12 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$33</definedName>
+    <definedName name="base">'#system'!$C$2:$C$34</definedName>
     <definedName name="csv">'#system'!$D$2:$D$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$10</definedName>
+    <definedName name="excel">'#system'!$F$2:$F$13</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9653" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10575" uniqueCount="461">
   <si>
     <t>description</t>
   </si>
@@ -1432,6 +1432,18 @@
   </si>
   <si>
     <t>csv(file,worksheet,range,output)</t>
+  </si>
+  <si>
+    <t>saveCount(text,regex,saveVar)</t>
+  </si>
+  <si>
+    <t>assertPassword(file)</t>
+  </si>
+  <si>
+    <t>clearPassword(file,password)</t>
+  </si>
+  <si>
+    <t>setPassword(file,password)</t>
   </si>
 </sst>
 </file>
@@ -1439,7 +1451,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="305">
+  <fonts count="335">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3354,8 +3366,196 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="534">
+  <fills count="588">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6377,8 +6577,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="542">
+  <borders count="598">
     <border>
       <left/>
       <right/>
@@ -11795,13 +12301,577 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="316">
+  <cellXfs count="346">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -12710,49 +13780,139 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="289" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="290" fillId="509" borderId="521" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="521" fillId="509" fontId="290" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="291" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="291" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="292" fillId="512" borderId="525" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="525" fillId="512" fontId="292" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="293" fillId="515" borderId="529" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="529" fillId="515" fontId="293" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="294" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="294" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="295" fillId="518" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="518" fontId="295" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="296" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="296" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="297" fillId="521" borderId="533" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="533" fillId="521" fontId="297" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="298" fillId="524" borderId="537" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="537" fillId="524" fontId="298" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="299" fillId="527" borderId="541" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="541" fillId="527" fontId="299" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="300" fillId="527" borderId="541" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="541" fillId="527" fontId="300" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="301" fillId="530" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="530" fontId="301" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="302" fillId="533" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="533" fontId="302" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="303" fillId="530" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="530" fontId="303" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="304" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="304" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="549" fillId="536" fontId="305" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="306" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="553" fillId="539" fontId="307" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="557" fillId="542" fontId="308" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="309" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="545" fontId="310" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="311" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="561" fillId="548" fontId="312" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="565" fillId="551" fontId="313" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="569" fillId="554" fontId="314" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="569" fillId="554" fontId="315" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="557" fontId="316" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="560" fontId="317" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="557" fontId="318" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="319" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="320" fillId="563" borderId="577" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="322" fillId="566" borderId="581" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="323" fillId="569" borderId="585" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="324" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="325" fillId="572" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="326" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="327" fillId="575" borderId="589" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="328" fillId="578" borderId="593" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="329" fillId="581" borderId="597" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="330" fillId="581" borderId="597" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="331" fillId="584" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="332" fillId="587" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="333" fillId="584" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="334" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -13156,7 +14316,7 @@
         <v>66</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>458</v>
       </c>
       <c r="G2" t="s">
         <v>71</v>
@@ -13236,7 +14396,7 @@
         <v>80</v>
       </c>
       <c r="F3" t="s">
-        <v>456</v>
+        <v>41</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
@@ -13310,7 +14470,7 @@
         <v>392</v>
       </c>
       <c r="F4" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="H4" t="s">
         <v>354</v>
@@ -13381,7 +14541,7 @@
         <v>339</v>
       </c>
       <c r="F5" t="s">
-        <v>331</v>
+        <v>456</v>
       </c>
       <c r="H5" t="s">
         <v>351</v>
@@ -13443,7 +14603,7 @@
         <v>393</v>
       </c>
       <c r="F6" t="s">
-        <v>332</v>
+        <v>455</v>
       </c>
       <c r="I6" t="s">
         <v>12</v>
@@ -13499,7 +14659,7 @@
         <v>371</v>
       </c>
       <c r="F7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="I7" t="s">
         <v>72</v>
@@ -13555,7 +14715,7 @@
         <v>372</v>
       </c>
       <c r="F8" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="I8" t="s">
         <v>31</v>
@@ -13608,7 +14768,7 @@
         <v>310</v>
       </c>
       <c r="F9" t="s">
-        <v>327</v>
+        <v>460</v>
       </c>
       <c r="I9" t="s">
         <v>395</v>
@@ -13649,7 +14809,7 @@
         <v>355</v>
       </c>
       <c r="F10" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="I10" t="s">
         <v>13</v>
@@ -13686,6 +14846,9 @@
       <c r="E11" t="s">
         <v>277</v>
       </c>
+      <c r="F11" t="s">
+        <v>326</v>
+      </c>
       <c r="I11" t="s">
         <v>35</v>
       </c>
@@ -13718,6 +14881,9 @@
       <c r="E12" t="s">
         <v>266</v>
       </c>
+      <c r="F12" t="s">
+        <v>327</v>
+      </c>
       <c r="I12" t="s">
         <v>73</v>
       </c>
@@ -13747,6 +14913,9 @@
       <c r="E13" t="s">
         <v>320</v>
       </c>
+      <c r="F13" t="s">
+        <v>328</v>
+      </c>
       <c r="I13" t="s">
         <v>74</v>
       </c>
@@ -13934,7 +15103,7 @@
         <v>47</v>
       </c>
       <c r="C22" t="s">
-        <v>218</v>
+        <v>457</v>
       </c>
       <c r="E22" t="s">
         <v>302</v>
@@ -13951,7 +15120,7 @@
         <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E23" t="s">
         <v>293</v>
@@ -13965,7 +15134,7 @@
         <v>49</v>
       </c>
       <c r="C24" t="s">
-        <v>421</v>
+        <v>219</v>
       </c>
       <c r="E24" t="s">
         <v>282</v>
@@ -13979,7 +15148,7 @@
         <v>419</v>
       </c>
       <c r="C25" t="s">
-        <v>56</v>
+        <v>421</v>
       </c>
       <c r="E25" t="s">
         <v>68</v>
@@ -13993,7 +15162,7 @@
         <v>220</v>
       </c>
       <c r="C26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E26" t="s">
         <v>285</v>
@@ -14004,7 +15173,7 @@
     </row>
     <row r="27">
       <c r="C27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E27" t="s">
         <v>269</v>
@@ -14015,7 +15184,7 @@
     </row>
     <row r="28">
       <c r="C28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E28" t="s">
         <v>286</v>
@@ -14026,7 +15195,7 @@
     </row>
     <row r="29">
       <c r="C29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E29" t="s">
         <v>287</v>
@@ -14037,7 +15206,7 @@
     </row>
     <row r="30">
       <c r="C30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E30" t="s">
         <v>210</v>
@@ -14048,7 +15217,7 @@
     </row>
     <row r="31">
       <c r="C31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E31" t="s">
         <v>278</v>
@@ -14059,7 +15228,7 @@
     </row>
     <row r="32">
       <c r="C32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E32" t="s">
         <v>288</v>
@@ -14069,6 +15238,9 @@
       </c>
     </row>
     <row r="33">
+      <c r="C33" t="s">
+        <v>63</v>
+      </c>
       <c r="E33" t="s">
         <v>263</v>
       </c>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro.xlsx
@@ -37,7 +37,7 @@
     <definedName name="rdbms">'#system'!$O$2:$O$7</definedName>
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$114</definedName>
+    <definedName name="web">'#system'!$U$2:$U$115</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10575" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11499" uniqueCount="463">
   <si>
     <t>description</t>
   </si>
@@ -1444,6 +1444,12 @@
   </si>
   <si>
     <t>setPassword(file,password)</t>
+  </si>
+  <si>
+    <t>saveDivsAsCsv(headerCellsLoc,rowLocator,cellLocator,nextPageLocator,file)</t>
+  </si>
+  <si>
+    <t>saveDivsAsCsv(headers,rows,cells,nextPage,file)</t>
   </si>
 </sst>
 </file>
@@ -1451,7 +1457,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="335">
+  <fonts count="365">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3554,8 +3560,196 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="588">
+  <fills count="642">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6883,8 +7077,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="598">
+  <borders count="654">
     <border>
       <left/>
       <right/>
@@ -7937,6 +8437,570 @@
       </top>
       <bottom style="thin">
         <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
       </bottom>
     </border>
     <border>
@@ -12871,7 +13935,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="346">
+  <cellXfs count="376">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -13870,49 +14934,139 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="319" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="320" fillId="563" borderId="577" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="577" fillId="563" fontId="320" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="321" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="322" fillId="566" borderId="581" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="581" fillId="566" fontId="322" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="323" fillId="569" borderId="585" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="585" fillId="569" fontId="323" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="324" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="324" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="325" fillId="572" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="572" fontId="325" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="326" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="326" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="327" fillId="575" borderId="589" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="589" fillId="575" fontId="327" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="328" fillId="578" borderId="593" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="593" fillId="578" fontId="328" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="329" fillId="581" borderId="597" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="597" fillId="581" fontId="329" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="330" fillId="581" borderId="597" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="597" fillId="581" fontId="330" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="331" fillId="584" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="584" fontId="331" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="332" fillId="587" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="587" fontId="332" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="333" fillId="584" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="584" fontId="333" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="334" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="334" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="605" fillId="590" fontId="335" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="336" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="609" fillId="593" fontId="337" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="613" fillId="596" fontId="338" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="339" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="599" fontId="340" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="341" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="617" fillId="602" fontId="342" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="621" fillId="605" fontId="343" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="625" fillId="608" fontId="344" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="625" fillId="608" fontId="345" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="611" fontId="346" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="614" fontId="347" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="611" fontId="348" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="349" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="350" fillId="617" borderId="633" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="351" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="352" fillId="620" borderId="637" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="353" fillId="623" borderId="641" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="354" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="355" fillId="626" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="356" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="357" fillId="629" borderId="645" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="358" fillId="632" borderId="649" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="359" fillId="635" borderId="653" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="360" fillId="635" borderId="653" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="361" fillId="638" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="362" fillId="641" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="363" fillId="638" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="364" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -14210,7 +15364,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA114"/>
+  <dimension ref="A1:AA115"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -15597,7 +16751,7 @@
         <v>422</v>
       </c>
       <c r="U77" t="s">
-        <v>195</v>
+        <v>462</v>
       </c>
     </row>
     <row r="78">
@@ -15605,7 +16759,7 @@
         <v>335</v>
       </c>
       <c r="U78" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="79">
@@ -15613,7 +16767,7 @@
         <v>273</v>
       </c>
       <c r="U79" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
     </row>
     <row r="80">
@@ -15621,7 +16775,7 @@
         <v>284</v>
       </c>
       <c r="U80" t="s">
-        <v>140</v>
+        <v>209</v>
       </c>
     </row>
     <row r="81">
@@ -15629,7 +16783,7 @@
         <v>290</v>
       </c>
       <c r="U81" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
     </row>
     <row r="82">
@@ -15637,7 +16791,7 @@
         <v>279</v>
       </c>
       <c r="U82" t="s">
-        <v>436</v>
+        <v>197</v>
       </c>
     </row>
     <row r="83">
@@ -15645,7 +16799,7 @@
         <v>274</v>
       </c>
       <c r="U83" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
     </row>
     <row r="84">
@@ -15653,7 +16807,7 @@
         <v>291</v>
       </c>
       <c r="U84" t="s">
-        <v>198</v>
+        <v>444</v>
       </c>
     </row>
     <row r="85">
@@ -15661,7 +16815,7 @@
         <v>275</v>
       </c>
       <c r="U85" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="86">
@@ -15669,7 +16823,7 @@
         <v>276</v>
       </c>
       <c r="U86" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="87">
@@ -15677,7 +16831,7 @@
         <v>309</v>
       </c>
       <c r="U87" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="88">
@@ -15685,7 +16839,7 @@
         <v>315</v>
       </c>
       <c r="U88" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
     </row>
     <row r="89">
@@ -15693,7 +16847,7 @@
         <v>298</v>
       </c>
       <c r="U89" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
     </row>
     <row r="90">
@@ -15701,7 +16855,7 @@
         <v>343</v>
       </c>
       <c r="U90" t="s">
-        <v>142</v>
+        <v>202</v>
       </c>
     </row>
     <row r="91">
@@ -15709,7 +16863,7 @@
         <v>280</v>
       </c>
       <c r="U91" t="s">
-        <v>388</v>
+        <v>142</v>
       </c>
     </row>
     <row r="92">
@@ -15717,116 +16871,121 @@
         <v>281</v>
       </c>
       <c r="U92" t="s">
-        <v>143</v>
+        <v>388</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>451</v>
+        <v>155</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>156</v>
+        <v>451</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>40</v>
+        <v>159</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>160</v>
+        <v>40</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="113">
       <c r="U113" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="114">
       <c r="U114" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="U115" t="s">
         <v>163</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro.xlsx
@@ -37,7 +37,7 @@
     <definedName name="rdbms">'#system'!$O$2:$O$7</definedName>
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$115</definedName>
+    <definedName name="web">'#system'!$U$2:$U$116</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11499" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11962" uniqueCount="464">
   <si>
     <t>description</t>
   </si>
@@ -1450,6 +1450,9 @@
   </si>
   <si>
     <t>saveDivsAsCsv(headers,rows,cells,nextPage,file)</t>
+  </si>
+  <si>
+    <t>openHttpBasic(url,username,password)</t>
   </si>
 </sst>
 </file>
@@ -1457,7 +1460,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="365">
+  <fonts count="380">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3748,8 +3751,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="642">
+  <fills count="669">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7383,8 +7480,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="654">
+  <borders count="682">
     <border>
       <left/>
       <right/>
@@ -8437,6 +8687,288 @@
       </top>
       <bottom style="thin">
         <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
       </bottom>
     </border>
     <border>
@@ -13935,7 +14467,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="376">
+  <cellXfs count="391">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -15024,49 +15556,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="349" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="350" fillId="617" borderId="633" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="633" fillId="617" fontId="350" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="351" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="351" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="352" fillId="620" borderId="637" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="637" fillId="620" fontId="352" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="353" fillId="623" borderId="641" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="641" fillId="623" fontId="353" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="354" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="354" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="355" fillId="626" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="626" fontId="355" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="356" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="356" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="357" fillId="629" borderId="645" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="645" fillId="629" fontId="357" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="358" fillId="632" borderId="649" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="649" fillId="632" fontId="358" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="359" fillId="635" borderId="653" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="653" fillId="635" fontId="359" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="360" fillId="635" borderId="653" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="653" fillId="635" fontId="360" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="361" fillId="638" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="638" fontId="361" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="362" fillId="641" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="641" fontId="362" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="363" fillId="638" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="638" fontId="363" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="364" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="364" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="365" fillId="644" borderId="661" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="366" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="367" fillId="647" borderId="665" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="368" fillId="650" borderId="669" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="369" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="370" fillId="653" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="371" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="372" fillId="656" borderId="673" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="373" fillId="659" borderId="677" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="374" fillId="662" borderId="681" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="375" fillId="662" borderId="681" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="376" fillId="665" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="377" fillId="668" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="378" fillId="665" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="379" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -15364,7 +15941,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA115"/>
+  <dimension ref="A1:AA116"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -16695,7 +17272,7 @@
         <v>308</v>
       </c>
       <c r="U70" t="s">
-        <v>135</v>
+        <v>463</v>
       </c>
     </row>
     <row r="71">
@@ -16703,7 +17280,7 @@
         <v>415</v>
       </c>
       <c r="U71" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="72">
@@ -16711,7 +17288,7 @@
         <v>265</v>
       </c>
       <c r="U72" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="73">
@@ -16719,7 +17296,7 @@
         <v>347</v>
       </c>
       <c r="U73" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="74">
@@ -16727,7 +17304,7 @@
         <v>283</v>
       </c>
       <c r="U74" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="75">
@@ -16735,7 +17312,7 @@
         <v>289</v>
       </c>
       <c r="U75" t="s">
-        <v>193</v>
+        <v>139</v>
       </c>
     </row>
     <row r="76">
@@ -16743,7 +17320,7 @@
         <v>294</v>
       </c>
       <c r="U76" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="77">
@@ -16751,7 +17328,7 @@
         <v>422</v>
       </c>
       <c r="U77" t="s">
-        <v>462</v>
+        <v>194</v>
       </c>
     </row>
     <row r="78">
@@ -16759,7 +17336,7 @@
         <v>335</v>
       </c>
       <c r="U78" t="s">
-        <v>195</v>
+        <v>462</v>
       </c>
     </row>
     <row r="79">
@@ -16767,7 +17344,7 @@
         <v>273</v>
       </c>
       <c r="U79" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="80">
@@ -16775,7 +17352,7 @@
         <v>284</v>
       </c>
       <c r="U80" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
     </row>
     <row r="81">
@@ -16783,7 +17360,7 @@
         <v>290</v>
       </c>
       <c r="U81" t="s">
-        <v>140</v>
+        <v>209</v>
       </c>
     </row>
     <row r="82">
@@ -16791,7 +17368,7 @@
         <v>279</v>
       </c>
       <c r="U82" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
     </row>
     <row r="83">
@@ -16799,7 +17376,7 @@
         <v>274</v>
       </c>
       <c r="U83" t="s">
-        <v>436</v>
+        <v>197</v>
       </c>
     </row>
     <row r="84">
@@ -16807,7 +17384,7 @@
         <v>291</v>
       </c>
       <c r="U84" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
     </row>
     <row r="85">
@@ -16815,7 +17392,7 @@
         <v>275</v>
       </c>
       <c r="U85" t="s">
-        <v>198</v>
+        <v>444</v>
       </c>
     </row>
     <row r="86">
@@ -16823,7 +17400,7 @@
         <v>276</v>
       </c>
       <c r="U86" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="87">
@@ -16831,7 +17408,7 @@
         <v>309</v>
       </c>
       <c r="U87" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="88">
@@ -16839,7 +17416,7 @@
         <v>315</v>
       </c>
       <c r="U88" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="89">
@@ -16847,7 +17424,7 @@
         <v>298</v>
       </c>
       <c r="U89" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
     </row>
     <row r="90">
@@ -16855,7 +17432,7 @@
         <v>343</v>
       </c>
       <c r="U90" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
     </row>
     <row r="91">
@@ -16863,7 +17440,7 @@
         <v>280</v>
       </c>
       <c r="U91" t="s">
-        <v>142</v>
+        <v>202</v>
       </c>
     </row>
     <row r="92">
@@ -16871,121 +17448,126 @@
         <v>281</v>
       </c>
       <c r="U92" t="s">
-        <v>388</v>
+        <v>142</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>143</v>
+        <v>388</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>451</v>
+        <v>155</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>156</v>
+        <v>451</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>40</v>
+        <v>159</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
-        <v>160</v>
+        <v>40</v>
       </c>
     </row>
     <row r="113">
       <c r="U113" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="114">
       <c r="U114" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="115">
       <c r="U115" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="U116" t="s">
         <v>163</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro.xlsx
@@ -22,7 +22,7 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$13</definedName>
+    <definedName name="excel">'#system'!$F$2:$F$14</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11962" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12426" uniqueCount="465">
   <si>
     <t>description</t>
   </si>
@@ -1453,6 +1453,9 @@
   </si>
   <si>
     <t>openHttpBasic(url,username,password)</t>
+  </si>
+  <si>
+    <t>columnarCsv(file,worksheet,ranges,output)</t>
   </si>
 </sst>
 </file>
@@ -1460,7 +1463,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="380">
+  <fonts count="395">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3845,8 +3848,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="669">
+  <fills count="696">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7633,8 +7730,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="682">
+  <borders count="710">
     <border>
       <left/>
       <right/>
@@ -8687,6 +8937,288 @@
       </top>
       <bottom style="thin">
         <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
       </bottom>
     </border>
     <border>
@@ -14467,7 +14999,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="391">
+  <cellXfs count="406">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -15601,49 +16133,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="364" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="365" fillId="644" borderId="661" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="661" fillId="644" fontId="365" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="366" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="366" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="367" fillId="647" borderId="665" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="665" fillId="647" fontId="367" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="368" fillId="650" borderId="669" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="669" fillId="650" fontId="368" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="369" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="369" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="370" fillId="653" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="653" fontId="370" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="371" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="371" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="372" fillId="656" borderId="673" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="673" fillId="656" fontId="372" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="373" fillId="659" borderId="677" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="677" fillId="659" fontId="373" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="374" fillId="662" borderId="681" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="681" fillId="662" fontId="374" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="375" fillId="662" borderId="681" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="681" fillId="662" fontId="375" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="376" fillId="665" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="665" fontId="376" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="377" fillId="668" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="668" fontId="377" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="378" fillId="665" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="665" fontId="378" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="379" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="379" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="380" fillId="671" borderId="689" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="381" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="382" fillId="674" borderId="693" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="383" fillId="677" borderId="697" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="384" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="385" fillId="680" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="386" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="387" fillId="683" borderId="701" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="388" fillId="686" borderId="705" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="389" fillId="689" borderId="709" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="390" fillId="689" borderId="709" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="391" fillId="692" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="392" fillId="695" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="393" fillId="692" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="394" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -16272,7 +16849,7 @@
         <v>339</v>
       </c>
       <c r="F5" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="H5" t="s">
         <v>351</v>
@@ -16334,7 +16911,7 @@
         <v>393</v>
       </c>
       <c r="F6" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="I6" t="s">
         <v>12</v>
@@ -16390,7 +16967,7 @@
         <v>371</v>
       </c>
       <c r="F7" t="s">
-        <v>331</v>
+        <v>455</v>
       </c>
       <c r="I7" t="s">
         <v>72</v>
@@ -16446,7 +17023,7 @@
         <v>372</v>
       </c>
       <c r="F8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I8" t="s">
         <v>31</v>
@@ -16499,7 +17076,7 @@
         <v>310</v>
       </c>
       <c r="F9" t="s">
-        <v>460</v>
+        <v>332</v>
       </c>
       <c r="I9" t="s">
         <v>395</v>
@@ -16540,7 +17117,7 @@
         <v>355</v>
       </c>
       <c r="F10" t="s">
-        <v>325</v>
+        <v>460</v>
       </c>
       <c r="I10" t="s">
         <v>13</v>
@@ -16578,7 +17155,7 @@
         <v>277</v>
       </c>
       <c r="F11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I11" t="s">
         <v>35</v>
@@ -16613,7 +17190,7 @@
         <v>266</v>
       </c>
       <c r="F12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I12" t="s">
         <v>73</v>
@@ -16645,7 +17222,7 @@
         <v>320</v>
       </c>
       <c r="F13" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I13" t="s">
         <v>74</v>
@@ -16675,6 +17252,9 @@
       </c>
       <c r="E14" t="s">
         <v>267</v>
+      </c>
+      <c r="F14" t="s">
+        <v>328</v>
       </c>
       <c r="I14" t="s">
         <v>75</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro.xlsx
@@ -25,7 +25,7 @@
     <definedName name="excel">'#system'!$F$2:$F$14</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$22</definedName>
+    <definedName name="io">'#system'!$I$2:$I$23</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
     <definedName name="json">'#system'!$K$2:$K$14</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12426" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12891" uniqueCount="466">
   <si>
     <t>description</t>
   </si>
@@ -1456,6 +1456,9 @@
   </si>
   <si>
     <t>columnarCsv(file,worksheet,ranges,output)</t>
+  </si>
+  <si>
+    <t>rename(target,newName)</t>
   </si>
 </sst>
 </file>
@@ -1463,7 +1466,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="395">
+  <fonts count="410">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3942,8 +3945,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="696">
+  <fills count="723">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7883,8 +7980,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="710">
+  <borders count="738">
     <border>
       <left/>
       <right/>
@@ -8937,6 +9187,288 @@
       </top>
       <bottom style="thin">
         <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
       </bottom>
     </border>
     <border>
@@ -14999,7 +15531,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="406">
+  <cellXfs count="421">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -16178,49 +16710,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="379" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="380" fillId="671" borderId="689" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="689" fillId="671" fontId="380" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="381" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="381" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="382" fillId="674" borderId="693" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="693" fillId="674" fontId="382" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="383" fillId="677" borderId="697" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="697" fillId="677" fontId="383" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="384" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="384" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="385" fillId="680" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="680" fontId="385" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="386" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="386" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="387" fillId="683" borderId="701" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="701" fillId="683" fontId="387" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="388" fillId="686" borderId="705" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="705" fillId="686" fontId="388" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="389" fillId="689" borderId="709" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="709" fillId="689" fontId="389" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="390" fillId="689" borderId="709" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="709" fillId="689" fontId="390" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="391" fillId="692" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="692" fontId="391" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="392" fillId="695" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="695" fontId="392" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="393" fillId="692" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="692" fontId="393" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="394" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="394" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="395" fillId="698" borderId="717" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="396" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="397" fillId="701" borderId="721" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="398" fillId="704" borderId="725" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="399" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="400" fillId="707" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="401" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="402" fillId="710" borderId="729" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="403" fillId="713" borderId="733" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="404" fillId="716" borderId="737" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="405" fillId="716" borderId="737" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="406" fillId="719" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="407" fillId="722" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="408" fillId="719" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="409" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -17257,7 +17834,7 @@
         <v>328</v>
       </c>
       <c r="I14" t="s">
-        <v>75</v>
+        <v>465</v>
       </c>
       <c r="K14" t="s">
         <v>36</v>
@@ -17286,7 +17863,7 @@
         <v>268</v>
       </c>
       <c r="I15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M15" t="s">
         <v>88</v>
@@ -17312,7 +17889,7 @@
         <v>321</v>
       </c>
       <c r="I16" t="s">
-        <v>385</v>
+        <v>76</v>
       </c>
       <c r="N16" t="s">
         <v>245</v>
@@ -17335,7 +17912,7 @@
         <v>81</v>
       </c>
       <c r="I17" t="s">
-        <v>37</v>
+        <v>385</v>
       </c>
       <c r="U17" t="s">
         <v>97</v>
@@ -17352,7 +17929,7 @@
         <v>82</v>
       </c>
       <c r="I18" t="s">
-        <v>397</v>
+        <v>37</v>
       </c>
       <c r="U18" t="s">
         <v>98</v>
@@ -17369,7 +17946,7 @@
         <v>299</v>
       </c>
       <c r="I19" t="s">
-        <v>77</v>
+        <v>397</v>
       </c>
       <c r="U19" t="s">
         <v>99</v>
@@ -17386,7 +17963,7 @@
         <v>300</v>
       </c>
       <c r="I20" t="s">
-        <v>447</v>
+        <v>77</v>
       </c>
       <c r="U20" t="s">
         <v>100</v>
@@ -17403,7 +17980,7 @@
         <v>301</v>
       </c>
       <c r="I21" t="s">
-        <v>38</v>
+        <v>447</v>
       </c>
       <c r="U21" t="s">
         <v>101</v>
@@ -17420,7 +17997,7 @@
         <v>302</v>
       </c>
       <c r="I22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U22" t="s">
         <v>102</v>
@@ -17435,6 +18012,9 @@
       </c>
       <c r="E23" t="s">
         <v>293</v>
+      </c>
+      <c r="I23" t="s">
+        <v>39</v>
       </c>
       <c r="U23" t="s">
         <v>103</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10909"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/nexial-core/src/test/resources/unittesting/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46852D0E-5CAF-2643-8C07-9B1A1F8FEAD8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{46852D0E-5CAF-2643-8C07-9B1A1F8FEAD8}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37"/>
   <bookViews>
-    <workbookView xWindow="13100" yWindow="7040" windowWidth="35260" windowHeight="8580" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" tabRatio="500" windowHeight="8580" windowWidth="35260" xWindow="13100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="7040"/>
   </bookViews>
   <sheets>
-    <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
-    <sheet name="macros" sheetId="2" r:id="rId2"/>
+    <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
+    <sheet name="macros" r:id="rId2" sheetId="2"/>
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$34</definedName>
+    <definedName name="base">'#system'!$C$2:$C$36</definedName>
     <definedName name="csv">'#system'!$D$2:$D$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="465">
   <si>
     <t>description</t>
   </si>
@@ -1451,13 +1451,20 @@
   </si>
   <si>
     <t>letters_and_numbers</t>
+  </si>
+  <si>
+    <t>assertArrayContain(array,expected)</t>
+  </si>
+  <si>
+    <t>assertArrayNotContain(array,unexpected)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1506,8 +1513,102 @@
       <sz val="11"/>
       <name val="Tahoma"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="30">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1520,8 +1621,161 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -1544,83 +1798,410 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+  <cellXfs count="34">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="13" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="17" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="21" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="25" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="29" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="29" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="1"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <mruColors>
       <color rgb="FFB4B4B4"/>
@@ -1650,10 +2231,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1688,7 +2269,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -1723,7 +2304,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -1817,21 +2398,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1848,7 +2429,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1900,24 +2481,24 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z116"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AA116"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="18" width="8.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="18" customWidth="true" width="8.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1997,7 +2578,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>372</v>
       </c>
@@ -2077,7 +2658,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -2085,7 +2666,7 @@
         <v>374</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>463</v>
       </c>
       <c r="D3" t="s">
         <v>366</v>
@@ -2151,7 +2732,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -2159,7 +2740,7 @@
         <v>375</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
         <v>65</v>
@@ -2222,7 +2803,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -2230,7 +2811,7 @@
         <v>376</v>
       </c>
       <c r="C5" t="s">
-        <v>215</v>
+        <v>464</v>
       </c>
       <c r="D5" t="s">
         <v>438</v>
@@ -2287,7 +2868,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -2295,7 +2876,7 @@
         <v>377</v>
       </c>
       <c r="C6" t="s">
-        <v>320</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
         <v>389</v>
@@ -2343,7 +2924,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -2351,7 +2932,7 @@
         <v>378</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>215</v>
       </c>
       <c r="E7" t="s">
         <v>367</v>
@@ -2399,7 +2980,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>348</v>
       </c>
@@ -2407,7 +2988,7 @@
         <v>379</v>
       </c>
       <c r="C8" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="E8" t="s">
         <v>368</v>
@@ -2452,7 +3033,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2460,7 +3041,7 @@
         <v>380</v>
       </c>
       <c r="C9" t="s">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E9" t="s">
         <v>308</v>
@@ -2496,12 +3077,12 @@
         <v>226</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>334</v>
       </c>
       <c r="C10" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="E10" t="s">
         <v>353</v>
@@ -2534,12 +3115,12 @@
         <v>227</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11" t="s">
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>342</v>
+        <v>250</v>
       </c>
       <c r="E11" t="s">
         <v>275</v>
@@ -2569,12 +3150,12 @@
         <v>228</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12" t="s">
         <v>188</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>321</v>
       </c>
       <c r="E12" t="s">
         <v>264</v>
@@ -2601,12 +3182,12 @@
         <v>183</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="A13" t="s">
         <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>342</v>
       </c>
       <c r="E13" t="s">
         <v>318</v>
@@ -2633,12 +3214,12 @@
         <v>184</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="A14" t="s">
         <v>230</v>
       </c>
       <c r="C14" t="s">
-        <v>386</v>
+        <v>30</v>
       </c>
       <c r="E14" t="s">
         <v>265</v>
@@ -2665,12 +3246,12 @@
         <v>185</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="A15" t="s">
         <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>387</v>
+        <v>51</v>
       </c>
       <c r="E15" t="s">
         <v>266</v>
@@ -2691,12 +3272,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="A16" t="s">
         <v>399</v>
       </c>
       <c r="C16" t="s">
-        <v>414</v>
+        <v>386</v>
       </c>
       <c r="E16" t="s">
         <v>319</v>
@@ -2714,12 +3295,12 @@
         <v>187</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="A17" t="s">
         <v>411</v>
       </c>
       <c r="C17" t="s">
-        <v>52</v>
+        <v>387</v>
       </c>
       <c r="E17" t="s">
         <v>81</v>
@@ -2731,12 +3312,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="A18" t="s">
         <v>412</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>414</v>
       </c>
       <c r="E18" t="s">
         <v>82</v>
@@ -2748,12 +3329,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19">
       <c r="A19" t="s">
         <v>358</v>
       </c>
       <c r="C19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E19" t="s">
         <v>297</v>
@@ -2765,12 +3346,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20">
       <c r="A20" t="s">
         <v>395</v>
       </c>
       <c r="C20" t="s">
-        <v>322</v>
+        <v>53</v>
       </c>
       <c r="E20" t="s">
         <v>298</v>
@@ -2782,12 +3363,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21">
       <c r="A21" t="s">
         <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E21" t="s">
         <v>299</v>
@@ -2799,12 +3380,12 @@
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22">
       <c r="A22" t="s">
         <v>47</v>
       </c>
       <c r="C22" t="s">
-        <v>448</v>
+        <v>322</v>
       </c>
       <c r="E22" t="s">
         <v>300</v>
@@ -2816,12 +3397,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23">
       <c r="A23" t="s">
         <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>216</v>
+        <v>55</v>
       </c>
       <c r="E23" t="s">
         <v>291</v>
@@ -2833,12 +3414,12 @@
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24">
       <c r="A24" t="s">
         <v>49</v>
       </c>
       <c r="C24" t="s">
-        <v>217</v>
+        <v>448</v>
       </c>
       <c r="E24" t="s">
         <v>280</v>
@@ -2847,12 +3428,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25">
       <c r="A25" t="s">
         <v>413</v>
       </c>
       <c r="C25" t="s">
-        <v>415</v>
+        <v>216</v>
       </c>
       <c r="E25" t="s">
         <v>68</v>
@@ -2861,12 +3442,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="26">
       <c r="A26" t="s">
         <v>218</v>
       </c>
       <c r="C26" t="s">
-        <v>56</v>
+        <v>217</v>
       </c>
       <c r="E26" t="s">
         <v>283</v>
@@ -2875,9 +3456,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27">
       <c r="C27" t="s">
-        <v>57</v>
+        <v>415</v>
       </c>
       <c r="E27" t="s">
         <v>267</v>
@@ -2886,9 +3467,9 @@
         <v>328</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28">
       <c r="C28" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E28" t="s">
         <v>284</v>
@@ -2897,9 +3478,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29">
       <c r="C29" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E29" t="s">
         <v>285</v>
@@ -2908,9 +3489,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30">
       <c r="C30" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E30" t="s">
         <v>208</v>
@@ -2919,9 +3500,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31">
       <c r="C31" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E31" t="s">
         <v>276</v>
@@ -2930,9 +3511,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32">
       <c r="C32" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E32" t="s">
         <v>286</v>
@@ -2941,9 +3522,9 @@
         <v>111</v>
       </c>
     </row>
-    <row r="33" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="33">
       <c r="C33" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E33" t="s">
         <v>261</v>
@@ -2952,7 +3533,10 @@
         <v>112</v>
       </c>
     </row>
-    <row r="34" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="34">
+      <c r="C34" t="s">
+        <v>62</v>
+      </c>
       <c r="E34" t="s">
         <v>331</v>
       </c>
@@ -2960,7 +3544,10 @@
         <v>202</v>
       </c>
     </row>
-    <row r="35" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="35">
+      <c r="C35" t="s">
+        <v>63</v>
+      </c>
       <c r="E35" t="s">
         <v>309</v>
       </c>
@@ -2968,7 +3555,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="36">
       <c r="E36" t="s">
         <v>262</v>
       </c>
@@ -2976,7 +3563,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="37" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="37">
       <c r="E37" t="s">
         <v>310</v>
       </c>
@@ -2984,7 +3571,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="38" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="38">
       <c r="E38" t="s">
         <v>268</v>
       </c>
@@ -2992,7 +3579,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="39" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="39">
       <c r="E39" t="s">
         <v>70</v>
       </c>
@@ -3000,7 +3587,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="40" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="40">
       <c r="E40" t="s">
         <v>204</v>
       </c>
@@ -3008,7 +3595,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="41" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="41">
       <c r="E41" t="s">
         <v>290</v>
       </c>
@@ -3016,7 +3603,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="42" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="42">
       <c r="E42" t="s">
         <v>301</v>
       </c>
@@ -3024,7 +3611,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="43" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="43">
       <c r="E43" t="s">
         <v>302</v>
       </c>
@@ -3032,7 +3619,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="44" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="44">
       <c r="E44" t="s">
         <v>344</v>
       </c>
@@ -3040,7 +3627,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="45" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="45">
       <c r="E45" t="s">
         <v>343</v>
       </c>
@@ -3048,7 +3635,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="46" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="46">
       <c r="E46" t="s">
         <v>203</v>
       </c>
@@ -3056,7 +3643,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="47" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="47">
       <c r="E47" t="s">
         <v>303</v>
       </c>
@@ -3064,7 +3651,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="48" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="48">
       <c r="E48" t="s">
         <v>340</v>
       </c>
@@ -3072,7 +3659,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="49" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="49">
       <c r="E49" t="s">
         <v>369</v>
       </c>
@@ -3080,7 +3667,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="50" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="50">
       <c r="E50" t="s">
         <v>304</v>
       </c>
@@ -3088,7 +3675,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="51" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="51">
       <c r="E51" t="s">
         <v>357</v>
       </c>
@@ -3096,7 +3683,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="52" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="52">
       <c r="E52" t="s">
         <v>332</v>
       </c>
@@ -3104,7 +3691,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="53" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="53">
       <c r="E53" t="s">
         <v>269</v>
       </c>
@@ -3112,7 +3699,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="54" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="54">
       <c r="E54" t="s">
         <v>293</v>
       </c>
@@ -3120,7 +3707,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="55" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="55">
       <c r="E55" t="s">
         <v>294</v>
       </c>
@@ -3128,7 +3715,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="56" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="56">
       <c r="E56" t="s">
         <v>295</v>
       </c>
@@ -3136,7 +3723,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="57" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="57">
       <c r="E57" t="s">
         <v>305</v>
       </c>
@@ -3144,7 +3731,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="58" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="58">
       <c r="E58" t="s">
         <v>314</v>
       </c>
@@ -3152,7 +3739,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="59" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="59">
       <c r="E59" t="s">
         <v>338</v>
       </c>
@@ -3160,7 +3747,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="60" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="60">
       <c r="E60" t="s">
         <v>311</v>
       </c>
@@ -3168,7 +3755,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="61" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="61">
       <c r="E61" t="s">
         <v>312</v>
       </c>
@@ -3176,7 +3763,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="62" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="62">
       <c r="E62" t="s">
         <v>370</v>
       </c>
@@ -3184,7 +3771,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="63" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="63">
       <c r="E63" t="s">
         <v>371</v>
       </c>
@@ -3192,7 +3779,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="64" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="64">
       <c r="E64" t="s">
         <v>346</v>
       </c>
@@ -3200,7 +3787,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="65" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="65">
       <c r="E65" t="s">
         <v>315</v>
       </c>
@@ -3208,7 +3795,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="66" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="66">
       <c r="E66" t="s">
         <v>270</v>
       </c>
@@ -3216,7 +3803,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="67" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="67">
       <c r="E67" t="s">
         <v>354</v>
       </c>
@@ -3224,7 +3811,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="68" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="68">
       <c r="E68" t="s">
         <v>316</v>
       </c>
@@ -3232,7 +3819,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="69" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="69">
       <c r="E69" t="s">
         <v>409</v>
       </c>
@@ -3240,7 +3827,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="70" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="70">
       <c r="E70" t="s">
         <v>306</v>
       </c>
@@ -3248,7 +3835,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="71" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="71">
       <c r="E71" t="s">
         <v>410</v>
       </c>
@@ -3256,7 +3843,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="72" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="72">
       <c r="E72" t="s">
         <v>263</v>
       </c>
@@ -3264,7 +3851,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="73" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="73">
       <c r="E73" t="s">
         <v>345</v>
       </c>
@@ -3272,7 +3859,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="74" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="74">
       <c r="E74" t="s">
         <v>281</v>
       </c>
@@ -3280,7 +3867,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="75" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="75">
       <c r="E75" t="s">
         <v>287</v>
       </c>
@@ -3288,7 +3875,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="76" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="76">
       <c r="E76" t="s">
         <v>292</v>
       </c>
@@ -3296,7 +3883,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="77" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="77">
       <c r="E77" t="s">
         <v>416</v>
       </c>
@@ -3304,7 +3891,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="78" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="78">
       <c r="E78" t="s">
         <v>333</v>
       </c>
@@ -3312,7 +3899,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="79" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="79">
       <c r="E79" t="s">
         <v>271</v>
       </c>
@@ -3320,7 +3907,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="80" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="80">
       <c r="E80" t="s">
         <v>282</v>
       </c>
@@ -3328,7 +3915,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="81" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="81">
       <c r="E81" t="s">
         <v>288</v>
       </c>
@@ -3336,7 +3923,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="82" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="82">
       <c r="E82" t="s">
         <v>277</v>
       </c>
@@ -3344,7 +3931,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="83" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="83">
       <c r="E83" t="s">
         <v>272</v>
       </c>
@@ -3352,7 +3939,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="84" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="84">
       <c r="E84" t="s">
         <v>289</v>
       </c>
@@ -3360,7 +3947,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="85" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="85">
       <c r="E85" t="s">
         <v>273</v>
       </c>
@@ -3368,7 +3955,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="86" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="86">
       <c r="E86" t="s">
         <v>274</v>
       </c>
@@ -3376,7 +3963,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="87" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="87">
       <c r="E87" t="s">
         <v>307</v>
       </c>
@@ -3384,7 +3971,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="88" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="88">
       <c r="E88" t="s">
         <v>313</v>
       </c>
@@ -3392,7 +3979,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="89" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="89">
       <c r="E89" t="s">
         <v>296</v>
       </c>
@@ -3400,7 +3987,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="90" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="90">
       <c r="E90" t="s">
         <v>341</v>
       </c>
@@ -3408,7 +3995,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="91" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="91">
       <c r="E91" t="s">
         <v>278</v>
       </c>
@@ -3416,7 +4003,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="92" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="92">
       <c r="E92" t="s">
         <v>279</v>
       </c>
@@ -3424,155 +4011,155 @@
         <v>141</v>
       </c>
     </row>
-    <row r="93" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="93">
       <c r="U93" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="94" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="94">
       <c r="U94" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="95" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="95">
       <c r="U95" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="96" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="96">
       <c r="U96" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="97" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="97">
       <c r="U97" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="98" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="98">
       <c r="U98" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="99" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="99">
       <c r="U99" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="100" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="100">
       <c r="U100" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="101" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="101">
       <c r="U101" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="102" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="102">
       <c r="U102" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="103" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="103">
       <c r="U103" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="104" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="104">
       <c r="U104" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="105" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="105">
       <c r="U105" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="106" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="106">
       <c r="U106" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="107" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="107">
       <c r="U107" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="108" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="108">
       <c r="U108" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="109" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="109">
       <c r="U109" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="110" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="110">
       <c r="U110" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="111" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="111">
       <c r="U111" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="112" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="112">
       <c r="U112" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="113" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="113">
       <c r="U113" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="114" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="114">
       <c r="U114" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="115" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="115">
       <c r="U115" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="116" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="116">
       <c r="U116" t="s">
         <v>162</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O996"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:P996"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="E10" pane="bottomLeft" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="47.83203125" style="8" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.83203125" style="12" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="42.33203125" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="26.83203125" style="9" customWidth="1" collapsed="1"/>
-    <col min="6" max="9" width="18.33203125" style="9" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="35.83203125" style="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.6640625" style="10" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="14" customWidth="1" collapsed="1"/>
-    <col min="13" max="16384" width="10.83203125" style="3" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="8" width="21.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="8" width="47.83203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="12" width="10.83203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="9" width="42.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="9" width="26.83203125" collapsed="true"/>
+    <col min="6" max="9" customWidth="true" style="9" width="18.33203125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="16" width="35.83203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="10" width="1.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="14" width="12.0" collapsed="true"/>
+    <col min="13" max="16384" style="3" width="10.83203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="5" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="20" r="1" s="5" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>246</v>
       </c>
@@ -3608,7 +4195,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="18" r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>247</v>
       </c>
@@ -3632,7 +4219,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="13"/>
     </row>
-    <row r="3" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>252</v>
       </c>
@@ -3654,7 +4241,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="13"/>
     </row>
-    <row r="4" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="11" t="s">
@@ -3677,7 +4264,7 @@
       <c r="N4"/>
       <c r="O4"/>
     </row>
-    <row r="5" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="11" t="s">
@@ -3697,7 +4284,7 @@
       <c r="K5" s="2"/>
       <c r="L5" s="13"/>
     </row>
-    <row r="6" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="11" t="s">
@@ -3717,7 +4304,7 @@
       <c r="K6" s="2"/>
       <c r="L6" s="13"/>
     </row>
-    <row r="7" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>256</v>
       </c>
@@ -3739,7 +4326,7 @@
       <c r="K7" s="2"/>
       <c r="L7" s="13"/>
     </row>
-    <row r="8" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>462</v>
       </c>
@@ -3762,7 +4349,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="13"/>
     </row>
-    <row r="9" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="11" t="s">
@@ -3786,7 +4373,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="13"/>
     </row>
-    <row r="10" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="11" t="s">
@@ -3808,7 +4395,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="13"/>
     </row>
-    <row r="11" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="11" t="s">
@@ -3832,7 +4419,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="13"/>
     </row>
-    <row r="12" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="11"/>
@@ -3846,7 +4433,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="13"/>
     </row>
-    <row r="13" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="11"/>
@@ -3860,7 +4447,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="13"/>
     </row>
-    <row r="14" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="11"/>
@@ -3874,7 +4461,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="13"/>
     </row>
-    <row r="15" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="11"/>
@@ -3888,7 +4475,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="13"/>
     </row>
-    <row r="16" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="11"/>
@@ -3902,7 +4489,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="13"/>
     </row>
-    <row r="17" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="11"/>
@@ -3916,7 +4503,7 @@
       <c r="K17" s="2"/>
       <c r="L17" s="13"/>
     </row>
-    <row r="18" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="11"/>
@@ -3930,7 +4517,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="13"/>
     </row>
-    <row r="19" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="11"/>
@@ -3944,7 +4531,7 @@
       <c r="K19" s="2"/>
       <c r="L19" s="13"/>
     </row>
-    <row r="20" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="11"/>
@@ -3958,7 +4545,7 @@
       <c r="K20" s="2"/>
       <c r="L20" s="13"/>
     </row>
-    <row r="21" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="11"/>
@@ -3972,7 +4559,7 @@
       <c r="K21" s="2"/>
       <c r="L21" s="13"/>
     </row>
-    <row r="22" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="11"/>
@@ -3986,7 +4573,7 @@
       <c r="K22" s="2"/>
       <c r="L22" s="13"/>
     </row>
-    <row r="23" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="11"/>
@@ -4000,7 +4587,7 @@
       <c r="K23" s="2"/>
       <c r="L23" s="13"/>
     </row>
-    <row r="24" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="7"/>
       <c r="C24" s="11"/>
@@ -4014,7 +4601,7 @@
       <c r="K24" s="2"/>
       <c r="L24" s="13"/>
     </row>
-    <row r="25" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="11"/>
@@ -4028,7 +4615,7 @@
       <c r="K25" s="2"/>
       <c r="L25" s="13"/>
     </row>
-    <row r="26" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="11"/>
@@ -4042,7 +4629,7 @@
       <c r="K26" s="2"/>
       <c r="L26" s="13"/>
     </row>
-    <row r="27" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="11"/>
@@ -4056,7 +4643,7 @@
       <c r="K27" s="2"/>
       <c r="L27" s="13"/>
     </row>
-    <row r="28" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="11"/>
@@ -4070,7 +4657,7 @@
       <c r="K28" s="2"/>
       <c r="L28" s="13"/>
     </row>
-    <row r="29" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="11"/>
@@ -4084,7 +4671,7 @@
       <c r="K29" s="2"/>
       <c r="L29" s="13"/>
     </row>
-    <row r="30" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="11"/>
@@ -4098,7 +4685,7 @@
       <c r="K30" s="2"/>
       <c r="L30" s="13"/>
     </row>
-    <row r="31" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="11"/>
@@ -4112,7 +4699,7 @@
       <c r="K31" s="2"/>
       <c r="L31" s="13"/>
     </row>
-    <row r="32" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="11"/>
@@ -4126,7 +4713,7 @@
       <c r="K32" s="2"/>
       <c r="L32" s="13"/>
     </row>
-    <row r="33" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="11"/>
@@ -4140,7 +4727,7 @@
       <c r="K33" s="2"/>
       <c r="L33" s="13"/>
     </row>
-    <row r="34" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="11"/>
@@ -4154,7 +4741,7 @@
       <c r="K34" s="2"/>
       <c r="L34" s="13"/>
     </row>
-    <row r="35" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="11"/>
@@ -4168,7 +4755,7 @@
       <c r="K35" s="2"/>
       <c r="L35" s="13"/>
     </row>
-    <row r="36" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="11"/>
@@ -4182,7 +4769,7 @@
       <c r="K36" s="2"/>
       <c r="L36" s="13"/>
     </row>
-    <row r="37" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="11"/>
@@ -4196,7 +4783,7 @@
       <c r="K37" s="2"/>
       <c r="L37" s="13"/>
     </row>
-    <row r="38" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="11"/>
@@ -4210,7 +4797,7 @@
       <c r="K38" s="2"/>
       <c r="L38" s="13"/>
     </row>
-    <row r="39" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="11"/>
@@ -4224,7 +4811,7 @@
       <c r="K39" s="2"/>
       <c r="L39" s="13"/>
     </row>
-    <row r="40" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="11"/>
@@ -4238,7 +4825,7 @@
       <c r="K40" s="2"/>
       <c r="L40" s="13"/>
     </row>
-    <row r="41" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="11"/>
@@ -4252,7 +4839,7 @@
       <c r="K41" s="2"/>
       <c r="L41" s="13"/>
     </row>
-    <row r="42" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="11"/>
@@ -4266,7 +4853,7 @@
       <c r="K42" s="2"/>
       <c r="L42" s="13"/>
     </row>
-    <row r="43" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="11"/>
@@ -4280,7 +4867,7 @@
       <c r="K43" s="2"/>
       <c r="L43" s="13"/>
     </row>
-    <row r="44" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="11"/>
@@ -4294,7 +4881,7 @@
       <c r="K44" s="2"/>
       <c r="L44" s="13"/>
     </row>
-    <row r="45" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="11"/>
@@ -4308,7 +4895,7 @@
       <c r="K45" s="2"/>
       <c r="L45" s="13"/>
     </row>
-    <row r="46" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="11"/>
@@ -4322,7 +4909,7 @@
       <c r="K46" s="2"/>
       <c r="L46" s="13"/>
     </row>
-    <row r="47" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="11"/>
@@ -4336,7 +4923,7 @@
       <c r="K47" s="2"/>
       <c r="L47" s="13"/>
     </row>
-    <row r="48" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="11"/>
@@ -4350,7 +4937,7 @@
       <c r="K48" s="2"/>
       <c r="L48" s="13"/>
     </row>
-    <row r="49" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="11"/>
@@ -4364,7 +4951,7 @@
       <c r="K49" s="2"/>
       <c r="L49" s="13"/>
     </row>
-    <row r="50" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="11"/>
@@ -4378,7 +4965,7 @@
       <c r="K50" s="2"/>
       <c r="L50" s="13"/>
     </row>
-    <row r="51" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="11"/>
@@ -4392,7 +4979,7 @@
       <c r="K51" s="2"/>
       <c r="L51" s="13"/>
     </row>
-    <row r="52" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="11"/>
@@ -4406,7 +4993,7 @@
       <c r="K52" s="2"/>
       <c r="L52" s="13"/>
     </row>
-    <row r="53" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="11"/>
@@ -4420,7 +5007,7 @@
       <c r="K53" s="2"/>
       <c r="L53" s="13"/>
     </row>
-    <row r="54" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="11"/>
@@ -4434,7 +5021,7 @@
       <c r="K54" s="2"/>
       <c r="L54" s="13"/>
     </row>
-    <row r="55" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="11"/>
@@ -4448,7 +5035,7 @@
       <c r="K55" s="2"/>
       <c r="L55" s="13"/>
     </row>
-    <row r="56" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="11"/>
@@ -4462,7 +5049,7 @@
       <c r="K56" s="2"/>
       <c r="L56" s="13"/>
     </row>
-    <row r="57" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="11"/>
@@ -4476,7 +5063,7 @@
       <c r="K57" s="2"/>
       <c r="L57" s="13"/>
     </row>
-    <row r="58" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="11"/>
@@ -4490,7 +5077,7 @@
       <c r="K58" s="2"/>
       <c r="L58" s="13"/>
     </row>
-    <row r="59" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="11"/>
@@ -4504,7 +5091,7 @@
       <c r="K59" s="2"/>
       <c r="L59" s="13"/>
     </row>
-    <row r="60" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="11"/>
@@ -4518,7 +5105,7 @@
       <c r="K60" s="2"/>
       <c r="L60" s="13"/>
     </row>
-    <row r="61" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="11"/>
@@ -4532,7 +5119,7 @@
       <c r="K61" s="2"/>
       <c r="L61" s="13"/>
     </row>
-    <row r="62" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="11"/>
@@ -4546,7 +5133,7 @@
       <c r="K62" s="2"/>
       <c r="L62" s="13"/>
     </row>
-    <row r="63" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="11"/>
@@ -4560,7 +5147,7 @@
       <c r="K63" s="2"/>
       <c r="L63" s="13"/>
     </row>
-    <row r="64" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="11"/>
@@ -4574,7 +5161,7 @@
       <c r="K64" s="2"/>
       <c r="L64" s="13"/>
     </row>
-    <row r="65" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="11"/>
@@ -4588,7 +5175,7 @@
       <c r="K65" s="2"/>
       <c r="L65" s="13"/>
     </row>
-    <row r="66" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="11"/>
@@ -4602,7 +5189,7 @@
       <c r="K66" s="2"/>
       <c r="L66" s="13"/>
     </row>
-    <row r="67" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="11"/>
@@ -4616,7 +5203,7 @@
       <c r="K67" s="2"/>
       <c r="L67" s="13"/>
     </row>
-    <row r="68" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="11"/>
@@ -4630,7 +5217,7 @@
       <c r="K68" s="2"/>
       <c r="L68" s="13"/>
     </row>
-    <row r="69" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="11"/>
@@ -4644,7 +5231,7 @@
       <c r="K69" s="2"/>
       <c r="L69" s="13"/>
     </row>
-    <row r="70" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="11"/>
@@ -4658,7 +5245,7 @@
       <c r="K70" s="2"/>
       <c r="L70" s="13"/>
     </row>
-    <row r="71" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="11"/>
@@ -4672,7 +5259,7 @@
       <c r="K71" s="2"/>
       <c r="L71" s="13"/>
     </row>
-    <row r="72" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="11"/>
@@ -4686,7 +5273,7 @@
       <c r="K72" s="2"/>
       <c r="L72" s="13"/>
     </row>
-    <row r="73" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="11"/>
@@ -4700,7 +5287,7 @@
       <c r="K73" s="2"/>
       <c r="L73" s="13"/>
     </row>
-    <row r="74" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="11"/>
@@ -4714,7 +5301,7 @@
       <c r="K74" s="2"/>
       <c r="L74" s="13"/>
     </row>
-    <row r="75" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="11"/>
@@ -4728,7 +5315,7 @@
       <c r="K75" s="2"/>
       <c r="L75" s="13"/>
     </row>
-    <row r="76" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="11"/>
@@ -4742,7 +5329,7 @@
       <c r="K76" s="2"/>
       <c r="L76" s="13"/>
     </row>
-    <row r="77" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="11"/>
@@ -4756,7 +5343,7 @@
       <c r="K77" s="2"/>
       <c r="L77" s="13"/>
     </row>
-    <row r="78" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="11"/>
@@ -4770,7 +5357,7 @@
       <c r="K78" s="2"/>
       <c r="L78" s="13"/>
     </row>
-    <row r="79" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="11"/>
@@ -4784,7 +5371,7 @@
       <c r="K79" s="2"/>
       <c r="L79" s="13"/>
     </row>
-    <row r="80" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="11"/>
@@ -4798,7 +5385,7 @@
       <c r="K80" s="2"/>
       <c r="L80" s="13"/>
     </row>
-    <row r="81" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="11"/>
@@ -4812,7 +5399,7 @@
       <c r="K81" s="2"/>
       <c r="L81" s="13"/>
     </row>
-    <row r="82" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="11"/>
@@ -4826,7 +5413,7 @@
       <c r="K82" s="2"/>
       <c r="L82" s="13"/>
     </row>
-    <row r="83" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="11"/>
@@ -4840,7 +5427,7 @@
       <c r="K83" s="2"/>
       <c r="L83" s="13"/>
     </row>
-    <row r="84" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="11"/>
@@ -4854,7 +5441,7 @@
       <c r="K84" s="2"/>
       <c r="L84" s="13"/>
     </row>
-    <row r="85" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="11"/>
@@ -4868,7 +5455,7 @@
       <c r="K85" s="2"/>
       <c r="L85" s="13"/>
     </row>
-    <row r="86" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="11"/>
@@ -4882,7 +5469,7 @@
       <c r="K86" s="2"/>
       <c r="L86" s="13"/>
     </row>
-    <row r="87" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="11"/>
@@ -4896,7 +5483,7 @@
       <c r="K87" s="2"/>
       <c r="L87" s="13"/>
     </row>
-    <row r="88" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="11"/>
@@ -4910,7 +5497,7 @@
       <c r="K88" s="2"/>
       <c r="L88" s="13"/>
     </row>
-    <row r="89" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="11"/>
@@ -4924,7 +5511,7 @@
       <c r="K89" s="2"/>
       <c r="L89" s="13"/>
     </row>
-    <row r="90" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="11"/>
@@ -4938,7 +5525,7 @@
       <c r="K90" s="2"/>
       <c r="L90" s="13"/>
     </row>
-    <row r="91" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="11"/>
@@ -4952,7 +5539,7 @@
       <c r="K91" s="2"/>
       <c r="L91" s="13"/>
     </row>
-    <row r="92" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="11"/>
@@ -4966,7 +5553,7 @@
       <c r="K92" s="2"/>
       <c r="L92" s="13"/>
     </row>
-    <row r="93" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="11"/>
@@ -4980,7 +5567,7 @@
       <c r="K93" s="2"/>
       <c r="L93" s="13"/>
     </row>
-    <row r="94" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="11"/>
@@ -4994,7 +5581,7 @@
       <c r="K94" s="2"/>
       <c r="L94" s="13"/>
     </row>
-    <row r="95" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="11"/>
@@ -5008,7 +5595,7 @@
       <c r="K95" s="2"/>
       <c r="L95" s="13"/>
     </row>
-    <row r="96" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="11"/>
@@ -5022,7 +5609,7 @@
       <c r="K96" s="2"/>
       <c r="L96" s="13"/>
     </row>
-    <row r="97" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="11"/>
@@ -5036,7 +5623,7 @@
       <c r="K97" s="2"/>
       <c r="L97" s="13"/>
     </row>
-    <row r="98" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="11"/>
@@ -5050,7 +5637,7 @@
       <c r="K98" s="2"/>
       <c r="L98" s="13"/>
     </row>
-    <row r="99" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="11"/>
@@ -5064,7 +5651,7 @@
       <c r="K99" s="2"/>
       <c r="L99" s="13"/>
     </row>
-    <row r="100" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="11"/>
@@ -5078,7 +5665,7 @@
       <c r="K100" s="2"/>
       <c r="L100" s="13"/>
     </row>
-    <row r="101" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="11"/>
@@ -5092,7 +5679,7 @@
       <c r="K101" s="2"/>
       <c r="L101" s="13"/>
     </row>
-    <row r="102" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="11"/>
@@ -5106,7 +5693,7 @@
       <c r="K102" s="2"/>
       <c r="L102" s="13"/>
     </row>
-    <row r="103" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="11"/>
@@ -5120,7 +5707,7 @@
       <c r="K103" s="2"/>
       <c r="L103" s="13"/>
     </row>
-    <row r="104" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" s="11"/>
@@ -5134,7 +5721,7 @@
       <c r="K104" s="2"/>
       <c r="L104" s="13"/>
     </row>
-    <row r="105" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="11"/>
@@ -5148,7 +5735,7 @@
       <c r="K105" s="2"/>
       <c r="L105" s="13"/>
     </row>
-    <row r="106" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="11"/>
@@ -5162,7 +5749,7 @@
       <c r="K106" s="2"/>
       <c r="L106" s="13"/>
     </row>
-    <row r="107" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" s="11"/>
@@ -5176,7 +5763,7 @@
       <c r="K107" s="2"/>
       <c r="L107" s="13"/>
     </row>
-    <row r="108" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="11"/>
@@ -5190,7 +5777,7 @@
       <c r="K108" s="2"/>
       <c r="L108" s="13"/>
     </row>
-    <row r="109" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="11"/>
@@ -5204,7 +5791,7 @@
       <c r="K109" s="2"/>
       <c r="L109" s="13"/>
     </row>
-    <row r="110" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="C110" s="11"/>
@@ -5218,7 +5805,7 @@
       <c r="K110" s="2"/>
       <c r="L110" s="13"/>
     </row>
-    <row r="111" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="C111" s="11"/>
@@ -5232,7 +5819,7 @@
       <c r="K111" s="2"/>
       <c r="L111" s="13"/>
     </row>
-    <row r="112" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="11"/>
@@ -5246,7 +5833,7 @@
       <c r="K112" s="2"/>
       <c r="L112" s="13"/>
     </row>
-    <row r="113" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="11"/>
@@ -5260,7 +5847,7 @@
       <c r="K113" s="2"/>
       <c r="L113" s="13"/>
     </row>
-    <row r="114" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="114" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="11"/>
@@ -5274,7 +5861,7 @@
       <c r="K114" s="2"/>
       <c r="L114" s="13"/>
     </row>
-    <row r="115" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="11"/>
@@ -5288,7 +5875,7 @@
       <c r="K115" s="2"/>
       <c r="L115" s="13"/>
     </row>
-    <row r="116" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="116" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="C116" s="11"/>
@@ -5302,7 +5889,7 @@
       <c r="K116" s="2"/>
       <c r="L116" s="13"/>
     </row>
-    <row r="117" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="117" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="11"/>
@@ -5316,7 +5903,7 @@
       <c r="K117" s="2"/>
       <c r="L117" s="13"/>
     </row>
-    <row r="118" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="118" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="11"/>
@@ -5330,7 +5917,7 @@
       <c r="K118" s="2"/>
       <c r="L118" s="13"/>
     </row>
-    <row r="119" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="11"/>
@@ -5344,7 +5931,7 @@
       <c r="K119" s="2"/>
       <c r="L119" s="13"/>
     </row>
-    <row r="120" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="120" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="C120" s="11"/>
@@ -5358,7 +5945,7 @@
       <c r="K120" s="2"/>
       <c r="L120" s="13"/>
     </row>
-    <row r="121" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" s="11"/>
@@ -5372,7 +5959,7 @@
       <c r="K121" s="2"/>
       <c r="L121" s="13"/>
     </row>
-    <row r="122" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="122" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
       <c r="C122" s="11"/>
@@ -5386,7 +5973,7 @@
       <c r="K122" s="2"/>
       <c r="L122" s="13"/>
     </row>
-    <row r="123" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="123" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="C123" s="11"/>
@@ -5400,7 +5987,7 @@
       <c r="K123" s="2"/>
       <c r="L123" s="13"/>
     </row>
-    <row r="124" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="124" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
       <c r="C124" s="11"/>
@@ -5414,7 +6001,7 @@
       <c r="K124" s="2"/>
       <c r="L124" s="13"/>
     </row>
-    <row r="125" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="125" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="11"/>
@@ -5428,7 +6015,7 @@
       <c r="K125" s="2"/>
       <c r="L125" s="13"/>
     </row>
-    <row r="126" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="11"/>
@@ -5442,7 +6029,7 @@
       <c r="K126" s="2"/>
       <c r="L126" s="13"/>
     </row>
-    <row r="127" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="11"/>
@@ -5456,7 +6043,7 @@
       <c r="K127" s="2"/>
       <c r="L127" s="13"/>
     </row>
-    <row r="128" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="128" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="C128" s="11"/>
@@ -5470,7 +6057,7 @@
       <c r="K128" s="2"/>
       <c r="L128" s="13"/>
     </row>
-    <row r="129" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="C129" s="11"/>
@@ -5484,7 +6071,7 @@
       <c r="K129" s="2"/>
       <c r="L129" s="13"/>
     </row>
-    <row r="130" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="11"/>
@@ -5498,7 +6085,7 @@
       <c r="K130" s="2"/>
       <c r="L130" s="13"/>
     </row>
-    <row r="131" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" s="11"/>
@@ -5512,7 +6099,7 @@
       <c r="K131" s="2"/>
       <c r="L131" s="13"/>
     </row>
-    <row r="132" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
       <c r="C132" s="11"/>
@@ -5526,7 +6113,7 @@
       <c r="K132" s="2"/>
       <c r="L132" s="13"/>
     </row>
-    <row r="133" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" s="11"/>
@@ -5540,7 +6127,7 @@
       <c r="K133" s="2"/>
       <c r="L133" s="13"/>
     </row>
-    <row r="134" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="134" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" s="11"/>
@@ -5554,7 +6141,7 @@
       <c r="K134" s="2"/>
       <c r="L134" s="13"/>
     </row>
-    <row r="135" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="135" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="11"/>
@@ -5568,7 +6155,7 @@
       <c r="K135" s="2"/>
       <c r="L135" s="13"/>
     </row>
-    <row r="136" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" s="11"/>
@@ -5582,7 +6169,7 @@
       <c r="K136" s="2"/>
       <c r="L136" s="13"/>
     </row>
-    <row r="137" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="11"/>
@@ -5596,7 +6183,7 @@
       <c r="K137" s="2"/>
       <c r="L137" s="13"/>
     </row>
-    <row r="138" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" s="11"/>
@@ -5610,7 +6197,7 @@
       <c r="K138" s="2"/>
       <c r="L138" s="13"/>
     </row>
-    <row r="139" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="C139" s="11"/>
@@ -5624,7 +6211,7 @@
       <c r="K139" s="2"/>
       <c r="L139" s="13"/>
     </row>
-    <row r="140" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="C140" s="11"/>
@@ -5638,7 +6225,7 @@
       <c r="K140" s="2"/>
       <c r="L140" s="13"/>
     </row>
-    <row r="141" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="141" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="11"/>
@@ -5652,7 +6239,7 @@
       <c r="K141" s="2"/>
       <c r="L141" s="13"/>
     </row>
-    <row r="142" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="142" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="11"/>
@@ -5666,7 +6253,7 @@
       <c r="K142" s="2"/>
       <c r="L142" s="13"/>
     </row>
-    <row r="143" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="143" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="11"/>
@@ -5680,7 +6267,7 @@
       <c r="K143" s="2"/>
       <c r="L143" s="13"/>
     </row>
-    <row r="144" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="144" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="C144" s="11"/>
@@ -5694,7 +6281,7 @@
       <c r="K144" s="2"/>
       <c r="L144" s="13"/>
     </row>
-    <row r="145" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="145" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
       <c r="C145" s="11"/>
@@ -5708,7 +6295,7 @@
       <c r="K145" s="2"/>
       <c r="L145" s="13"/>
     </row>
-    <row r="146" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="146" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" s="11"/>
@@ -5722,7 +6309,7 @@
       <c r="K146" s="2"/>
       <c r="L146" s="13"/>
     </row>
-    <row r="147" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="147" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="C147" s="11"/>
@@ -5736,7 +6323,7 @@
       <c r="K147" s="2"/>
       <c r="L147" s="13"/>
     </row>
-    <row r="148" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="148" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="C148" s="11"/>
@@ -5750,7 +6337,7 @@
       <c r="K148" s="2"/>
       <c r="L148" s="13"/>
     </row>
-    <row r="149" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="149" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="C149" s="11"/>
@@ -5764,7 +6351,7 @@
       <c r="K149" s="2"/>
       <c r="L149" s="13"/>
     </row>
-    <row r="150" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="150" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="C150" s="11"/>
@@ -5778,7 +6365,7 @@
       <c r="K150" s="2"/>
       <c r="L150" s="13"/>
     </row>
-    <row r="151" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="151" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="C151" s="11"/>
@@ -5792,7 +6379,7 @@
       <c r="K151" s="2"/>
       <c r="L151" s="13"/>
     </row>
-    <row r="152" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="152" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
       <c r="C152" s="11"/>
@@ -5806,7 +6393,7 @@
       <c r="K152" s="2"/>
       <c r="L152" s="13"/>
     </row>
-    <row r="153" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="153" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="C153" s="11"/>
@@ -5820,7 +6407,7 @@
       <c r="K153" s="2"/>
       <c r="L153" s="13"/>
     </row>
-    <row r="154" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="154" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="C154" s="11"/>
@@ -5834,7 +6421,7 @@
       <c r="K154" s="2"/>
       <c r="L154" s="13"/>
     </row>
-    <row r="155" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="155" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="11"/>
@@ -5848,7 +6435,7 @@
       <c r="K155" s="2"/>
       <c r="L155" s="13"/>
     </row>
-    <row r="156" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="156" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
       <c r="C156" s="11"/>
@@ -5862,7 +6449,7 @@
       <c r="K156" s="2"/>
       <c r="L156" s="13"/>
     </row>
-    <row r="157" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="157" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
       <c r="C157" s="11"/>
@@ -5876,7 +6463,7 @@
       <c r="K157" s="2"/>
       <c r="L157" s="13"/>
     </row>
-    <row r="158" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="158" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
       <c r="C158" s="11"/>
@@ -5890,7 +6477,7 @@
       <c r="K158" s="2"/>
       <c r="L158" s="13"/>
     </row>
-    <row r="159" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="159" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A159" s="4"/>
       <c r="B159" s="4"/>
       <c r="C159" s="11"/>
@@ -5904,7 +6491,7 @@
       <c r="K159" s="2"/>
       <c r="L159" s="13"/>
     </row>
-    <row r="160" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="160" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A160" s="4"/>
       <c r="B160" s="4"/>
       <c r="C160" s="11"/>
@@ -5918,7 +6505,7 @@
       <c r="K160" s="2"/>
       <c r="L160" s="13"/>
     </row>
-    <row r="161" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="161" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A161" s="4"/>
       <c r="B161" s="4"/>
       <c r="C161" s="11"/>
@@ -5932,7 +6519,7 @@
       <c r="K161" s="2"/>
       <c r="L161" s="13"/>
     </row>
-    <row r="162" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="162" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A162" s="4"/>
       <c r="B162" s="4"/>
       <c r="C162" s="11"/>
@@ -5946,7 +6533,7 @@
       <c r="K162" s="2"/>
       <c r="L162" s="13"/>
     </row>
-    <row r="163" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="163" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A163" s="4"/>
       <c r="B163" s="4"/>
       <c r="C163" s="11"/>
@@ -5960,7 +6547,7 @@
       <c r="K163" s="2"/>
       <c r="L163" s="13"/>
     </row>
-    <row r="164" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="164" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A164" s="4"/>
       <c r="B164" s="4"/>
       <c r="C164" s="11"/>
@@ -5974,7 +6561,7 @@
       <c r="K164" s="2"/>
       <c r="L164" s="13"/>
     </row>
-    <row r="165" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="165" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A165" s="4"/>
       <c r="B165" s="4"/>
       <c r="C165" s="11"/>
@@ -5988,7 +6575,7 @@
       <c r="K165" s="2"/>
       <c r="L165" s="13"/>
     </row>
-    <row r="166" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="166" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A166" s="4"/>
       <c r="B166" s="4"/>
       <c r="C166" s="11"/>
@@ -6002,7 +6589,7 @@
       <c r="K166" s="2"/>
       <c r="L166" s="13"/>
     </row>
-    <row r="167" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="167" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="C167" s="11"/>
@@ -6016,7 +6603,7 @@
       <c r="K167" s="2"/>
       <c r="L167" s="13"/>
     </row>
-    <row r="168" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="168" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
       <c r="C168" s="11"/>
@@ -6030,7 +6617,7 @@
       <c r="K168" s="2"/>
       <c r="L168" s="13"/>
     </row>
-    <row r="169" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="169" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="C169" s="11"/>
@@ -6044,7 +6631,7 @@
       <c r="K169" s="2"/>
       <c r="L169" s="13"/>
     </row>
-    <row r="170" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="170" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="C170" s="11"/>
@@ -6058,7 +6645,7 @@
       <c r="K170" s="2"/>
       <c r="L170" s="13"/>
     </row>
-    <row r="171" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="171" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
       <c r="C171" s="11"/>
@@ -6072,7 +6659,7 @@
       <c r="K171" s="2"/>
       <c r="L171" s="13"/>
     </row>
-    <row r="172" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="172" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
       <c r="C172" s="11"/>
@@ -6086,7 +6673,7 @@
       <c r="K172" s="2"/>
       <c r="L172" s="13"/>
     </row>
-    <row r="173" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="173" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
       <c r="C173" s="11"/>
@@ -6100,7 +6687,7 @@
       <c r="K173" s="2"/>
       <c r="L173" s="13"/>
     </row>
-    <row r="174" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="174" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
       <c r="C174" s="11"/>
@@ -6114,7 +6701,7 @@
       <c r="K174" s="2"/>
       <c r="L174" s="13"/>
     </row>
-    <row r="175" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="175" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
       <c r="C175" s="11"/>
@@ -6128,7 +6715,7 @@
       <c r="K175" s="2"/>
       <c r="L175" s="13"/>
     </row>
-    <row r="176" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="176" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
       <c r="C176" s="11"/>
@@ -6142,7 +6729,7 @@
       <c r="K176" s="2"/>
       <c r="L176" s="13"/>
     </row>
-    <row r="177" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="177" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
       <c r="C177" s="11"/>
@@ -6156,7 +6743,7 @@
       <c r="K177" s="2"/>
       <c r="L177" s="13"/>
     </row>
-    <row r="178" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="178" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
       <c r="C178" s="11"/>
@@ -6170,7 +6757,7 @@
       <c r="K178" s="2"/>
       <c r="L178" s="13"/>
     </row>
-    <row r="179" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="179" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
       <c r="C179" s="11"/>
@@ -6184,7 +6771,7 @@
       <c r="K179" s="2"/>
       <c r="L179" s="13"/>
     </row>
-    <row r="180" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="180" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
       <c r="C180" s="11"/>
@@ -6198,7 +6785,7 @@
       <c r="K180" s="2"/>
       <c r="L180" s="13"/>
     </row>
-    <row r="181" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="181" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
       <c r="C181" s="11"/>
@@ -6212,7 +6799,7 @@
       <c r="K181" s="2"/>
       <c r="L181" s="13"/>
     </row>
-    <row r="182" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="182" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
       <c r="C182" s="11"/>
@@ -6226,7 +6813,7 @@
       <c r="K182" s="2"/>
       <c r="L182" s="13"/>
     </row>
-    <row r="183" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="183" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
       <c r="C183" s="11"/>
@@ -6240,7 +6827,7 @@
       <c r="K183" s="2"/>
       <c r="L183" s="13"/>
     </row>
-    <row r="184" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="184" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A184" s="4"/>
       <c r="B184" s="4"/>
       <c r="C184" s="11"/>
@@ -6254,7 +6841,7 @@
       <c r="K184" s="2"/>
       <c r="L184" s="13"/>
     </row>
-    <row r="185" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="185" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A185" s="4"/>
       <c r="B185" s="4"/>
       <c r="C185" s="11"/>
@@ -6268,7 +6855,7 @@
       <c r="K185" s="2"/>
       <c r="L185" s="13"/>
     </row>
-    <row r="186" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="186" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A186" s="4"/>
       <c r="B186" s="4"/>
       <c r="C186" s="11"/>
@@ -6282,7 +6869,7 @@
       <c r="K186" s="2"/>
       <c r="L186" s="13"/>
     </row>
-    <row r="187" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="187" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A187" s="4"/>
       <c r="B187" s="4"/>
       <c r="C187" s="11"/>
@@ -6296,7 +6883,7 @@
       <c r="K187" s="2"/>
       <c r="L187" s="13"/>
     </row>
-    <row r="188" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="188" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A188" s="4"/>
       <c r="B188" s="4"/>
       <c r="C188" s="11"/>
@@ -6310,7 +6897,7 @@
       <c r="K188" s="2"/>
       <c r="L188" s="13"/>
     </row>
-    <row r="189" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="189" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
       <c r="C189" s="11"/>
@@ -6324,7 +6911,7 @@
       <c r="K189" s="2"/>
       <c r="L189" s="13"/>
     </row>
-    <row r="190" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="190" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
       <c r="C190" s="11"/>
@@ -6338,7 +6925,7 @@
       <c r="K190" s="2"/>
       <c r="L190" s="13"/>
     </row>
-    <row r="191" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="191" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
       <c r="C191" s="11"/>
@@ -6352,7 +6939,7 @@
       <c r="K191" s="2"/>
       <c r="L191" s="13"/>
     </row>
-    <row r="192" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="192" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A192" s="4"/>
       <c r="B192" s="4"/>
       <c r="C192" s="11"/>
@@ -6366,7 +6953,7 @@
       <c r="K192" s="2"/>
       <c r="L192" s="13"/>
     </row>
-    <row r="193" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="193" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A193" s="4"/>
       <c r="B193" s="4"/>
       <c r="C193" s="11"/>
@@ -6380,7 +6967,7 @@
       <c r="K193" s="2"/>
       <c r="L193" s="13"/>
     </row>
-    <row r="194" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="194" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A194" s="4"/>
       <c r="B194" s="4"/>
       <c r="C194" s="11"/>
@@ -6394,7 +6981,7 @@
       <c r="K194" s="2"/>
       <c r="L194" s="13"/>
     </row>
-    <row r="195" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="195" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
       <c r="C195" s="11"/>
@@ -6408,7 +6995,7 @@
       <c r="K195" s="2"/>
       <c r="L195" s="13"/>
     </row>
-    <row r="196" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="196" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A196" s="4"/>
       <c r="B196" s="4"/>
       <c r="C196" s="11"/>
@@ -6422,7 +7009,7 @@
       <c r="K196" s="2"/>
       <c r="L196" s="13"/>
     </row>
-    <row r="197" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="197" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A197" s="4"/>
       <c r="B197" s="4"/>
       <c r="C197" s="11"/>
@@ -6436,7 +7023,7 @@
       <c r="K197" s="2"/>
       <c r="L197" s="13"/>
     </row>
-    <row r="198" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="198" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A198" s="4"/>
       <c r="B198" s="4"/>
       <c r="C198" s="11"/>
@@ -6450,7 +7037,7 @@
       <c r="K198" s="2"/>
       <c r="L198" s="13"/>
     </row>
-    <row r="199" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="199" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A199" s="4"/>
       <c r="B199" s="4"/>
       <c r="C199" s="11"/>
@@ -6464,7 +7051,7 @@
       <c r="K199" s="2"/>
       <c r="L199" s="13"/>
     </row>
-    <row r="200" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="200" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A200" s="4"/>
       <c r="B200" s="4"/>
       <c r="C200" s="11"/>
@@ -6478,7 +7065,7 @@
       <c r="K200" s="2"/>
       <c r="L200" s="13"/>
     </row>
-    <row r="201" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="201" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A201" s="4"/>
       <c r="B201" s="4"/>
       <c r="C201" s="11"/>
@@ -6492,7 +7079,7 @@
       <c r="K201" s="2"/>
       <c r="L201" s="13"/>
     </row>
-    <row r="202" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="202" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A202" s="4"/>
       <c r="B202" s="4"/>
       <c r="C202" s="11"/>
@@ -6506,7 +7093,7 @@
       <c r="K202" s="2"/>
       <c r="L202" s="13"/>
     </row>
-    <row r="203" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="203" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A203" s="4"/>
       <c r="B203" s="4"/>
       <c r="C203" s="11"/>
@@ -6520,7 +7107,7 @@
       <c r="K203" s="2"/>
       <c r="L203" s="13"/>
     </row>
-    <row r="204" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="204" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A204" s="4"/>
       <c r="B204" s="4"/>
       <c r="C204" s="11"/>
@@ -6534,7 +7121,7 @@
       <c r="K204" s="2"/>
       <c r="L204" s="13"/>
     </row>
-    <row r="205" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="205" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A205" s="4"/>
       <c r="B205" s="4"/>
       <c r="C205" s="11"/>
@@ -6548,7 +7135,7 @@
       <c r="K205" s="2"/>
       <c r="L205" s="13"/>
     </row>
-    <row r="206" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="206" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A206" s="4"/>
       <c r="B206" s="4"/>
       <c r="C206" s="11"/>
@@ -6562,7 +7149,7 @@
       <c r="K206" s="2"/>
       <c r="L206" s="13"/>
     </row>
-    <row r="207" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="207" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A207" s="4"/>
       <c r="B207" s="4"/>
       <c r="C207" s="11"/>
@@ -6576,7 +7163,7 @@
       <c r="K207" s="2"/>
       <c r="L207" s="13"/>
     </row>
-    <row r="208" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="208" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A208" s="4"/>
       <c r="B208" s="4"/>
       <c r="C208" s="11"/>
@@ -6590,7 +7177,7 @@
       <c r="K208" s="2"/>
       <c r="L208" s="13"/>
     </row>
-    <row r="209" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="209" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A209" s="4"/>
       <c r="B209" s="4"/>
       <c r="C209" s="11"/>
@@ -6604,7 +7191,7 @@
       <c r="K209" s="2"/>
       <c r="L209" s="13"/>
     </row>
-    <row r="210" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="210" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A210" s="4"/>
       <c r="B210" s="4"/>
       <c r="C210" s="11"/>
@@ -6618,7 +7205,7 @@
       <c r="K210" s="2"/>
       <c r="L210" s="13"/>
     </row>
-    <row r="211" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="211" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A211" s="4"/>
       <c r="B211" s="4"/>
       <c r="C211" s="11"/>
@@ -6632,7 +7219,7 @@
       <c r="K211" s="2"/>
       <c r="L211" s="13"/>
     </row>
-    <row r="212" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="212" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A212" s="4"/>
       <c r="B212" s="4"/>
       <c r="C212" s="11"/>
@@ -6646,7 +7233,7 @@
       <c r="K212" s="2"/>
       <c r="L212" s="13"/>
     </row>
-    <row r="213" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="213" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A213" s="4"/>
       <c r="B213" s="4"/>
       <c r="C213" s="11"/>
@@ -6660,7 +7247,7 @@
       <c r="K213" s="2"/>
       <c r="L213" s="13"/>
     </row>
-    <row r="214" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="214" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A214" s="4"/>
       <c r="B214" s="4"/>
       <c r="C214" s="11"/>
@@ -6674,7 +7261,7 @@
       <c r="K214" s="2"/>
       <c r="L214" s="13"/>
     </row>
-    <row r="215" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="215" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A215" s="4"/>
       <c r="B215" s="4"/>
       <c r="C215" s="11"/>
@@ -6688,7 +7275,7 @@
       <c r="K215" s="2"/>
       <c r="L215" s="13"/>
     </row>
-    <row r="216" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="216" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A216" s="4"/>
       <c r="B216" s="4"/>
       <c r="C216" s="11"/>
@@ -6702,7 +7289,7 @@
       <c r="K216" s="2"/>
       <c r="L216" s="13"/>
     </row>
-    <row r="217" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="217" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A217" s="4"/>
       <c r="B217" s="4"/>
       <c r="C217" s="11"/>
@@ -6716,7 +7303,7 @@
       <c r="K217" s="2"/>
       <c r="L217" s="13"/>
     </row>
-    <row r="218" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="218" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A218" s="4"/>
       <c r="B218" s="4"/>
       <c r="C218" s="11"/>
@@ -6730,7 +7317,7 @@
       <c r="K218" s="2"/>
       <c r="L218" s="13"/>
     </row>
-    <row r="219" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="219" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A219" s="4"/>
       <c r="B219" s="4"/>
       <c r="C219" s="11"/>
@@ -6744,7 +7331,7 @@
       <c r="K219" s="2"/>
       <c r="L219" s="13"/>
     </row>
-    <row r="220" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="220" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A220" s="4"/>
       <c r="B220" s="4"/>
       <c r="C220" s="11"/>
@@ -6758,7 +7345,7 @@
       <c r="K220" s="2"/>
       <c r="L220" s="13"/>
     </row>
-    <row r="221" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="221" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A221" s="4"/>
       <c r="B221" s="4"/>
       <c r="C221" s="11"/>
@@ -6772,7 +7359,7 @@
       <c r="K221" s="2"/>
       <c r="L221" s="13"/>
     </row>
-    <row r="222" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="222" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A222" s="4"/>
       <c r="B222" s="4"/>
       <c r="C222" s="11"/>
@@ -6786,7 +7373,7 @@
       <c r="K222" s="2"/>
       <c r="L222" s="13"/>
     </row>
-    <row r="223" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="223" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A223" s="4"/>
       <c r="B223" s="4"/>
       <c r="C223" s="11"/>
@@ -6800,7 +7387,7 @@
       <c r="K223" s="2"/>
       <c r="L223" s="13"/>
     </row>
-    <row r="224" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="224" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A224" s="4"/>
       <c r="B224" s="4"/>
       <c r="C224" s="11"/>
@@ -6814,7 +7401,7 @@
       <c r="K224" s="2"/>
       <c r="L224" s="13"/>
     </row>
-    <row r="225" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="225" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A225" s="4"/>
       <c r="B225" s="4"/>
       <c r="C225" s="11"/>
@@ -6828,7 +7415,7 @@
       <c r="K225" s="2"/>
       <c r="L225" s="13"/>
     </row>
-    <row r="226" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="226" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A226" s="4"/>
       <c r="B226" s="4"/>
       <c r="C226" s="11"/>
@@ -6842,7 +7429,7 @@
       <c r="K226" s="2"/>
       <c r="L226" s="13"/>
     </row>
-    <row r="227" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="227" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A227" s="4"/>
       <c r="B227" s="4"/>
       <c r="C227" s="11"/>
@@ -6856,7 +7443,7 @@
       <c r="K227" s="2"/>
       <c r="L227" s="13"/>
     </row>
-    <row r="228" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="228" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A228" s="4"/>
       <c r="B228" s="4"/>
       <c r="C228" s="11"/>
@@ -6870,7 +7457,7 @@
       <c r="K228" s="2"/>
       <c r="L228" s="13"/>
     </row>
-    <row r="229" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="229" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A229" s="4"/>
       <c r="B229" s="4"/>
       <c r="C229" s="11"/>
@@ -6884,7 +7471,7 @@
       <c r="K229" s="2"/>
       <c r="L229" s="13"/>
     </row>
-    <row r="230" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="230" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A230" s="4"/>
       <c r="B230" s="4"/>
       <c r="C230" s="11"/>
@@ -6898,7 +7485,7 @@
       <c r="K230" s="2"/>
       <c r="L230" s="13"/>
     </row>
-    <row r="231" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="231" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A231" s="4"/>
       <c r="B231" s="4"/>
       <c r="C231" s="11"/>
@@ -6912,7 +7499,7 @@
       <c r="K231" s="2"/>
       <c r="L231" s="13"/>
     </row>
-    <row r="232" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="232" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A232" s="4"/>
       <c r="B232" s="4"/>
       <c r="C232" s="11"/>
@@ -6926,7 +7513,7 @@
       <c r="K232" s="2"/>
       <c r="L232" s="13"/>
     </row>
-    <row r="233" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="233" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A233" s="4"/>
       <c r="B233" s="4"/>
       <c r="C233" s="11"/>
@@ -6940,7 +7527,7 @@
       <c r="K233" s="2"/>
       <c r="L233" s="13"/>
     </row>
-    <row r="234" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="234" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A234" s="4"/>
       <c r="B234" s="4"/>
       <c r="C234" s="11"/>
@@ -6954,7 +7541,7 @@
       <c r="K234" s="2"/>
       <c r="L234" s="13"/>
     </row>
-    <row r="235" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="235" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A235" s="4"/>
       <c r="B235" s="4"/>
       <c r="C235" s="11"/>
@@ -6968,7 +7555,7 @@
       <c r="K235" s="2"/>
       <c r="L235" s="13"/>
     </row>
-    <row r="236" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="236" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A236" s="4"/>
       <c r="B236" s="4"/>
       <c r="C236" s="11"/>
@@ -6982,7 +7569,7 @@
       <c r="K236" s="2"/>
       <c r="L236" s="13"/>
     </row>
-    <row r="237" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="237" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A237" s="4"/>
       <c r="B237" s="4"/>
       <c r="C237" s="11"/>
@@ -6996,7 +7583,7 @@
       <c r="K237" s="2"/>
       <c r="L237" s="13"/>
     </row>
-    <row r="238" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="238" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A238" s="4"/>
       <c r="B238" s="4"/>
       <c r="C238" s="11"/>
@@ -7010,7 +7597,7 @@
       <c r="K238" s="2"/>
       <c r="L238" s="13"/>
     </row>
-    <row r="239" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="239" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A239" s="4"/>
       <c r="B239" s="4"/>
       <c r="C239" s="11"/>
@@ -7024,7 +7611,7 @@
       <c r="K239" s="2"/>
       <c r="L239" s="13"/>
     </row>
-    <row r="240" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="240" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A240" s="4"/>
       <c r="B240" s="4"/>
       <c r="C240" s="11"/>
@@ -7038,7 +7625,7 @@
       <c r="K240" s="2"/>
       <c r="L240" s="13"/>
     </row>
-    <row r="241" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="241" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A241" s="4"/>
       <c r="B241" s="4"/>
       <c r="C241" s="11"/>
@@ -7052,7 +7639,7 @@
       <c r="K241" s="2"/>
       <c r="L241" s="13"/>
     </row>
-    <row r="242" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="242" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A242" s="4"/>
       <c r="B242" s="4"/>
       <c r="C242" s="11"/>
@@ -7066,7 +7653,7 @@
       <c r="K242" s="2"/>
       <c r="L242" s="13"/>
     </row>
-    <row r="243" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="243" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A243" s="4"/>
       <c r="B243" s="4"/>
       <c r="C243" s="11"/>
@@ -7080,7 +7667,7 @@
       <c r="K243" s="2"/>
       <c r="L243" s="13"/>
     </row>
-    <row r="244" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="244" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A244" s="4"/>
       <c r="B244" s="4"/>
       <c r="C244" s="11"/>
@@ -7094,7 +7681,7 @@
       <c r="K244" s="2"/>
       <c r="L244" s="13"/>
     </row>
-    <row r="245" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="245" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A245" s="4"/>
       <c r="B245" s="4"/>
       <c r="C245" s="11"/>
@@ -7108,7 +7695,7 @@
       <c r="K245" s="2"/>
       <c r="L245" s="13"/>
     </row>
-    <row r="246" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="246" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A246" s="4"/>
       <c r="B246" s="4"/>
       <c r="C246" s="11"/>
@@ -7122,7 +7709,7 @@
       <c r="K246" s="2"/>
       <c r="L246" s="13"/>
     </row>
-    <row r="247" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="247" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A247" s="4"/>
       <c r="B247" s="4"/>
       <c r="C247" s="11"/>
@@ -7136,7 +7723,7 @@
       <c r="K247" s="2"/>
       <c r="L247" s="13"/>
     </row>
-    <row r="248" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="248" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A248" s="4"/>
       <c r="B248" s="4"/>
       <c r="C248" s="11"/>
@@ -7150,7 +7737,7 @@
       <c r="K248" s="2"/>
       <c r="L248" s="13"/>
     </row>
-    <row r="249" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="249" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A249" s="4"/>
       <c r="B249" s="4"/>
       <c r="C249" s="11"/>
@@ -7164,7 +7751,7 @@
       <c r="K249" s="2"/>
       <c r="L249" s="13"/>
     </row>
-    <row r="250" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="250" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A250" s="4"/>
       <c r="B250" s="4"/>
       <c r="C250" s="11"/>
@@ -7178,7 +7765,7 @@
       <c r="K250" s="2"/>
       <c r="L250" s="13"/>
     </row>
-    <row r="251" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="251" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A251" s="4"/>
       <c r="B251" s="4"/>
       <c r="C251" s="11"/>
@@ -7192,7 +7779,7 @@
       <c r="K251" s="2"/>
       <c r="L251" s="13"/>
     </row>
-    <row r="252" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="252" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A252" s="4"/>
       <c r="B252" s="4"/>
       <c r="C252" s="11"/>
@@ -7206,7 +7793,7 @@
       <c r="K252" s="2"/>
       <c r="L252" s="13"/>
     </row>
-    <row r="253" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="253" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A253" s="4"/>
       <c r="B253" s="4"/>
       <c r="C253" s="11"/>
@@ -7220,7 +7807,7 @@
       <c r="K253" s="2"/>
       <c r="L253" s="13"/>
     </row>
-    <row r="254" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="254" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A254" s="4"/>
       <c r="B254" s="4"/>
       <c r="C254" s="11"/>
@@ -7234,7 +7821,7 @@
       <c r="K254" s="2"/>
       <c r="L254" s="13"/>
     </row>
-    <row r="255" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="255" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A255" s="4"/>
       <c r="B255" s="4"/>
       <c r="C255" s="11"/>
@@ -7248,7 +7835,7 @@
       <c r="K255" s="2"/>
       <c r="L255" s="13"/>
     </row>
-    <row r="256" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="256" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A256" s="4"/>
       <c r="B256" s="4"/>
       <c r="C256" s="11"/>
@@ -7262,7 +7849,7 @@
       <c r="K256" s="2"/>
       <c r="L256" s="13"/>
     </row>
-    <row r="257" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="257" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A257" s="4"/>
       <c r="B257" s="4"/>
       <c r="C257" s="11"/>
@@ -7276,7 +7863,7 @@
       <c r="K257" s="2"/>
       <c r="L257" s="13"/>
     </row>
-    <row r="258" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="258" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A258" s="4"/>
       <c r="B258" s="4"/>
       <c r="C258" s="11"/>
@@ -7290,7 +7877,7 @@
       <c r="K258" s="2"/>
       <c r="L258" s="13"/>
     </row>
-    <row r="259" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="259" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A259" s="4"/>
       <c r="B259" s="4"/>
       <c r="C259" s="11"/>
@@ -7304,7 +7891,7 @@
       <c r="K259" s="2"/>
       <c r="L259" s="13"/>
     </row>
-    <row r="260" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="260" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A260" s="4"/>
       <c r="B260" s="4"/>
       <c r="C260" s="11"/>
@@ -7318,7 +7905,7 @@
       <c r="K260" s="2"/>
       <c r="L260" s="13"/>
     </row>
-    <row r="261" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="261" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A261" s="4"/>
       <c r="B261" s="4"/>
       <c r="C261" s="11"/>
@@ -7332,7 +7919,7 @@
       <c r="K261" s="2"/>
       <c r="L261" s="13"/>
     </row>
-    <row r="262" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="262" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A262" s="4"/>
       <c r="B262" s="4"/>
       <c r="C262" s="11"/>
@@ -7346,7 +7933,7 @@
       <c r="K262" s="2"/>
       <c r="L262" s="13"/>
     </row>
-    <row r="263" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="263" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A263" s="4"/>
       <c r="B263" s="4"/>
       <c r="C263" s="11"/>
@@ -7360,7 +7947,7 @@
       <c r="K263" s="2"/>
       <c r="L263" s="13"/>
     </row>
-    <row r="264" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="264" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A264" s="4"/>
       <c r="B264" s="4"/>
       <c r="C264" s="11"/>
@@ -7374,7 +7961,7 @@
       <c r="K264" s="2"/>
       <c r="L264" s="13"/>
     </row>
-    <row r="265" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="265" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A265" s="4"/>
       <c r="B265" s="4"/>
       <c r="C265" s="11"/>
@@ -7388,7 +7975,7 @@
       <c r="K265" s="2"/>
       <c r="L265" s="13"/>
     </row>
-    <row r="266" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="266" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A266" s="4"/>
       <c r="B266" s="4"/>
       <c r="C266" s="11"/>
@@ -7402,7 +7989,7 @@
       <c r="K266" s="2"/>
       <c r="L266" s="13"/>
     </row>
-    <row r="267" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="267" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A267" s="4"/>
       <c r="B267" s="4"/>
       <c r="C267" s="11"/>
@@ -7416,7 +8003,7 @@
       <c r="K267" s="2"/>
       <c r="L267" s="13"/>
     </row>
-    <row r="268" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="268" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A268" s="4"/>
       <c r="B268" s="4"/>
       <c r="C268" s="11"/>
@@ -7430,7 +8017,7 @@
       <c r="K268" s="2"/>
       <c r="L268" s="13"/>
     </row>
-    <row r="269" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="269" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A269" s="4"/>
       <c r="B269" s="4"/>
       <c r="C269" s="11"/>
@@ -7444,7 +8031,7 @@
       <c r="K269" s="2"/>
       <c r="L269" s="13"/>
     </row>
-    <row r="270" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="270" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A270" s="4"/>
       <c r="B270" s="4"/>
       <c r="C270" s="11"/>
@@ -7458,7 +8045,7 @@
       <c r="K270" s="2"/>
       <c r="L270" s="13"/>
     </row>
-    <row r="271" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="271" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A271" s="4"/>
       <c r="B271" s="4"/>
       <c r="C271" s="11"/>
@@ -7472,7 +8059,7 @@
       <c r="K271" s="2"/>
       <c r="L271" s="13"/>
     </row>
-    <row r="272" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="272" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A272" s="4"/>
       <c r="B272" s="4"/>
       <c r="C272" s="11"/>
@@ -7486,7 +8073,7 @@
       <c r="K272" s="2"/>
       <c r="L272" s="13"/>
     </row>
-    <row r="273" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="273" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A273" s="4"/>
       <c r="B273" s="4"/>
       <c r="C273" s="11"/>
@@ -7500,7 +8087,7 @@
       <c r="K273" s="2"/>
       <c r="L273" s="13"/>
     </row>
-    <row r="274" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="274" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A274" s="4"/>
       <c r="B274" s="4"/>
       <c r="C274" s="11"/>
@@ -7514,7 +8101,7 @@
       <c r="K274" s="2"/>
       <c r="L274" s="13"/>
     </row>
-    <row r="275" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="275" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A275" s="4"/>
       <c r="B275" s="4"/>
       <c r="C275" s="11"/>
@@ -7528,7 +8115,7 @@
       <c r="K275" s="2"/>
       <c r="L275" s="13"/>
     </row>
-    <row r="276" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="276" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A276" s="4"/>
       <c r="B276" s="4"/>
       <c r="C276" s="11"/>
@@ -7542,7 +8129,7 @@
       <c r="K276" s="2"/>
       <c r="L276" s="13"/>
     </row>
-    <row r="277" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="277" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A277" s="4"/>
       <c r="B277" s="4"/>
       <c r="C277" s="11"/>
@@ -7556,7 +8143,7 @@
       <c r="K277" s="2"/>
       <c r="L277" s="13"/>
     </row>
-    <row r="278" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="278" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A278" s="4"/>
       <c r="B278" s="4"/>
       <c r="C278" s="11"/>
@@ -7570,7 +8157,7 @@
       <c r="K278" s="2"/>
       <c r="L278" s="13"/>
     </row>
-    <row r="279" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="279" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A279" s="4"/>
       <c r="B279" s="4"/>
       <c r="C279" s="11"/>
@@ -7584,7 +8171,7 @@
       <c r="K279" s="2"/>
       <c r="L279" s="13"/>
     </row>
-    <row r="280" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="280" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A280" s="4"/>
       <c r="B280" s="4"/>
       <c r="C280" s="11"/>
@@ -7598,7 +8185,7 @@
       <c r="K280" s="2"/>
       <c r="L280" s="13"/>
     </row>
-    <row r="281" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="281" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A281" s="4"/>
       <c r="B281" s="4"/>
       <c r="C281" s="11"/>
@@ -7612,7 +8199,7 @@
       <c r="K281" s="2"/>
       <c r="L281" s="13"/>
     </row>
-    <row r="282" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="282" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A282" s="4"/>
       <c r="B282" s="4"/>
       <c r="C282" s="11"/>
@@ -7626,7 +8213,7 @@
       <c r="K282" s="2"/>
       <c r="L282" s="13"/>
     </row>
-    <row r="283" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="283" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A283" s="4"/>
       <c r="B283" s="4"/>
       <c r="C283" s="11"/>
@@ -7640,7 +8227,7 @@
       <c r="K283" s="2"/>
       <c r="L283" s="13"/>
     </row>
-    <row r="284" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="284" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A284" s="4"/>
       <c r="B284" s="4"/>
       <c r="C284" s="11"/>
@@ -7654,7 +8241,7 @@
       <c r="K284" s="2"/>
       <c r="L284" s="13"/>
     </row>
-    <row r="285" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="285" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A285" s="4"/>
       <c r="B285" s="4"/>
       <c r="C285" s="11"/>
@@ -7668,7 +8255,7 @@
       <c r="K285" s="2"/>
       <c r="L285" s="13"/>
     </row>
-    <row r="286" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="286" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A286" s="4"/>
       <c r="B286" s="4"/>
       <c r="C286" s="11"/>
@@ -7682,7 +8269,7 @@
       <c r="K286" s="2"/>
       <c r="L286" s="13"/>
     </row>
-    <row r="287" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="287" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A287" s="4"/>
       <c r="B287" s="4"/>
       <c r="C287" s="11"/>
@@ -7696,7 +8283,7 @@
       <c r="K287" s="2"/>
       <c r="L287" s="13"/>
     </row>
-    <row r="288" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="288" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A288" s="4"/>
       <c r="B288" s="4"/>
       <c r="C288" s="11"/>
@@ -7710,7 +8297,7 @@
       <c r="K288" s="2"/>
       <c r="L288" s="13"/>
     </row>
-    <row r="289" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="289" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A289" s="4"/>
       <c r="B289" s="4"/>
       <c r="C289" s="11"/>
@@ -7724,7 +8311,7 @@
       <c r="K289" s="2"/>
       <c r="L289" s="13"/>
     </row>
-    <row r="290" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="290" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A290" s="4"/>
       <c r="B290" s="4"/>
       <c r="C290" s="11"/>
@@ -7738,7 +8325,7 @@
       <c r="K290" s="2"/>
       <c r="L290" s="13"/>
     </row>
-    <row r="291" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="291" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A291" s="4"/>
       <c r="B291" s="4"/>
       <c r="C291" s="11"/>
@@ -7752,7 +8339,7 @@
       <c r="K291" s="2"/>
       <c r="L291" s="13"/>
     </row>
-    <row r="292" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="292" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A292" s="4"/>
       <c r="B292" s="4"/>
       <c r="C292" s="11"/>
@@ -7766,7 +8353,7 @@
       <c r="K292" s="2"/>
       <c r="L292" s="13"/>
     </row>
-    <row r="293" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="293" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A293" s="4"/>
       <c r="B293" s="4"/>
       <c r="C293" s="11"/>
@@ -7780,7 +8367,7 @@
       <c r="K293" s="2"/>
       <c r="L293" s="13"/>
     </row>
-    <row r="294" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="294" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A294" s="4"/>
       <c r="B294" s="4"/>
       <c r="C294" s="11"/>
@@ -7794,7 +8381,7 @@
       <c r="K294" s="2"/>
       <c r="L294" s="13"/>
     </row>
-    <row r="295" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="295" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A295" s="4"/>
       <c r="B295" s="4"/>
       <c r="C295" s="11"/>
@@ -7808,7 +8395,7 @@
       <c r="K295" s="2"/>
       <c r="L295" s="13"/>
     </row>
-    <row r="296" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="296" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A296" s="4"/>
       <c r="B296" s="4"/>
       <c r="C296" s="11"/>
@@ -7822,7 +8409,7 @@
       <c r="K296" s="2"/>
       <c r="L296" s="13"/>
     </row>
-    <row r="297" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="297" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A297" s="4"/>
       <c r="B297" s="4"/>
       <c r="C297" s="11"/>
@@ -7836,7 +8423,7 @@
       <c r="K297" s="2"/>
       <c r="L297" s="13"/>
     </row>
-    <row r="298" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="298" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A298" s="4"/>
       <c r="B298" s="4"/>
       <c r="C298" s="11"/>
@@ -7850,7 +8437,7 @@
       <c r="K298" s="2"/>
       <c r="L298" s="13"/>
     </row>
-    <row r="299" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="299" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A299" s="4"/>
       <c r="B299" s="4"/>
       <c r="C299" s="11"/>
@@ -7864,7 +8451,7 @@
       <c r="K299" s="2"/>
       <c r="L299" s="13"/>
     </row>
-    <row r="300" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="300" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A300" s="4"/>
       <c r="B300" s="4"/>
       <c r="C300" s="11"/>
@@ -7878,7 +8465,7 @@
       <c r="K300" s="2"/>
       <c r="L300" s="13"/>
     </row>
-    <row r="301" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="301" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A301" s="4"/>
       <c r="B301" s="4"/>
       <c r="C301" s="11"/>
@@ -7892,7 +8479,7 @@
       <c r="K301" s="2"/>
       <c r="L301" s="13"/>
     </row>
-    <row r="302" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="302" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A302" s="4"/>
       <c r="B302" s="4"/>
       <c r="C302" s="11"/>
@@ -7906,7 +8493,7 @@
       <c r="K302" s="2"/>
       <c r="L302" s="13"/>
     </row>
-    <row r="303" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="303" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A303" s="4"/>
       <c r="B303" s="4"/>
       <c r="C303" s="11"/>
@@ -7920,7 +8507,7 @@
       <c r="K303" s="2"/>
       <c r="L303" s="13"/>
     </row>
-    <row r="304" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="304" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A304" s="4"/>
       <c r="B304" s="4"/>
       <c r="C304" s="11"/>
@@ -7934,7 +8521,7 @@
       <c r="K304" s="2"/>
       <c r="L304" s="13"/>
     </row>
-    <row r="305" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="305" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A305" s="4"/>
       <c r="B305" s="4"/>
       <c r="C305" s="11"/>
@@ -7948,7 +8535,7 @@
       <c r="K305" s="2"/>
       <c r="L305" s="13"/>
     </row>
-    <row r="306" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="306" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A306" s="4"/>
       <c r="B306" s="4"/>
       <c r="C306" s="11"/>
@@ -7962,7 +8549,7 @@
       <c r="K306" s="2"/>
       <c r="L306" s="13"/>
     </row>
-    <row r="307" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="307" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A307" s="4"/>
       <c r="B307" s="4"/>
       <c r="C307" s="11"/>
@@ -7976,7 +8563,7 @@
       <c r="K307" s="2"/>
       <c r="L307" s="13"/>
     </row>
-    <row r="308" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="308" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A308" s="4"/>
       <c r="B308" s="4"/>
       <c r="C308" s="11"/>
@@ -7990,7 +8577,7 @@
       <c r="K308" s="2"/>
       <c r="L308" s="13"/>
     </row>
-    <row r="309" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="309" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A309" s="4"/>
       <c r="B309" s="4"/>
       <c r="C309" s="11"/>
@@ -8004,7 +8591,7 @@
       <c r="K309" s="2"/>
       <c r="L309" s="13"/>
     </row>
-    <row r="310" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="310" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A310" s="4"/>
       <c r="B310" s="4"/>
       <c r="C310" s="11"/>
@@ -8018,7 +8605,7 @@
       <c r="K310" s="2"/>
       <c r="L310" s="13"/>
     </row>
-    <row r="311" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="311" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A311" s="4"/>
       <c r="B311" s="4"/>
       <c r="C311" s="11"/>
@@ -8032,7 +8619,7 @@
       <c r="K311" s="2"/>
       <c r="L311" s="13"/>
     </row>
-    <row r="312" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="312" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A312" s="4"/>
       <c r="B312" s="4"/>
       <c r="C312" s="11"/>
@@ -8046,7 +8633,7 @@
       <c r="K312" s="2"/>
       <c r="L312" s="13"/>
     </row>
-    <row r="313" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="313" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A313" s="4"/>
       <c r="B313" s="4"/>
       <c r="C313" s="11"/>
@@ -8060,7 +8647,7 @@
       <c r="K313" s="2"/>
       <c r="L313" s="13"/>
     </row>
-    <row r="314" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="314" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A314" s="4"/>
       <c r="B314" s="4"/>
       <c r="C314" s="11"/>
@@ -8074,7 +8661,7 @@
       <c r="K314" s="2"/>
       <c r="L314" s="13"/>
     </row>
-    <row r="315" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="315" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A315" s="4"/>
       <c r="B315" s="4"/>
       <c r="C315" s="11"/>
@@ -8088,7 +8675,7 @@
       <c r="K315" s="2"/>
       <c r="L315" s="13"/>
     </row>
-    <row r="316" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="316" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A316" s="4"/>
       <c r="B316" s="4"/>
       <c r="C316" s="11"/>
@@ -8102,7 +8689,7 @@
       <c r="K316" s="2"/>
       <c r="L316" s="13"/>
     </row>
-    <row r="317" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="317" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A317" s="4"/>
       <c r="B317" s="4"/>
       <c r="C317" s="11"/>
@@ -8116,7 +8703,7 @@
       <c r="K317" s="2"/>
       <c r="L317" s="13"/>
     </row>
-    <row r="318" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="318" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A318" s="4"/>
       <c r="B318" s="4"/>
       <c r="C318" s="11"/>
@@ -8130,7 +8717,7 @@
       <c r="K318" s="2"/>
       <c r="L318" s="13"/>
     </row>
-    <row r="319" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="319" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A319" s="4"/>
       <c r="B319" s="4"/>
       <c r="C319" s="11"/>
@@ -8144,7 +8731,7 @@
       <c r="K319" s="2"/>
       <c r="L319" s="13"/>
     </row>
-    <row r="320" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="320" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A320" s="4"/>
       <c r="B320" s="4"/>
       <c r="C320" s="11"/>
@@ -8158,7 +8745,7 @@
       <c r="K320" s="2"/>
       <c r="L320" s="13"/>
     </row>
-    <row r="321" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="321" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A321" s="4"/>
       <c r="B321" s="4"/>
       <c r="C321" s="11"/>
@@ -8172,7 +8759,7 @@
       <c r="K321" s="2"/>
       <c r="L321" s="13"/>
     </row>
-    <row r="322" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="322" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A322" s="4"/>
       <c r="B322" s="4"/>
       <c r="C322" s="11"/>
@@ -8186,7 +8773,7 @@
       <c r="K322" s="2"/>
       <c r="L322" s="13"/>
     </row>
-    <row r="323" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="323" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A323" s="4"/>
       <c r="B323" s="4"/>
       <c r="C323" s="11"/>
@@ -8200,7 +8787,7 @@
       <c r="K323" s="2"/>
       <c r="L323" s="13"/>
     </row>
-    <row r="324" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="324" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A324" s="4"/>
       <c r="B324" s="4"/>
       <c r="C324" s="11"/>
@@ -8214,7 +8801,7 @@
       <c r="K324" s="2"/>
       <c r="L324" s="13"/>
     </row>
-    <row r="325" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="325" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A325" s="4"/>
       <c r="B325" s="4"/>
       <c r="C325" s="11"/>
@@ -8228,7 +8815,7 @@
       <c r="K325" s="2"/>
       <c r="L325" s="13"/>
     </row>
-    <row r="326" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="326" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A326" s="4"/>
       <c r="B326" s="4"/>
       <c r="C326" s="11"/>
@@ -8242,7 +8829,7 @@
       <c r="K326" s="2"/>
       <c r="L326" s="13"/>
     </row>
-    <row r="327" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="327" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A327" s="4"/>
       <c r="B327" s="4"/>
       <c r="C327" s="11"/>
@@ -8256,7 +8843,7 @@
       <c r="K327" s="2"/>
       <c r="L327" s="13"/>
     </row>
-    <row r="328" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="328" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A328" s="4"/>
       <c r="B328" s="4"/>
       <c r="C328" s="11"/>
@@ -8270,7 +8857,7 @@
       <c r="K328" s="2"/>
       <c r="L328" s="13"/>
     </row>
-    <row r="329" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="329" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A329" s="4"/>
       <c r="B329" s="4"/>
       <c r="C329" s="11"/>
@@ -8284,7 +8871,7 @@
       <c r="K329" s="2"/>
       <c r="L329" s="13"/>
     </row>
-    <row r="330" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="330" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A330" s="4"/>
       <c r="B330" s="4"/>
       <c r="C330" s="11"/>
@@ -8298,7 +8885,7 @@
       <c r="K330" s="2"/>
       <c r="L330" s="13"/>
     </row>
-    <row r="331" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="331" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A331" s="4"/>
       <c r="B331" s="4"/>
       <c r="C331" s="11"/>
@@ -8312,7 +8899,7 @@
       <c r="K331" s="2"/>
       <c r="L331" s="13"/>
     </row>
-    <row r="332" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="332" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A332" s="4"/>
       <c r="B332" s="4"/>
       <c r="C332" s="11"/>
@@ -8326,7 +8913,7 @@
       <c r="K332" s="2"/>
       <c r="L332" s="13"/>
     </row>
-    <row r="333" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="333" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A333" s="4"/>
       <c r="B333" s="4"/>
       <c r="C333" s="11"/>
@@ -8340,7 +8927,7 @@
       <c r="K333" s="2"/>
       <c r="L333" s="13"/>
     </row>
-    <row r="334" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="334" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A334" s="4"/>
       <c r="B334" s="4"/>
       <c r="C334" s="11"/>
@@ -8354,7 +8941,7 @@
       <c r="K334" s="2"/>
       <c r="L334" s="13"/>
     </row>
-    <row r="335" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="335" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A335" s="4"/>
       <c r="B335" s="4"/>
       <c r="C335" s="11"/>
@@ -8368,7 +8955,7 @@
       <c r="K335" s="2"/>
       <c r="L335" s="13"/>
     </row>
-    <row r="336" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="336" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A336" s="4"/>
       <c r="B336" s="4"/>
       <c r="C336" s="11"/>
@@ -8382,7 +8969,7 @@
       <c r="K336" s="2"/>
       <c r="L336" s="13"/>
     </row>
-    <row r="337" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="337" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A337" s="4"/>
       <c r="B337" s="4"/>
       <c r="C337" s="11"/>
@@ -8396,7 +8983,7 @@
       <c r="K337" s="2"/>
       <c r="L337" s="13"/>
     </row>
-    <row r="338" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="338" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A338" s="4"/>
       <c r="B338" s="4"/>
       <c r="C338" s="11"/>
@@ -8410,7 +8997,7 @@
       <c r="K338" s="2"/>
       <c r="L338" s="13"/>
     </row>
-    <row r="339" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="339" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A339" s="4"/>
       <c r="B339" s="4"/>
       <c r="C339" s="11"/>
@@ -8424,7 +9011,7 @@
       <c r="K339" s="2"/>
       <c r="L339" s="13"/>
     </row>
-    <row r="340" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="340" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A340" s="4"/>
       <c r="B340" s="4"/>
       <c r="C340" s="11"/>
@@ -8438,7 +9025,7 @@
       <c r="K340" s="2"/>
       <c r="L340" s="13"/>
     </row>
-    <row r="341" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="341" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A341" s="4"/>
       <c r="B341" s="4"/>
       <c r="C341" s="11"/>
@@ -8452,7 +9039,7 @@
       <c r="K341" s="2"/>
       <c r="L341" s="13"/>
     </row>
-    <row r="342" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="342" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A342" s="4"/>
       <c r="B342" s="4"/>
       <c r="C342" s="11"/>
@@ -8466,7 +9053,7 @@
       <c r="K342" s="2"/>
       <c r="L342" s="13"/>
     </row>
-    <row r="343" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="343" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A343" s="4"/>
       <c r="B343" s="4"/>
       <c r="C343" s="11"/>
@@ -8480,7 +9067,7 @@
       <c r="K343" s="2"/>
       <c r="L343" s="13"/>
     </row>
-    <row r="344" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="344" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A344" s="4"/>
       <c r="B344" s="4"/>
       <c r="C344" s="11"/>
@@ -8494,7 +9081,7 @@
       <c r="K344" s="2"/>
       <c r="L344" s="13"/>
     </row>
-    <row r="345" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="345" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A345" s="4"/>
       <c r="B345" s="4"/>
       <c r="C345" s="11"/>
@@ -8508,7 +9095,7 @@
       <c r="K345" s="2"/>
       <c r="L345" s="13"/>
     </row>
-    <row r="346" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="346" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A346" s="4"/>
       <c r="B346" s="4"/>
       <c r="C346" s="11"/>
@@ -8522,7 +9109,7 @@
       <c r="K346" s="2"/>
       <c r="L346" s="13"/>
     </row>
-    <row r="347" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="347" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A347" s="4"/>
       <c r="B347" s="4"/>
       <c r="C347" s="11"/>
@@ -8536,7 +9123,7 @@
       <c r="K347" s="2"/>
       <c r="L347" s="13"/>
     </row>
-    <row r="348" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="348" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A348" s="4"/>
       <c r="B348" s="4"/>
       <c r="C348" s="11"/>
@@ -8550,7 +9137,7 @@
       <c r="K348" s="2"/>
       <c r="L348" s="13"/>
     </row>
-    <row r="349" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="349" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A349" s="4"/>
       <c r="B349" s="4"/>
       <c r="C349" s="11"/>
@@ -8564,7 +9151,7 @@
       <c r="K349" s="2"/>
       <c r="L349" s="13"/>
     </row>
-    <row r="350" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="350" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A350" s="4"/>
       <c r="B350" s="4"/>
       <c r="C350" s="11"/>
@@ -8578,7 +9165,7 @@
       <c r="K350" s="2"/>
       <c r="L350" s="13"/>
     </row>
-    <row r="351" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="351" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A351" s="4"/>
       <c r="B351" s="4"/>
       <c r="C351" s="11"/>
@@ -8592,7 +9179,7 @@
       <c r="K351" s="2"/>
       <c r="L351" s="13"/>
     </row>
-    <row r="352" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="352" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A352" s="4"/>
       <c r="B352" s="4"/>
       <c r="C352" s="11"/>
@@ -8606,7 +9193,7 @@
       <c r="K352" s="2"/>
       <c r="L352" s="13"/>
     </row>
-    <row r="353" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="353" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A353" s="4"/>
       <c r="B353" s="4"/>
       <c r="C353" s="11"/>
@@ -8620,7 +9207,7 @@
       <c r="K353" s="2"/>
       <c r="L353" s="13"/>
     </row>
-    <row r="354" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="354" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A354" s="4"/>
       <c r="B354" s="4"/>
       <c r="C354" s="11"/>
@@ -8634,7 +9221,7 @@
       <c r="K354" s="2"/>
       <c r="L354" s="13"/>
     </row>
-    <row r="355" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="355" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A355" s="4"/>
       <c r="B355" s="4"/>
       <c r="C355" s="11"/>
@@ -8648,7 +9235,7 @@
       <c r="K355" s="2"/>
       <c r="L355" s="13"/>
     </row>
-    <row r="356" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="356" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A356" s="4"/>
       <c r="B356" s="4"/>
       <c r="C356" s="11"/>
@@ -8662,7 +9249,7 @@
       <c r="K356" s="2"/>
       <c r="L356" s="13"/>
     </row>
-    <row r="357" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="357" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A357" s="4"/>
       <c r="B357" s="4"/>
       <c r="C357" s="11"/>
@@ -8676,7 +9263,7 @@
       <c r="K357" s="2"/>
       <c r="L357" s="13"/>
     </row>
-    <row r="358" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="358" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A358" s="4"/>
       <c r="B358" s="4"/>
       <c r="C358" s="11"/>
@@ -8690,7 +9277,7 @@
       <c r="K358" s="2"/>
       <c r="L358" s="13"/>
     </row>
-    <row r="359" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="359" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A359" s="4"/>
       <c r="B359" s="4"/>
       <c r="C359" s="11"/>
@@ -8704,7 +9291,7 @@
       <c r="K359" s="2"/>
       <c r="L359" s="13"/>
     </row>
-    <row r="360" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="360" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A360" s="4"/>
       <c r="B360" s="4"/>
       <c r="C360" s="11"/>
@@ -8718,7 +9305,7 @@
       <c r="K360" s="2"/>
       <c r="L360" s="13"/>
     </row>
-    <row r="361" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="361" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A361" s="4"/>
       <c r="B361" s="4"/>
       <c r="C361" s="11"/>
@@ -8732,7 +9319,7 @@
       <c r="K361" s="2"/>
       <c r="L361" s="13"/>
     </row>
-    <row r="362" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="362" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A362" s="4"/>
       <c r="B362" s="4"/>
       <c r="C362" s="11"/>
@@ -8746,7 +9333,7 @@
       <c r="K362" s="2"/>
       <c r="L362" s="13"/>
     </row>
-    <row r="363" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="363" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A363" s="4"/>
       <c r="B363" s="4"/>
       <c r="C363" s="11"/>
@@ -8760,7 +9347,7 @@
       <c r="K363" s="2"/>
       <c r="L363" s="13"/>
     </row>
-    <row r="364" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="364" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A364" s="4"/>
       <c r="B364" s="4"/>
       <c r="C364" s="11"/>
@@ -8774,7 +9361,7 @@
       <c r="K364" s="2"/>
       <c r="L364" s="13"/>
     </row>
-    <row r="365" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="365" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A365" s="4"/>
       <c r="B365" s="4"/>
       <c r="C365" s="11"/>
@@ -8788,7 +9375,7 @@
       <c r="K365" s="2"/>
       <c r="L365" s="13"/>
     </row>
-    <row r="366" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="366" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A366" s="4"/>
       <c r="B366" s="4"/>
       <c r="C366" s="11"/>
@@ -8802,7 +9389,7 @@
       <c r="K366" s="2"/>
       <c r="L366" s="13"/>
     </row>
-    <row r="367" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="367" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A367" s="4"/>
       <c r="B367" s="4"/>
       <c r="C367" s="11"/>
@@ -8816,7 +9403,7 @@
       <c r="K367" s="2"/>
       <c r="L367" s="13"/>
     </row>
-    <row r="368" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="368" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A368" s="4"/>
       <c r="B368" s="4"/>
       <c r="C368" s="11"/>
@@ -8830,7 +9417,7 @@
       <c r="K368" s="2"/>
       <c r="L368" s="13"/>
     </row>
-    <row r="369" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="369" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A369" s="4"/>
       <c r="B369" s="4"/>
       <c r="C369" s="11"/>
@@ -8844,7 +9431,7 @@
       <c r="K369" s="2"/>
       <c r="L369" s="13"/>
     </row>
-    <row r="370" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="370" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A370" s="4"/>
       <c r="B370" s="4"/>
       <c r="C370" s="11"/>
@@ -8858,7 +9445,7 @@
       <c r="K370" s="2"/>
       <c r="L370" s="13"/>
     </row>
-    <row r="371" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="371" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A371" s="4"/>
       <c r="B371" s="4"/>
       <c r="C371" s="11"/>
@@ -8872,7 +9459,7 @@
       <c r="K371" s="2"/>
       <c r="L371" s="13"/>
     </row>
-    <row r="372" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="372" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A372" s="4"/>
       <c r="B372" s="4"/>
       <c r="C372" s="11"/>
@@ -8886,7 +9473,7 @@
       <c r="K372" s="2"/>
       <c r="L372" s="13"/>
     </row>
-    <row r="373" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="373" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A373" s="4"/>
       <c r="B373" s="4"/>
       <c r="C373" s="11"/>
@@ -8900,7 +9487,7 @@
       <c r="K373" s="2"/>
       <c r="L373" s="13"/>
     </row>
-    <row r="374" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="374" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A374" s="4"/>
       <c r="B374" s="4"/>
       <c r="C374" s="11"/>
@@ -8914,7 +9501,7 @@
       <c r="K374" s="2"/>
       <c r="L374" s="13"/>
     </row>
-    <row r="375" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="375" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A375" s="4"/>
       <c r="B375" s="4"/>
       <c r="C375" s="11"/>
@@ -8928,7 +9515,7 @@
       <c r="K375" s="2"/>
       <c r="L375" s="13"/>
     </row>
-    <row r="376" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="376" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A376" s="4"/>
       <c r="B376" s="4"/>
       <c r="C376" s="11"/>
@@ -8942,7 +9529,7 @@
       <c r="K376" s="2"/>
       <c r="L376" s="13"/>
     </row>
-    <row r="377" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="377" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A377" s="4"/>
       <c r="B377" s="4"/>
       <c r="C377" s="11"/>
@@ -8956,7 +9543,7 @@
       <c r="K377" s="2"/>
       <c r="L377" s="13"/>
     </row>
-    <row r="378" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="378" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A378" s="4"/>
       <c r="B378" s="4"/>
       <c r="C378" s="11"/>
@@ -8970,7 +9557,7 @@
       <c r="K378" s="2"/>
       <c r="L378" s="13"/>
     </row>
-    <row r="379" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="379" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A379" s="4"/>
       <c r="B379" s="4"/>
       <c r="C379" s="11"/>
@@ -8984,7 +9571,7 @@
       <c r="K379" s="2"/>
       <c r="L379" s="13"/>
     </row>
-    <row r="380" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="380" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A380" s="4"/>
       <c r="B380" s="4"/>
       <c r="C380" s="11"/>
@@ -8998,7 +9585,7 @@
       <c r="K380" s="2"/>
       <c r="L380" s="13"/>
     </row>
-    <row r="381" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="381" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A381" s="4"/>
       <c r="B381" s="4"/>
       <c r="C381" s="11"/>
@@ -9012,7 +9599,7 @@
       <c r="K381" s="2"/>
       <c r="L381" s="13"/>
     </row>
-    <row r="382" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="382" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A382" s="4"/>
       <c r="B382" s="4"/>
       <c r="C382" s="11"/>
@@ -9026,7 +9613,7 @@
       <c r="K382" s="2"/>
       <c r="L382" s="13"/>
     </row>
-    <row r="383" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="383" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A383" s="4"/>
       <c r="B383" s="4"/>
       <c r="C383" s="11"/>
@@ -9040,7 +9627,7 @@
       <c r="K383" s="2"/>
       <c r="L383" s="13"/>
     </row>
-    <row r="384" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="384" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A384" s="4"/>
       <c r="B384" s="4"/>
       <c r="C384" s="11"/>
@@ -9054,7 +9641,7 @@
       <c r="K384" s="2"/>
       <c r="L384" s="13"/>
     </row>
-    <row r="385" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="385" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A385" s="4"/>
       <c r="B385" s="4"/>
       <c r="C385" s="11"/>
@@ -9068,7 +9655,7 @@
       <c r="K385" s="2"/>
       <c r="L385" s="13"/>
     </row>
-    <row r="386" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="386" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A386" s="4"/>
       <c r="B386" s="4"/>
       <c r="C386" s="11"/>
@@ -9082,7 +9669,7 @@
       <c r="K386" s="2"/>
       <c r="L386" s="13"/>
     </row>
-    <row r="387" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="387" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A387" s="4"/>
       <c r="B387" s="4"/>
       <c r="C387" s="11"/>
@@ -9096,7 +9683,7 @@
       <c r="K387" s="2"/>
       <c r="L387" s="13"/>
     </row>
-    <row r="388" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="388" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A388" s="4"/>
       <c r="B388" s="4"/>
       <c r="C388" s="11"/>
@@ -9110,7 +9697,7 @@
       <c r="K388" s="2"/>
       <c r="L388" s="13"/>
     </row>
-    <row r="389" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="389" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A389" s="4"/>
       <c r="B389" s="4"/>
       <c r="C389" s="11"/>
@@ -9124,7 +9711,7 @@
       <c r="K389" s="2"/>
       <c r="L389" s="13"/>
     </row>
-    <row r="390" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="390" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A390" s="4"/>
       <c r="B390" s="4"/>
       <c r="C390" s="11"/>
@@ -9138,7 +9725,7 @@
       <c r="K390" s="2"/>
       <c r="L390" s="13"/>
     </row>
-    <row r="391" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="391" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A391" s="4"/>
       <c r="B391" s="4"/>
       <c r="C391" s="11"/>
@@ -9152,7 +9739,7 @@
       <c r="K391" s="2"/>
       <c r="L391" s="13"/>
     </row>
-    <row r="392" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="392" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A392" s="4"/>
       <c r="B392" s="4"/>
       <c r="C392" s="11"/>
@@ -9166,7 +9753,7 @@
       <c r="K392" s="2"/>
       <c r="L392" s="13"/>
     </row>
-    <row r="393" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="393" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A393" s="4"/>
       <c r="B393" s="4"/>
       <c r="C393" s="11"/>
@@ -9180,7 +9767,7 @@
       <c r="K393" s="2"/>
       <c r="L393" s="13"/>
     </row>
-    <row r="394" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="394" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A394" s="4"/>
       <c r="B394" s="4"/>
       <c r="C394" s="11"/>
@@ -9194,7 +9781,7 @@
       <c r="K394" s="2"/>
       <c r="L394" s="13"/>
     </row>
-    <row r="395" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="395" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A395" s="4"/>
       <c r="B395" s="4"/>
       <c r="C395" s="11"/>
@@ -9208,7 +9795,7 @@
       <c r="K395" s="2"/>
       <c r="L395" s="13"/>
     </row>
-    <row r="396" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="396" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A396" s="4"/>
       <c r="B396" s="4"/>
       <c r="C396" s="11"/>
@@ -9222,7 +9809,7 @@
       <c r="K396" s="2"/>
       <c r="L396" s="13"/>
     </row>
-    <row r="397" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="397" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A397" s="4"/>
       <c r="B397" s="4"/>
       <c r="C397" s="11"/>
@@ -9236,7 +9823,7 @@
       <c r="K397" s="2"/>
       <c r="L397" s="13"/>
     </row>
-    <row r="398" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="398" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A398" s="4"/>
       <c r="B398" s="4"/>
       <c r="C398" s="11"/>
@@ -9250,7 +9837,7 @@
       <c r="K398" s="2"/>
       <c r="L398" s="13"/>
     </row>
-    <row r="399" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="399" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A399" s="4"/>
       <c r="B399" s="4"/>
       <c r="C399" s="11"/>
@@ -9264,7 +9851,7 @@
       <c r="K399" s="2"/>
       <c r="L399" s="13"/>
     </row>
-    <row r="400" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="400" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A400" s="4"/>
       <c r="B400" s="4"/>
       <c r="C400" s="11"/>
@@ -9278,7 +9865,7 @@
       <c r="K400" s="2"/>
       <c r="L400" s="13"/>
     </row>
-    <row r="401" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="401" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A401" s="4"/>
       <c r="B401" s="4"/>
       <c r="C401" s="11"/>
@@ -9292,7 +9879,7 @@
       <c r="K401" s="2"/>
       <c r="L401" s="13"/>
     </row>
-    <row r="402" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="402" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A402" s="4"/>
       <c r="B402" s="4"/>
       <c r="C402" s="11"/>
@@ -9306,7 +9893,7 @@
       <c r="K402" s="2"/>
       <c r="L402" s="13"/>
     </row>
-    <row r="403" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="403" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A403" s="4"/>
       <c r="B403" s="4"/>
       <c r="C403" s="11"/>
@@ -9320,7 +9907,7 @@
       <c r="K403" s="2"/>
       <c r="L403" s="13"/>
     </row>
-    <row r="404" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="404" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A404" s="4"/>
       <c r="B404" s="4"/>
       <c r="C404" s="11"/>
@@ -9334,7 +9921,7 @@
       <c r="K404" s="2"/>
       <c r="L404" s="13"/>
     </row>
-    <row r="405" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="405" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A405" s="4"/>
       <c r="B405" s="4"/>
       <c r="C405" s="11"/>
@@ -9348,7 +9935,7 @@
       <c r="K405" s="2"/>
       <c r="L405" s="13"/>
     </row>
-    <row r="406" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="406" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A406" s="4"/>
       <c r="B406" s="4"/>
       <c r="C406" s="11"/>
@@ -9362,7 +9949,7 @@
       <c r="K406" s="2"/>
       <c r="L406" s="13"/>
     </row>
-    <row r="407" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="407" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A407" s="4"/>
       <c r="B407" s="4"/>
       <c r="C407" s="11"/>
@@ -9376,7 +9963,7 @@
       <c r="K407" s="2"/>
       <c r="L407" s="13"/>
     </row>
-    <row r="408" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="408" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A408" s="4"/>
       <c r="B408" s="4"/>
       <c r="C408" s="11"/>
@@ -9390,7 +9977,7 @@
       <c r="K408" s="2"/>
       <c r="L408" s="13"/>
     </row>
-    <row r="409" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="409" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A409" s="4"/>
       <c r="B409" s="4"/>
       <c r="C409" s="11"/>
@@ -9404,7 +9991,7 @@
       <c r="K409" s="2"/>
       <c r="L409" s="13"/>
     </row>
-    <row r="410" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="410" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A410" s="4"/>
       <c r="B410" s="4"/>
       <c r="C410" s="11"/>
@@ -9418,7 +10005,7 @@
       <c r="K410" s="2"/>
       <c r="L410" s="13"/>
     </row>
-    <row r="411" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="411" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A411" s="4"/>
       <c r="B411" s="4"/>
       <c r="C411" s="11"/>
@@ -9432,7 +10019,7 @@
       <c r="K411" s="2"/>
       <c r="L411" s="13"/>
     </row>
-    <row r="412" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="412" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A412" s="4"/>
       <c r="B412" s="4"/>
       <c r="C412" s="11"/>
@@ -9446,7 +10033,7 @@
       <c r="K412" s="2"/>
       <c r="L412" s="13"/>
     </row>
-    <row r="413" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="413" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A413" s="4"/>
       <c r="B413" s="4"/>
       <c r="C413" s="11"/>
@@ -9460,7 +10047,7 @@
       <c r="K413" s="2"/>
       <c r="L413" s="13"/>
     </row>
-    <row r="414" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="414" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A414" s="4"/>
       <c r="B414" s="4"/>
       <c r="C414" s="11"/>
@@ -9474,7 +10061,7 @@
       <c r="K414" s="2"/>
       <c r="L414" s="13"/>
     </row>
-    <row r="415" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="415" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A415" s="4"/>
       <c r="B415" s="4"/>
       <c r="C415" s="11"/>
@@ -9488,7 +10075,7 @@
       <c r="K415" s="2"/>
       <c r="L415" s="13"/>
     </row>
-    <row r="416" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="416" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A416" s="4"/>
       <c r="B416" s="4"/>
       <c r="C416" s="11"/>
@@ -9502,7 +10089,7 @@
       <c r="K416" s="2"/>
       <c r="L416" s="13"/>
     </row>
-    <row r="417" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="417" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A417" s="4"/>
       <c r="B417" s="4"/>
       <c r="C417" s="11"/>
@@ -9516,7 +10103,7 @@
       <c r="K417" s="2"/>
       <c r="L417" s="13"/>
     </row>
-    <row r="418" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="418" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A418" s="4"/>
       <c r="B418" s="4"/>
       <c r="C418" s="11"/>
@@ -9530,7 +10117,7 @@
       <c r="K418" s="2"/>
       <c r="L418" s="13"/>
     </row>
-    <row r="419" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="419" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A419" s="4"/>
       <c r="B419" s="4"/>
       <c r="C419" s="11"/>
@@ -9544,7 +10131,7 @@
       <c r="K419" s="2"/>
       <c r="L419" s="13"/>
     </row>
-    <row r="420" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="420" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A420" s="4"/>
       <c r="B420" s="4"/>
       <c r="C420" s="11"/>
@@ -9558,7 +10145,7 @@
       <c r="K420" s="2"/>
       <c r="L420" s="13"/>
     </row>
-    <row r="421" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="421" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A421" s="4"/>
       <c r="B421" s="4"/>
       <c r="C421" s="11"/>
@@ -9572,7 +10159,7 @@
       <c r="K421" s="2"/>
       <c r="L421" s="13"/>
     </row>
-    <row r="422" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="422" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A422" s="4"/>
       <c r="B422" s="4"/>
       <c r="C422" s="11"/>
@@ -9586,7 +10173,7 @@
       <c r="K422" s="2"/>
       <c r="L422" s="13"/>
     </row>
-    <row r="423" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="423" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A423" s="4"/>
       <c r="B423" s="4"/>
       <c r="C423" s="11"/>
@@ -9600,7 +10187,7 @@
       <c r="K423" s="2"/>
       <c r="L423" s="13"/>
     </row>
-    <row r="424" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="424" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A424" s="4"/>
       <c r="B424" s="4"/>
       <c r="C424" s="11"/>
@@ -9614,7 +10201,7 @@
       <c r="K424" s="2"/>
       <c r="L424" s="13"/>
     </row>
-    <row r="425" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="425" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A425" s="4"/>
       <c r="B425" s="4"/>
       <c r="C425" s="11"/>
@@ -9628,7 +10215,7 @@
       <c r="K425" s="2"/>
       <c r="L425" s="13"/>
     </row>
-    <row r="426" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="426" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A426" s="4"/>
       <c r="B426" s="4"/>
       <c r="C426" s="11"/>
@@ -9642,7 +10229,7 @@
       <c r="K426" s="2"/>
       <c r="L426" s="13"/>
     </row>
-    <row r="427" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="427" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A427" s="4"/>
       <c r="B427" s="4"/>
       <c r="C427" s="11"/>
@@ -9656,7 +10243,7 @@
       <c r="K427" s="2"/>
       <c r="L427" s="13"/>
     </row>
-    <row r="428" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="428" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A428" s="4"/>
       <c r="B428" s="4"/>
       <c r="C428" s="11"/>
@@ -9670,7 +10257,7 @@
       <c r="K428" s="2"/>
       <c r="L428" s="13"/>
     </row>
-    <row r="429" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="429" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A429" s="4"/>
       <c r="B429" s="4"/>
       <c r="C429" s="11"/>
@@ -9684,7 +10271,7 @@
       <c r="K429" s="2"/>
       <c r="L429" s="13"/>
     </row>
-    <row r="430" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="430" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A430" s="4"/>
       <c r="B430" s="4"/>
       <c r="C430" s="11"/>
@@ -9698,7 +10285,7 @@
       <c r="K430" s="2"/>
       <c r="L430" s="13"/>
     </row>
-    <row r="431" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="431" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A431" s="4"/>
       <c r="B431" s="4"/>
       <c r="C431" s="11"/>
@@ -9712,7 +10299,7 @@
       <c r="K431" s="2"/>
       <c r="L431" s="13"/>
     </row>
-    <row r="432" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="432" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A432" s="4"/>
       <c r="B432" s="4"/>
       <c r="C432" s="11"/>
@@ -9726,7 +10313,7 @@
       <c r="K432" s="2"/>
       <c r="L432" s="13"/>
     </row>
-    <row r="433" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="433" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A433" s="4"/>
       <c r="B433" s="4"/>
       <c r="C433" s="11"/>
@@ -9740,7 +10327,7 @@
       <c r="K433" s="2"/>
       <c r="L433" s="13"/>
     </row>
-    <row r="434" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="434" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A434" s="4"/>
       <c r="B434" s="4"/>
       <c r="C434" s="11"/>
@@ -9754,7 +10341,7 @@
       <c r="K434" s="2"/>
       <c r="L434" s="13"/>
     </row>
-    <row r="435" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="435" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A435" s="4"/>
       <c r="B435" s="4"/>
       <c r="C435" s="11"/>
@@ -9768,7 +10355,7 @@
       <c r="K435" s="2"/>
       <c r="L435" s="13"/>
     </row>
-    <row r="436" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="436" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A436" s="4"/>
       <c r="B436" s="4"/>
       <c r="C436" s="11"/>
@@ -9782,7 +10369,7 @@
       <c r="K436" s="2"/>
       <c r="L436" s="13"/>
     </row>
-    <row r="437" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="437" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A437" s="4"/>
       <c r="B437" s="4"/>
       <c r="C437" s="11"/>
@@ -9796,7 +10383,7 @@
       <c r="K437" s="2"/>
       <c r="L437" s="13"/>
     </row>
-    <row r="438" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="438" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A438" s="4"/>
       <c r="B438" s="4"/>
       <c r="C438" s="11"/>
@@ -9810,7 +10397,7 @@
       <c r="K438" s="2"/>
       <c r="L438" s="13"/>
     </row>
-    <row r="439" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="439" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A439" s="4"/>
       <c r="B439" s="4"/>
       <c r="C439" s="11"/>
@@ -9824,7 +10411,7 @@
       <c r="K439" s="2"/>
       <c r="L439" s="13"/>
     </row>
-    <row r="440" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="440" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A440" s="4"/>
       <c r="B440" s="4"/>
       <c r="C440" s="11"/>
@@ -9838,7 +10425,7 @@
       <c r="K440" s="2"/>
       <c r="L440" s="13"/>
     </row>
-    <row r="441" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="441" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A441" s="4"/>
       <c r="B441" s="4"/>
       <c r="C441" s="11"/>
@@ -9852,7 +10439,7 @@
       <c r="K441" s="2"/>
       <c r="L441" s="13"/>
     </row>
-    <row r="442" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="442" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A442" s="4"/>
       <c r="B442" s="4"/>
       <c r="C442" s="11"/>
@@ -9866,7 +10453,7 @@
       <c r="K442" s="2"/>
       <c r="L442" s="13"/>
     </row>
-    <row r="443" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="443" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A443" s="4"/>
       <c r="B443" s="4"/>
       <c r="C443" s="11"/>
@@ -9880,7 +10467,7 @@
       <c r="K443" s="2"/>
       <c r="L443" s="13"/>
     </row>
-    <row r="444" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="444" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A444" s="4"/>
       <c r="B444" s="4"/>
       <c r="C444" s="11"/>
@@ -9894,7 +10481,7 @@
       <c r="K444" s="2"/>
       <c r="L444" s="13"/>
     </row>
-    <row r="445" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="445" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A445" s="4"/>
       <c r="B445" s="4"/>
       <c r="C445" s="11"/>
@@ -9908,7 +10495,7 @@
       <c r="K445" s="2"/>
       <c r="L445" s="13"/>
     </row>
-    <row r="446" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="446" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A446" s="4"/>
       <c r="B446" s="4"/>
       <c r="C446" s="11"/>
@@ -9922,7 +10509,7 @@
       <c r="K446" s="2"/>
       <c r="L446" s="13"/>
     </row>
-    <row r="447" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="447" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A447" s="4"/>
       <c r="B447" s="4"/>
       <c r="C447" s="11"/>
@@ -9936,7 +10523,7 @@
       <c r="K447" s="2"/>
       <c r="L447" s="13"/>
     </row>
-    <row r="448" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="448" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A448" s="4"/>
       <c r="B448" s="4"/>
       <c r="C448" s="11"/>
@@ -9950,7 +10537,7 @@
       <c r="K448" s="2"/>
       <c r="L448" s="13"/>
     </row>
-    <row r="449" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="449" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A449" s="4"/>
       <c r="B449" s="4"/>
       <c r="C449" s="11"/>
@@ -9964,7 +10551,7 @@
       <c r="K449" s="2"/>
       <c r="L449" s="13"/>
     </row>
-    <row r="450" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="450" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A450" s="4"/>
       <c r="B450" s="4"/>
       <c r="C450" s="11"/>
@@ -9978,7 +10565,7 @@
       <c r="K450" s="2"/>
       <c r="L450" s="13"/>
     </row>
-    <row r="451" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="451" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A451" s="4"/>
       <c r="B451" s="4"/>
       <c r="C451" s="11"/>
@@ -9992,7 +10579,7 @@
       <c r="K451" s="2"/>
       <c r="L451" s="13"/>
     </row>
-    <row r="452" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="452" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A452" s="4"/>
       <c r="B452" s="4"/>
       <c r="C452" s="11"/>
@@ -10006,7 +10593,7 @@
       <c r="K452" s="2"/>
       <c r="L452" s="13"/>
     </row>
-    <row r="453" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="453" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A453" s="4"/>
       <c r="B453" s="4"/>
       <c r="C453" s="11"/>
@@ -10020,7 +10607,7 @@
       <c r="K453" s="2"/>
       <c r="L453" s="13"/>
     </row>
-    <row r="454" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="454" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A454" s="4"/>
       <c r="B454" s="4"/>
       <c r="C454" s="11"/>
@@ -10034,7 +10621,7 @@
       <c r="K454" s="2"/>
       <c r="L454" s="13"/>
     </row>
-    <row r="455" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="455" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A455" s="4"/>
       <c r="B455" s="4"/>
       <c r="C455" s="11"/>
@@ -10048,7 +10635,7 @@
       <c r="K455" s="2"/>
       <c r="L455" s="13"/>
     </row>
-    <row r="456" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="456" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A456" s="4"/>
       <c r="B456" s="4"/>
       <c r="C456" s="11"/>
@@ -10062,7 +10649,7 @@
       <c r="K456" s="2"/>
       <c r="L456" s="13"/>
     </row>
-    <row r="457" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="457" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A457" s="4"/>
       <c r="B457" s="4"/>
       <c r="C457" s="11"/>
@@ -10076,7 +10663,7 @@
       <c r="K457" s="2"/>
       <c r="L457" s="13"/>
     </row>
-    <row r="458" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="458" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A458" s="4"/>
       <c r="B458" s="4"/>
       <c r="C458" s="11"/>
@@ -10090,7 +10677,7 @@
       <c r="K458" s="2"/>
       <c r="L458" s="13"/>
     </row>
-    <row r="459" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="459" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A459" s="4"/>
       <c r="B459" s="4"/>
       <c r="C459" s="11"/>
@@ -10104,7 +10691,7 @@
       <c r="K459" s="2"/>
       <c r="L459" s="13"/>
     </row>
-    <row r="460" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="460" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A460" s="4"/>
       <c r="B460" s="4"/>
       <c r="C460" s="11"/>
@@ -10118,7 +10705,7 @@
       <c r="K460" s="2"/>
       <c r="L460" s="13"/>
     </row>
-    <row r="461" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="461" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A461" s="4"/>
       <c r="B461" s="4"/>
       <c r="C461" s="11"/>
@@ -10132,7 +10719,7 @@
       <c r="K461" s="2"/>
       <c r="L461" s="13"/>
     </row>
-    <row r="462" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="462" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A462" s="4"/>
       <c r="B462" s="4"/>
       <c r="C462" s="11"/>
@@ -10146,7 +10733,7 @@
       <c r="K462" s="2"/>
       <c r="L462" s="13"/>
     </row>
-    <row r="463" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="463" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A463" s="4"/>
       <c r="B463" s="4"/>
       <c r="C463" s="11"/>
@@ -10160,7 +10747,7 @@
       <c r="K463" s="2"/>
       <c r="L463" s="13"/>
     </row>
-    <row r="464" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="464" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A464" s="4"/>
       <c r="B464" s="4"/>
       <c r="C464" s="11"/>
@@ -10174,7 +10761,7 @@
       <c r="K464" s="2"/>
       <c r="L464" s="13"/>
     </row>
-    <row r="465" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="465" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A465" s="4"/>
       <c r="B465" s="4"/>
       <c r="C465" s="11"/>
@@ -10188,7 +10775,7 @@
       <c r="K465" s="2"/>
       <c r="L465" s="13"/>
     </row>
-    <row r="466" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="466" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A466" s="4"/>
       <c r="B466" s="4"/>
       <c r="C466" s="11"/>
@@ -10202,7 +10789,7 @@
       <c r="K466" s="2"/>
       <c r="L466" s="13"/>
     </row>
-    <row r="467" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="467" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A467" s="4"/>
       <c r="B467" s="4"/>
       <c r="C467" s="11"/>
@@ -10216,7 +10803,7 @@
       <c r="K467" s="2"/>
       <c r="L467" s="13"/>
     </row>
-    <row r="468" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="468" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A468" s="4"/>
       <c r="B468" s="4"/>
       <c r="C468" s="11"/>
@@ -10230,7 +10817,7 @@
       <c r="K468" s="2"/>
       <c r="L468" s="13"/>
     </row>
-    <row r="469" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="469" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A469" s="4"/>
       <c r="B469" s="4"/>
       <c r="C469" s="11"/>
@@ -10244,7 +10831,7 @@
       <c r="K469" s="2"/>
       <c r="L469" s="13"/>
     </row>
-    <row r="470" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="470" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A470" s="4"/>
       <c r="B470" s="4"/>
       <c r="C470" s="11"/>
@@ -10258,7 +10845,7 @@
       <c r="K470" s="2"/>
       <c r="L470" s="13"/>
     </row>
-    <row r="471" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="471" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A471" s="4"/>
       <c r="B471" s="4"/>
       <c r="C471" s="11"/>
@@ -10272,7 +10859,7 @@
       <c r="K471" s="2"/>
       <c r="L471" s="13"/>
     </row>
-    <row r="472" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="472" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A472" s="4"/>
       <c r="B472" s="4"/>
       <c r="C472" s="11"/>
@@ -10286,7 +10873,7 @@
       <c r="K472" s="2"/>
       <c r="L472" s="13"/>
     </row>
-    <row r="473" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="473" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A473" s="4"/>
       <c r="B473" s="4"/>
       <c r="C473" s="11"/>
@@ -10300,7 +10887,7 @@
       <c r="K473" s="2"/>
       <c r="L473" s="13"/>
     </row>
-    <row r="474" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="474" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A474" s="4"/>
       <c r="B474" s="4"/>
       <c r="C474" s="11"/>
@@ -10314,7 +10901,7 @@
       <c r="K474" s="2"/>
       <c r="L474" s="13"/>
     </row>
-    <row r="475" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="475" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A475" s="4"/>
       <c r="B475" s="4"/>
       <c r="C475" s="11"/>
@@ -10328,7 +10915,7 @@
       <c r="K475" s="2"/>
       <c r="L475" s="13"/>
     </row>
-    <row r="476" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="476" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A476" s="4"/>
       <c r="B476" s="4"/>
       <c r="C476" s="11"/>
@@ -10342,7 +10929,7 @@
       <c r="K476" s="2"/>
       <c r="L476" s="13"/>
     </row>
-    <row r="477" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="477" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A477" s="4"/>
       <c r="B477" s="4"/>
       <c r="C477" s="11"/>
@@ -10356,7 +10943,7 @@
       <c r="K477" s="2"/>
       <c r="L477" s="13"/>
     </row>
-    <row r="478" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="478" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A478" s="4"/>
       <c r="B478" s="4"/>
       <c r="C478" s="11"/>
@@ -10370,7 +10957,7 @@
       <c r="K478" s="2"/>
       <c r="L478" s="13"/>
     </row>
-    <row r="479" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="479" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A479" s="4"/>
       <c r="B479" s="4"/>
       <c r="C479" s="11"/>
@@ -10384,7 +10971,7 @@
       <c r="K479" s="2"/>
       <c r="L479" s="13"/>
     </row>
-    <row r="480" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="480" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A480" s="4"/>
       <c r="B480" s="4"/>
       <c r="C480" s="11"/>
@@ -10398,7 +10985,7 @@
       <c r="K480" s="2"/>
       <c r="L480" s="13"/>
     </row>
-    <row r="481" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="481" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A481" s="4"/>
       <c r="B481" s="4"/>
       <c r="C481" s="11"/>
@@ -10412,7 +10999,7 @@
       <c r="K481" s="2"/>
       <c r="L481" s="13"/>
     </row>
-    <row r="482" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="482" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A482" s="4"/>
       <c r="B482" s="4"/>
       <c r="C482" s="11"/>
@@ -10426,7 +11013,7 @@
       <c r="K482" s="2"/>
       <c r="L482" s="13"/>
     </row>
-    <row r="483" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="483" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A483" s="4"/>
       <c r="B483" s="4"/>
       <c r="C483" s="11"/>
@@ -10440,7 +11027,7 @@
       <c r="K483" s="2"/>
       <c r="L483" s="13"/>
     </row>
-    <row r="484" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="484" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A484" s="4"/>
       <c r="B484" s="4"/>
       <c r="C484" s="11"/>
@@ -10454,7 +11041,7 @@
       <c r="K484" s="2"/>
       <c r="L484" s="13"/>
     </row>
-    <row r="485" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="485" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A485" s="4"/>
       <c r="B485" s="4"/>
       <c r="C485" s="11"/>
@@ -10468,7 +11055,7 @@
       <c r="K485" s="2"/>
       <c r="L485" s="13"/>
     </row>
-    <row r="486" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="486" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A486" s="4"/>
       <c r="B486" s="4"/>
       <c r="C486" s="11"/>
@@ -10482,7 +11069,7 @@
       <c r="K486" s="2"/>
       <c r="L486" s="13"/>
     </row>
-    <row r="487" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="487" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A487" s="4"/>
       <c r="B487" s="4"/>
       <c r="C487" s="11"/>
@@ -10496,7 +11083,7 @@
       <c r="K487" s="2"/>
       <c r="L487" s="13"/>
     </row>
-    <row r="488" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="488" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A488" s="4"/>
       <c r="B488" s="4"/>
       <c r="C488" s="11"/>
@@ -10510,7 +11097,7 @@
       <c r="K488" s="2"/>
       <c r="L488" s="13"/>
     </row>
-    <row r="489" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="489" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A489" s="4"/>
       <c r="B489" s="4"/>
       <c r="C489" s="11"/>
@@ -10524,7 +11111,7 @@
       <c r="K489" s="2"/>
       <c r="L489" s="13"/>
     </row>
-    <row r="490" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="490" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A490" s="4"/>
       <c r="B490" s="4"/>
       <c r="C490" s="11"/>
@@ -10538,7 +11125,7 @@
       <c r="K490" s="2"/>
       <c r="L490" s="13"/>
     </row>
-    <row r="491" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="491" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A491" s="4"/>
       <c r="B491" s="4"/>
       <c r="C491" s="11"/>
@@ -10552,7 +11139,7 @@
       <c r="K491" s="2"/>
       <c r="L491" s="13"/>
     </row>
-    <row r="492" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="492" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A492" s="4"/>
       <c r="B492" s="4"/>
       <c r="C492" s="11"/>
@@ -10566,7 +11153,7 @@
       <c r="K492" s="2"/>
       <c r="L492" s="13"/>
     </row>
-    <row r="493" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="493" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A493" s="4"/>
       <c r="B493" s="4"/>
       <c r="C493" s="11"/>
@@ -10580,7 +11167,7 @@
       <c r="K493" s="2"/>
       <c r="L493" s="13"/>
     </row>
-    <row r="494" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="494" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A494" s="4"/>
       <c r="B494" s="4"/>
       <c r="C494" s="11"/>
@@ -10594,7 +11181,7 @@
       <c r="K494" s="2"/>
       <c r="L494" s="13"/>
     </row>
-    <row r="495" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="495" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A495" s="4"/>
       <c r="B495" s="4"/>
       <c r="C495" s="11"/>
@@ -10608,7 +11195,7 @@
       <c r="K495" s="2"/>
       <c r="L495" s="13"/>
     </row>
-    <row r="496" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="496" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A496" s="4"/>
       <c r="B496" s="4"/>
       <c r="C496" s="11"/>
@@ -10622,7 +11209,7 @@
       <c r="K496" s="2"/>
       <c r="L496" s="13"/>
     </row>
-    <row r="497" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="497" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A497" s="4"/>
       <c r="B497" s="4"/>
       <c r="C497" s="11"/>
@@ -10636,7 +11223,7 @@
       <c r="K497" s="2"/>
       <c r="L497" s="13"/>
     </row>
-    <row r="498" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="498" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A498" s="4"/>
       <c r="B498" s="4"/>
       <c r="C498" s="11"/>
@@ -10650,7 +11237,7 @@
       <c r="K498" s="2"/>
       <c r="L498" s="13"/>
     </row>
-    <row r="499" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="499" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A499" s="4"/>
       <c r="B499" s="4"/>
       <c r="C499" s="11"/>
@@ -10664,7 +11251,7 @@
       <c r="K499" s="2"/>
       <c r="L499" s="13"/>
     </row>
-    <row r="500" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="500" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A500" s="4"/>
       <c r="B500" s="4"/>
       <c r="C500" s="11"/>
@@ -10678,7 +11265,7 @@
       <c r="K500" s="2"/>
       <c r="L500" s="13"/>
     </row>
-    <row r="501" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="501" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A501" s="4"/>
       <c r="B501" s="4"/>
       <c r="C501" s="11"/>
@@ -10692,7 +11279,7 @@
       <c r="K501" s="2"/>
       <c r="L501" s="13"/>
     </row>
-    <row r="502" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="502" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A502" s="4"/>
       <c r="B502" s="4"/>
       <c r="C502" s="11"/>
@@ -10706,7 +11293,7 @@
       <c r="K502" s="2"/>
       <c r="L502" s="13"/>
     </row>
-    <row r="503" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="503" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A503" s="4"/>
       <c r="B503" s="4"/>
       <c r="C503" s="11"/>
@@ -10720,7 +11307,7 @@
       <c r="K503" s="2"/>
       <c r="L503" s="13"/>
     </row>
-    <row r="504" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="504" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A504" s="4"/>
       <c r="B504" s="4"/>
       <c r="C504" s="11"/>
@@ -10734,7 +11321,7 @@
       <c r="K504" s="2"/>
       <c r="L504" s="13"/>
     </row>
-    <row r="505" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="505" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A505" s="4"/>
       <c r="B505" s="4"/>
       <c r="C505" s="11"/>
@@ -10748,7 +11335,7 @@
       <c r="K505" s="2"/>
       <c r="L505" s="13"/>
     </row>
-    <row r="506" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="506" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A506" s="4"/>
       <c r="B506" s="4"/>
       <c r="C506" s="11"/>
@@ -10762,7 +11349,7 @@
       <c r="K506" s="2"/>
       <c r="L506" s="13"/>
     </row>
-    <row r="507" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="507" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A507" s="4"/>
       <c r="B507" s="4"/>
       <c r="C507" s="11"/>
@@ -10776,7 +11363,7 @@
       <c r="K507" s="2"/>
       <c r="L507" s="13"/>
     </row>
-    <row r="508" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="508" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A508" s="4"/>
       <c r="B508" s="4"/>
       <c r="C508" s="11"/>
@@ -10790,7 +11377,7 @@
       <c r="K508" s="2"/>
       <c r="L508" s="13"/>
     </row>
-    <row r="509" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="509" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A509" s="4"/>
       <c r="B509" s="4"/>
       <c r="C509" s="11"/>
@@ -10804,7 +11391,7 @@
       <c r="K509" s="2"/>
       <c r="L509" s="13"/>
     </row>
-    <row r="510" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="510" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A510" s="4"/>
       <c r="B510" s="4"/>
       <c r="C510" s="11"/>
@@ -10818,7 +11405,7 @@
       <c r="K510" s="2"/>
       <c r="L510" s="13"/>
     </row>
-    <row r="511" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="511" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A511" s="4"/>
       <c r="B511" s="4"/>
       <c r="C511" s="11"/>
@@ -10832,7 +11419,7 @@
       <c r="K511" s="2"/>
       <c r="L511" s="13"/>
     </row>
-    <row r="512" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="512" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A512" s="4"/>
       <c r="B512" s="4"/>
       <c r="C512" s="11"/>
@@ -10846,7 +11433,7 @@
       <c r="K512" s="2"/>
       <c r="L512" s="13"/>
     </row>
-    <row r="513" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="513" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A513" s="4"/>
       <c r="B513" s="4"/>
       <c r="C513" s="11"/>
@@ -10860,7 +11447,7 @@
       <c r="K513" s="2"/>
       <c r="L513" s="13"/>
     </row>
-    <row r="514" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="514" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A514" s="4"/>
       <c r="B514" s="4"/>
       <c r="C514" s="11"/>
@@ -10874,7 +11461,7 @@
       <c r="K514" s="2"/>
       <c r="L514" s="13"/>
     </row>
-    <row r="515" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="515" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A515" s="4"/>
       <c r="B515" s="4"/>
       <c r="C515" s="11"/>
@@ -10888,7 +11475,7 @@
       <c r="K515" s="2"/>
       <c r="L515" s="13"/>
     </row>
-    <row r="516" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="516" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A516" s="4"/>
       <c r="B516" s="4"/>
       <c r="C516" s="11"/>
@@ -10902,7 +11489,7 @@
       <c r="K516" s="2"/>
       <c r="L516" s="13"/>
     </row>
-    <row r="517" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="517" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A517" s="4"/>
       <c r="B517" s="4"/>
       <c r="C517" s="11"/>
@@ -10916,7 +11503,7 @@
       <c r="K517" s="2"/>
       <c r="L517" s="13"/>
     </row>
-    <row r="518" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="518" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A518" s="4"/>
       <c r="B518" s="4"/>
       <c r="C518" s="11"/>
@@ -10930,7 +11517,7 @@
       <c r="K518" s="2"/>
       <c r="L518" s="13"/>
     </row>
-    <row r="519" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="519" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A519" s="4"/>
       <c r="B519" s="4"/>
       <c r="C519" s="11"/>
@@ -10944,7 +11531,7 @@
       <c r="K519" s="2"/>
       <c r="L519" s="13"/>
     </row>
-    <row r="520" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="520" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A520" s="4"/>
       <c r="B520" s="4"/>
       <c r="C520" s="11"/>
@@ -10958,7 +11545,7 @@
       <c r="K520" s="2"/>
       <c r="L520" s="13"/>
     </row>
-    <row r="521" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="521" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A521" s="4"/>
       <c r="B521" s="4"/>
       <c r="C521" s="11"/>
@@ -10972,7 +11559,7 @@
       <c r="K521" s="2"/>
       <c r="L521" s="13"/>
     </row>
-    <row r="522" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="522" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A522" s="4"/>
       <c r="B522" s="4"/>
       <c r="C522" s="11"/>
@@ -10986,7 +11573,7 @@
       <c r="K522" s="2"/>
       <c r="L522" s="13"/>
     </row>
-    <row r="523" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="523" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A523" s="4"/>
       <c r="B523" s="4"/>
       <c r="C523" s="11"/>
@@ -11000,7 +11587,7 @@
       <c r="K523" s="2"/>
       <c r="L523" s="13"/>
     </row>
-    <row r="524" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="524" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A524" s="4"/>
       <c r="B524" s="4"/>
       <c r="C524" s="11"/>
@@ -11014,7 +11601,7 @@
       <c r="K524" s="2"/>
       <c r="L524" s="13"/>
     </row>
-    <row r="525" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="525" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A525" s="4"/>
       <c r="B525" s="4"/>
       <c r="C525" s="11"/>
@@ -11028,7 +11615,7 @@
       <c r="K525" s="2"/>
       <c r="L525" s="13"/>
     </row>
-    <row r="526" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="526" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A526" s="4"/>
       <c r="B526" s="4"/>
       <c r="C526" s="11"/>
@@ -11042,7 +11629,7 @@
       <c r="K526" s="2"/>
       <c r="L526" s="13"/>
     </row>
-    <row r="527" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="527" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A527" s="4"/>
       <c r="B527" s="4"/>
       <c r="C527" s="11"/>
@@ -11056,7 +11643,7 @@
       <c r="K527" s="2"/>
       <c r="L527" s="13"/>
     </row>
-    <row r="528" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="528" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A528" s="4"/>
       <c r="B528" s="4"/>
       <c r="C528" s="11"/>
@@ -11070,7 +11657,7 @@
       <c r="K528" s="2"/>
       <c r="L528" s="13"/>
     </row>
-    <row r="529" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="529" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A529" s="4"/>
       <c r="B529" s="4"/>
       <c r="C529" s="11"/>
@@ -11084,7 +11671,7 @@
       <c r="K529" s="2"/>
       <c r="L529" s="13"/>
     </row>
-    <row r="530" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="530" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A530" s="4"/>
       <c r="B530" s="4"/>
       <c r="C530" s="11"/>
@@ -11098,7 +11685,7 @@
       <c r="K530" s="2"/>
       <c r="L530" s="13"/>
     </row>
-    <row r="531" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="531" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A531" s="4"/>
       <c r="B531" s="4"/>
       <c r="C531" s="11"/>
@@ -11112,7 +11699,7 @@
       <c r="K531" s="2"/>
       <c r="L531" s="13"/>
     </row>
-    <row r="532" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="532" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A532" s="4"/>
       <c r="B532" s="4"/>
       <c r="C532" s="11"/>
@@ -11126,7 +11713,7 @@
       <c r="K532" s="2"/>
       <c r="L532" s="13"/>
     </row>
-    <row r="533" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="533" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A533" s="4"/>
       <c r="B533" s="4"/>
       <c r="C533" s="11"/>
@@ -11140,7 +11727,7 @@
       <c r="K533" s="2"/>
       <c r="L533" s="13"/>
     </row>
-    <row r="534" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="534" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A534" s="4"/>
       <c r="B534" s="4"/>
       <c r="C534" s="11"/>
@@ -11154,7 +11741,7 @@
       <c r="K534" s="2"/>
       <c r="L534" s="13"/>
     </row>
-    <row r="535" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="535" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A535" s="4"/>
       <c r="B535" s="4"/>
       <c r="C535" s="11"/>
@@ -11168,7 +11755,7 @@
       <c r="K535" s="2"/>
       <c r="L535" s="13"/>
     </row>
-    <row r="536" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="536" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A536" s="4"/>
       <c r="B536" s="4"/>
       <c r="C536" s="11"/>
@@ -11182,7 +11769,7 @@
       <c r="K536" s="2"/>
       <c r="L536" s="13"/>
     </row>
-    <row r="537" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="537" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A537" s="4"/>
       <c r="B537" s="4"/>
       <c r="C537" s="11"/>
@@ -11196,7 +11783,7 @@
       <c r="K537" s="2"/>
       <c r="L537" s="13"/>
     </row>
-    <row r="538" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="538" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A538" s="4"/>
       <c r="B538" s="4"/>
       <c r="C538" s="11"/>
@@ -11210,7 +11797,7 @@
       <c r="K538" s="2"/>
       <c r="L538" s="13"/>
     </row>
-    <row r="539" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="539" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A539" s="4"/>
       <c r="B539" s="4"/>
       <c r="C539" s="11"/>
@@ -11224,7 +11811,7 @@
       <c r="K539" s="2"/>
       <c r="L539" s="13"/>
     </row>
-    <row r="540" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="540" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A540" s="4"/>
       <c r="B540" s="4"/>
       <c r="C540" s="11"/>
@@ -11238,7 +11825,7 @@
       <c r="K540" s="2"/>
       <c r="L540" s="13"/>
     </row>
-    <row r="541" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="541" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A541" s="4"/>
       <c r="B541" s="4"/>
       <c r="C541" s="11"/>
@@ -11252,7 +11839,7 @@
       <c r="K541" s="2"/>
       <c r="L541" s="13"/>
     </row>
-    <row r="542" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="542" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A542" s="4"/>
       <c r="B542" s="4"/>
       <c r="C542" s="11"/>
@@ -11266,7 +11853,7 @@
       <c r="K542" s="2"/>
       <c r="L542" s="13"/>
     </row>
-    <row r="543" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="543" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A543" s="4"/>
       <c r="B543" s="4"/>
       <c r="C543" s="11"/>
@@ -11280,7 +11867,7 @@
       <c r="K543" s="2"/>
       <c r="L543" s="13"/>
     </row>
-    <row r="544" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="544" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A544" s="4"/>
       <c r="B544" s="4"/>
       <c r="C544" s="11"/>
@@ -11294,7 +11881,7 @@
       <c r="K544" s="2"/>
       <c r="L544" s="13"/>
     </row>
-    <row r="545" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="545" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A545" s="4"/>
       <c r="B545" s="4"/>
       <c r="C545" s="11"/>
@@ -11308,7 +11895,7 @@
       <c r="K545" s="2"/>
       <c r="L545" s="13"/>
     </row>
-    <row r="546" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="546" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A546" s="4"/>
       <c r="B546" s="4"/>
       <c r="C546" s="11"/>
@@ -11322,7 +11909,7 @@
       <c r="K546" s="2"/>
       <c r="L546" s="13"/>
     </row>
-    <row r="547" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="547" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A547" s="4"/>
       <c r="B547" s="4"/>
       <c r="C547" s="11"/>
@@ -11336,7 +11923,7 @@
       <c r="K547" s="2"/>
       <c r="L547" s="13"/>
     </row>
-    <row r="548" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="548" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A548" s="4"/>
       <c r="B548" s="4"/>
       <c r="C548" s="11"/>
@@ -11350,7 +11937,7 @@
       <c r="K548" s="2"/>
       <c r="L548" s="13"/>
     </row>
-    <row r="549" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="549" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A549" s="4"/>
       <c r="B549" s="4"/>
       <c r="C549" s="11"/>
@@ -11364,7 +11951,7 @@
       <c r="K549" s="2"/>
       <c r="L549" s="13"/>
     </row>
-    <row r="550" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="550" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A550" s="4"/>
       <c r="B550" s="4"/>
       <c r="C550" s="11"/>
@@ -11378,7 +11965,7 @@
       <c r="K550" s="2"/>
       <c r="L550" s="13"/>
     </row>
-    <row r="551" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="551" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A551" s="4"/>
       <c r="B551" s="4"/>
       <c r="C551" s="11"/>
@@ -11392,7 +11979,7 @@
       <c r="K551" s="2"/>
       <c r="L551" s="13"/>
     </row>
-    <row r="552" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="552" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A552" s="4"/>
       <c r="B552" s="4"/>
       <c r="C552" s="11"/>
@@ -11406,7 +11993,7 @@
       <c r="K552" s="2"/>
       <c r="L552" s="13"/>
     </row>
-    <row r="553" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="553" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A553" s="4"/>
       <c r="B553" s="4"/>
       <c r="C553" s="11"/>
@@ -11420,7 +12007,7 @@
       <c r="K553" s="2"/>
       <c r="L553" s="13"/>
     </row>
-    <row r="554" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="554" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A554" s="4"/>
       <c r="B554" s="4"/>
       <c r="C554" s="11"/>
@@ -11434,7 +12021,7 @@
       <c r="K554" s="2"/>
       <c r="L554" s="13"/>
     </row>
-    <row r="555" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="555" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A555" s="4"/>
       <c r="B555" s="4"/>
       <c r="C555" s="11"/>
@@ -11448,7 +12035,7 @@
       <c r="K555" s="2"/>
       <c r="L555" s="13"/>
     </row>
-    <row r="556" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="556" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A556" s="4"/>
       <c r="B556" s="4"/>
       <c r="C556" s="11"/>
@@ -11462,7 +12049,7 @@
       <c r="K556" s="2"/>
       <c r="L556" s="13"/>
     </row>
-    <row r="557" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="557" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A557" s="4"/>
       <c r="B557" s="4"/>
       <c r="C557" s="11"/>
@@ -11476,7 +12063,7 @@
       <c r="K557" s="2"/>
       <c r="L557" s="13"/>
     </row>
-    <row r="558" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="558" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A558" s="4"/>
       <c r="B558" s="4"/>
       <c r="C558" s="11"/>
@@ -11490,7 +12077,7 @@
       <c r="K558" s="2"/>
       <c r="L558" s="13"/>
     </row>
-    <row r="559" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="559" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A559" s="4"/>
       <c r="B559" s="4"/>
       <c r="C559" s="11"/>
@@ -11504,7 +12091,7 @@
       <c r="K559" s="2"/>
       <c r="L559" s="13"/>
     </row>
-    <row r="560" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="560" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A560" s="4"/>
       <c r="B560" s="4"/>
       <c r="C560" s="11"/>
@@ -11518,7 +12105,7 @@
       <c r="K560" s="2"/>
       <c r="L560" s="13"/>
     </row>
-    <row r="561" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="561" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A561" s="4"/>
       <c r="B561" s="4"/>
       <c r="C561" s="11"/>
@@ -11532,7 +12119,7 @@
       <c r="K561" s="2"/>
       <c r="L561" s="13"/>
     </row>
-    <row r="562" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="562" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A562" s="4"/>
       <c r="B562" s="4"/>
       <c r="C562" s="11"/>
@@ -11546,7 +12133,7 @@
       <c r="K562" s="2"/>
       <c r="L562" s="13"/>
     </row>
-    <row r="563" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="563" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A563" s="4"/>
       <c r="B563" s="4"/>
       <c r="C563" s="11"/>
@@ -11560,7 +12147,7 @@
       <c r="K563" s="2"/>
       <c r="L563" s="13"/>
     </row>
-    <row r="564" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="564" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A564" s="4"/>
       <c r="B564" s="4"/>
       <c r="C564" s="11"/>
@@ -11574,7 +12161,7 @@
       <c r="K564" s="2"/>
       <c r="L564" s="13"/>
     </row>
-    <row r="565" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="565" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A565" s="4"/>
       <c r="B565" s="4"/>
       <c r="C565" s="11"/>
@@ -11588,7 +12175,7 @@
       <c r="K565" s="2"/>
       <c r="L565" s="13"/>
     </row>
-    <row r="566" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="566" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A566" s="4"/>
       <c r="B566" s="4"/>
       <c r="C566" s="11"/>
@@ -11602,7 +12189,7 @@
       <c r="K566" s="2"/>
       <c r="L566" s="13"/>
     </row>
-    <row r="567" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="567" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A567" s="4"/>
       <c r="B567" s="4"/>
       <c r="C567" s="11"/>
@@ -11616,7 +12203,7 @@
       <c r="K567" s="2"/>
       <c r="L567" s="13"/>
     </row>
-    <row r="568" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="568" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A568" s="4"/>
       <c r="B568" s="4"/>
       <c r="C568" s="11"/>
@@ -11630,7 +12217,7 @@
       <c r="K568" s="2"/>
       <c r="L568" s="13"/>
     </row>
-    <row r="569" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="569" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A569" s="4"/>
       <c r="B569" s="4"/>
       <c r="C569" s="11"/>
@@ -11644,7 +12231,7 @@
       <c r="K569" s="2"/>
       <c r="L569" s="13"/>
     </row>
-    <row r="570" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="570" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A570" s="4"/>
       <c r="B570" s="4"/>
       <c r="C570" s="11"/>
@@ -11658,7 +12245,7 @@
       <c r="K570" s="2"/>
       <c r="L570" s="13"/>
     </row>
-    <row r="571" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="571" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A571" s="4"/>
       <c r="B571" s="4"/>
       <c r="C571" s="11"/>
@@ -11672,7 +12259,7 @@
       <c r="K571" s="2"/>
       <c r="L571" s="13"/>
     </row>
-    <row r="572" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="572" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A572" s="4"/>
       <c r="B572" s="4"/>
       <c r="C572" s="11"/>
@@ -11686,7 +12273,7 @@
       <c r="K572" s="2"/>
       <c r="L572" s="13"/>
     </row>
-    <row r="573" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="573" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A573" s="4"/>
       <c r="B573" s="4"/>
       <c r="C573" s="11"/>
@@ -11700,7 +12287,7 @@
       <c r="K573" s="2"/>
       <c r="L573" s="13"/>
     </row>
-    <row r="574" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="574" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A574" s="4"/>
       <c r="B574" s="4"/>
       <c r="C574" s="11"/>
@@ -11714,7 +12301,7 @@
       <c r="K574" s="2"/>
       <c r="L574" s="13"/>
     </row>
-    <row r="575" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="575" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A575" s="4"/>
       <c r="B575" s="4"/>
       <c r="C575" s="11"/>
@@ -11728,7 +12315,7 @@
       <c r="K575" s="2"/>
       <c r="L575" s="13"/>
     </row>
-    <row r="576" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="576" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A576" s="4"/>
       <c r="B576" s="4"/>
       <c r="C576" s="11"/>
@@ -11742,7 +12329,7 @@
       <c r="K576" s="2"/>
       <c r="L576" s="13"/>
     </row>
-    <row r="577" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="577" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A577" s="4"/>
       <c r="B577" s="4"/>
       <c r="C577" s="11"/>
@@ -11756,7 +12343,7 @@
       <c r="K577" s="2"/>
       <c r="L577" s="13"/>
     </row>
-    <row r="578" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="578" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A578" s="4"/>
       <c r="B578" s="4"/>
       <c r="C578" s="11"/>
@@ -11770,7 +12357,7 @@
       <c r="K578" s="2"/>
       <c r="L578" s="13"/>
     </row>
-    <row r="579" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="579" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A579" s="4"/>
       <c r="B579" s="4"/>
       <c r="C579" s="11"/>
@@ -11784,7 +12371,7 @@
       <c r="K579" s="2"/>
       <c r="L579" s="13"/>
     </row>
-    <row r="580" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="580" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A580" s="4"/>
       <c r="B580" s="4"/>
       <c r="C580" s="11"/>
@@ -11798,7 +12385,7 @@
       <c r="K580" s="2"/>
       <c r="L580" s="13"/>
     </row>
-    <row r="581" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="581" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A581" s="4"/>
       <c r="B581" s="4"/>
       <c r="C581" s="11"/>
@@ -11812,7 +12399,7 @@
       <c r="K581" s="2"/>
       <c r="L581" s="13"/>
     </row>
-    <row r="582" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="582" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A582" s="4"/>
       <c r="B582" s="4"/>
       <c r="C582" s="11"/>
@@ -11826,7 +12413,7 @@
       <c r="K582" s="2"/>
       <c r="L582" s="13"/>
     </row>
-    <row r="583" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="583" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A583" s="4"/>
       <c r="B583" s="4"/>
       <c r="C583" s="11"/>
@@ -11840,7 +12427,7 @@
       <c r="K583" s="2"/>
       <c r="L583" s="13"/>
     </row>
-    <row r="584" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="584" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A584" s="4"/>
       <c r="B584" s="4"/>
       <c r="C584" s="11"/>
@@ -11854,7 +12441,7 @@
       <c r="K584" s="2"/>
       <c r="L584" s="13"/>
     </row>
-    <row r="585" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="585" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A585" s="4"/>
       <c r="B585" s="4"/>
       <c r="C585" s="11"/>
@@ -11868,7 +12455,7 @@
       <c r="K585" s="2"/>
       <c r="L585" s="13"/>
     </row>
-    <row r="586" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="586" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A586" s="4"/>
       <c r="B586" s="4"/>
       <c r="C586" s="11"/>
@@ -11882,7 +12469,7 @@
       <c r="K586" s="2"/>
       <c r="L586" s="13"/>
     </row>
-    <row r="587" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="587" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A587" s="4"/>
       <c r="B587" s="4"/>
       <c r="C587" s="11"/>
@@ -11896,7 +12483,7 @@
       <c r="K587" s="2"/>
       <c r="L587" s="13"/>
     </row>
-    <row r="588" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="588" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A588" s="4"/>
       <c r="B588" s="4"/>
       <c r="C588" s="11"/>
@@ -11910,7 +12497,7 @@
       <c r="K588" s="2"/>
       <c r="L588" s="13"/>
     </row>
-    <row r="589" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="589" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A589" s="4"/>
       <c r="B589" s="4"/>
       <c r="C589" s="11"/>
@@ -11924,7 +12511,7 @@
       <c r="K589" s="2"/>
       <c r="L589" s="13"/>
     </row>
-    <row r="590" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="590" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A590" s="4"/>
       <c r="B590" s="4"/>
       <c r="C590" s="11"/>
@@ -11938,7 +12525,7 @@
       <c r="K590" s="2"/>
       <c r="L590" s="13"/>
     </row>
-    <row r="591" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="591" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A591" s="4"/>
       <c r="B591" s="4"/>
       <c r="C591" s="11"/>
@@ -11952,7 +12539,7 @@
       <c r="K591" s="2"/>
       <c r="L591" s="13"/>
     </row>
-    <row r="592" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="592" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A592" s="4"/>
       <c r="B592" s="4"/>
       <c r="C592" s="11"/>
@@ -11966,7 +12553,7 @@
       <c r="K592" s="2"/>
       <c r="L592" s="13"/>
     </row>
-    <row r="593" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="593" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A593" s="4"/>
       <c r="B593" s="4"/>
       <c r="C593" s="11"/>
@@ -11980,7 +12567,7 @@
       <c r="K593" s="2"/>
       <c r="L593" s="13"/>
     </row>
-    <row r="594" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="594" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A594" s="4"/>
       <c r="B594" s="4"/>
       <c r="C594" s="11"/>
@@ -11994,7 +12581,7 @@
       <c r="K594" s="2"/>
       <c r="L594" s="13"/>
     </row>
-    <row r="595" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="595" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A595" s="4"/>
       <c r="B595" s="4"/>
       <c r="C595" s="11"/>
@@ -12008,7 +12595,7 @@
       <c r="K595" s="2"/>
       <c r="L595" s="13"/>
     </row>
-    <row r="596" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="596" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A596" s="4"/>
       <c r="B596" s="4"/>
       <c r="C596" s="11"/>
@@ -12022,7 +12609,7 @@
       <c r="K596" s="2"/>
       <c r="L596" s="13"/>
     </row>
-    <row r="597" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="597" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A597" s="4"/>
       <c r="B597" s="4"/>
       <c r="C597" s="11"/>
@@ -12036,7 +12623,7 @@
       <c r="K597" s="2"/>
       <c r="L597" s="13"/>
     </row>
-    <row r="598" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="598" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A598" s="4"/>
       <c r="B598" s="4"/>
       <c r="C598" s="11"/>
@@ -12050,7 +12637,7 @@
       <c r="K598" s="2"/>
       <c r="L598" s="13"/>
     </row>
-    <row r="599" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="599" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A599" s="4"/>
       <c r="B599" s="4"/>
       <c r="C599" s="11"/>
@@ -12064,7 +12651,7 @@
       <c r="K599" s="2"/>
       <c r="L599" s="13"/>
     </row>
-    <row r="600" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="600" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A600" s="4"/>
       <c r="B600" s="4"/>
       <c r="C600" s="11"/>
@@ -12078,7 +12665,7 @@
       <c r="K600" s="2"/>
       <c r="L600" s="13"/>
     </row>
-    <row r="601" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="601" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A601" s="4"/>
       <c r="B601" s="4"/>
       <c r="C601" s="11"/>
@@ -12092,7 +12679,7 @@
       <c r="K601" s="2"/>
       <c r="L601" s="13"/>
     </row>
-    <row r="602" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="602" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A602" s="4"/>
       <c r="B602" s="4"/>
       <c r="C602" s="11"/>
@@ -12106,7 +12693,7 @@
       <c r="K602" s="2"/>
       <c r="L602" s="13"/>
     </row>
-    <row r="603" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="603" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A603" s="4"/>
       <c r="B603" s="4"/>
       <c r="C603" s="11"/>
@@ -12120,7 +12707,7 @@
       <c r="K603" s="2"/>
       <c r="L603" s="13"/>
     </row>
-    <row r="604" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="604" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A604" s="4"/>
       <c r="B604" s="4"/>
       <c r="C604" s="11"/>
@@ -12134,7 +12721,7 @@
       <c r="K604" s="2"/>
       <c r="L604" s="13"/>
     </row>
-    <row r="605" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="605" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A605" s="4"/>
       <c r="B605" s="4"/>
       <c r="C605" s="11"/>
@@ -12148,7 +12735,7 @@
       <c r="K605" s="2"/>
       <c r="L605" s="13"/>
     </row>
-    <row r="606" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="606" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A606" s="4"/>
       <c r="B606" s="4"/>
       <c r="C606" s="11"/>
@@ -12162,7 +12749,7 @@
       <c r="K606" s="2"/>
       <c r="L606" s="13"/>
     </row>
-    <row r="607" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="607" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A607" s="4"/>
       <c r="B607" s="4"/>
       <c r="C607" s="11"/>
@@ -12176,7 +12763,7 @@
       <c r="K607" s="2"/>
       <c r="L607" s="13"/>
     </row>
-    <row r="608" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="608" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A608" s="4"/>
       <c r="B608" s="4"/>
       <c r="C608" s="11"/>
@@ -12190,7 +12777,7 @@
       <c r="K608" s="2"/>
       <c r="L608" s="13"/>
     </row>
-    <row r="609" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="609" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A609" s="4"/>
       <c r="B609" s="4"/>
       <c r="C609" s="11"/>
@@ -12204,7 +12791,7 @@
       <c r="K609" s="2"/>
       <c r="L609" s="13"/>
     </row>
-    <row r="610" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="610" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A610" s="4"/>
       <c r="B610" s="4"/>
       <c r="C610" s="11"/>
@@ -12218,7 +12805,7 @@
       <c r="K610" s="2"/>
       <c r="L610" s="13"/>
     </row>
-    <row r="611" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="611" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A611" s="4"/>
       <c r="B611" s="4"/>
       <c r="C611" s="11"/>
@@ -12232,7 +12819,7 @@
       <c r="K611" s="2"/>
       <c r="L611" s="13"/>
     </row>
-    <row r="612" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="612" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A612" s="4"/>
       <c r="B612" s="4"/>
       <c r="C612" s="11"/>
@@ -12246,7 +12833,7 @@
       <c r="K612" s="2"/>
       <c r="L612" s="13"/>
     </row>
-    <row r="613" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="613" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A613" s="4"/>
       <c r="B613" s="4"/>
       <c r="C613" s="11"/>
@@ -12260,7 +12847,7 @@
       <c r="K613" s="2"/>
       <c r="L613" s="13"/>
     </row>
-    <row r="614" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="614" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A614" s="4"/>
       <c r="B614" s="4"/>
       <c r="C614" s="11"/>
@@ -12274,7 +12861,7 @@
       <c r="K614" s="2"/>
       <c r="L614" s="13"/>
     </row>
-    <row r="615" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="615" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A615" s="4"/>
       <c r="B615" s="4"/>
       <c r="C615" s="11"/>
@@ -12288,7 +12875,7 @@
       <c r="K615" s="2"/>
       <c r="L615" s="13"/>
     </row>
-    <row r="616" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="616" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A616" s="4"/>
       <c r="B616" s="4"/>
       <c r="C616" s="11"/>
@@ -12302,7 +12889,7 @@
       <c r="K616" s="2"/>
       <c r="L616" s="13"/>
     </row>
-    <row r="617" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="617" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A617" s="4"/>
       <c r="B617" s="4"/>
       <c r="C617" s="11"/>
@@ -12316,7 +12903,7 @@
       <c r="K617" s="2"/>
       <c r="L617" s="13"/>
     </row>
-    <row r="618" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="618" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A618" s="4"/>
       <c r="B618" s="4"/>
       <c r="C618" s="11"/>
@@ -12330,7 +12917,7 @@
       <c r="K618" s="2"/>
       <c r="L618" s="13"/>
     </row>
-    <row r="619" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="619" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A619" s="4"/>
       <c r="B619" s="4"/>
       <c r="C619" s="11"/>
@@ -12344,7 +12931,7 @@
       <c r="K619" s="2"/>
       <c r="L619" s="13"/>
     </row>
-    <row r="620" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="620" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A620" s="4"/>
       <c r="B620" s="4"/>
       <c r="C620" s="11"/>
@@ -12358,7 +12945,7 @@
       <c r="K620" s="2"/>
       <c r="L620" s="13"/>
     </row>
-    <row r="621" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="621" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A621" s="4"/>
       <c r="B621" s="4"/>
       <c r="C621" s="11"/>
@@ -12372,7 +12959,7 @@
       <c r="K621" s="2"/>
       <c r="L621" s="13"/>
     </row>
-    <row r="622" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="622" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A622" s="4"/>
       <c r="B622" s="4"/>
       <c r="C622" s="11"/>
@@ -12386,7 +12973,7 @@
       <c r="K622" s="2"/>
       <c r="L622" s="13"/>
     </row>
-    <row r="623" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="623" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A623" s="4"/>
       <c r="B623" s="4"/>
       <c r="C623" s="11"/>
@@ -12400,7 +12987,7 @@
       <c r="K623" s="2"/>
       <c r="L623" s="13"/>
     </row>
-    <row r="624" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="624" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A624" s="4"/>
       <c r="B624" s="4"/>
       <c r="C624" s="11"/>
@@ -12414,7 +13001,7 @@
       <c r="K624" s="2"/>
       <c r="L624" s="13"/>
     </row>
-    <row r="625" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="625" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A625" s="4"/>
       <c r="B625" s="4"/>
       <c r="C625" s="11"/>
@@ -12428,7 +13015,7 @@
       <c r="K625" s="2"/>
       <c r="L625" s="13"/>
     </row>
-    <row r="626" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="626" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A626" s="4"/>
       <c r="B626" s="4"/>
       <c r="C626" s="11"/>
@@ -12442,7 +13029,7 @@
       <c r="K626" s="2"/>
       <c r="L626" s="13"/>
     </row>
-    <row r="627" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="627" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A627" s="4"/>
       <c r="B627" s="4"/>
       <c r="C627" s="11"/>
@@ -12456,7 +13043,7 @@
       <c r="K627" s="2"/>
       <c r="L627" s="13"/>
     </row>
-    <row r="628" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="628" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A628" s="4"/>
       <c r="B628" s="4"/>
       <c r="C628" s="11"/>
@@ -12470,7 +13057,7 @@
       <c r="K628" s="2"/>
       <c r="L628" s="13"/>
     </row>
-    <row r="629" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="629" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A629" s="4"/>
       <c r="B629" s="4"/>
       <c r="C629" s="11"/>
@@ -12484,7 +13071,7 @@
       <c r="K629" s="2"/>
       <c r="L629" s="13"/>
     </row>
-    <row r="630" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="630" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A630" s="4"/>
       <c r="B630" s="4"/>
       <c r="C630" s="11"/>
@@ -12498,7 +13085,7 @@
       <c r="K630" s="2"/>
       <c r="L630" s="13"/>
     </row>
-    <row r="631" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="631" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A631" s="4"/>
       <c r="B631" s="4"/>
       <c r="C631" s="11"/>
@@ -12512,7 +13099,7 @@
       <c r="K631" s="2"/>
       <c r="L631" s="13"/>
     </row>
-    <row r="632" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="632" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A632" s="4"/>
       <c r="B632" s="4"/>
       <c r="C632" s="11"/>
@@ -12526,7 +13113,7 @@
       <c r="K632" s="2"/>
       <c r="L632" s="13"/>
     </row>
-    <row r="633" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="633" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A633" s="4"/>
       <c r="B633" s="4"/>
       <c r="C633" s="11"/>
@@ -12540,7 +13127,7 @@
       <c r="K633" s="2"/>
       <c r="L633" s="13"/>
     </row>
-    <row r="634" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="634" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A634" s="4"/>
       <c r="B634" s="4"/>
       <c r="C634" s="11"/>
@@ -12554,7 +13141,7 @@
       <c r="K634" s="2"/>
       <c r="L634" s="13"/>
     </row>
-    <row r="635" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="635" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A635" s="4"/>
       <c r="B635" s="4"/>
       <c r="C635" s="11"/>
@@ -12568,7 +13155,7 @@
       <c r="K635" s="2"/>
       <c r="L635" s="13"/>
     </row>
-    <row r="636" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="636" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A636" s="4"/>
       <c r="B636" s="4"/>
       <c r="C636" s="11"/>
@@ -12582,7 +13169,7 @@
       <c r="K636" s="2"/>
       <c r="L636" s="13"/>
     </row>
-    <row r="637" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="637" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A637" s="4"/>
       <c r="B637" s="4"/>
       <c r="C637" s="11"/>
@@ -12596,7 +13183,7 @@
       <c r="K637" s="2"/>
       <c r="L637" s="13"/>
     </row>
-    <row r="638" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="638" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A638" s="4"/>
       <c r="B638" s="4"/>
       <c r="C638" s="11"/>
@@ -12610,7 +13197,7 @@
       <c r="K638" s="2"/>
       <c r="L638" s="13"/>
     </row>
-    <row r="639" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="639" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A639" s="4"/>
       <c r="B639" s="4"/>
       <c r="C639" s="11"/>
@@ -12624,7 +13211,7 @@
       <c r="K639" s="2"/>
       <c r="L639" s="13"/>
     </row>
-    <row r="640" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="640" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A640" s="4"/>
       <c r="B640" s="4"/>
       <c r="C640" s="11"/>
@@ -12638,7 +13225,7 @@
       <c r="K640" s="2"/>
       <c r="L640" s="13"/>
     </row>
-    <row r="641" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="641" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A641" s="4"/>
       <c r="B641" s="4"/>
       <c r="C641" s="11"/>
@@ -12652,7 +13239,7 @@
       <c r="K641" s="2"/>
       <c r="L641" s="13"/>
     </row>
-    <row r="642" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="642" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A642" s="4"/>
       <c r="B642" s="4"/>
       <c r="C642" s="11"/>
@@ -12666,7 +13253,7 @@
       <c r="K642" s="2"/>
       <c r="L642" s="13"/>
     </row>
-    <row r="643" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="643" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A643" s="4"/>
       <c r="B643" s="4"/>
       <c r="C643" s="11"/>
@@ -12680,7 +13267,7 @@
       <c r="K643" s="2"/>
       <c r="L643" s="13"/>
     </row>
-    <row r="644" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="644" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A644" s="4"/>
       <c r="B644" s="4"/>
       <c r="C644" s="11"/>
@@ -12694,368 +13281,368 @@
       <c r="K644" s="2"/>
       <c r="L644" s="13"/>
     </row>
-    <row r="645" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="645" spans="1:12" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="646" spans="1:12" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="647" spans="1:12" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="648" spans="1:12" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="649" spans="1:12" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="650" spans="1:12" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="651" spans="1:12" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="652" spans="1:12" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="653" spans="1:12" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="654" spans="1:12" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="655" spans="1:12" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="656" spans="1:12" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="657" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="658" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="659" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="660" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="661" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="662" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="663" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="664" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="665" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="666" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="667" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="668" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="669" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="670" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="671" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="672" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="673" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="674" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="675" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="676" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="677" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="678" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="679" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="680" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="681" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="682" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="683" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="684" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="685" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="686" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="687" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="688" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="689" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="690" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="691" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="692" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="693" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="694" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="695" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="696" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="697" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="698" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="699" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="700" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="701" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="702" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="703" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="704" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="705" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="706" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="707" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="708" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="709" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="710" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="711" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="712" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="713" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="714" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="715" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="716" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="717" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="718" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="719" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="720" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="721" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="722" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="723" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="724" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="725" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="726" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="727" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="728" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="729" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="730" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="731" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="732" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="733" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="734" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="735" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="736" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="737" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="738" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="739" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="740" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="741" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="742" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="743" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="744" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="745" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="746" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="747" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="748" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="749" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="750" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="751" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="752" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="753" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="754" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="755" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="756" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="757" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="758" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="759" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="760" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="761" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="762" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="763" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="764" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="765" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="766" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="767" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="768" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="769" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="770" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="771" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="772" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="773" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="774" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="775" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="776" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="777" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="778" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="779" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="780" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="781" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="782" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="783" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="784" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="785" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="786" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="787" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="788" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="789" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="790" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="791" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="792" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="793" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="794" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="795" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="796" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="797" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="798" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="799" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="800" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="801" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="802" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="803" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="804" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="805" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="806" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="807" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="808" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="809" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="810" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="811" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="812" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="813" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="814" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="815" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="816" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="817" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="818" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="819" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="820" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="821" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="822" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="823" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="824" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="825" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="826" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="827" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="828" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="829" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="830" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="831" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="832" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="833" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="834" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="835" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="836" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="837" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="838" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="839" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="840" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="841" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="842" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="843" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="844" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="845" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="846" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="847" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="848" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="849" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="850" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="851" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="852" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="853" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="854" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="855" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="856" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="857" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="858" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="859" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="860" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="861" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="862" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="863" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="864" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="865" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="866" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="867" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="868" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="869" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="870" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="871" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="872" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="873" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="874" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="875" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="876" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="877" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="878" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="879" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="880" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="881" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="882" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="883" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="884" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="885" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="886" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="887" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="888" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="889" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="890" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="891" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="892" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="893" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="894" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="895" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="896" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="897" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="898" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="899" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="900" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="901" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="902" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="903" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="904" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="905" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="906" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="907" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="908" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="909" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="910" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="911" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="912" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="913" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="914" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="915" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="916" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="917" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="918" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="919" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="920" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="921" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="922" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="923" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="924" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="925" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="926" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="927" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="928" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="929" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="930" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="931" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="932" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="933" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="934" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="935" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="936" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="937" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="938" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="939" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="940" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="941" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="942" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="943" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="944" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="945" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="946" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="947" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="948" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="949" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="950" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="951" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="952" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="953" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="954" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="955" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="956" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="957" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="958" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="959" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="960" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="961" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="962" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="963" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="964" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="965" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="966" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="967" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="968" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="969" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="970" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="971" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="972" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="973" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="974" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="975" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="976" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="977" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="978" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="979" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="980" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="981" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="982" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="983" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="984" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="985" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="986" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="987" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="988" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="989" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="990" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="991" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="992" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="993" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="994" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="995" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="996" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" insertHyperlinks="0" insertRows="0"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D694" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D2:D694" type="list" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>INDIRECT(C2)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C696" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C2:C696" type="list" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>target</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro.xlsx
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$116</definedName>
+    <definedName name="web">'#system'!$U$2:$U$117</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1452" uniqueCount="466">
   <si>
     <t>description</t>
   </si>
@@ -1457,6 +1457,9 @@
   </si>
   <si>
     <t>assertArrayNotContain(array,unexpected)</t>
+  </si>
+  <si>
+    <t>deselect(locator,text)</t>
   </si>
 </sst>
 </file>
@@ -1464,7 +1467,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="38" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1607,8 +1610,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="30">
+  <fills count="57">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1774,8 +1871,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="30">
+  <borders count="58">
     <border>
       <left/>
       <right/>
@@ -2080,13 +2330,295 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="49">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -2149,49 +2681,94 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="9" fillId="5" fontId="8" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="13" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="13" fillId="8" fontId="10" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="17" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="17" fillId="11" fontId="11" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="14" fontId="13" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="21" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="21" fillId="17" fontId="15" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="25" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="25" fillId="20" fontId="16" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="29" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="29" fillId="23" fontId="17" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="29" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="29" fillId="23" fontId="18" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="26" fontId="19" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="29" fontId="20" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="26" fontId="21" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="37" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="41" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="38" borderId="45" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="41" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="44" borderId="49" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="47" borderId="53" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="50" borderId="57" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="50" borderId="57" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="53" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="56" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="53" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2489,7 +3066,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA116"/>
+  <dimension ref="A1:AA117"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -3696,7 +4273,7 @@
         <v>269</v>
       </c>
       <c r="U53" t="s">
-        <v>124</v>
+        <v>465</v>
       </c>
     </row>
     <row r="54">
@@ -3704,7 +4281,7 @@
         <v>293</v>
       </c>
       <c r="U54" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="55">
@@ -3712,7 +4289,7 @@
         <v>294</v>
       </c>
       <c r="U55" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56">
@@ -3720,7 +4297,7 @@
         <v>295</v>
       </c>
       <c r="U56" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="57">
@@ -3728,7 +4305,7 @@
         <v>305</v>
       </c>
       <c r="U57" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="58">
@@ -3736,7 +4313,7 @@
         <v>314</v>
       </c>
       <c r="U58" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="59">
@@ -3744,7 +4321,7 @@
         <v>338</v>
       </c>
       <c r="U59" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="60">
@@ -3752,7 +4329,7 @@
         <v>311</v>
       </c>
       <c r="U60" t="s">
-        <v>437</v>
+        <v>130</v>
       </c>
     </row>
     <row r="61">
@@ -3760,7 +4337,7 @@
         <v>312</v>
       </c>
       <c r="U61" t="s">
-        <v>206</v>
+        <v>437</v>
       </c>
     </row>
     <row r="62">
@@ -3768,7 +4345,7 @@
         <v>370</v>
       </c>
       <c r="U62" t="s">
-        <v>390</v>
+        <v>206</v>
       </c>
     </row>
     <row r="63">
@@ -3776,7 +4353,7 @@
         <v>371</v>
       </c>
       <c r="U63" t="s">
-        <v>442</v>
+        <v>390</v>
       </c>
     </row>
     <row r="64">
@@ -3784,7 +4361,7 @@
         <v>346</v>
       </c>
       <c r="U64" t="s">
-        <v>131</v>
+        <v>442</v>
       </c>
     </row>
     <row r="65">
@@ -3792,7 +4369,7 @@
         <v>315</v>
       </c>
       <c r="U65" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="66">
@@ -3800,7 +4377,7 @@
         <v>270</v>
       </c>
       <c r="U66" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="67">
@@ -3808,7 +4385,7 @@
         <v>354</v>
       </c>
       <c r="U67" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="68">
@@ -3816,7 +4393,7 @@
         <v>316</v>
       </c>
       <c r="U68" t="s">
-        <v>189</v>
+        <v>134</v>
       </c>
     </row>
     <row r="69">
@@ -3824,7 +4401,7 @@
         <v>409</v>
       </c>
       <c r="U69" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="70">
@@ -3832,7 +4409,7 @@
         <v>306</v>
       </c>
       <c r="U70" t="s">
-        <v>453</v>
+        <v>190</v>
       </c>
     </row>
     <row r="71">
@@ -3840,7 +4417,7 @@
         <v>410</v>
       </c>
       <c r="U71" t="s">
-        <v>135</v>
+        <v>453</v>
       </c>
     </row>
     <row r="72">
@@ -3848,7 +4425,7 @@
         <v>263</v>
       </c>
       <c r="U72" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="73">
@@ -3856,7 +4433,7 @@
         <v>345</v>
       </c>
       <c r="U73" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="74">
@@ -3864,7 +4441,7 @@
         <v>281</v>
       </c>
       <c r="U74" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="75">
@@ -3872,7 +4449,7 @@
         <v>287</v>
       </c>
       <c r="U75" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="76">
@@ -3880,7 +4457,7 @@
         <v>292</v>
       </c>
       <c r="U76" t="s">
-        <v>191</v>
+        <v>139</v>
       </c>
     </row>
     <row r="77">
@@ -3888,7 +4465,7 @@
         <v>416</v>
       </c>
       <c r="U77" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="78">
@@ -3896,7 +4473,7 @@
         <v>333</v>
       </c>
       <c r="U78" t="s">
-        <v>452</v>
+        <v>192</v>
       </c>
     </row>
     <row r="79">
@@ -3904,7 +4481,7 @@
         <v>271</v>
       </c>
       <c r="U79" t="s">
-        <v>193</v>
+        <v>452</v>
       </c>
     </row>
     <row r="80">
@@ -3912,7 +4489,7 @@
         <v>282</v>
       </c>
       <c r="U80" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="81">
@@ -3920,7 +4497,7 @@
         <v>288</v>
       </c>
       <c r="U81" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
     </row>
     <row r="82">
@@ -3928,7 +4505,7 @@
         <v>277</v>
       </c>
       <c r="U82" t="s">
-        <v>140</v>
+        <v>207</v>
       </c>
     </row>
     <row r="83">
@@ -3936,7 +4513,7 @@
         <v>272</v>
       </c>
       <c r="U83" t="s">
-        <v>195</v>
+        <v>140</v>
       </c>
     </row>
     <row r="84">
@@ -3944,7 +4521,7 @@
         <v>289</v>
       </c>
       <c r="U84" t="s">
-        <v>429</v>
+        <v>195</v>
       </c>
     </row>
     <row r="85">
@@ -3952,7 +4529,7 @@
         <v>273</v>
       </c>
       <c r="U85" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
     </row>
     <row r="86">
@@ -3960,7 +4537,7 @@
         <v>274</v>
       </c>
       <c r="U86" t="s">
-        <v>196</v>
+        <v>436</v>
       </c>
     </row>
     <row r="87">
@@ -3968,7 +4545,7 @@
         <v>307</v>
       </c>
       <c r="U87" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="88">
@@ -3976,7 +4553,7 @@
         <v>313</v>
       </c>
       <c r="U88" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="89">
@@ -3984,7 +4561,7 @@
         <v>296</v>
       </c>
       <c r="U89" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="90">
@@ -3992,7 +4569,7 @@
         <v>341</v>
       </c>
       <c r="U90" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
     </row>
     <row r="91">
@@ -4000,7 +4577,7 @@
         <v>278</v>
       </c>
       <c r="U91" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
     </row>
     <row r="92">
@@ -4008,126 +4585,131 @@
         <v>279</v>
       </c>
       <c r="U92" t="s">
-        <v>141</v>
+        <v>200</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>384</v>
+        <v>141</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>142</v>
+        <v>384</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>443</v>
+        <v>154</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>155</v>
+        <v>443</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
-        <v>40</v>
+        <v>158</v>
       </c>
     </row>
     <row r="113">
       <c r="U113" t="s">
-        <v>159</v>
+        <v>40</v>
       </c>
     </row>
     <row r="114">
       <c r="U114" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="115">
       <c r="U115" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="116">
       <c r="U116" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="U117" t="s">
         <v>162</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1452" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1920" uniqueCount="466">
   <si>
     <t>description</t>
   </si>
@@ -1467,7 +1467,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="38" x14ac:knownFonts="1">
+  <fonts count="53" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1704,8 +1704,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="57">
+  <fills count="84">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2024,8 +2118,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="58">
+  <borders count="86">
     <border>
       <left/>
       <right/>
@@ -2612,13 +2859,295 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="64">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -2726,49 +3255,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="37" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="37" fillId="32" fontId="23" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="41" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="41" fillId="35" fontId="25" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="38" borderId="45" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="45" fillId="38" fontId="26" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="41" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="41" fontId="28" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="44" borderId="49" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="49" fillId="44" fontId="30" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="47" borderId="53" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="53" fillId="47" fontId="31" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="50" borderId="57" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="57" fillId="50" fontId="32" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="50" borderId="57" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="57" fillId="50" fontId="33" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="53" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="53" fontId="34" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="56" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="56" fontId="35" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="53" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="53" fontId="36" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="37" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="59" borderId="65" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="62" borderId="69" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="65" borderId="73" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="68" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="71" borderId="77" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="74" borderId="81" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="77" borderId="85" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="77" borderId="85" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="80" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="83" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="80" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro.xlsx
@@ -18,36 +18,37 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$36</definedName>
-    <definedName name="csv">'#system'!$D$2:$D$5</definedName>
+    <definedName name="base">'#system'!$D$2:$D$36</definedName>
+    <definedName name="csv">'#system'!$E$2:$E$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$14</definedName>
-    <definedName name="external">'#system'!$G$2:$G$3</definedName>
-    <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$23</definedName>
-    <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$14</definedName>
-    <definedName name="mail">'#system'!$L$2:$L$2</definedName>
+    <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
+    <definedName name="excel">'#system'!$G$2:$G$14</definedName>
+    <definedName name="external">'#system'!$H$2:$H$3</definedName>
+    <definedName name="image">'#system'!$I$2:$I$5</definedName>
+    <definedName name="io">'#system'!$J$2:$J$24</definedName>
+    <definedName name="jms">'#system'!$K$2:$K$4</definedName>
+    <definedName name="json">'#system'!$L$2:$L$14</definedName>
+    <definedName name="mail">'#system'!$M$2:$M$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$M$2:$M$15</definedName>
-    <definedName name="pdf">'#system'!$N$2:$N$16</definedName>
-    <definedName name="rdbms">'#system'!$O$2:$O$7</definedName>
-    <definedName name="redis">'#system'!$P$2:$P$10</definedName>
-    <definedName name="sms">'#system'!$Q$2:$Q$2</definedName>
-    <definedName name="sound">'#system'!$R$2:$R$5</definedName>
-    <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
-    <definedName name="step">'#system'!$T$2:$T$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$117</definedName>
-    <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
-    <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
-    <definedName name="ws">'#system'!$X$2:$X$16</definedName>
-    <definedName name="ws.async">'#system'!$Y$2:$Y$8</definedName>
-    <definedName name="xml">'#system'!$Z$2:$Z$11</definedName>
+    <definedName name="number">'#system'!$N$2:$N$15</definedName>
+    <definedName name="pdf">'#system'!$O$2:$O$16</definedName>
+    <definedName name="rdbms">'#system'!$P$2:$P$7</definedName>
+    <definedName name="redis">'#system'!$Q$2:$Q$10</definedName>
+    <definedName name="sms">'#system'!$R$2:$R$2</definedName>
+    <definedName name="sound">'#system'!$S$2:$S$5</definedName>
+    <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
+    <definedName name="step">'#system'!$U$2:$U$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$27</definedName>
+    <definedName name="web">'#system'!$V$2:$V$117</definedName>
+    <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
+    <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
+    <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
+    <definedName name="ws.async">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="xml">'#system'!$AA$2:$AA$11</definedName>
+    <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1920" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2394" uniqueCount="471">
   <si>
     <t>description</t>
   </si>
@@ -1460,6 +1461,21 @@
   </si>
   <si>
     <t>deselect(locator,text)</t>
+  </si>
+  <si>
+    <t>aws.ses</t>
+  </si>
+  <si>
+    <t>sendMail(profile,to,subject,body)</t>
+  </si>
+  <si>
+    <t>sendTextMail(profile,to,subject,body)</t>
+  </si>
+  <si>
+    <t>base64(var,file)</t>
+  </si>
+  <si>
+    <t>upload(url,body,fileParams,var)</t>
   </si>
 </sst>
 </file>
@@ -1467,7 +1483,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="53" x14ac:knownFonts="1">
+  <fonts count="69" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1798,8 +1814,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="84">
+  <fills count="111">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2271,8 +2388,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="86">
+  <borders count="114">
     <border>
       <left/>
       <right/>
@@ -3141,13 +3411,295 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="80">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3300,49 +3852,97 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="37" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="59" borderId="65" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="65" fillId="59" fontId="38" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="39" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="62" borderId="69" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="69" fillId="62" fontId="40" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="65" borderId="73" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="73" fillId="65" fontId="41" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="42" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="68" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="68" fontId="43" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="44" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="71" borderId="77" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="77" fillId="71" fontId="45" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="74" borderId="81" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="81" fillId="74" fontId="46" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="77" borderId="85" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="85" fillId="77" fontId="47" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="77" borderId="85" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="85" fillId="77" fontId="48" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="80" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="80" fontId="49" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="83" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="83" fontId="50" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="80" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="80" fontId="51" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="52" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="86" borderId="93" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="89" borderId="97" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="92" borderId="101" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="95" borderId="101" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="98" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="101" borderId="105" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="104" borderId="109" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="107" borderId="113" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="107" borderId="113" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="95" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="110" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="95" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3640,7 +4240,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA117"/>
+  <dimension ref="A1:AB117"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -3657,75 +4257,78 @@
         <v>372</v>
       </c>
       <c r="C1" t="s">
+        <v>466</v>
+      </c>
+      <c r="D1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>43</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>16</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>348</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>334</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>17</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>188</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>44</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>230</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>45</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>399</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>411</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>412</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>358</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>395</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>46</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>47</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>48</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>49</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>413</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>218</v>
       </c>
     </row>
@@ -3737,1553 +4340,1568 @@
         <v>373</v>
       </c>
       <c r="C2" t="s">
+        <v>467</v>
+      </c>
+      <c r="D2" t="s">
         <v>50</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>64</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>66</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>449</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>71</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>350</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>317</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>385</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>417</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>418</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>419</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>244</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>209</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>400</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>423</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>424</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>382</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>396</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>89</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>163</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>168</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>175</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>430</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>466</v>
       </c>
       <c r="B3" t="s">
         <v>374</v>
       </c>
       <c r="C3" t="s">
+        <v>468</v>
+      </c>
+      <c r="D3" t="s">
         <v>463</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>366</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>80</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>41</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>21</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>351</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>342</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>335</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>78</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>420</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>231</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>210</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>401</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>425</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>383</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>397</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>90</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>164</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>169</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>365</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>176</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>375</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>65</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>388</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>450</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>352</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>229</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>336</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>18</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>19</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>232</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>211</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>402</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>426</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>359</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>398</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>355</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>165</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>170</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>176</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>431</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
         <v>376</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>464</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>438</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>337</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>454</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>349</v>
       </c>
-      <c r="I5" t="s">
-        <v>64</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="J5" t="s">
+        <v>469</v>
+      </c>
+      <c r="L5" t="s">
         <v>79</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>23</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>233</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>212</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>403</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>427</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>360</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>356</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>166</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>171</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>177</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>432</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
         <v>377</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>389</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>447</v>
       </c>
-      <c r="I6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="J6" t="s">
+        <v>64</v>
+      </c>
+      <c r="L6" t="s">
         <v>22</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>24</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>234</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>392</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>404</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>362</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>91</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>444</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>172</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>178</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>433</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
         <v>378</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>215</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>367</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>446</v>
       </c>
-      <c r="I7" t="s">
-        <v>72</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="J7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" t="s">
         <v>317</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>26</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>235</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>422</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>405</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>361</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>92</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>445</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>173</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>179</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>434</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>348</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
         <v>379</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>320</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>368</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>329</v>
       </c>
-      <c r="I8" t="s">
-        <v>31</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="J8" t="s">
+        <v>72</v>
+      </c>
+      <c r="L8" t="s">
         <v>27</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>83</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>236</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>406</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>363</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>93</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>167</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>174</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>180</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>435</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>348</v>
       </c>
       <c r="B9" t="s">
         <v>380</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>25</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>308</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>330</v>
       </c>
-      <c r="I9" t="s">
-        <v>391</v>
-      </c>
-      <c r="K9" t="s">
+      <c r="J9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" t="s">
         <v>28</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>84</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>237</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>407</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>364</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>201</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>181</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>334</v>
-      </c>
-      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
         <v>317</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>353</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>451</v>
       </c>
-      <c r="I10" t="s">
-        <v>13</v>
-      </c>
-      <c r="K10" t="s">
+      <c r="J10" t="s">
+        <v>391</v>
+      </c>
+      <c r="L10" t="s">
         <v>29</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>421</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>238</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>408</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>258</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>182</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" t="s">
+        <v>334</v>
+      </c>
+      <c r="D11" t="s">
         <v>250</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>275</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>323</v>
       </c>
-      <c r="I11" t="s">
-        <v>35</v>
-      </c>
-      <c r="K11" t="s">
+      <c r="J11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" t="s">
         <v>440</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>85</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>239</v>
       </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
         <v>259</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>260</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>188</v>
-      </c>
-      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
         <v>321</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>264</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>324</v>
       </c>
-      <c r="I12" t="s">
-        <v>73</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="J12" t="s">
+        <v>35</v>
+      </c>
+      <c r="L12" t="s">
         <v>32</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>34</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>240</v>
       </c>
-      <c r="U12" t="s">
+      <c r="V12" t="s">
         <v>94</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" t="s">
+        <v>188</v>
+      </c>
+      <c r="D13" t="s">
         <v>342</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>318</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>325</v>
       </c>
-      <c r="I13" t="s">
-        <v>74</v>
-      </c>
-      <c r="K13" t="s">
+      <c r="J13" t="s">
+        <v>73</v>
+      </c>
+      <c r="L13" t="s">
         <v>33</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>86</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>245</v>
       </c>
-      <c r="U13" t="s">
+      <c r="V13" t="s">
         <v>327</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>230</v>
-      </c>
-      <c r="C14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" t="s">
         <v>30</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>265</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>326</v>
       </c>
-      <c r="I14" t="s">
-        <v>455</v>
-      </c>
-      <c r="K14" t="s">
+      <c r="J14" t="s">
+        <v>74</v>
+      </c>
+      <c r="L14" t="s">
         <v>36</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>87</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>241</v>
       </c>
-      <c r="U14" t="s">
+      <c r="V14" t="s">
         <v>95</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" t="s">
+        <v>230</v>
+      </c>
+      <c r="D15" t="s">
         <v>51</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>266</v>
       </c>
-      <c r="I15" t="s">
-        <v>75</v>
-      </c>
-      <c r="M15" t="s">
+      <c r="J15" t="s">
+        <v>455</v>
+      </c>
+      <c r="N15" t="s">
         <v>88</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>242</v>
       </c>
-      <c r="U15" t="s">
+      <c r="V15" t="s">
         <v>96</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>399</v>
-      </c>
-      <c r="C16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" t="s">
         <v>386</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>319</v>
       </c>
-      <c r="I16" t="s">
-        <v>76</v>
-      </c>
-      <c r="N16" t="s">
+      <c r="J16" t="s">
+        <v>75</v>
+      </c>
+      <c r="O16" t="s">
         <v>243</v>
       </c>
-      <c r="U16" t="s">
+      <c r="V16" t="s">
         <v>67</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Y16" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>411</v>
-      </c>
-      <c r="C17" t="s">
+        <v>399</v>
+      </c>
+      <c r="D17" t="s">
         <v>387</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>81</v>
       </c>
-      <c r="I17" t="s">
-        <v>381</v>
-      </c>
-      <c r="U17" t="s">
+      <c r="J17" t="s">
+        <v>76</v>
+      </c>
+      <c r="V17" t="s">
         <v>97</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>412</v>
-      </c>
-      <c r="C18" t="s">
+        <v>411</v>
+      </c>
+      <c r="D18" t="s">
         <v>414</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>82</v>
       </c>
-      <c r="I18" t="s">
-        <v>37</v>
-      </c>
-      <c r="U18" t="s">
+      <c r="J18" t="s">
+        <v>381</v>
+      </c>
+      <c r="V18" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>358</v>
-      </c>
-      <c r="C19" t="s">
+        <v>412</v>
+      </c>
+      <c r="D19" t="s">
         <v>52</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>297</v>
       </c>
-      <c r="I19" t="s">
-        <v>393</v>
-      </c>
-      <c r="U19" t="s">
+      <c r="J19" t="s">
+        <v>37</v>
+      </c>
+      <c r="V19" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>395</v>
-      </c>
-      <c r="C20" t="s">
+        <v>358</v>
+      </c>
+      <c r="D20" t="s">
         <v>53</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>298</v>
       </c>
-      <c r="I20" t="s">
-        <v>77</v>
-      </c>
-      <c r="U20" t="s">
+      <c r="J20" t="s">
+        <v>393</v>
+      </c>
+      <c r="V20" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" t="s">
+        <v>395</v>
+      </c>
+      <c r="D21" t="s">
         <v>54</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>299</v>
       </c>
-      <c r="I21" t="s">
-        <v>439</v>
-      </c>
-      <c r="U21" t="s">
+      <c r="J21" t="s">
+        <v>77</v>
+      </c>
+      <c r="V21" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" t="s">
         <v>322</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>300</v>
       </c>
-      <c r="I22" t="s">
-        <v>38</v>
-      </c>
-      <c r="U22" t="s">
+      <c r="J22" t="s">
+        <v>439</v>
+      </c>
+      <c r="V22" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" t="s">
         <v>55</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>291</v>
       </c>
-      <c r="I23" t="s">
-        <v>39</v>
-      </c>
-      <c r="U23" t="s">
+      <c r="J23" t="s">
+        <v>38</v>
+      </c>
+      <c r="V23" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" t="s">
         <v>448</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>280</v>
       </c>
-      <c r="U24" t="s">
+      <c r="J24" t="s">
+        <v>39</v>
+      </c>
+      <c r="V24" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>413</v>
-      </c>
-      <c r="C25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" t="s">
         <v>216</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>68</v>
       </c>
-      <c r="U25" t="s">
+      <c r="V25" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>413</v>
+      </c>
+      <c r="D26" t="s">
+        <v>217</v>
+      </c>
+      <c r="F26" t="s">
+        <v>283</v>
+      </c>
+      <c r="V26" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
         <v>218</v>
       </c>
-      <c r="C26" t="s">
-        <v>217</v>
-      </c>
-      <c r="E26" t="s">
-        <v>283</v>
-      </c>
-      <c r="U26" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>415</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>267</v>
       </c>
-      <c r="U27" t="s">
+      <c r="V27" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="28">
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>56</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>284</v>
       </c>
-      <c r="U28" t="s">
+      <c r="V28" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="29">
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>57</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>285</v>
       </c>
-      <c r="U29" t="s">
+      <c r="V29" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="30">
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>58</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>208</v>
       </c>
-      <c r="U30" t="s">
+      <c r="V30" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="31">
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>59</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>276</v>
       </c>
-      <c r="U31" t="s">
+      <c r="V31" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="32">
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>60</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>286</v>
       </c>
-      <c r="U32" t="s">
+      <c r="V32" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="33">
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>61</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>261</v>
       </c>
-      <c r="U33" t="s">
+      <c r="V33" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="34">
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>62</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>331</v>
       </c>
-      <c r="U34" t="s">
+      <c r="V34" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="35">
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>63</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>309</v>
       </c>
-      <c r="U35" t="s">
+      <c r="V35" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="36">
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>262</v>
       </c>
-      <c r="U36" t="s">
+      <c r="V36" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="37">
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>310</v>
       </c>
-      <c r="U37" t="s">
+      <c r="V37" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="38">
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>268</v>
       </c>
-      <c r="U38" t="s">
+      <c r="V38" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="39">
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>70</v>
       </c>
-      <c r="U39" t="s">
+      <c r="V39" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="40">
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>204</v>
       </c>
-      <c r="U40" t="s">
+      <c r="V40" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="41">
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>290</v>
       </c>
-      <c r="U41" t="s">
+      <c r="V41" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="42">
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>301</v>
       </c>
-      <c r="U42" t="s">
+      <c r="V42" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="43">
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>302</v>
       </c>
-      <c r="U43" t="s">
+      <c r="V43" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="44">
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>344</v>
       </c>
-      <c r="U44" t="s">
+      <c r="V44" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="45">
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>343</v>
       </c>
-      <c r="U45" t="s">
+      <c r="V45" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="46">
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>203</v>
       </c>
-      <c r="U46" t="s">
+      <c r="V46" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="47">
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>303</v>
       </c>
-      <c r="U47" t="s">
+      <c r="V47" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="48">
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>340</v>
       </c>
-      <c r="U48" t="s">
+      <c r="V48" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="49">
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>369</v>
       </c>
-      <c r="U49" t="s">
+      <c r="V49" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="50">
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>304</v>
       </c>
-      <c r="U50" t="s">
+      <c r="V50" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="51">
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>357</v>
       </c>
-      <c r="U51" t="s">
+      <c r="V51" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="52">
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>332</v>
       </c>
-      <c r="U52" t="s">
+      <c r="V52" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="53">
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>269</v>
       </c>
-      <c r="U53" t="s">
+      <c r="V53" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="54">
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>293</v>
       </c>
-      <c r="U54" t="s">
+      <c r="V54" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="55">
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>294</v>
       </c>
-      <c r="U55" t="s">
+      <c r="V55" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="56">
-      <c r="E56" t="s">
+      <c r="F56" t="s">
         <v>295</v>
       </c>
-      <c r="U56" t="s">
+      <c r="V56" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="57">
-      <c r="E57" t="s">
+      <c r="F57" t="s">
         <v>305</v>
       </c>
-      <c r="U57" t="s">
+      <c r="V57" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="58">
-      <c r="E58" t="s">
+      <c r="F58" t="s">
         <v>314</v>
       </c>
-      <c r="U58" t="s">
+      <c r="V58" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="59">
-      <c r="E59" t="s">
+      <c r="F59" t="s">
         <v>338</v>
       </c>
-      <c r="U59" t="s">
+      <c r="V59" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="60">
-      <c r="E60" t="s">
+      <c r="F60" t="s">
         <v>311</v>
       </c>
-      <c r="U60" t="s">
+      <c r="V60" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="61">
-      <c r="E61" t="s">
+      <c r="F61" t="s">
         <v>312</v>
       </c>
-      <c r="U61" t="s">
+      <c r="V61" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="62">
-      <c r="E62" t="s">
+      <c r="F62" t="s">
         <v>370</v>
       </c>
-      <c r="U62" t="s">
+      <c r="V62" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="63">
-      <c r="E63" t="s">
+      <c r="F63" t="s">
         <v>371</v>
       </c>
-      <c r="U63" t="s">
+      <c r="V63" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="64">
-      <c r="E64" t="s">
+      <c r="F64" t="s">
         <v>346</v>
       </c>
-      <c r="U64" t="s">
+      <c r="V64" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="65">
-      <c r="E65" t="s">
+      <c r="F65" t="s">
         <v>315</v>
       </c>
-      <c r="U65" t="s">
+      <c r="V65" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="66">
-      <c r="E66" t="s">
+      <c r="F66" t="s">
         <v>270</v>
       </c>
-      <c r="U66" t="s">
+      <c r="V66" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="67">
-      <c r="E67" t="s">
+      <c r="F67" t="s">
         <v>354</v>
       </c>
-      <c r="U67" t="s">
+      <c r="V67" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="68">
-      <c r="E68" t="s">
+      <c r="F68" t="s">
         <v>316</v>
       </c>
-      <c r="U68" t="s">
+      <c r="V68" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="69">
-      <c r="E69" t="s">
+      <c r="F69" t="s">
         <v>409</v>
       </c>
-      <c r="U69" t="s">
+      <c r="V69" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="70">
-      <c r="E70" t="s">
+      <c r="F70" t="s">
         <v>306</v>
       </c>
-      <c r="U70" t="s">
+      <c r="V70" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="71">
-      <c r="E71" t="s">
+      <c r="F71" t="s">
         <v>410</v>
       </c>
-      <c r="U71" t="s">
+      <c r="V71" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="72">
-      <c r="E72" t="s">
+      <c r="F72" t="s">
         <v>263</v>
       </c>
-      <c r="U72" t="s">
+      <c r="V72" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="73">
-      <c r="E73" t="s">
+      <c r="F73" t="s">
         <v>345</v>
       </c>
-      <c r="U73" t="s">
+      <c r="V73" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="74">
-      <c r="E74" t="s">
+      <c r="F74" t="s">
         <v>281</v>
       </c>
-      <c r="U74" t="s">
+      <c r="V74" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="75">
-      <c r="E75" t="s">
+      <c r="F75" t="s">
         <v>287</v>
       </c>
-      <c r="U75" t="s">
+      <c r="V75" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="76">
-      <c r="E76" t="s">
+      <c r="F76" t="s">
         <v>292</v>
       </c>
-      <c r="U76" t="s">
+      <c r="V76" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="77">
-      <c r="E77" t="s">
+      <c r="F77" t="s">
         <v>416</v>
       </c>
-      <c r="U77" t="s">
+      <c r="V77" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="78">
-      <c r="E78" t="s">
+      <c r="F78" t="s">
         <v>333</v>
       </c>
-      <c r="U78" t="s">
+      <c r="V78" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="79">
-      <c r="E79" t="s">
+      <c r="F79" t="s">
         <v>271</v>
       </c>
-      <c r="U79" t="s">
+      <c r="V79" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="80">
-      <c r="E80" t="s">
+      <c r="F80" t="s">
         <v>282</v>
       </c>
-      <c r="U80" t="s">
+      <c r="V80" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="81">
-      <c r="E81" t="s">
+      <c r="F81" t="s">
         <v>288</v>
       </c>
-      <c r="U81" t="s">
+      <c r="V81" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="82">
-      <c r="E82" t="s">
+      <c r="F82" t="s">
         <v>277</v>
       </c>
-      <c r="U82" t="s">
+      <c r="V82" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="83">
-      <c r="E83" t="s">
+      <c r="F83" t="s">
         <v>272</v>
       </c>
-      <c r="U83" t="s">
+      <c r="V83" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="84">
-      <c r="E84" t="s">
+      <c r="F84" t="s">
         <v>289</v>
       </c>
-      <c r="U84" t="s">
+      <c r="V84" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="85">
-      <c r="E85" t="s">
+      <c r="F85" t="s">
         <v>273</v>
       </c>
-      <c r="U85" t="s">
+      <c r="V85" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="86">
-      <c r="E86" t="s">
+      <c r="F86" t="s">
         <v>274</v>
       </c>
-      <c r="U86" t="s">
+      <c r="V86" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="87">
-      <c r="E87" t="s">
+      <c r="F87" t="s">
         <v>307</v>
       </c>
-      <c r="U87" t="s">
+      <c r="V87" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="88">
-      <c r="E88" t="s">
+      <c r="F88" t="s">
         <v>313</v>
       </c>
-      <c r="U88" t="s">
+      <c r="V88" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="89">
-      <c r="E89" t="s">
+      <c r="F89" t="s">
         <v>296</v>
       </c>
-      <c r="U89" t="s">
+      <c r="V89" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="90">
-      <c r="E90" t="s">
+      <c r="F90" t="s">
         <v>341</v>
       </c>
-      <c r="U90" t="s">
+      <c r="V90" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="91">
-      <c r="E91" t="s">
+      <c r="F91" t="s">
         <v>278</v>
       </c>
-      <c r="U91" t="s">
+      <c r="V91" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="92">
-      <c r="E92" t="s">
+      <c r="F92" t="s">
         <v>279</v>
       </c>
-      <c r="U92" t="s">
+      <c r="V92" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="93">
-      <c r="U93" t="s">
+      <c r="V93" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="94">
-      <c r="U94" t="s">
+      <c r="V94" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="95">
-      <c r="U95" t="s">
+      <c r="V95" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="96">
-      <c r="U96" t="s">
+      <c r="V96" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="97">
-      <c r="U97" t="s">
+      <c r="V97" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="98">
-      <c r="U98" t="s">
+      <c r="V98" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="99">
-      <c r="U99" t="s">
+      <c r="V99" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="100">
-      <c r="U100" t="s">
+      <c r="V100" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="101">
-      <c r="U101" t="s">
+      <c r="V101" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="102">
-      <c r="U102" t="s">
+      <c r="V102" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="103">
-      <c r="U103" t="s">
+      <c r="V103" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="104">
-      <c r="U104" t="s">
+      <c r="V104" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="105">
-      <c r="U105" t="s">
+      <c r="V105" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="106">
-      <c r="U106" t="s">
+      <c r="V106" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="107">
-      <c r="U107" t="s">
+      <c r="V107" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="108">
-      <c r="U108" t="s">
+      <c r="V108" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="109">
-      <c r="U109" t="s">
+      <c r="V109" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="110">
-      <c r="U110" t="s">
+      <c r="V110" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="111">
-      <c r="U111" t="s">
+      <c r="V111" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="112">
-      <c r="U112" t="s">
+      <c r="V112" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="113">
-      <c r="U113" t="s">
+      <c r="V113" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="114">
-      <c r="U114" t="s">
+      <c r="V114" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="115">
-      <c r="U115" t="s">
+      <c r="V115" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="116">
-      <c r="U116" t="s">
+      <c r="V116" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="117">
-      <c r="U117" t="s">
+      <c r="V117" t="s">
         <v>162</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro.xlsx
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
     <definedName name="step">'#system'!$U$2:$U$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$117</definedName>
+    <definedName name="web">'#system'!$V$2:$V$118</definedName>
     <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
     <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
     <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2394" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2869" uniqueCount="473">
   <si>
     <t>description</t>
   </si>
@@ -1476,6 +1476,12 @@
   </si>
   <si>
     <t>upload(url,body,fileParams,var)</t>
+  </si>
+  <si>
+    <t>sendHtmlMail(profile,to,subject,body)</t>
+  </si>
+  <si>
+    <t>clickWithKeys(locator,keys)</t>
   </si>
 </sst>
 </file>
@@ -1483,7 +1489,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="69" x14ac:knownFonts="1">
+  <fonts count="85" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1915,8 +1921,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="111">
+  <fills count="138">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2541,8 +2648,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="114">
+  <borders count="142">
     <border>
       <left/>
       <right/>
@@ -3693,13 +3953,295 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="96">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3897,52 +4439,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="52" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="86" borderId="93" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="93" fillId="86" fontId="53" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="54" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="89" borderId="97" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="97" fillId="89" fontId="55" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="92" borderId="101" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="101" fillId="92" fontId="56" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="95" borderId="101" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="101" fillId="95" fontId="57" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="58" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="98" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="98" fontId="59" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="60" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="101" borderId="105" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="105" fillId="101" fontId="61" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="104" borderId="109" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="109" fillId="104" fontId="62" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="107" borderId="113" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="113" fillId="107" fontId="63" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="107" borderId="113" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="113" fillId="107" fontId="64" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="95" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="95" fontId="65" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="110" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="110" fontId="66" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="95" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="95" fontId="67" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="68" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="113" borderId="121" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="116" borderId="125" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="119" borderId="129" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="122" borderId="129" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="125" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="128" borderId="133" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="131" borderId="137" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="134" borderId="141" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="134" borderId="141" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="122" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="137" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="122" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4240,7 +4830,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB117"/>
+  <dimension ref="A1:AB118"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -4340,7 +4930,7 @@
         <v>373</v>
       </c>
       <c r="C2" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="D2" t="s">
         <v>50</v>
@@ -5449,7 +6039,7 @@
         <v>357</v>
       </c>
       <c r="V51" t="s">
-        <v>123</v>
+        <v>472</v>
       </c>
     </row>
     <row r="52">
@@ -5457,7 +6047,7 @@
         <v>332</v>
       </c>
       <c r="V52" t="s">
-        <v>347</v>
+        <v>123</v>
       </c>
     </row>
     <row r="53">
@@ -5465,7 +6055,7 @@
         <v>269</v>
       </c>
       <c r="V53" t="s">
-        <v>465</v>
+        <v>347</v>
       </c>
     </row>
     <row r="54">
@@ -5473,7 +6063,7 @@
         <v>293</v>
       </c>
       <c r="V54" t="s">
-        <v>124</v>
+        <v>465</v>
       </c>
     </row>
     <row r="55">
@@ -5481,7 +6071,7 @@
         <v>294</v>
       </c>
       <c r="V55" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="56">
@@ -5489,7 +6079,7 @@
         <v>295</v>
       </c>
       <c r="V56" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="57">
@@ -5497,7 +6087,7 @@
         <v>305</v>
       </c>
       <c r="V57" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="58">
@@ -5505,7 +6095,7 @@
         <v>314</v>
       </c>
       <c r="V58" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="59">
@@ -5513,7 +6103,7 @@
         <v>338</v>
       </c>
       <c r="V59" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="60">
@@ -5521,7 +6111,7 @@
         <v>311</v>
       </c>
       <c r="V60" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="61">
@@ -5529,7 +6119,7 @@
         <v>312</v>
       </c>
       <c r="V61" t="s">
-        <v>437</v>
+        <v>130</v>
       </c>
     </row>
     <row r="62">
@@ -5537,7 +6127,7 @@
         <v>370</v>
       </c>
       <c r="V62" t="s">
-        <v>206</v>
+        <v>437</v>
       </c>
     </row>
     <row r="63">
@@ -5545,7 +6135,7 @@
         <v>371</v>
       </c>
       <c r="V63" t="s">
-        <v>390</v>
+        <v>206</v>
       </c>
     </row>
     <row r="64">
@@ -5553,7 +6143,7 @@
         <v>346</v>
       </c>
       <c r="V64" t="s">
-        <v>442</v>
+        <v>390</v>
       </c>
     </row>
     <row r="65">
@@ -5561,7 +6151,7 @@
         <v>315</v>
       </c>
       <c r="V65" t="s">
-        <v>131</v>
+        <v>442</v>
       </c>
     </row>
     <row r="66">
@@ -5569,7 +6159,7 @@
         <v>270</v>
       </c>
       <c r="V66" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="67">
@@ -5577,7 +6167,7 @@
         <v>354</v>
       </c>
       <c r="V67" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="68">
@@ -5585,7 +6175,7 @@
         <v>316</v>
       </c>
       <c r="V68" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="69">
@@ -5593,7 +6183,7 @@
         <v>409</v>
       </c>
       <c r="V69" t="s">
-        <v>189</v>
+        <v>134</v>
       </c>
     </row>
     <row r="70">
@@ -5601,7 +6191,7 @@
         <v>306</v>
       </c>
       <c r="V70" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="71">
@@ -5609,7 +6199,7 @@
         <v>410</v>
       </c>
       <c r="V71" t="s">
-        <v>453</v>
+        <v>190</v>
       </c>
     </row>
     <row r="72">
@@ -5617,7 +6207,7 @@
         <v>263</v>
       </c>
       <c r="V72" t="s">
-        <v>135</v>
+        <v>453</v>
       </c>
     </row>
     <row r="73">
@@ -5625,7 +6215,7 @@
         <v>345</v>
       </c>
       <c r="V73" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="74">
@@ -5633,7 +6223,7 @@
         <v>281</v>
       </c>
       <c r="V74" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="75">
@@ -5641,7 +6231,7 @@
         <v>287</v>
       </c>
       <c r="V75" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="76">
@@ -5649,7 +6239,7 @@
         <v>292</v>
       </c>
       <c r="V76" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="77">
@@ -5657,7 +6247,7 @@
         <v>416</v>
       </c>
       <c r="V77" t="s">
-        <v>191</v>
+        <v>139</v>
       </c>
     </row>
     <row r="78">
@@ -5665,7 +6255,7 @@
         <v>333</v>
       </c>
       <c r="V78" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="79">
@@ -5673,7 +6263,7 @@
         <v>271</v>
       </c>
       <c r="V79" t="s">
-        <v>452</v>
+        <v>192</v>
       </c>
     </row>
     <row r="80">
@@ -5681,7 +6271,7 @@
         <v>282</v>
       </c>
       <c r="V80" t="s">
-        <v>193</v>
+        <v>452</v>
       </c>
     </row>
     <row r="81">
@@ -5689,7 +6279,7 @@
         <v>288</v>
       </c>
       <c r="V81" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="82">
@@ -5697,7 +6287,7 @@
         <v>277</v>
       </c>
       <c r="V82" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
     </row>
     <row r="83">
@@ -5705,7 +6295,7 @@
         <v>272</v>
       </c>
       <c r="V83" t="s">
-        <v>140</v>
+        <v>207</v>
       </c>
     </row>
     <row r="84">
@@ -5713,7 +6303,7 @@
         <v>289</v>
       </c>
       <c r="V84" t="s">
-        <v>195</v>
+        <v>140</v>
       </c>
     </row>
     <row r="85">
@@ -5721,7 +6311,7 @@
         <v>273</v>
       </c>
       <c r="V85" t="s">
-        <v>429</v>
+        <v>195</v>
       </c>
     </row>
     <row r="86">
@@ -5729,7 +6319,7 @@
         <v>274</v>
       </c>
       <c r="V86" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
     </row>
     <row r="87">
@@ -5737,7 +6327,7 @@
         <v>307</v>
       </c>
       <c r="V87" t="s">
-        <v>196</v>
+        <v>436</v>
       </c>
     </row>
     <row r="88">
@@ -5745,7 +6335,7 @@
         <v>313</v>
       </c>
       <c r="V88" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="89">
@@ -5753,7 +6343,7 @@
         <v>296</v>
       </c>
       <c r="V89" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="90">
@@ -5761,7 +6351,7 @@
         <v>341</v>
       </c>
       <c r="V90" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="91">
@@ -5769,7 +6359,7 @@
         <v>278</v>
       </c>
       <c r="V91" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
     </row>
     <row r="92">
@@ -5777,131 +6367,136 @@
         <v>279</v>
       </c>
       <c r="V92" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
     </row>
     <row r="93">
       <c r="V93" t="s">
-        <v>141</v>
+        <v>200</v>
       </c>
     </row>
     <row r="94">
       <c r="V94" t="s">
-        <v>384</v>
+        <v>141</v>
       </c>
     </row>
     <row r="95">
       <c r="V95" t="s">
-        <v>142</v>
+        <v>384</v>
       </c>
     </row>
     <row r="96">
       <c r="V96" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="97">
       <c r="V97" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="98">
       <c r="V98" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="99">
       <c r="V99" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="100">
       <c r="V100" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="101">
       <c r="V101" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="102">
       <c r="V102" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="103">
       <c r="V103" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="104">
       <c r="V104" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="105">
       <c r="V105" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="106">
       <c r="V106" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="107">
       <c r="V107" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="108">
       <c r="V108" t="s">
-        <v>443</v>
+        <v>154</v>
       </c>
     </row>
     <row r="109">
       <c r="V109" t="s">
-        <v>155</v>
+        <v>443</v>
       </c>
     </row>
     <row r="110">
       <c r="V110" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="111">
       <c r="V111" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="112">
       <c r="V112" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="113">
       <c r="V113" t="s">
-        <v>40</v>
+        <v>158</v>
       </c>
     </row>
     <row r="114">
       <c r="V114" t="s">
-        <v>159</v>
+        <v>40</v>
       </c>
     </row>
     <row r="115">
       <c r="V115" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="116">
       <c r="V116" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="117">
       <c r="V117" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="V118" t="s">
         <v>162</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro.xlsx
@@ -25,7 +25,7 @@
     <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
     <definedName name="excel">'#system'!$G$2:$G$14</definedName>
     <definedName name="external">'#system'!$H$2:$H$3</definedName>
-    <definedName name="image">'#system'!$I$2:$I$5</definedName>
+    <definedName name="image">'#system'!$I$2:$I$6</definedName>
     <definedName name="io">'#system'!$J$2:$J$24</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
     <definedName name="json">'#system'!$L$2:$L$14</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2869" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4298" uniqueCount="476">
   <si>
     <t>description</t>
   </si>
@@ -1482,6 +1482,15 @@
   </si>
   <si>
     <t>clickWithKeys(locator,keys)</t>
+  </si>
+  <si>
+    <t>colorbit(image,bit,saveTo)</t>
+  </si>
+  <si>
+    <t>saveDiff(baseline,actual,saveTo)</t>
+  </si>
+  <si>
+    <t>colorbit(source,bit,saveTo)</t>
   </si>
 </sst>
 </file>
@@ -1489,7 +1498,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="85" x14ac:knownFonts="1">
+  <fonts count="133" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2022,8 +2031,311 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="138">
+  <fills count="219">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2801,8 +3113,467 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="142">
+  <borders count="226">
     <border>
       <left/>
       <right/>
@@ -4235,13 +5006,859 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="144">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4487,52 +6104,196 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="68" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="113" borderId="121" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="121" fillId="113" fontId="69" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="70" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="116" borderId="125" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="125" fillId="116" fontId="71" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="119" borderId="129" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="129" fillId="119" fontId="72" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="122" borderId="129" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="129" fillId="122" fontId="73" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="74" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="125" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="125" fontId="75" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="76" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="128" borderId="133" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="133" fillId="128" fontId="77" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="131" borderId="137" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="137" fillId="131" fontId="78" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="134" borderId="141" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="141" fillId="134" fontId="79" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="134" borderId="141" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="141" fillId="134" fontId="80" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="122" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="122" fontId="81" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="137" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="137" fontId="82" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="83" fillId="122" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="122" fontId="83" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="84" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="149" fillId="140" fontId="85" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="86" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="153" fillId="143" fontId="87" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="157" fillId="146" fontId="88" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="157" fillId="149" fontId="89" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="90" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="152" fontId="91" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="92" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="161" fillId="155" fontId="93" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="165" fillId="158" fontId="94" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="169" fillId="161" fontId="95" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="169" fillId="161" fontId="96" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="149" fontId="97" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="164" fontId="98" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="149" fontId="99" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="100" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="177" fillId="167" fontId="101" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="102" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="181" fillId="170" fontId="103" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="185" fillId="173" fontId="104" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="185" fillId="176" fontId="105" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="106" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="179" fontId="107" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="108" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="189" fillId="182" fontId="109" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="193" fillId="185" fontId="110" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="197" fillId="188" fontId="111" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="197" fillId="188" fontId="112" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="176" fontId="113" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="191" fontId="114" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="176" fontId="115" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="116" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="194" borderId="205" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="197" borderId="209" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="200" borderId="213" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="203" borderId="213" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="206" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="209" borderId="217" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="212" borderId="221" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="215" borderId="225" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="215" borderId="225" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="203" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="218" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="203" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4948,7 +6709,7 @@
         <v>71</v>
       </c>
       <c r="I2" t="s">
-        <v>350</v>
+        <v>475</v>
       </c>
       <c r="J2" t="s">
         <v>317</v>
@@ -5031,7 +6792,7 @@
         <v>21</v>
       </c>
       <c r="I3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="J3" t="s">
         <v>342</v>
@@ -5102,7 +6863,7 @@
         <v>450</v>
       </c>
       <c r="I4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J4" t="s">
         <v>229</v>
@@ -5173,7 +6934,7 @@
         <v>454</v>
       </c>
       <c r="I5" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="J5" t="s">
         <v>469</v>
@@ -5233,6 +6994,9 @@
       </c>
       <c r="G6" t="s">
         <v>447</v>
+      </c>
+      <c r="I6" t="s">
+        <v>349</v>
       </c>
       <c r="J6" t="s">
         <v>64</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$D$2:$D$36</definedName>
+    <definedName name="base">'#system'!$D$2:$D$38</definedName>
     <definedName name="csv">'#system'!$E$2:$E$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -26,7 +26,7 @@
     <definedName name="excel">'#system'!$G$2:$G$14</definedName>
     <definedName name="external">'#system'!$H$2:$H$3</definedName>
     <definedName name="image">'#system'!$I$2:$I$6</definedName>
-    <definedName name="io">'#system'!$J$2:$J$24</definedName>
+    <definedName name="io">'#system'!$J$2:$J$25</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
     <definedName name="json">'#system'!$L$2:$L$14</definedName>
     <definedName name="mail">'#system'!$M$2:$M$2</definedName>
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
     <definedName name="step">'#system'!$U$2:$U$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$118</definedName>
+    <definedName name="web">'#system'!$V$2:$V$119</definedName>
     <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
     <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
     <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4298" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5734" uniqueCount="480">
   <si>
     <t>description</t>
   </si>
@@ -1491,6 +1491,18 @@
   </si>
   <si>
     <t>colorbit(source,bit,saveTo)</t>
+  </si>
+  <si>
+    <t>openIgnoreTimeout(url)</t>
+  </si>
+  <si>
+    <t>saveVariablesByPrefix(var,prefix)</t>
+  </si>
+  <si>
+    <t>saveVariablesByRegex(var,regex)</t>
+  </si>
+  <si>
+    <t>searchAndReplace(file,config,saveAs)</t>
   </si>
 </sst>
 </file>
@@ -1498,7 +1510,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="133" x14ac:knownFonts="1">
+  <fonts count="181" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2334,8 +2346,311 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="219">
+  <fills count="300">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3572,8 +3887,467 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="226">
+  <borders count="310">
     <border>
       <left/>
       <right/>
@@ -5852,13 +6626,859 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="192">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -6248,52 +7868,196 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="116" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="117" fillId="194" borderId="205" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="205" fillId="194" fontId="117" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="118" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="118" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="119" fillId="197" borderId="209" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="209" fillId="197" fontId="119" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="120" fillId="200" borderId="213" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="213" fillId="200" fontId="120" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="121" fillId="203" borderId="213" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="213" fillId="203" fontId="121" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="122" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="123" fillId="206" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="206" fontId="123" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="124" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="125" fillId="209" borderId="217" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="217" fillId="209" fontId="125" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="126" fillId="212" borderId="221" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="221" fillId="212" fontId="126" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="127" fillId="215" borderId="225" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="225" fillId="215" fontId="127" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="128" fillId="215" borderId="225" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="225" fillId="215" fontId="128" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="129" fillId="203" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="203" fontId="129" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="130" fillId="218" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="218" fontId="130" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="131" fillId="203" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="203" fontId="131" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="132" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="233" fillId="221" fontId="133" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="134" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="237" fillId="224" fontId="135" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="241" fillId="227" fontId="136" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="241" fillId="230" fontId="137" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="138" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="233" fontId="139" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="140" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="245" fillId="236" fontId="141" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="249" fillId="239" fontId="142" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="253" fillId="242" fontId="143" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="253" fillId="242" fontId="144" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="230" fontId="145" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="245" fontId="146" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="230" fontId="147" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="148" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="261" fillId="248" fontId="149" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="150" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="265" fillId="251" fontId="151" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="269" fillId="254" fontId="152" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="269" fillId="257" fontId="153" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="154" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="260" fontId="155" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="156" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="273" fillId="263" fontId="157" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="277" fillId="266" fontId="158" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="281" fillId="269" fontId="159" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="281" fillId="269" fontId="160" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="257" fontId="161" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="272" fontId="162" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="257" fontId="163" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="164" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="275" borderId="289" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="278" borderId="293" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="281" borderId="297" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="284" borderId="297" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="287" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="173" fillId="290" borderId="301" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="174" fillId="293" borderId="305" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="175" fillId="296" borderId="309" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="296" borderId="309" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="177" fillId="284" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="178" fillId="299" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="179" fillId="284" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="180" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6591,7 +8355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB118"/>
+  <dimension ref="A1:AB119"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -7457,7 +9221,7 @@
         <v>297</v>
       </c>
       <c r="J19" t="s">
-        <v>37</v>
+        <v>479</v>
       </c>
       <c r="V19" t="s">
         <v>99</v>
@@ -7474,7 +9238,7 @@
         <v>298</v>
       </c>
       <c r="J20" t="s">
-        <v>393</v>
+        <v>37</v>
       </c>
       <c r="V20" t="s">
         <v>100</v>
@@ -7491,7 +9255,7 @@
         <v>299</v>
       </c>
       <c r="J21" t="s">
-        <v>77</v>
+        <v>393</v>
       </c>
       <c r="V21" t="s">
         <v>101</v>
@@ -7508,7 +9272,7 @@
         <v>300</v>
       </c>
       <c r="J22" t="s">
-        <v>439</v>
+        <v>77</v>
       </c>
       <c r="V22" t="s">
         <v>102</v>
@@ -7525,7 +9289,7 @@
         <v>291</v>
       </c>
       <c r="J23" t="s">
-        <v>38</v>
+        <v>439</v>
       </c>
       <c r="V23" t="s">
         <v>103</v>
@@ -7542,7 +9306,7 @@
         <v>280</v>
       </c>
       <c r="J24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V24" t="s">
         <v>104</v>
@@ -7558,6 +9322,9 @@
       <c r="F25" t="s">
         <v>68</v>
       </c>
+      <c r="J25" t="s">
+        <v>39</v>
+      </c>
       <c r="V25" t="s">
         <v>105</v>
       </c>
@@ -7581,7 +9348,7 @@
         <v>218</v>
       </c>
       <c r="D27" t="s">
-        <v>415</v>
+        <v>477</v>
       </c>
       <c r="F27" t="s">
         <v>267</v>
@@ -7592,7 +9359,7 @@
     </row>
     <row r="28">
       <c r="D28" t="s">
-        <v>56</v>
+        <v>478</v>
       </c>
       <c r="F28" t="s">
         <v>284</v>
@@ -7603,7 +9370,7 @@
     </row>
     <row r="29">
       <c r="D29" t="s">
-        <v>57</v>
+        <v>415</v>
       </c>
       <c r="F29" t="s">
         <v>285</v>
@@ -7614,7 +9381,7 @@
     </row>
     <row r="30">
       <c r="D30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F30" t="s">
         <v>208</v>
@@ -7625,7 +9392,7 @@
     </row>
     <row r="31">
       <c r="D31" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F31" t="s">
         <v>276</v>
@@ -7636,7 +9403,7 @@
     </row>
     <row r="32">
       <c r="D32" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F32" t="s">
         <v>286</v>
@@ -7647,7 +9414,7 @@
     </row>
     <row r="33">
       <c r="D33" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F33" t="s">
         <v>261</v>
@@ -7658,7 +9425,7 @@
     </row>
     <row r="34">
       <c r="D34" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F34" t="s">
         <v>331</v>
@@ -7669,7 +9436,7 @@
     </row>
     <row r="35">
       <c r="D35" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F35" t="s">
         <v>309</v>
@@ -7679,6 +9446,9 @@
       </c>
     </row>
     <row r="36">
+      <c r="D36" t="s">
+        <v>62</v>
+      </c>
       <c r="F36" t="s">
         <v>262</v>
       </c>
@@ -7687,6 +9457,9 @@
       </c>
     </row>
     <row r="37">
+      <c r="D37" t="s">
+        <v>63</v>
+      </c>
       <c r="F37" t="s">
         <v>310</v>
       </c>
@@ -7979,7 +9752,7 @@
         <v>345</v>
       </c>
       <c r="V73" t="s">
-        <v>135</v>
+        <v>476</v>
       </c>
     </row>
     <row r="74">
@@ -7987,7 +9760,7 @@
         <v>281</v>
       </c>
       <c r="V74" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="75">
@@ -7995,7 +9768,7 @@
         <v>287</v>
       </c>
       <c r="V75" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="76">
@@ -8003,7 +9776,7 @@
         <v>292</v>
       </c>
       <c r="V76" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="77">
@@ -8011,7 +9784,7 @@
         <v>416</v>
       </c>
       <c r="V77" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="78">
@@ -8019,7 +9792,7 @@
         <v>333</v>
       </c>
       <c r="V78" t="s">
-        <v>191</v>
+        <v>139</v>
       </c>
     </row>
     <row r="79">
@@ -8027,7 +9800,7 @@
         <v>271</v>
       </c>
       <c r="V79" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="80">
@@ -8035,7 +9808,7 @@
         <v>282</v>
       </c>
       <c r="V80" t="s">
-        <v>452</v>
+        <v>192</v>
       </c>
     </row>
     <row r="81">
@@ -8043,7 +9816,7 @@
         <v>288</v>
       </c>
       <c r="V81" t="s">
-        <v>193</v>
+        <v>452</v>
       </c>
     </row>
     <row r="82">
@@ -8051,7 +9824,7 @@
         <v>277</v>
       </c>
       <c r="V82" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="83">
@@ -8059,7 +9832,7 @@
         <v>272</v>
       </c>
       <c r="V83" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
     </row>
     <row r="84">
@@ -8067,7 +9840,7 @@
         <v>289</v>
       </c>
       <c r="V84" t="s">
-        <v>140</v>
+        <v>207</v>
       </c>
     </row>
     <row r="85">
@@ -8075,7 +9848,7 @@
         <v>273</v>
       </c>
       <c r="V85" t="s">
-        <v>195</v>
+        <v>140</v>
       </c>
     </row>
     <row r="86">
@@ -8083,7 +9856,7 @@
         <v>274</v>
       </c>
       <c r="V86" t="s">
-        <v>429</v>
+        <v>195</v>
       </c>
     </row>
     <row r="87">
@@ -8091,7 +9864,7 @@
         <v>307</v>
       </c>
       <c r="V87" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
     </row>
     <row r="88">
@@ -8099,7 +9872,7 @@
         <v>313</v>
       </c>
       <c r="V88" t="s">
-        <v>196</v>
+        <v>436</v>
       </c>
     </row>
     <row r="89">
@@ -8107,7 +9880,7 @@
         <v>296</v>
       </c>
       <c r="V89" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="90">
@@ -8115,7 +9888,7 @@
         <v>341</v>
       </c>
       <c r="V90" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="91">
@@ -8123,7 +9896,7 @@
         <v>278</v>
       </c>
       <c r="V91" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="92">
@@ -8131,136 +9904,141 @@
         <v>279</v>
       </c>
       <c r="V92" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
     </row>
     <row r="93">
       <c r="V93" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
     </row>
     <row r="94">
       <c r="V94" t="s">
-        <v>141</v>
+        <v>200</v>
       </c>
     </row>
     <row r="95">
       <c r="V95" t="s">
-        <v>384</v>
+        <v>141</v>
       </c>
     </row>
     <row r="96">
       <c r="V96" t="s">
-        <v>142</v>
+        <v>384</v>
       </c>
     </row>
     <row r="97">
       <c r="V97" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="98">
       <c r="V98" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="99">
       <c r="V99" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="100">
       <c r="V100" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="101">
       <c r="V101" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="102">
       <c r="V102" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="103">
       <c r="V103" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="104">
       <c r="V104" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="105">
       <c r="V105" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="106">
       <c r="V106" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="107">
       <c r="V107" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="108">
       <c r="V108" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="109">
       <c r="V109" t="s">
-        <v>443</v>
+        <v>154</v>
       </c>
     </row>
     <row r="110">
       <c r="V110" t="s">
-        <v>155</v>
+        <v>443</v>
       </c>
     </row>
     <row r="111">
       <c r="V111" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="112">
       <c r="V112" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="113">
       <c r="V113" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="114">
       <c r="V114" t="s">
-        <v>40</v>
+        <v>158</v>
       </c>
     </row>
     <row r="115">
       <c r="V115" t="s">
-        <v>159</v>
+        <v>40</v>
       </c>
     </row>
     <row r="116">
       <c r="V116" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="117">
       <c r="V117" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="118">
       <c r="V118" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="V119" t="s">
         <v>162</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro.xlsx
@@ -28,7 +28,7 @@
     <definedName name="image">'#system'!$I$2:$I$6</definedName>
     <definedName name="io">'#system'!$J$2:$J$25</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
-    <definedName name="json">'#system'!$L$2:$L$14</definedName>
+    <definedName name="json">'#system'!$L$2:$L$16</definedName>
     <definedName name="mail">'#system'!$M$2:$M$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5734" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6216" uniqueCount="482">
   <si>
     <t>description</t>
   </si>
@@ -1503,6 +1503,12 @@
   </si>
   <si>
     <t>searchAndReplace(file,config,saveAs)</t>
+  </si>
+  <si>
+    <t>beautify(json,var)</t>
+  </si>
+  <si>
+    <t>minify(json,var)</t>
   </si>
 </sst>
 </file>
@@ -1510,7 +1516,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="181" x14ac:knownFonts="1">
+  <fonts count="197" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2649,8 +2655,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="300">
+  <fills count="327">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4346,8 +4453,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="310">
+  <borders count="338">
     <border>
       <left/>
       <right/>
@@ -7472,13 +7732,295 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="192">
+  <cellXfs count="208">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -8012,52 +8554,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="164" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="165" fillId="275" borderId="289" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="289" fillId="275" fontId="165" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="166" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="166" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="167" fillId="278" borderId="293" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="293" fillId="278" fontId="167" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="168" fillId="281" borderId="297" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="297" fillId="281" fontId="168" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="169" fillId="284" borderId="297" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="297" fillId="284" fontId="169" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="170" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="170" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="171" fillId="287" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="287" fontId="171" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="172" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="173" fillId="290" borderId="301" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="301" fillId="290" fontId="173" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="174" fillId="293" borderId="305" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="305" fillId="293" fontId="174" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="175" fillId="296" borderId="309" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="309" fillId="296" fontId="175" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="176" fillId="296" borderId="309" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="309" fillId="296" fontId="176" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="177" fillId="284" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="284" fontId="177" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="178" fillId="299" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="299" fontId="178" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="179" fillId="284" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="284" fontId="179" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="180" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="180" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="181" fillId="302" borderId="317" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="182" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="183" fillId="305" borderId="321" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="184" fillId="308" borderId="325" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="185" fillId="311" borderId="325" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="186" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="187" fillId="314" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="188" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="189" fillId="317" borderId="329" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="190" fillId="320" borderId="333" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="323" borderId="337" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="192" fillId="323" borderId="337" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="311" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="194" fillId="326" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="195" fillId="311" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="196" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9010,7 +9600,7 @@
         <v>13</v>
       </c>
       <c r="L11" t="s">
-        <v>440</v>
+        <v>480</v>
       </c>
       <c r="N11" t="s">
         <v>85</v>
@@ -9045,7 +9635,7 @@
         <v>35</v>
       </c>
       <c r="L12" t="s">
-        <v>32</v>
+        <v>440</v>
       </c>
       <c r="N12" t="s">
         <v>34</v>
@@ -9077,7 +9667,7 @@
         <v>73</v>
       </c>
       <c r="L13" t="s">
-        <v>33</v>
+        <v>481</v>
       </c>
       <c r="N13" t="s">
         <v>86</v>
@@ -9109,7 +9699,7 @@
         <v>74</v>
       </c>
       <c r="L14" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="N14" t="s">
         <v>87</v>
@@ -9137,6 +9727,9 @@
       <c r="J15" t="s">
         <v>455</v>
       </c>
+      <c r="L15" t="s">
+        <v>33</v>
+      </c>
       <c r="N15" t="s">
         <v>88</v>
       </c>
@@ -9162,6 +9755,9 @@
       </c>
       <c r="J16" t="s">
         <v>75</v>
+      </c>
+      <c r="L16" t="s">
+        <v>36</v>
       </c>
       <c r="O16" t="s">
         <v>243</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro.xlsx
@@ -42,12 +42,12 @@
     <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
     <definedName name="step">'#system'!$U$2:$U$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$119</definedName>
+    <definedName name="web">'#system'!$V$2:$V$120</definedName>
     <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
     <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
     <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
     <definedName name="ws.async">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="xml">'#system'!$AA$2:$AA$11</definedName>
+    <definedName name="xml">'#system'!$AA$2:$AA$13</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6216" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6701" uniqueCount="485">
   <si>
     <t>description</t>
   </si>
@@ -1509,6 +1509,15 @@
   </si>
   <si>
     <t>minify(json,var)</t>
+  </si>
+  <si>
+    <t>dragTo(fromLocator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>beautify(xml,var)</t>
+  </si>
+  <si>
+    <t>minify(xml,var)</t>
   </si>
 </sst>
 </file>
@@ -1516,7 +1525,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="197" x14ac:knownFonts="1">
+  <fonts count="213" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2756,8 +2765,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="327">
+  <fills count="354">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4606,8 +4716,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="338">
+  <borders count="366">
     <border>
       <left/>
       <right/>
@@ -8014,13 +8277,295 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="208">
+  <cellXfs count="224">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -8602,52 +9147,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="180" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="181" fillId="302" borderId="317" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="317" fillId="302" fontId="181" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="182" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="182" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="183" fillId="305" borderId="321" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="321" fillId="305" fontId="183" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="184" fillId="308" borderId="325" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="325" fillId="308" fontId="184" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="185" fillId="311" borderId="325" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="325" fillId="311" fontId="185" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="186" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="186" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="187" fillId="314" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="314" fontId="187" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="188" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="188" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="189" fillId="317" borderId="329" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="329" fillId="317" fontId="189" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="190" fillId="320" borderId="333" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="333" fillId="320" fontId="190" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="191" fillId="323" borderId="337" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="337" fillId="323" fontId="191" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="192" fillId="323" borderId="337" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="337" fillId="323" fontId="192" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="193" fillId="311" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="311" fontId="193" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="194" fillId="326" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="326" fontId="194" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="195" fillId="311" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="311" fontId="195" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="196" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="196" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="329" borderId="345" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="198" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="199" fillId="332" borderId="349" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="200" fillId="335" borderId="353" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="201" fillId="338" borderId="353" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="202" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="203" fillId="341" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="204" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="205" fillId="344" borderId="357" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="206" fillId="347" borderId="361" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="207" fillId="350" borderId="365" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="208" fillId="350" borderId="365" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="209" fillId="338" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="210" fillId="353" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="211" fillId="338" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="212" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8945,7 +9538,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB119"/>
+  <dimension ref="A1:AB120"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -9542,7 +10135,7 @@
         <v>181</v>
       </c>
       <c r="AA9" t="s">
-        <v>226</v>
+        <v>483</v>
       </c>
     </row>
     <row r="10">
@@ -9580,7 +10173,7 @@
         <v>182</v>
       </c>
       <c r="AA10" t="s">
-        <v>227</v>
+        <v>484</v>
       </c>
     </row>
     <row r="11">
@@ -9615,7 +10208,7 @@
         <v>260</v>
       </c>
       <c r="AA11" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12">
@@ -9649,6 +10242,9 @@
       <c r="Y12" t="s">
         <v>183</v>
       </c>
+      <c r="AA12" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -9681,6 +10277,9 @@
       <c r="Y13" t="s">
         <v>184</v>
       </c>
+      <c r="AA13" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -10268,7 +10867,7 @@
         <v>371</v>
       </c>
       <c r="V63" t="s">
-        <v>206</v>
+        <v>482</v>
       </c>
     </row>
     <row r="64">
@@ -10276,7 +10875,7 @@
         <v>346</v>
       </c>
       <c r="V64" t="s">
-        <v>390</v>
+        <v>206</v>
       </c>
     </row>
     <row r="65">
@@ -10284,7 +10883,7 @@
         <v>315</v>
       </c>
       <c r="V65" t="s">
-        <v>442</v>
+        <v>390</v>
       </c>
     </row>
     <row r="66">
@@ -10292,7 +10891,7 @@
         <v>270</v>
       </c>
       <c r="V66" t="s">
-        <v>131</v>
+        <v>442</v>
       </c>
     </row>
     <row r="67">
@@ -10300,7 +10899,7 @@
         <v>354</v>
       </c>
       <c r="V67" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="68">
@@ -10308,7 +10907,7 @@
         <v>316</v>
       </c>
       <c r="V68" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="69">
@@ -10316,7 +10915,7 @@
         <v>409</v>
       </c>
       <c r="V69" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="70">
@@ -10324,7 +10923,7 @@
         <v>306</v>
       </c>
       <c r="V70" t="s">
-        <v>189</v>
+        <v>134</v>
       </c>
     </row>
     <row r="71">
@@ -10332,7 +10931,7 @@
         <v>410</v>
       </c>
       <c r="V71" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="72">
@@ -10340,7 +10939,7 @@
         <v>263</v>
       </c>
       <c r="V72" t="s">
-        <v>453</v>
+        <v>190</v>
       </c>
     </row>
     <row r="73">
@@ -10348,7 +10947,7 @@
         <v>345</v>
       </c>
       <c r="V73" t="s">
-        <v>476</v>
+        <v>453</v>
       </c>
     </row>
     <row r="74">
@@ -10356,7 +10955,7 @@
         <v>281</v>
       </c>
       <c r="V74" t="s">
-        <v>135</v>
+        <v>476</v>
       </c>
     </row>
     <row r="75">
@@ -10364,7 +10963,7 @@
         <v>287</v>
       </c>
       <c r="V75" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="76">
@@ -10372,7 +10971,7 @@
         <v>292</v>
       </c>
       <c r="V76" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="77">
@@ -10380,7 +10979,7 @@
         <v>416</v>
       </c>
       <c r="V77" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="78">
@@ -10388,7 +10987,7 @@
         <v>333</v>
       </c>
       <c r="V78" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="79">
@@ -10396,7 +10995,7 @@
         <v>271</v>
       </c>
       <c r="V79" t="s">
-        <v>191</v>
+        <v>139</v>
       </c>
     </row>
     <row r="80">
@@ -10404,7 +11003,7 @@
         <v>282</v>
       </c>
       <c r="V80" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="81">
@@ -10412,7 +11011,7 @@
         <v>288</v>
       </c>
       <c r="V81" t="s">
-        <v>452</v>
+        <v>192</v>
       </c>
     </row>
     <row r="82">
@@ -10420,7 +11019,7 @@
         <v>277</v>
       </c>
       <c r="V82" t="s">
-        <v>193</v>
+        <v>452</v>
       </c>
     </row>
     <row r="83">
@@ -10428,7 +11027,7 @@
         <v>272</v>
       </c>
       <c r="V83" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="84">
@@ -10436,7 +11035,7 @@
         <v>289</v>
       </c>
       <c r="V84" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
     </row>
     <row r="85">
@@ -10444,7 +11043,7 @@
         <v>273</v>
       </c>
       <c r="V85" t="s">
-        <v>140</v>
+        <v>207</v>
       </c>
     </row>
     <row r="86">
@@ -10452,7 +11051,7 @@
         <v>274</v>
       </c>
       <c r="V86" t="s">
-        <v>195</v>
+        <v>140</v>
       </c>
     </row>
     <row r="87">
@@ -10460,7 +11059,7 @@
         <v>307</v>
       </c>
       <c r="V87" t="s">
-        <v>429</v>
+        <v>195</v>
       </c>
     </row>
     <row r="88">
@@ -10468,7 +11067,7 @@
         <v>313</v>
       </c>
       <c r="V88" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
     </row>
     <row r="89">
@@ -10476,7 +11075,7 @@
         <v>296</v>
       </c>
       <c r="V89" t="s">
-        <v>196</v>
+        <v>436</v>
       </c>
     </row>
     <row r="90">
@@ -10484,7 +11083,7 @@
         <v>341</v>
       </c>
       <c r="V90" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="91">
@@ -10492,7 +11091,7 @@
         <v>278</v>
       </c>
       <c r="V91" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="92">
@@ -10500,141 +11099,146 @@
         <v>279</v>
       </c>
       <c r="V92" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="93">
       <c r="V93" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
     </row>
     <row r="94">
       <c r="V94" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
     </row>
     <row r="95">
       <c r="V95" t="s">
-        <v>141</v>
+        <v>200</v>
       </c>
     </row>
     <row r="96">
       <c r="V96" t="s">
-        <v>384</v>
+        <v>141</v>
       </c>
     </row>
     <row r="97">
       <c r="V97" t="s">
-        <v>142</v>
+        <v>384</v>
       </c>
     </row>
     <row r="98">
       <c r="V98" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="99">
       <c r="V99" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="100">
       <c r="V100" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="101">
       <c r="V101" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="102">
       <c r="V102" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="103">
       <c r="V103" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="104">
       <c r="V104" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="105">
       <c r="V105" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="106">
       <c r="V106" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="107">
       <c r="V107" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="108">
       <c r="V108" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="109">
       <c r="V109" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="110">
       <c r="V110" t="s">
-        <v>443</v>
+        <v>154</v>
       </c>
     </row>
     <row r="111">
       <c r="V111" t="s">
-        <v>155</v>
+        <v>443</v>
       </c>
     </row>
     <row r="112">
       <c r="V112" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="113">
       <c r="V113" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="114">
       <c r="V114" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="115">
       <c r="V115" t="s">
-        <v>40</v>
+        <v>158</v>
       </c>
     </row>
     <row r="116">
       <c r="V116" t="s">
-        <v>159</v>
+        <v>40</v>
       </c>
     </row>
     <row r="117">
       <c r="V117" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="118">
       <c r="V118" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="119">
       <c r="V119" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="V120" t="s">
         <v>162</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro.xlsx
@@ -24,31 +24,32 @@
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
     <definedName name="excel">'#system'!$G$2:$G$14</definedName>
-    <definedName name="external">'#system'!$H$2:$H$3</definedName>
+    <definedName name="external">'#system'!$H$2:$H$4</definedName>
     <definedName name="image">'#system'!$I$2:$I$6</definedName>
     <definedName name="io">'#system'!$J$2:$J$25</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
     <definedName name="json">'#system'!$L$2:$L$16</definedName>
-    <definedName name="mail">'#system'!$M$2:$M$2</definedName>
+    <definedName name="mail">'#system'!$N$2:$N$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$N$2:$N$15</definedName>
-    <definedName name="pdf">'#system'!$O$2:$O$16</definedName>
-    <definedName name="rdbms">'#system'!$P$2:$P$7</definedName>
-    <definedName name="redis">'#system'!$Q$2:$Q$10</definedName>
-    <definedName name="sms">'#system'!$R$2:$R$2</definedName>
-    <definedName name="sound">'#system'!$S$2:$S$5</definedName>
-    <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
-    <definedName name="step">'#system'!$U$2:$U$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$120</definedName>
-    <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
-    <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
-    <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
-    <definedName name="ws.async">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="xml">'#system'!$AA$2:$AA$13</definedName>
+    <definedName name="number">'#system'!$O$2:$O$15</definedName>
+    <definedName name="pdf">'#system'!$P$2:$P$16</definedName>
+    <definedName name="rdbms">'#system'!$Q$2:$Q$7</definedName>
+    <definedName name="redis">'#system'!$R$2:$R$10</definedName>
+    <definedName name="sms">'#system'!$S$2:$S$2</definedName>
+    <definedName name="sound">'#system'!$T$2:$T$5</definedName>
+    <definedName name="ssh">'#system'!$U$2:$U$9</definedName>
+    <definedName name="step">'#system'!$V$2:$V$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$28</definedName>
+    <definedName name="web">'#system'!$W$2:$W$122</definedName>
+    <definedName name="webalert">'#system'!$X$2:$X$8</definedName>
+    <definedName name="webcookie">'#system'!$Y$2:$Y$8</definedName>
+    <definedName name="ws">'#system'!$Z$2:$Z$17</definedName>
+    <definedName name="ws.async">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="xml">'#system'!$AB$2:$AB$13</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
+    <definedName name="macro">'#system'!$M$2:$M$4</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -63,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6701" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7194" uniqueCount="493">
   <si>
     <t>description</t>
   </si>
@@ -1518,6 +1519,30 @@
   </si>
   <si>
     <t>minify(xml,var)</t>
+  </si>
+  <si>
+    <t>runProgram(programPathAndParams)</t>
+  </si>
+  <si>
+    <t>runProgramNoWait(programPathAndParams)</t>
+  </si>
+  <si>
+    <t>description()</t>
+  </si>
+  <si>
+    <t>expects(var,default)</t>
+  </si>
+  <si>
+    <t>produces(var,value)</t>
+  </si>
+  <si>
+    <t>assertIENativeMode()</t>
+  </si>
+  <si>
+    <t>clickOffset(locator,x,y)</t>
+  </si>
+  <si>
+    <t>saveAttributeList(var,locator,attrName)</t>
   </si>
 </sst>
 </file>
@@ -1525,7 +1550,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="213" x14ac:knownFonts="1">
+  <fonts count="229" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2866,8 +2891,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="354">
+  <fills count="381">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4869,8 +4995,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="366">
+  <borders count="394">
     <border>
       <left/>
       <right/>
@@ -8559,13 +8838,295 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="224">
+  <cellXfs count="240">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -9195,52 +9756,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="196" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="197" fillId="329" borderId="345" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="345" fillId="329" fontId="197" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="198" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="198" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="199" fillId="332" borderId="349" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="349" fillId="332" fontId="199" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="200" fillId="335" borderId="353" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="353" fillId="335" fontId="200" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="201" fillId="338" borderId="353" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="353" fillId="338" fontId="201" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="202" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="202" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="203" fillId="341" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="341" fontId="203" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="204" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="204" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="205" fillId="344" borderId="357" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="357" fillId="344" fontId="205" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="206" fillId="347" borderId="361" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="361" fillId="347" fontId="206" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="207" fillId="350" borderId="365" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="365" fillId="350" fontId="207" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="208" fillId="350" borderId="365" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="365" fillId="350" fontId="208" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="209" fillId="338" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="338" fontId="209" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="210" fillId="353" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="353" fontId="210" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="211" fillId="338" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="338" fontId="211" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="212" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="212" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="213" fillId="356" borderId="373" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="214" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="215" fillId="359" borderId="377" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="216" fillId="362" borderId="381" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="217" fillId="365" borderId="381" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="218" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="219" fillId="368" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="221" fillId="371" borderId="385" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="222" fillId="374" borderId="389" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="223" fillId="377" borderId="393" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="224" fillId="377" borderId="393" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="225" fillId="365" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="226" fillId="380" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="227" fillId="365" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="228" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9538,7 +10147,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB120"/>
+  <dimension ref="A1:AC122"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -9585,48 +10194,51 @@
         <v>17</v>
       </c>
       <c r="M1" t="s">
+        <v>246</v>
+      </c>
+      <c r="N1" t="s">
         <v>188</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>44</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>230</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>45</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>399</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>411</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>412</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>358</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>395</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>46</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>47</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>48</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>49</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>413</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>218</v>
       </c>
     </row>
@@ -9668,48 +10280,51 @@
         <v>417</v>
       </c>
       <c r="M2" t="s">
+        <v>487</v>
+      </c>
+      <c r="N2" t="s">
         <v>418</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>419</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>244</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>209</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>400</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>423</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>424</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>382</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>396</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>89</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>163</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>168</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>175</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>430</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>219</v>
       </c>
     </row>
@@ -9736,7 +10351,7 @@
         <v>41</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>485</v>
       </c>
       <c r="I3" t="s">
         <v>350</v>
@@ -9750,43 +10365,46 @@
       <c r="L3" t="s">
         <v>78</v>
       </c>
-      <c r="N3" t="s">
+      <c r="M3" t="s">
+        <v>488</v>
+      </c>
+      <c r="O3" t="s">
         <v>420</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>231</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>210</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>401</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>425</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>383</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>397</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>90</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>164</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>169</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>365</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>176</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>220</v>
       </c>
     </row>
@@ -9809,6 +10427,9 @@
       <c r="G4" t="s">
         <v>450</v>
       </c>
+      <c r="H4" t="s">
+        <v>486</v>
+      </c>
       <c r="I4" t="s">
         <v>351</v>
       </c>
@@ -9821,43 +10442,46 @@
       <c r="L4" t="s">
         <v>18</v>
       </c>
-      <c r="N4" t="s">
+      <c r="M4" t="s">
+        <v>489</v>
+      </c>
+      <c r="O4" t="s">
         <v>19</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>232</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>211</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>402</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>426</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>359</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>398</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>355</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>165</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>170</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>176</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>431</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>221</v>
       </c>
     </row>
@@ -9889,40 +10513,40 @@
       <c r="L5" t="s">
         <v>79</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>23</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>233</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>212</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>403</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>427</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>360</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>356</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>166</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>171</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>177</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>432</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>222</v>
       </c>
     </row>
@@ -9951,37 +10575,37 @@
       <c r="L6" t="s">
         <v>22</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>24</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>234</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>392</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>404</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>362</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>91</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>444</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>172</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>178</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>433</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>223</v>
       </c>
     </row>
@@ -10007,37 +10631,37 @@
       <c r="L7" t="s">
         <v>317</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>26</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>235</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>422</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>405</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>361</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>92</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>445</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>173</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>179</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>434</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>224</v>
       </c>
     </row>
@@ -10063,34 +10687,34 @@
       <c r="L8" t="s">
         <v>27</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>83</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>236</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>406</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>363</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>93</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>167</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>174</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>180</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>435</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>225</v>
       </c>
     </row>
@@ -10116,25 +10740,25 @@
       <c r="L9" t="s">
         <v>28</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>84</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>237</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>407</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>364</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>201</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>181</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>483</v>
       </c>
     </row>
@@ -10157,22 +10781,22 @@
       <c r="L10" t="s">
         <v>29</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>421</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>238</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>408</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
         <v>258</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>182</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>484</v>
       </c>
     </row>
@@ -10195,19 +10819,19 @@
       <c r="L11" t="s">
         <v>480</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>85</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>239</v>
       </c>
-      <c r="V11" t="s">
+      <c r="W11" t="s">
         <v>259</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>260</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
         <v>226</v>
       </c>
     </row>
@@ -10230,25 +10854,25 @@
       <c r="L12" t="s">
         <v>440</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>34</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>240</v>
       </c>
-      <c r="V12" t="s">
+      <c r="W12" t="s">
         <v>94</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>183</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>188</v>
+        <v>246</v>
       </c>
       <c r="D13" t="s">
         <v>342</v>
@@ -10265,25 +10889,25 @@
       <c r="L13" t="s">
         <v>481</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>86</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>245</v>
       </c>
-      <c r="V13" t="s">
+      <c r="W13" t="s">
         <v>327</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>184</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>188</v>
       </c>
       <c r="D14" t="s">
         <v>30</v>
@@ -10300,22 +10924,22 @@
       <c r="L14" t="s">
         <v>32</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>87</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>241</v>
       </c>
-      <c r="V14" t="s">
+      <c r="W14" t="s">
         <v>95</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>230</v>
+        <v>44</v>
       </c>
       <c r="D15" t="s">
         <v>51</v>
@@ -10329,22 +10953,22 @@
       <c r="L15" t="s">
         <v>33</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>88</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>242</v>
       </c>
-      <c r="V15" t="s">
+      <c r="W15" t="s">
         <v>96</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>230</v>
       </c>
       <c r="D16" t="s">
         <v>386</v>
@@ -10358,19 +10982,19 @@
       <c r="L16" t="s">
         <v>36</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>243</v>
       </c>
-      <c r="V16" t="s">
+      <c r="W16" t="s">
         <v>67</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>399</v>
+        <v>45</v>
       </c>
       <c r="D17" t="s">
         <v>387</v>
@@ -10381,16 +11005,16 @@
       <c r="J17" t="s">
         <v>76</v>
       </c>
-      <c r="V17" t="s">
+      <c r="W17" t="s">
         <v>97</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="D18" t="s">
         <v>414</v>
@@ -10401,13 +11025,13 @@
       <c r="J18" t="s">
         <v>381</v>
       </c>
-      <c r="V18" t="s">
+      <c r="W18" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D19" t="s">
         <v>52</v>
@@ -10418,13 +11042,13 @@
       <c r="J19" t="s">
         <v>479</v>
       </c>
-      <c r="V19" t="s">
+      <c r="W19" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>358</v>
+        <v>412</v>
       </c>
       <c r="D20" t="s">
         <v>53</v>
@@ -10435,13 +11059,13 @@
       <c r="J20" t="s">
         <v>37</v>
       </c>
-      <c r="V20" t="s">
+      <c r="W20" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>395</v>
+        <v>358</v>
       </c>
       <c r="D21" t="s">
         <v>54</v>
@@ -10452,13 +11076,13 @@
       <c r="J21" t="s">
         <v>393</v>
       </c>
-      <c r="V21" t="s">
-        <v>101</v>
+      <c r="W21" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>395</v>
       </c>
       <c r="D22" t="s">
         <v>322</v>
@@ -10469,13 +11093,13 @@
       <c r="J22" t="s">
         <v>77</v>
       </c>
-      <c r="V22" t="s">
+      <c r="W22" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D23" t="s">
         <v>55</v>
@@ -10486,13 +11110,13 @@
       <c r="J23" t="s">
         <v>439</v>
       </c>
-      <c r="V23" t="s">
+      <c r="W23" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D24" t="s">
         <v>448</v>
@@ -10503,13 +11127,13 @@
       <c r="J24" t="s">
         <v>38</v>
       </c>
-      <c r="V24" t="s">
+      <c r="W24" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D25" t="s">
         <v>216</v>
@@ -10520,13 +11144,13 @@
       <c r="J25" t="s">
         <v>39</v>
       </c>
-      <c r="V25" t="s">
+      <c r="W25" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>413</v>
+        <v>49</v>
       </c>
       <c r="D26" t="s">
         <v>217</v>
@@ -10534,13 +11158,13 @@
       <c r="F26" t="s">
         <v>283</v>
       </c>
-      <c r="V26" t="s">
+      <c r="W26" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>218</v>
+        <v>413</v>
       </c>
       <c r="D27" t="s">
         <v>477</v>
@@ -10548,18 +11172,21 @@
       <c r="F27" t="s">
         <v>267</v>
       </c>
-      <c r="V27" t="s">
+      <c r="W27" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="s">
+        <v>218</v>
+      </c>
       <c r="D28" t="s">
         <v>478</v>
       </c>
       <c r="F28" t="s">
         <v>284</v>
       </c>
-      <c r="V28" t="s">
+      <c r="W28" t="s">
         <v>107</v>
       </c>
     </row>
@@ -10570,7 +11197,7 @@
       <c r="F29" t="s">
         <v>285</v>
       </c>
-      <c r="V29" t="s">
+      <c r="W29" t="s">
         <v>108</v>
       </c>
     </row>
@@ -10581,7 +11208,7 @@
       <c r="F30" t="s">
         <v>208</v>
       </c>
-      <c r="V30" t="s">
+      <c r="W30" t="s">
         <v>109</v>
       </c>
     </row>
@@ -10592,7 +11219,7 @@
       <c r="F31" t="s">
         <v>276</v>
       </c>
-      <c r="V31" t="s">
+      <c r="W31" t="s">
         <v>110</v>
       </c>
     </row>
@@ -10603,7 +11230,7 @@
       <c r="F32" t="s">
         <v>286</v>
       </c>
-      <c r="V32" t="s">
+      <c r="W32" t="s">
         <v>111</v>
       </c>
     </row>
@@ -10614,7 +11241,7 @@
       <c r="F33" t="s">
         <v>261</v>
       </c>
-      <c r="V33" t="s">
+      <c r="W33" t="s">
         <v>112</v>
       </c>
     </row>
@@ -10625,7 +11252,7 @@
       <c r="F34" t="s">
         <v>331</v>
       </c>
-      <c r="V34" t="s">
+      <c r="W34" t="s">
         <v>202</v>
       </c>
     </row>
@@ -10636,7 +11263,7 @@
       <c r="F35" t="s">
         <v>309</v>
       </c>
-      <c r="V35" t="s">
+      <c r="W35" t="s">
         <v>113</v>
       </c>
     </row>
@@ -10647,7 +11274,7 @@
       <c r="F36" t="s">
         <v>262</v>
       </c>
-      <c r="V36" t="s">
+      <c r="W36" t="s">
         <v>339</v>
       </c>
     </row>
@@ -10658,7 +11285,7 @@
       <c r="F37" t="s">
         <v>310</v>
       </c>
-      <c r="V37" t="s">
+      <c r="W37" t="s">
         <v>428</v>
       </c>
     </row>
@@ -10666,7 +11293,7 @@
       <c r="F38" t="s">
         <v>268</v>
       </c>
-      <c r="V38" t="s">
+      <c r="W38" t="s">
         <v>394</v>
       </c>
     </row>
@@ -10674,7 +11301,7 @@
       <c r="F39" t="s">
         <v>70</v>
       </c>
-      <c r="V39" t="s">
+      <c r="W39" t="s">
         <v>114</v>
       </c>
     </row>
@@ -10682,7 +11309,7 @@
       <c r="F40" t="s">
         <v>204</v>
       </c>
-      <c r="V40" t="s">
+      <c r="W40" t="s">
         <v>115</v>
       </c>
     </row>
@@ -10690,7 +11317,7 @@
       <c r="F41" t="s">
         <v>290</v>
       </c>
-      <c r="V41" t="s">
+      <c r="W41" t="s">
         <v>116</v>
       </c>
     </row>
@@ -10698,7 +11325,7 @@
       <c r="F42" t="s">
         <v>301</v>
       </c>
-      <c r="V42" t="s">
+      <c r="W42" t="s">
         <v>117</v>
       </c>
     </row>
@@ -10706,7 +11333,7 @@
       <c r="F43" t="s">
         <v>302</v>
       </c>
-      <c r="V43" t="s">
+      <c r="W43" t="s">
         <v>118</v>
       </c>
     </row>
@@ -10714,7 +11341,7 @@
       <c r="F44" t="s">
         <v>344</v>
       </c>
-      <c r="V44" t="s">
+      <c r="W44" t="s">
         <v>119</v>
       </c>
     </row>
@@ -10722,7 +11349,7 @@
       <c r="F45" t="s">
         <v>343</v>
       </c>
-      <c r="V45" t="s">
+      <c r="W45" t="s">
         <v>441</v>
       </c>
     </row>
@@ -10730,7 +11357,7 @@
       <c r="F46" t="s">
         <v>203</v>
       </c>
-      <c r="V46" t="s">
+      <c r="W46" t="s">
         <v>205</v>
       </c>
     </row>
@@ -10738,7 +11365,7 @@
       <c r="F47" t="s">
         <v>303</v>
       </c>
-      <c r="V47" t="s">
+      <c r="W47" t="s">
         <v>69</v>
       </c>
     </row>
@@ -10746,7 +11373,7 @@
       <c r="F48" t="s">
         <v>340</v>
       </c>
-      <c r="V48" t="s">
+      <c r="W48" t="s">
         <v>120</v>
       </c>
     </row>
@@ -10754,7 +11381,7 @@
       <c r="F49" t="s">
         <v>369</v>
       </c>
-      <c r="V49" t="s">
+      <c r="W49" t="s">
         <v>121</v>
       </c>
     </row>
@@ -10762,7 +11389,7 @@
       <c r="F50" t="s">
         <v>304</v>
       </c>
-      <c r="V50" t="s">
+      <c r="W50" t="s">
         <v>122</v>
       </c>
     </row>
@@ -10770,475 +11397,485 @@
       <c r="F51" t="s">
         <v>357</v>
       </c>
-      <c r="V51" t="s">
-        <v>472</v>
+      <c r="W51" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="52">
       <c r="F52" t="s">
         <v>332</v>
       </c>
-      <c r="V52" t="s">
-        <v>123</v>
+      <c r="W52" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="53">
       <c r="F53" t="s">
         <v>269</v>
       </c>
-      <c r="V53" t="s">
-        <v>347</v>
+      <c r="W53" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="54">
       <c r="F54" t="s">
         <v>293</v>
       </c>
-      <c r="V54" t="s">
-        <v>465</v>
+      <c r="W54" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="55">
       <c r="F55" t="s">
         <v>294</v>
       </c>
-      <c r="V55" t="s">
-        <v>124</v>
+      <c r="W55" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="56">
       <c r="F56" t="s">
         <v>295</v>
       </c>
-      <c r="V56" t="s">
-        <v>125</v>
+      <c r="W56" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="57">
       <c r="F57" t="s">
         <v>305</v>
       </c>
-      <c r="V57" t="s">
-        <v>126</v>
+      <c r="W57" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="58">
       <c r="F58" t="s">
         <v>314</v>
       </c>
-      <c r="V58" t="s">
-        <v>127</v>
+      <c r="W58" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="59">
       <c r="F59" t="s">
         <v>338</v>
       </c>
-      <c r="V59" t="s">
-        <v>128</v>
+      <c r="W59" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="60">
       <c r="F60" t="s">
         <v>311</v>
       </c>
-      <c r="V60" t="s">
-        <v>129</v>
+      <c r="W60" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="61">
       <c r="F61" t="s">
         <v>312</v>
       </c>
-      <c r="V61" t="s">
-        <v>130</v>
+      <c r="W61" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="62">
       <c r="F62" t="s">
         <v>370</v>
       </c>
-      <c r="V62" t="s">
-        <v>437</v>
+      <c r="W62" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="63">
       <c r="F63" t="s">
         <v>371</v>
       </c>
-      <c r="V63" t="s">
-        <v>482</v>
+      <c r="W63" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="64">
       <c r="F64" t="s">
         <v>346</v>
       </c>
-      <c r="V64" t="s">
-        <v>206</v>
+      <c r="W64" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="65">
       <c r="F65" t="s">
         <v>315</v>
       </c>
-      <c r="V65" t="s">
-        <v>390</v>
+      <c r="W65" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="66">
       <c r="F66" t="s">
         <v>270</v>
       </c>
-      <c r="V66" t="s">
-        <v>442</v>
+      <c r="W66" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="67">
       <c r="F67" t="s">
         <v>354</v>
       </c>
-      <c r="V67" t="s">
-        <v>131</v>
+      <c r="W67" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="68">
       <c r="F68" t="s">
         <v>316</v>
       </c>
-      <c r="V68" t="s">
-        <v>132</v>
+      <c r="W68" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="69">
       <c r="F69" t="s">
         <v>409</v>
       </c>
-      <c r="V69" t="s">
-        <v>133</v>
+      <c r="W69" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="70">
       <c r="F70" t="s">
         <v>306</v>
       </c>
-      <c r="V70" t="s">
-        <v>134</v>
+      <c r="W70" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" t="s">
         <v>410</v>
       </c>
-      <c r="V71" t="s">
-        <v>189</v>
+      <c r="W71" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="72">
       <c r="F72" t="s">
         <v>263</v>
       </c>
-      <c r="V72" t="s">
-        <v>190</v>
+      <c r="W72" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="73">
       <c r="F73" t="s">
         <v>345</v>
       </c>
-      <c r="V73" t="s">
-        <v>453</v>
+      <c r="W73" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="74">
       <c r="F74" t="s">
         <v>281</v>
       </c>
-      <c r="V74" t="s">
-        <v>476</v>
+      <c r="W74" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="75">
       <c r="F75" t="s">
         <v>287</v>
       </c>
-      <c r="V75" t="s">
-        <v>135</v>
+      <c r="W75" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="76">
       <c r="F76" t="s">
         <v>292</v>
       </c>
-      <c r="V76" t="s">
-        <v>136</v>
+      <c r="W76" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="77">
       <c r="F77" t="s">
         <v>416</v>
       </c>
-      <c r="V77" t="s">
-        <v>137</v>
+      <c r="W77" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="78">
       <c r="F78" t="s">
         <v>333</v>
       </c>
-      <c r="V78" t="s">
-        <v>138</v>
+      <c r="W78" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="79">
       <c r="F79" t="s">
         <v>271</v>
       </c>
-      <c r="V79" t="s">
-        <v>139</v>
+      <c r="W79" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="80">
       <c r="F80" t="s">
         <v>282</v>
       </c>
-      <c r="V80" t="s">
-        <v>191</v>
+      <c r="W80" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="81">
       <c r="F81" t="s">
         <v>288</v>
       </c>
-      <c r="V81" t="s">
-        <v>192</v>
+      <c r="W81" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="82">
       <c r="F82" t="s">
         <v>277</v>
       </c>
-      <c r="V82" t="s">
-        <v>452</v>
+      <c r="W82" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="83">
       <c r="F83" t="s">
         <v>272</v>
       </c>
-      <c r="V83" t="s">
-        <v>193</v>
+      <c r="W83" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="84">
       <c r="F84" t="s">
         <v>289</v>
       </c>
-      <c r="V84" t="s">
-        <v>194</v>
+      <c r="W84" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="85">
       <c r="F85" t="s">
         <v>273</v>
       </c>
-      <c r="V85" t="s">
-        <v>207</v>
+      <c r="W85" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="86">
       <c r="F86" t="s">
         <v>274</v>
       </c>
-      <c r="V86" t="s">
-        <v>140</v>
+      <c r="W86" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="87">
       <c r="F87" t="s">
         <v>307</v>
       </c>
-      <c r="V87" t="s">
-        <v>195</v>
+      <c r="W87" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="88">
       <c r="F88" t="s">
         <v>313</v>
       </c>
-      <c r="V88" t="s">
-        <v>429</v>
+      <c r="W88" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="89">
       <c r="F89" t="s">
         <v>296</v>
       </c>
-      <c r="V89" t="s">
-        <v>436</v>
+      <c r="W89" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="90">
       <c r="F90" t="s">
         <v>341</v>
       </c>
-      <c r="V90" t="s">
-        <v>196</v>
+      <c r="W90" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="91">
       <c r="F91" t="s">
         <v>278</v>
       </c>
-      <c r="V91" t="s">
-        <v>197</v>
+      <c r="W91" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="92">
       <c r="F92" t="s">
         <v>279</v>
       </c>
-      <c r="V92" t="s">
+      <c r="W92" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="W93" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="W94" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="93">
-      <c r="V93" t="s">
+    <row r="95">
+      <c r="W95" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="94">
-      <c r="V94" t="s">
+    <row r="96">
+      <c r="W96" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="95">
-      <c r="V95" t="s">
+    <row r="97">
+      <c r="W97" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="96">
-      <c r="V96" t="s">
+    <row r="98">
+      <c r="W98" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="97">
-      <c r="V97" t="s">
+    <row r="99">
+      <c r="W99" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="98">
-      <c r="V98" t="s">
+    <row r="100">
+      <c r="W100" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="99">
-      <c r="V99" t="s">
+    <row r="101">
+      <c r="W101" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="100">
-      <c r="V100" t="s">
+    <row r="102">
+      <c r="W102" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="101">
-      <c r="V101" t="s">
+    <row r="103">
+      <c r="W103" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="102">
-      <c r="V102" t="s">
+    <row r="104">
+      <c r="W104" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="103">
-      <c r="V103" t="s">
+    <row r="105">
+      <c r="W105" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="104">
-      <c r="V104" t="s">
+    <row r="106">
+      <c r="W106" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="105">
-      <c r="V105" t="s">
+    <row r="107">
+      <c r="W107" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="106">
-      <c r="V106" t="s">
+    <row r="108">
+      <c r="W108" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="107">
-      <c r="V107" t="s">
+    <row r="109">
+      <c r="W109" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="108">
-      <c r="V108" t="s">
+    <row r="110">
+      <c r="W110" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="109">
-      <c r="V109" t="s">
+    <row r="111">
+      <c r="W111" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="110">
-      <c r="V110" t="s">
+    <row r="112">
+      <c r="W112" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="111">
-      <c r="V111" t="s">
+    <row r="113">
+      <c r="W113" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="112">
-      <c r="V112" t="s">
+    <row r="114">
+      <c r="W114" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="113">
-      <c r="V113" t="s">
+    <row r="115">
+      <c r="W115" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="114">
-      <c r="V114" t="s">
+    <row r="116">
+      <c r="W116" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="115">
-      <c r="V115" t="s">
+    <row r="117">
+      <c r="W117" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="116">
-      <c r="V116" t="s">
+    <row r="118">
+      <c r="W118" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="117">
-      <c r="V117" t="s">
+    <row r="119">
+      <c r="W119" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="118">
-      <c r="V118" t="s">
+    <row r="120">
+      <c r="W120" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="119">
-      <c r="V119" t="s">
+    <row r="121">
+      <c r="W121" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="120">
-      <c r="V120" t="s">
+    <row r="122">
+      <c r="W122" t="s">
         <v>162</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro.xlsx
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7194" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7687" uniqueCount="493">
   <si>
     <t>description</t>
   </si>
@@ -1550,7 +1550,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="229" x14ac:knownFonts="1">
+  <fonts count="245" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2992,8 +2992,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="381">
+  <fills count="408">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5148,8 +5249,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="394">
+  <borders count="422">
     <border>
       <left/>
       <right/>
@@ -9120,13 +9374,295 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="240">
+  <cellXfs count="256">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -9804,52 +10340,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="212" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="213" fillId="356" borderId="373" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="373" fillId="356" fontId="213" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="214" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="214" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="215" fillId="359" borderId="377" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="377" fillId="359" fontId="215" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="216" fillId="362" borderId="381" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="381" fillId="362" fontId="216" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="217" fillId="365" borderId="381" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="381" fillId="365" fontId="217" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="218" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="218" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="219" fillId="368" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="368" fontId="219" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="220" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="221" fillId="371" borderId="385" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="385" fillId="371" fontId="221" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="222" fillId="374" borderId="389" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="389" fillId="374" fontId="222" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="223" fillId="377" borderId="393" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="393" fillId="377" fontId="223" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="224" fillId="377" borderId="393" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="393" fillId="377" fontId="224" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="225" fillId="365" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="365" fontId="225" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="226" fillId="380" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="380" fontId="226" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="227" fillId="365" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="365" fontId="227" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="228" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="228" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="229" fillId="383" borderId="401" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="230" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="231" fillId="386" borderId="405" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="232" fillId="389" borderId="409" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="233" fillId="392" borderId="409" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="234" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="235" fillId="395" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="236" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="237" fillId="398" borderId="413" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="238" fillId="401" borderId="417" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="239" fillId="404" borderId="421" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="240" fillId="404" borderId="421" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="241" fillId="392" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="242" fillId="407" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="243" fillId="392" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="244" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro.xlsx
@@ -18,38 +18,39 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$D$2:$D$38</definedName>
-    <definedName name="csv">'#system'!$E$2:$E$5</definedName>
+    <definedName name="base">'#system'!$E$2:$E$38</definedName>
+    <definedName name="csv">'#system'!$F$2:$F$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
-    <definedName name="excel">'#system'!$G$2:$G$14</definedName>
-    <definedName name="external">'#system'!$H$2:$H$4</definedName>
-    <definedName name="image">'#system'!$I$2:$I$6</definedName>
-    <definedName name="io">'#system'!$J$2:$J$25</definedName>
-    <definedName name="jms">'#system'!$K$2:$K$4</definedName>
-    <definedName name="json">'#system'!$L$2:$L$16</definedName>
-    <definedName name="mail">'#system'!$N$2:$N$2</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$92</definedName>
+    <definedName name="excel">'#system'!$H$2:$H$14</definedName>
+    <definedName name="external">'#system'!$I$2:$I$4</definedName>
+    <definedName name="image">'#system'!$J$2:$J$6</definedName>
+    <definedName name="io">'#system'!$K$2:$K$25</definedName>
+    <definedName name="jms">'#system'!$L$2:$L$4</definedName>
+    <definedName name="json">'#system'!$M$2:$M$16</definedName>
+    <definedName name="mail">'#system'!$O$2:$O$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$O$2:$O$15</definedName>
-    <definedName name="pdf">'#system'!$P$2:$P$16</definedName>
-    <definedName name="rdbms">'#system'!$Q$2:$Q$7</definedName>
-    <definedName name="redis">'#system'!$R$2:$R$10</definedName>
-    <definedName name="sms">'#system'!$S$2:$S$2</definedName>
-    <definedName name="sound">'#system'!$T$2:$T$5</definedName>
-    <definedName name="ssh">'#system'!$U$2:$U$9</definedName>
-    <definedName name="step">'#system'!$V$2:$V$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$28</definedName>
-    <definedName name="web">'#system'!$W$2:$W$122</definedName>
-    <definedName name="webalert">'#system'!$X$2:$X$8</definedName>
-    <definedName name="webcookie">'#system'!$Y$2:$Y$8</definedName>
-    <definedName name="ws">'#system'!$Z$2:$Z$17</definedName>
-    <definedName name="ws.async">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="xml">'#system'!$AB$2:$AB$13</definedName>
+    <definedName name="number">'#system'!$P$2:$P$15</definedName>
+    <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
+    <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
+    <definedName name="redis">'#system'!$S$2:$S$10</definedName>
+    <definedName name="sms">'#system'!$T$2:$T$2</definedName>
+    <definedName name="sound">'#system'!$U$2:$U$5</definedName>
+    <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
+    <definedName name="step">'#system'!$W$2:$W$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$29</definedName>
+    <definedName name="web">'#system'!$X$2:$X$122</definedName>
+    <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
+    <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
+    <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="xml">'#system'!$AC$2:$AC$18</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="macro">'#system'!$M$2:$M$4</definedName>
+    <definedName name="macro">'#system'!$N$2:$N$4</definedName>
+    <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7687" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8690" uniqueCount="503">
   <si>
     <t>description</t>
   </si>
@@ -1543,6 +1544,36 @@
   </si>
   <si>
     <t>saveAttributeList(var,locator,attrName)</t>
+  </si>
+  <si>
+    <t>aws.sqs</t>
+  </si>
+  <si>
+    <t>deleteMessage(profile,queue,receiptHandle)</t>
+  </si>
+  <si>
+    <t>receiveMessage(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>receiveMessages(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>sendMessage(profile,queue,message,var)</t>
+  </si>
+  <si>
+    <t>append(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>clear(xml,xpath,var)</t>
+  </si>
+  <si>
+    <t>delete(xml,xpath,var)</t>
+  </si>
+  <si>
+    <t>prepend(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>replace(xml,xpath,content,var)</t>
   </si>
 </sst>
 </file>
@@ -1550,7 +1581,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="245" x14ac:knownFonts="1">
+  <fonts count="277" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3093,8 +3124,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="408">
+  <fills count="462">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5402,8 +5635,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="422">
+  <borders count="478">
     <border>
       <left/>
       <right/>
@@ -9656,13 +10195,577 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="256">
+  <cellXfs count="288">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -10388,52 +11491,148 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="228" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="229" fillId="383" borderId="401" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="401" fillId="383" fontId="229" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="230" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="230" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="231" fillId="386" borderId="405" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="405" fillId="386" fontId="231" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="232" fillId="389" borderId="409" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="409" fillId="389" fontId="232" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="233" fillId="392" borderId="409" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="409" fillId="392" fontId="233" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="234" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="234" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="235" fillId="395" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="395" fontId="235" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="236" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="236" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="237" fillId="398" borderId="413" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="413" fillId="398" fontId="237" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="238" fillId="401" borderId="417" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="417" fillId="401" fontId="238" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="239" fillId="404" borderId="421" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="421" fillId="404" fontId="239" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="240" fillId="404" borderId="421" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="421" fillId="404" fontId="240" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="241" fillId="392" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="392" fontId="241" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="242" fillId="407" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="407" fontId="242" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="243" fillId="392" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="392" fontId="243" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="244" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="244" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="429" fillId="410" fontId="245" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="246" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="433" fillId="413" fontId="247" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="437" fillId="416" fontId="248" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="437" fillId="419" fontId="249" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="250" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="422" fontId="251" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="252" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="441" fillId="425" fontId="253" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="445" fillId="428" fontId="254" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="449" fillId="431" fontId="255" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="449" fillId="431" fontId="256" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="419" fontId="257" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="434" fontId="258" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="419" fontId="259" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="260" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="261" fillId="437" borderId="457" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="262" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="263" fillId="440" borderId="461" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="264" fillId="443" borderId="465" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="265" fillId="446" borderId="465" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="266" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="267" fillId="449" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="268" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="269" fillId="452" borderId="469" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="270" fillId="455" borderId="473" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="271" fillId="458" borderId="477" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="272" fillId="458" borderId="477" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="273" fillId="446" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="274" fillId="461" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="275" fillId="446" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="276" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -10731,7 +11930,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC122"/>
+  <dimension ref="A1:AD122"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -10751,78 +11950,81 @@
         <v>466</v>
       </c>
       <c r="D1" t="s">
+        <v>493</v>
+      </c>
+      <c r="E1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>43</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>348</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>334</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>17</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>246</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>188</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>44</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>230</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>45</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>399</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>411</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>412</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>358</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>395</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>46</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>47</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>48</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>49</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>413</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>218</v>
       </c>
     </row>
@@ -10837,79 +12039,82 @@
         <v>471</v>
       </c>
       <c r="D2" t="s">
+        <v>494</v>
+      </c>
+      <c r="E2" t="s">
         <v>50</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>64</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>66</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>449</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>71</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>475</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>317</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>385</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>417</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>487</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>418</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>419</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>244</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>209</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>400</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>423</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>424</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>382</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>396</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>89</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>163</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>168</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>175</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>430</v>
       </c>
-      <c r="AB2" t="s">
-        <v>219</v>
+      <c r="AC2" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="3">
@@ -10923,1543 +12128,1570 @@
         <v>468</v>
       </c>
       <c r="D3" t="s">
+        <v>495</v>
+      </c>
+      <c r="E3" t="s">
         <v>463</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>366</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>80</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>41</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>485</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>350</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>342</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>335</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>78</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>488</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>420</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>231</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>210</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>401</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>425</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>383</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>397</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>90</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>164</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>169</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>365</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>176</v>
       </c>
-      <c r="AB3" t="s">
-        <v>220</v>
+      <c r="AC3" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>493</v>
       </c>
       <c r="B4" t="s">
         <v>375</v>
       </c>
       <c r="D4" t="s">
+        <v>496</v>
+      </c>
+      <c r="E4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>65</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>388</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>450</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>486</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>351</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>229</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>336</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>18</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>489</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>19</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>232</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>211</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>402</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>426</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>359</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>398</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>355</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>165</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>170</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>176</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>431</v>
       </c>
-      <c r="AB4" t="s">
-        <v>221</v>
+      <c r="AC4" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>376</v>
       </c>
       <c r="D5" t="s">
+        <v>497</v>
+      </c>
+      <c r="E5" t="s">
         <v>464</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>438</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>337</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>454</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>352</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>469</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>79</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>23</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>233</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>212</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>403</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>427</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>360</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>356</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>166</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>171</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>177</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>432</v>
       </c>
-      <c r="AB5" t="s">
-        <v>222</v>
+      <c r="AC5" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
         <v>377</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>20</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>389</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>447</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>349</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>64</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>22</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>24</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>234</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>392</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>404</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>362</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>91</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>444</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>172</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>178</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>433</v>
       </c>
-      <c r="AB6" t="s">
-        <v>223</v>
+      <c r="AC6" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
         <v>378</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>215</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>367</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>446</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>12</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>317</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>26</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>235</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>422</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>405</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>361</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>92</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>445</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>173</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>179</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>434</v>
       </c>
-      <c r="AB7" t="s">
-        <v>224</v>
+      <c r="AC7" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
         <v>379</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>320</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>368</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>329</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>72</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>27</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>83</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>236</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>406</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>363</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>93</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>167</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>174</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>180</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>435</v>
       </c>
-      <c r="AB8" t="s">
-        <v>225</v>
+      <c r="AC8" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>348</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
         <v>380</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>25</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>308</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>330</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>31</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>28</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>84</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>237</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>407</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>364</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>201</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>181</v>
       </c>
-      <c r="AB9" t="s">
-        <v>483</v>
+      <c r="AC9" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" t="s">
+        <v>348</v>
+      </c>
+      <c r="E10" t="s">
         <v>317</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>353</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>451</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>391</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>29</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>421</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>238</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>408</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>258</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>182</v>
       </c>
-      <c r="AB10" t="s">
-        <v>484</v>
+      <c r="AC10" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>334</v>
-      </c>
-      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
         <v>250</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>275</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>323</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>13</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>480</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>85</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>239</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>259</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>260</v>
       </c>
-      <c r="AB11" t="s">
-        <v>226</v>
+      <c r="AC11" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" t="s">
+        <v>334</v>
+      </c>
+      <c r="E12" t="s">
         <v>321</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>264</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>324</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>35</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>440</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>34</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>240</v>
       </c>
-      <c r="W12" t="s">
+      <c r="X12" t="s">
         <v>94</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AA12" t="s">
         <v>183</v>
       </c>
-      <c r="AB12" t="s">
-        <v>227</v>
+      <c r="AC12" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>246</v>
-      </c>
-      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
         <v>342</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>318</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>325</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>73</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>481</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>86</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>245</v>
       </c>
-      <c r="W13" t="s">
+      <c r="X13" t="s">
         <v>327</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="AA13" t="s">
         <v>184</v>
       </c>
-      <c r="AB13" t="s">
-        <v>228</v>
+      <c r="AC13" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>188</v>
-      </c>
-      <c r="D14" t="s">
+        <v>246</v>
+      </c>
+      <c r="E14" t="s">
         <v>30</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>265</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>326</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>74</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>32</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>87</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>241</v>
       </c>
-      <c r="W14" t="s">
+      <c r="X14" t="s">
         <v>95</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="AA14" t="s">
         <v>185</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" t="s">
+        <v>188</v>
+      </c>
+      <c r="E15" t="s">
         <v>51</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>266</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>455</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>33</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>88</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>242</v>
       </c>
-      <c r="W15" t="s">
+      <c r="X15" t="s">
         <v>96</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="AA15" t="s">
         <v>186</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>230</v>
-      </c>
-      <c r="D16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" t="s">
         <v>386</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>319</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>75</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>36</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>243</v>
       </c>
-      <c r="W16" t="s">
+      <c r="X16" t="s">
         <v>67</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="AA16" t="s">
         <v>187</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" t="s">
+        <v>230</v>
+      </c>
+      <c r="E17" t="s">
         <v>387</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>81</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>76</v>
       </c>
-      <c r="W17" t="s">
+      <c r="X17" t="s">
         <v>97</v>
       </c>
-      <c r="Z17" t="s">
+      <c r="AA17" t="s">
         <v>470</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>399</v>
-      </c>
-      <c r="D18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" t="s">
         <v>414</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>82</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>381</v>
       </c>
-      <c r="W18" t="s">
+      <c r="X18" t="s">
         <v>98</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>411</v>
-      </c>
-      <c r="D19" t="s">
+        <v>399</v>
+      </c>
+      <c r="E19" t="s">
         <v>52</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>297</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>479</v>
       </c>
-      <c r="W19" t="s">
+      <c r="X19" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>412</v>
-      </c>
-      <c r="D20" t="s">
+        <v>411</v>
+      </c>
+      <c r="E20" t="s">
         <v>53</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>298</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>37</v>
       </c>
-      <c r="W20" t="s">
+      <c r="X20" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>358</v>
-      </c>
-      <c r="D21" t="s">
+        <v>412</v>
+      </c>
+      <c r="E21" t="s">
         <v>54</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>299</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>393</v>
       </c>
-      <c r="W21" t="s">
+      <c r="X21" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>395</v>
-      </c>
-      <c r="D22" t="s">
+        <v>358</v>
+      </c>
+      <c r="E22" t="s">
         <v>322</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>300</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>77</v>
       </c>
-      <c r="W22" t="s">
+      <c r="X22" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" t="s">
+        <v>395</v>
+      </c>
+      <c r="E23" t="s">
         <v>55</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>291</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>439</v>
       </c>
-      <c r="W23" t="s">
+      <c r="X23" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" t="s">
         <v>448</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>280</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>38</v>
       </c>
-      <c r="W24" t="s">
+      <c r="X24" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D25" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" t="s">
         <v>216</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>68</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>39</v>
       </c>
-      <c r="W25" t="s">
+      <c r="X25" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>49</v>
-      </c>
-      <c r="D26" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" t="s">
         <v>217</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>283</v>
       </c>
-      <c r="W26" t="s">
+      <c r="X26" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>413</v>
-      </c>
-      <c r="D27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" t="s">
         <v>477</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>267</v>
       </c>
-      <c r="W27" t="s">
+      <c r="X27" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>413</v>
+      </c>
+      <c r="E28" t="s">
+        <v>478</v>
+      </c>
+      <c r="G28" t="s">
+        <v>284</v>
+      </c>
+      <c r="X28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
         <v>218</v>
       </c>
-      <c r="D28" t="s">
-        <v>478</v>
-      </c>
-      <c r="F28" t="s">
-        <v>284</v>
-      </c>
-      <c r="W28" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>415</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>285</v>
       </c>
-      <c r="W29" t="s">
+      <c r="X29" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="30">
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>56</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>208</v>
       </c>
-      <c r="W30" t="s">
+      <c r="X30" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="31">
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>57</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>276</v>
       </c>
-      <c r="W31" t="s">
+      <c r="X31" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="32">
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>58</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>286</v>
       </c>
-      <c r="W32" t="s">
+      <c r="X32" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="33">
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>59</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>261</v>
       </c>
-      <c r="W33" t="s">
+      <c r="X33" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="34">
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>60</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>331</v>
       </c>
-      <c r="W34" t="s">
+      <c r="X34" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="35">
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>61</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>309</v>
       </c>
-      <c r="W35" t="s">
+      <c r="X35" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="36">
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>62</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>262</v>
       </c>
-      <c r="W36" t="s">
+      <c r="X36" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="37">
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>63</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>310</v>
       </c>
-      <c r="W37" t="s">
+      <c r="X37" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="38">
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>268</v>
       </c>
-      <c r="W38" t="s">
+      <c r="X38" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="39">
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>70</v>
       </c>
-      <c r="W39" t="s">
+      <c r="X39" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="40">
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>204</v>
       </c>
-      <c r="W40" t="s">
+      <c r="X40" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="41">
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>290</v>
       </c>
-      <c r="W41" t="s">
+      <c r="X41" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="42">
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>301</v>
       </c>
-      <c r="W42" t="s">
+      <c r="X42" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="43">
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>302</v>
       </c>
-      <c r="W43" t="s">
+      <c r="X43" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="44">
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>344</v>
       </c>
-      <c r="W44" t="s">
+      <c r="X44" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="45">
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>343</v>
       </c>
-      <c r="W45" t="s">
+      <c r="X45" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="46">
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>203</v>
       </c>
-      <c r="W46" t="s">
+      <c r="X46" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="47">
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>303</v>
       </c>
-      <c r="W47" t="s">
+      <c r="X47" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="48">
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>340</v>
       </c>
-      <c r="W48" t="s">
+      <c r="X48" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="49">
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>369</v>
       </c>
-      <c r="W49" t="s">
+      <c r="X49" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="50">
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>304</v>
       </c>
-      <c r="W50" t="s">
+      <c r="X50" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="51">
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>357</v>
       </c>
-      <c r="W51" t="s">
+      <c r="X51" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="52">
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>332</v>
       </c>
-      <c r="W52" t="s">
+      <c r="X52" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="53">
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>269</v>
       </c>
-      <c r="W53" t="s">
+      <c r="X53" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="54">
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>293</v>
       </c>
-      <c r="W54" t="s">
+      <c r="X54" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="55">
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>294</v>
       </c>
-      <c r="W55" t="s">
+      <c r="X55" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="56">
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>295</v>
       </c>
-      <c r="W56" t="s">
+      <c r="X56" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="57">
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>305</v>
       </c>
-      <c r="W57" t="s">
+      <c r="X57" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="58">
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>314</v>
       </c>
-      <c r="W58" t="s">
+      <c r="X58" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="59">
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>338</v>
       </c>
-      <c r="W59" t="s">
+      <c r="X59" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="60">
-      <c r="F60" t="s">
+      <c r="G60" t="s">
         <v>311</v>
       </c>
-      <c r="W60" t="s">
+      <c r="X60" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="61">
-      <c r="F61" t="s">
+      <c r="G61" t="s">
         <v>312</v>
       </c>
-      <c r="W61" t="s">
+      <c r="X61" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="62">
-      <c r="F62" t="s">
+      <c r="G62" t="s">
         <v>370</v>
       </c>
-      <c r="W62" t="s">
+      <c r="X62" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="63">
-      <c r="F63" t="s">
+      <c r="G63" t="s">
         <v>371</v>
       </c>
-      <c r="W63" t="s">
+      <c r="X63" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="64">
-      <c r="F64" t="s">
+      <c r="G64" t="s">
         <v>346</v>
       </c>
-      <c r="W64" t="s">
+      <c r="X64" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="65">
-      <c r="F65" t="s">
+      <c r="G65" t="s">
         <v>315</v>
       </c>
-      <c r="W65" t="s">
+      <c r="X65" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="66">
-      <c r="F66" t="s">
+      <c r="G66" t="s">
         <v>270</v>
       </c>
-      <c r="W66" t="s">
+      <c r="X66" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="67">
-      <c r="F67" t="s">
+      <c r="G67" t="s">
         <v>354</v>
       </c>
-      <c r="W67" t="s">
+      <c r="X67" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="68">
-      <c r="F68" t="s">
+      <c r="G68" t="s">
         <v>316</v>
       </c>
-      <c r="W68" t="s">
+      <c r="X68" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="69">
-      <c r="F69" t="s">
+      <c r="G69" t="s">
         <v>409</v>
       </c>
-      <c r="W69" t="s">
+      <c r="X69" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="70">
-      <c r="F70" t="s">
+      <c r="G70" t="s">
         <v>306</v>
       </c>
-      <c r="W70" t="s">
+      <c r="X70" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="71">
-      <c r="F71" t="s">
+      <c r="G71" t="s">
         <v>410</v>
       </c>
-      <c r="W71" t="s">
+      <c r="X71" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="72">
-      <c r="F72" t="s">
+      <c r="G72" t="s">
         <v>263</v>
       </c>
-      <c r="W72" t="s">
+      <c r="X72" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="73">
-      <c r="F73" t="s">
+      <c r="G73" t="s">
         <v>345</v>
       </c>
-      <c r="W73" t="s">
+      <c r="X73" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="74">
-      <c r="F74" t="s">
+      <c r="G74" t="s">
         <v>281</v>
       </c>
-      <c r="W74" t="s">
+      <c r="X74" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="75">
-      <c r="F75" t="s">
+      <c r="G75" t="s">
         <v>287</v>
       </c>
-      <c r="W75" t="s">
+      <c r="X75" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="76">
-      <c r="F76" t="s">
+      <c r="G76" t="s">
         <v>292</v>
       </c>
-      <c r="W76" t="s">
+      <c r="X76" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="77">
-      <c r="F77" t="s">
+      <c r="G77" t="s">
         <v>416</v>
       </c>
-      <c r="W77" t="s">
+      <c r="X77" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="78">
-      <c r="F78" t="s">
+      <c r="G78" t="s">
         <v>333</v>
       </c>
-      <c r="W78" t="s">
+      <c r="X78" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="79">
-      <c r="F79" t="s">
+      <c r="G79" t="s">
         <v>271</v>
       </c>
-      <c r="W79" t="s">
+      <c r="X79" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="80">
-      <c r="F80" t="s">
+      <c r="G80" t="s">
         <v>282</v>
       </c>
-      <c r="W80" t="s">
+      <c r="X80" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="81">
-      <c r="F81" t="s">
+      <c r="G81" t="s">
         <v>288</v>
       </c>
-      <c r="W81" t="s">
+      <c r="X81" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="82">
-      <c r="F82" t="s">
+      <c r="G82" t="s">
         <v>277</v>
       </c>
-      <c r="W82" t="s">
+      <c r="X82" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="83">
-      <c r="F83" t="s">
+      <c r="G83" t="s">
         <v>272</v>
       </c>
-      <c r="W83" t="s">
+      <c r="X83" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="84">
-      <c r="F84" t="s">
+      <c r="G84" t="s">
         <v>289</v>
       </c>
-      <c r="W84" t="s">
+      <c r="X84" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="85">
-      <c r="F85" t="s">
+      <c r="G85" t="s">
         <v>273</v>
       </c>
-      <c r="W85" t="s">
+      <c r="X85" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="86">
-      <c r="F86" t="s">
+      <c r="G86" t="s">
         <v>274</v>
       </c>
-      <c r="W86" t="s">
+      <c r="X86" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="87">
-      <c r="F87" t="s">
+      <c r="G87" t="s">
         <v>307</v>
       </c>
-      <c r="W87" t="s">
+      <c r="X87" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="88">
-      <c r="F88" t="s">
+      <c r="G88" t="s">
         <v>313</v>
       </c>
-      <c r="W88" t="s">
+      <c r="X88" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="89">
-      <c r="F89" t="s">
+      <c r="G89" t="s">
         <v>296</v>
       </c>
-      <c r="W89" t="s">
+      <c r="X89" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="90">
-      <c r="F90" t="s">
+      <c r="G90" t="s">
         <v>341</v>
       </c>
-      <c r="W90" t="s">
+      <c r="X90" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="91">
-      <c r="F91" t="s">
+      <c r="G91" t="s">
         <v>278</v>
       </c>
-      <c r="W91" t="s">
+      <c r="X91" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="92">
-      <c r="F92" t="s">
+      <c r="G92" t="s">
         <v>279</v>
       </c>
-      <c r="W92" t="s">
+      <c r="X92" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="93">
-      <c r="W93" t="s">
+      <c r="X93" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="94">
-      <c r="W94" t="s">
+      <c r="X94" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="95">
-      <c r="W95" t="s">
+      <c r="X95" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="96">
-      <c r="W96" t="s">
+      <c r="X96" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="97">
-      <c r="W97" t="s">
+      <c r="X97" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="98">
-      <c r="W98" t="s">
+      <c r="X98" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="99">
-      <c r="W99" t="s">
+      <c r="X99" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="100">
-      <c r="W100" t="s">
+      <c r="X100" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="101">
-      <c r="W101" t="s">
+      <c r="X101" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="102">
-      <c r="W102" t="s">
+      <c r="X102" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="103">
-      <c r="W103" t="s">
+      <c r="X103" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="104">
-      <c r="W104" t="s">
+      <c r="X104" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="105">
-      <c r="W105" t="s">
+      <c r="X105" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="106">
-      <c r="W106" t="s">
+      <c r="X106" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="107">
-      <c r="W107" t="s">
+      <c r="X107" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="108">
-      <c r="W108" t="s">
+      <c r="X108" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="109">
-      <c r="W109" t="s">
+      <c r="X109" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="110">
-      <c r="W110" t="s">
+      <c r="X110" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="111">
-      <c r="W111" t="s">
+      <c r="X111" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="112">
-      <c r="W112" t="s">
+      <c r="X112" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="113">
-      <c r="W113" t="s">
+      <c r="X113" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="114">
-      <c r="W114" t="s">
+      <c r="X114" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="115">
-      <c r="W115" t="s">
+      <c r="X115" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="116">
-      <c r="W116" t="s">
+      <c r="X116" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="117">
-      <c r="W117" t="s">
+      <c r="X117" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="118">
-      <c r="W118" t="s">
+      <c r="X118" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="119">
-      <c r="W119" t="s">
+      <c r="X119" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="120">
-      <c r="W120" t="s">
+      <c r="X120" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="121">
-      <c r="W121" t="s">
+      <c r="X121" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="122">
-      <c r="W122" t="s">
+      <c r="X122" t="s">
         <v>162</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro.xlsx
@@ -42,12 +42,12 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$122</definedName>
+    <definedName name="web">'#system'!$X$2:$X$123</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
     <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="xml">'#system'!$AC$2:$AC$18</definedName>
+    <definedName name="xml">'#system'!$AC$2:$AC$21</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="macro">'#system'!$N$2:$N$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8690" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9198" uniqueCount="507">
   <si>
     <t>description</t>
   </si>
@@ -1574,6 +1574,18 @@
   </si>
   <si>
     <t>replace(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>rightClick(locator)</t>
+  </si>
+  <si>
+    <t>insertAfter(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>insertBefore(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>replaceIn(xml,xpath,content,var)</t>
   </si>
 </sst>
 </file>
@@ -1581,7 +1593,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="277" x14ac:knownFonts="1">
+  <fonts count="293" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3326,8 +3338,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="462">
+  <fills count="489">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5941,8 +6054,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="478">
+  <borders count="506">
     <border>
       <left/>
       <right/>
@@ -10759,13 +11025,295 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="288">
+  <cellXfs count="304">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -11587,52 +12135,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="260" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="261" fillId="437" borderId="457" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="457" fillId="437" fontId="261" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="262" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="262" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="263" fillId="440" borderId="461" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="461" fillId="440" fontId="263" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="264" fillId="443" borderId="465" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="465" fillId="443" fontId="264" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="265" fillId="446" borderId="465" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="465" fillId="446" fontId="265" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="266" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="266" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="267" fillId="449" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="449" fontId="267" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="268" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="268" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="269" fillId="452" borderId="469" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="469" fillId="452" fontId="269" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="270" fillId="455" borderId="473" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="473" fillId="455" fontId="270" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="271" fillId="458" borderId="477" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="477" fillId="458" fontId="271" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="272" fillId="458" borderId="477" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="477" fillId="458" fontId="272" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="273" fillId="446" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="446" fontId="273" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="274" fillId="461" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="461" fontId="274" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="275" fillId="446" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="446" fontId="275" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="276" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="276" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="277" fillId="464" borderId="485" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="278" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="279" fillId="467" borderId="489" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="280" fillId="470" borderId="493" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="281" fillId="473" borderId="493" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="282" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="283" fillId="476" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="284" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="285" fillId="479" borderId="497" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="286" fillId="482" borderId="501" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="287" fillId="485" borderId="505" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="288" fillId="485" borderId="505" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="289" fillId="473" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="290" fillId="488" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="291" fillId="473" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="292" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -11930,7 +12526,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD122"/>
+  <dimension ref="A1:AD123"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -12700,7 +13296,7 @@
         <v>184</v>
       </c>
       <c r="AC13" t="s">
-        <v>484</v>
+        <v>504</v>
       </c>
     </row>
     <row r="14">
@@ -12735,7 +13331,7 @@
         <v>185</v>
       </c>
       <c r="AC14" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
     </row>
     <row r="15">
@@ -12767,7 +13363,7 @@
         <v>186</v>
       </c>
       <c r="AC15" t="s">
-        <v>502</v>
+        <v>484</v>
       </c>
     </row>
     <row r="16">
@@ -12796,7 +13392,7 @@
         <v>187</v>
       </c>
       <c r="AC16" t="s">
-        <v>226</v>
+        <v>501</v>
       </c>
     </row>
     <row r="17">
@@ -12819,7 +13415,7 @@
         <v>470</v>
       </c>
       <c r="AC17" t="s">
-        <v>227</v>
+        <v>502</v>
       </c>
     </row>
     <row r="18">
@@ -12839,7 +13435,7 @@
         <v>98</v>
       </c>
       <c r="AC18" t="s">
-        <v>228</v>
+        <v>506</v>
       </c>
     </row>
     <row r="19">
@@ -12858,6 +13454,9 @@
       <c r="X19" t="s">
         <v>99</v>
       </c>
+      <c r="AC19" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -12875,6 +13474,9 @@
       <c r="X20" t="s">
         <v>100</v>
       </c>
+      <c r="AC20" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -12892,6 +13494,9 @@
       <c r="X21" t="s">
         <v>490</v>
       </c>
+      <c r="AC21" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -13438,7 +14043,7 @@
         <v>271</v>
       </c>
       <c r="X79" t="s">
-        <v>138</v>
+        <v>503</v>
       </c>
     </row>
     <row r="80">
@@ -13446,7 +14051,7 @@
         <v>282</v>
       </c>
       <c r="X80" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="81">
@@ -13454,7 +14059,7 @@
         <v>288</v>
       </c>
       <c r="X81" t="s">
-        <v>191</v>
+        <v>139</v>
       </c>
     </row>
     <row r="82">
@@ -13462,7 +14067,7 @@
         <v>277</v>
       </c>
       <c r="X82" t="s">
-        <v>492</v>
+        <v>191</v>
       </c>
     </row>
     <row r="83">
@@ -13470,7 +14075,7 @@
         <v>272</v>
       </c>
       <c r="X83" t="s">
-        <v>192</v>
+        <v>492</v>
       </c>
     </row>
     <row r="84">
@@ -13478,7 +14083,7 @@
         <v>289</v>
       </c>
       <c r="X84" t="s">
-        <v>452</v>
+        <v>192</v>
       </c>
     </row>
     <row r="85">
@@ -13486,7 +14091,7 @@
         <v>273</v>
       </c>
       <c r="X85" t="s">
-        <v>193</v>
+        <v>452</v>
       </c>
     </row>
     <row r="86">
@@ -13494,7 +14099,7 @@
         <v>274</v>
       </c>
       <c r="X86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="87">
@@ -13502,7 +14107,7 @@
         <v>307</v>
       </c>
       <c r="X87" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
     </row>
     <row r="88">
@@ -13510,7 +14115,7 @@
         <v>313</v>
       </c>
       <c r="X88" t="s">
-        <v>140</v>
+        <v>207</v>
       </c>
     </row>
     <row r="89">
@@ -13518,7 +14123,7 @@
         <v>296</v>
       </c>
       <c r="X89" t="s">
-        <v>195</v>
+        <v>140</v>
       </c>
     </row>
     <row r="90">
@@ -13526,7 +14131,7 @@
         <v>341</v>
       </c>
       <c r="X90" t="s">
-        <v>429</v>
+        <v>195</v>
       </c>
     </row>
     <row r="91">
@@ -13534,7 +14139,7 @@
         <v>278</v>
       </c>
       <c r="X91" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
     </row>
     <row r="92">
@@ -13542,156 +14147,161 @@
         <v>279</v>
       </c>
       <c r="X92" t="s">
-        <v>196</v>
+        <v>436</v>
       </c>
     </row>
     <row r="93">
       <c r="X93" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="94">
       <c r="X94" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="95">
       <c r="X95" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="96">
       <c r="X96" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
     </row>
     <row r="97">
       <c r="X97" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
     </row>
     <row r="98">
       <c r="X98" t="s">
-        <v>141</v>
+        <v>200</v>
       </c>
     </row>
     <row r="99">
       <c r="X99" t="s">
-        <v>384</v>
+        <v>141</v>
       </c>
     </row>
     <row r="100">
       <c r="X100" t="s">
-        <v>142</v>
+        <v>384</v>
       </c>
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>443</v>
+        <v>154</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>155</v>
+        <v>443</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>40</v>
+        <v>158</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>159</v>
+        <v>40</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="X123" t="s">
         <v>162</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro.xlsx
@@ -33,7 +33,7 @@
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$P$2:$P$15</definedName>
+    <definedName name="number">'#system'!$P$2:$P$16</definedName>
     <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
     <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
     <definedName name="redis">'#system'!$S$2:$S$10</definedName>
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$123</definedName>
+    <definedName name="web">'#system'!$X$2:$X$124</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9198" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10217" uniqueCount="510">
   <si>
     <t>description</t>
   </si>
@@ -1586,6 +1586,15 @@
   </si>
   <si>
     <t>replaceIn(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>roundTo(var,closestDigit)</t>
+  </si>
+  <si>
+    <t>whole(var)</t>
+  </si>
+  <si>
+    <t>assertElementsPresent(prefix)</t>
   </si>
 </sst>
 </file>
@@ -1593,7 +1602,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="293" x14ac:knownFonts="1">
+  <fonts count="325" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3439,8 +3448,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="489">
+  <fills count="543">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6207,8 +6418,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="506">
+  <borders count="562">
     <border>
       <left/>
       <right/>
@@ -11307,13 +11824,577 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="304">
+  <cellXfs count="336">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -12183,52 +13264,148 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="276" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="277" fillId="464" borderId="485" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="485" fillId="464" fontId="277" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="278" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="278" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="279" fillId="467" borderId="489" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="489" fillId="467" fontId="279" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="280" fillId="470" borderId="493" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="493" fillId="470" fontId="280" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="281" fillId="473" borderId="493" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="493" fillId="473" fontId="281" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="282" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="282" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="283" fillId="476" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="476" fontId="283" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="284" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="284" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="285" fillId="479" borderId="497" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="497" fillId="479" fontId="285" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="286" fillId="482" borderId="501" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="501" fillId="482" fontId="286" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="287" fillId="485" borderId="505" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="505" fillId="485" fontId="287" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="288" fillId="485" borderId="505" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="505" fillId="485" fontId="288" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="289" fillId="473" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="473" fontId="289" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="290" fillId="488" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="488" fontId="290" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="291" fillId="473" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="473" fontId="291" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="292" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="292" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="513" fillId="491" fontId="293" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="294" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="517" fillId="494" fontId="295" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="521" fillId="497" fontId="296" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="521" fillId="500" fontId="297" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="298" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="503" fontId="299" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="300" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="525" fillId="506" fontId="301" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="529" fillId="509" fontId="302" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="533" fillId="512" fontId="303" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="533" fillId="512" fontId="304" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="500" fontId="305" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="515" fontId="306" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="500" fontId="307" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="308" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="309" fillId="518" borderId="541" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="311" fillId="521" borderId="545" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="312" fillId="524" borderId="549" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="313" fillId="527" borderId="549" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="314" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="315" fillId="530" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="316" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="317" fillId="533" borderId="553" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="318" fillId="536" borderId="557" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="319" fillId="539" borderId="561" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="320" fillId="539" borderId="561" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="321" fillId="527" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="322" fillId="542" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="323" fillId="527" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="324" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -12526,7 +13703,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD123"/>
+  <dimension ref="A1:AD124"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -13351,7 +14528,7 @@
         <v>33</v>
       </c>
       <c r="P15" t="s">
-        <v>88</v>
+        <v>507</v>
       </c>
       <c r="Q15" t="s">
         <v>242</v>
@@ -13382,6 +14559,9 @@
       <c r="M16" t="s">
         <v>36</v>
       </c>
+      <c r="P16" t="s">
+        <v>508</v>
+      </c>
       <c r="Q16" t="s">
         <v>243</v>
       </c>
@@ -13409,7 +14589,7 @@
         <v>76</v>
       </c>
       <c r="X17" t="s">
-        <v>97</v>
+        <v>509</v>
       </c>
       <c r="AA17" t="s">
         <v>470</v>
@@ -13432,7 +14612,7 @@
         <v>381</v>
       </c>
       <c r="X18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AC18" t="s">
         <v>506</v>
@@ -13452,7 +14632,7 @@
         <v>479</v>
       </c>
       <c r="X19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC19" t="s">
         <v>226</v>
@@ -13472,7 +14652,7 @@
         <v>37</v>
       </c>
       <c r="X20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AC20" t="s">
         <v>227</v>
@@ -13492,7 +14672,7 @@
         <v>393</v>
       </c>
       <c r="X21" t="s">
-        <v>490</v>
+        <v>100</v>
       </c>
       <c r="AC21" t="s">
         <v>228</v>
@@ -13512,7 +14692,7 @@
         <v>77</v>
       </c>
       <c r="X22" t="s">
-        <v>102</v>
+        <v>490</v>
       </c>
     </row>
     <row r="23">
@@ -13529,7 +14709,7 @@
         <v>439</v>
       </c>
       <c r="X23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24">
@@ -13546,7 +14726,7 @@
         <v>38</v>
       </c>
       <c r="X24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25">
@@ -13563,7 +14743,7 @@
         <v>39</v>
       </c>
       <c r="X25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26">
@@ -13577,7 +14757,7 @@
         <v>283</v>
       </c>
       <c r="X26" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27">
@@ -13591,7 +14771,7 @@
         <v>267</v>
       </c>
       <c r="X27" t="s">
-        <v>328</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28">
@@ -13605,7 +14785,7 @@
         <v>284</v>
       </c>
       <c r="X28" t="s">
-        <v>107</v>
+        <v>328</v>
       </c>
     </row>
     <row r="29">
@@ -13619,7 +14799,7 @@
         <v>285</v>
       </c>
       <c r="X29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30">
@@ -13630,7 +14810,7 @@
         <v>208</v>
       </c>
       <c r="X30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31">
@@ -13641,7 +14821,7 @@
         <v>276</v>
       </c>
       <c r="X31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32">
@@ -13652,7 +14832,7 @@
         <v>286</v>
       </c>
       <c r="X32" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33">
@@ -13663,7 +14843,7 @@
         <v>261</v>
       </c>
       <c r="X33" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34">
@@ -13674,7 +14854,7 @@
         <v>331</v>
       </c>
       <c r="X34" t="s">
-        <v>202</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35">
@@ -13685,7 +14865,7 @@
         <v>309</v>
       </c>
       <c r="X35" t="s">
-        <v>113</v>
+        <v>202</v>
       </c>
     </row>
     <row r="36">
@@ -13696,7 +14876,7 @@
         <v>262</v>
       </c>
       <c r="X36" t="s">
-        <v>339</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37">
@@ -13707,7 +14887,7 @@
         <v>310</v>
       </c>
       <c r="X37" t="s">
-        <v>428</v>
+        <v>339</v>
       </c>
     </row>
     <row r="38">
@@ -13715,7 +14895,7 @@
         <v>268</v>
       </c>
       <c r="X38" t="s">
-        <v>394</v>
+        <v>428</v>
       </c>
     </row>
     <row r="39">
@@ -13723,7 +14903,7 @@
         <v>70</v>
       </c>
       <c r="X39" t="s">
-        <v>114</v>
+        <v>394</v>
       </c>
     </row>
     <row r="40">
@@ -13731,7 +14911,7 @@
         <v>204</v>
       </c>
       <c r="X40" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="41">
@@ -13739,7 +14919,7 @@
         <v>290</v>
       </c>
       <c r="X41" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42">
@@ -13747,7 +14927,7 @@
         <v>301</v>
       </c>
       <c r="X42" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="43">
@@ -13755,7 +14935,7 @@
         <v>302</v>
       </c>
       <c r="X43" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="44">
@@ -13763,7 +14943,7 @@
         <v>344</v>
       </c>
       <c r="X44" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="45">
@@ -13771,7 +14951,7 @@
         <v>343</v>
       </c>
       <c r="X45" t="s">
-        <v>441</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46">
@@ -13779,7 +14959,7 @@
         <v>203</v>
       </c>
       <c r="X46" t="s">
-        <v>205</v>
+        <v>441</v>
       </c>
     </row>
     <row r="47">
@@ -13787,7 +14967,7 @@
         <v>303</v>
       </c>
       <c r="X47" t="s">
-        <v>69</v>
+        <v>205</v>
       </c>
     </row>
     <row r="48">
@@ -13795,7 +14975,7 @@
         <v>340</v>
       </c>
       <c r="X48" t="s">
-        <v>120</v>
+        <v>69</v>
       </c>
     </row>
     <row r="49">
@@ -13803,7 +14983,7 @@
         <v>369</v>
       </c>
       <c r="X49" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="50">
@@ -13811,7 +14991,7 @@
         <v>304</v>
       </c>
       <c r="X50" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="51">
@@ -13819,7 +14999,7 @@
         <v>357</v>
       </c>
       <c r="X51" t="s">
-        <v>491</v>
+        <v>122</v>
       </c>
     </row>
     <row r="52">
@@ -13827,7 +15007,7 @@
         <v>332</v>
       </c>
       <c r="X52" t="s">
-        <v>472</v>
+        <v>491</v>
       </c>
     </row>
     <row r="53">
@@ -13835,7 +15015,7 @@
         <v>269</v>
       </c>
       <c r="X53" t="s">
-        <v>123</v>
+        <v>472</v>
       </c>
     </row>
     <row r="54">
@@ -13843,7 +15023,7 @@
         <v>293</v>
       </c>
       <c r="X54" t="s">
-        <v>347</v>
+        <v>123</v>
       </c>
     </row>
     <row r="55">
@@ -13851,7 +15031,7 @@
         <v>294</v>
       </c>
       <c r="X55" t="s">
-        <v>465</v>
+        <v>347</v>
       </c>
     </row>
     <row r="56">
@@ -13859,7 +15039,7 @@
         <v>295</v>
       </c>
       <c r="X56" t="s">
-        <v>124</v>
+        <v>465</v>
       </c>
     </row>
     <row r="57">
@@ -13867,7 +15047,7 @@
         <v>305</v>
       </c>
       <c r="X57" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="58">
@@ -13875,7 +15055,7 @@
         <v>314</v>
       </c>
       <c r="X58" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="59">
@@ -13883,7 +15063,7 @@
         <v>338</v>
       </c>
       <c r="X59" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="60">
@@ -13891,7 +15071,7 @@
         <v>311</v>
       </c>
       <c r="X60" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="61">
@@ -13899,7 +15079,7 @@
         <v>312</v>
       </c>
       <c r="X61" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="62">
@@ -13907,7 +15087,7 @@
         <v>370</v>
       </c>
       <c r="X62" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="63">
@@ -13915,7 +15095,7 @@
         <v>371</v>
       </c>
       <c r="X63" t="s">
-        <v>437</v>
+        <v>130</v>
       </c>
     </row>
     <row r="64">
@@ -13923,7 +15103,7 @@
         <v>346</v>
       </c>
       <c r="X64" t="s">
-        <v>482</v>
+        <v>437</v>
       </c>
     </row>
     <row r="65">
@@ -13931,7 +15111,7 @@
         <v>315</v>
       </c>
       <c r="X65" t="s">
-        <v>206</v>
+        <v>482</v>
       </c>
     </row>
     <row r="66">
@@ -13939,7 +15119,7 @@
         <v>270</v>
       </c>
       <c r="X66" t="s">
-        <v>390</v>
+        <v>206</v>
       </c>
     </row>
     <row r="67">
@@ -13947,7 +15127,7 @@
         <v>354</v>
       </c>
       <c r="X67" t="s">
-        <v>442</v>
+        <v>390</v>
       </c>
     </row>
     <row r="68">
@@ -13955,7 +15135,7 @@
         <v>316</v>
       </c>
       <c r="X68" t="s">
-        <v>131</v>
+        <v>442</v>
       </c>
     </row>
     <row r="69">
@@ -13963,7 +15143,7 @@
         <v>409</v>
       </c>
       <c r="X69" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="70">
@@ -13971,7 +15151,7 @@
         <v>306</v>
       </c>
       <c r="X70" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="71">
@@ -13979,7 +15159,7 @@
         <v>410</v>
       </c>
       <c r="X71" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="72">
@@ -13987,7 +15167,7 @@
         <v>263</v>
       </c>
       <c r="X72" t="s">
-        <v>189</v>
+        <v>134</v>
       </c>
     </row>
     <row r="73">
@@ -13995,7 +15175,7 @@
         <v>345</v>
       </c>
       <c r="X73" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="74">
@@ -14003,7 +15183,7 @@
         <v>281</v>
       </c>
       <c r="X74" t="s">
-        <v>453</v>
+        <v>190</v>
       </c>
     </row>
     <row r="75">
@@ -14011,7 +15191,7 @@
         <v>287</v>
       </c>
       <c r="X75" t="s">
-        <v>476</v>
+        <v>453</v>
       </c>
     </row>
     <row r="76">
@@ -14019,7 +15199,7 @@
         <v>292</v>
       </c>
       <c r="X76" t="s">
-        <v>135</v>
+        <v>476</v>
       </c>
     </row>
     <row r="77">
@@ -14027,7 +15207,7 @@
         <v>416</v>
       </c>
       <c r="X77" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="78">
@@ -14035,7 +15215,7 @@
         <v>333</v>
       </c>
       <c r="X78" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="79">
@@ -14043,7 +15223,7 @@
         <v>271</v>
       </c>
       <c r="X79" t="s">
-        <v>503</v>
+        <v>137</v>
       </c>
     </row>
     <row r="80">
@@ -14051,7 +15231,7 @@
         <v>282</v>
       </c>
       <c r="X80" t="s">
-        <v>138</v>
+        <v>503</v>
       </c>
     </row>
     <row r="81">
@@ -14059,7 +15239,7 @@
         <v>288</v>
       </c>
       <c r="X81" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="82">
@@ -14067,7 +15247,7 @@
         <v>277</v>
       </c>
       <c r="X82" t="s">
-        <v>191</v>
+        <v>139</v>
       </c>
     </row>
     <row r="83">
@@ -14075,7 +15255,7 @@
         <v>272</v>
       </c>
       <c r="X83" t="s">
-        <v>492</v>
+        <v>191</v>
       </c>
     </row>
     <row r="84">
@@ -14083,7 +15263,7 @@
         <v>289</v>
       </c>
       <c r="X84" t="s">
-        <v>192</v>
+        <v>492</v>
       </c>
     </row>
     <row r="85">
@@ -14091,7 +15271,7 @@
         <v>273</v>
       </c>
       <c r="X85" t="s">
-        <v>452</v>
+        <v>192</v>
       </c>
     </row>
     <row r="86">
@@ -14099,7 +15279,7 @@
         <v>274</v>
       </c>
       <c r="X86" t="s">
-        <v>193</v>
+        <v>452</v>
       </c>
     </row>
     <row r="87">
@@ -14107,7 +15287,7 @@
         <v>307</v>
       </c>
       <c r="X87" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="88">
@@ -14115,7 +15295,7 @@
         <v>313</v>
       </c>
       <c r="X88" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
     </row>
     <row r="89">
@@ -14123,7 +15303,7 @@
         <v>296</v>
       </c>
       <c r="X89" t="s">
-        <v>140</v>
+        <v>207</v>
       </c>
     </row>
     <row r="90">
@@ -14131,7 +15311,7 @@
         <v>341</v>
       </c>
       <c r="X90" t="s">
-        <v>195</v>
+        <v>140</v>
       </c>
     </row>
     <row r="91">
@@ -14139,7 +15319,7 @@
         <v>278</v>
       </c>
       <c r="X91" t="s">
-        <v>429</v>
+        <v>195</v>
       </c>
     </row>
     <row r="92">
@@ -14147,161 +15327,166 @@
         <v>279</v>
       </c>
       <c r="X92" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
     </row>
     <row r="93">
       <c r="X93" t="s">
-        <v>196</v>
+        <v>436</v>
       </c>
     </row>
     <row r="94">
       <c r="X94" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="95">
       <c r="X95" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="96">
       <c r="X96" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="97">
       <c r="X97" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
     </row>
     <row r="98">
       <c r="X98" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
     </row>
     <row r="99">
       <c r="X99" t="s">
-        <v>141</v>
+        <v>200</v>
       </c>
     </row>
     <row r="100">
       <c r="X100" t="s">
-        <v>384</v>
+        <v>141</v>
       </c>
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>142</v>
+        <v>384</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>443</v>
+        <v>154</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>155</v>
+        <v>443</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>40</v>
+        <v>158</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>159</v>
+        <v>40</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="123">
       <c r="X123" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="X124" t="s">
         <v>162</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro.xlsx
@@ -19,14 +19,14 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="base">'#system'!$E$2:$E$38</definedName>
-    <definedName name="csv">'#system'!$F$2:$F$5</definedName>
+    <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$G$2:$G$92</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$4</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
-    <definedName name="io">'#system'!$K$2:$K$25</definedName>
+    <definedName name="io">'#system'!$K$2:$K$28</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
     <definedName name="mail">'#system'!$O$2:$O$2</definedName>
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$124</definedName>
+    <definedName name="web">'#system'!$X$2:$X$125</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10217" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10732" uniqueCount="515">
   <si>
     <t>description</t>
   </si>
@@ -1595,6 +1595,21 @@
   </si>
   <si>
     <t>assertElementsPresent(prefix)</t>
+  </si>
+  <si>
+    <t>toExcel(csvFile,excel,worksheet,startCell)</t>
+  </si>
+  <si>
+    <t>copyFilesByRegex(sourceDir,regex,target)</t>
+  </si>
+  <si>
+    <t>deleteFilesByRegex(sourceDir,regex)</t>
+  </si>
+  <si>
+    <t>moveFilesByRegex(sourceDir,regex,target)</t>
+  </si>
+  <si>
+    <t>saveValues(var,locator)</t>
   </si>
 </sst>
 </file>
@@ -1602,7 +1617,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="325" x14ac:knownFonts="1">
+  <fonts count="341" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3650,8 +3665,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="543">
+  <fills count="570">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6724,8 +6840,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="562">
+  <borders count="590">
     <border>
       <left/>
       <right/>
@@ -12388,13 +12657,295 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="336">
+  <cellXfs count="352">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -13360,52 +13911,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="308" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="309" fillId="518" borderId="541" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="541" fillId="518" fontId="309" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="310" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="311" fillId="521" borderId="545" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="545" fillId="521" fontId="311" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="312" fillId="524" borderId="549" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="549" fillId="524" fontId="312" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="313" fillId="527" borderId="549" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="549" fillId="527" fontId="313" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="314" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="314" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="315" fillId="530" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="530" fontId="315" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="316" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="316" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="317" fillId="533" borderId="553" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="553" fillId="533" fontId="317" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="318" fillId="536" borderId="557" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="557" fillId="536" fontId="318" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="319" fillId="539" borderId="561" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="561" fillId="539" fontId="319" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="320" fillId="539" borderId="561" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="561" fillId="539" fontId="320" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="321" fillId="527" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="527" fontId="321" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="322" fillId="542" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="542" fontId="322" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="323" fillId="527" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="527" fontId="323" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="324" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="324" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="325" fillId="545" borderId="569" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="326" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="327" fillId="548" borderId="573" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="328" fillId="551" borderId="577" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="329" fillId="554" borderId="577" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="331" fillId="557" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="332" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="333" fillId="560" borderId="581" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="334" fillId="563" borderId="585" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="335" fillId="566" borderId="589" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="336" fillId="566" borderId="589" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="337" fillId="554" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="338" fillId="569" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="339" fillId="554" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -13703,7 +14302,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD124"/>
+  <dimension ref="A1:AD125"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -14131,6 +14730,9 @@
       <c r="E6" t="s">
         <v>20</v>
       </c>
+      <c r="F6" t="s">
+        <v>510</v>
+      </c>
       <c r="G6" t="s">
         <v>389</v>
       </c>
@@ -14253,7 +14855,7 @@
         <v>329</v>
       </c>
       <c r="K8" t="s">
-        <v>72</v>
+        <v>511</v>
       </c>
       <c r="M8" t="s">
         <v>27</v>
@@ -14306,7 +14908,7 @@
         <v>330</v>
       </c>
       <c r="K9" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="M9" t="s">
         <v>28</v>
@@ -14347,7 +14949,7 @@
         <v>451</v>
       </c>
       <c r="K10" t="s">
-        <v>391</v>
+        <v>31</v>
       </c>
       <c r="M10" t="s">
         <v>29</v>
@@ -14385,7 +14987,7 @@
         <v>323</v>
       </c>
       <c r="K11" t="s">
-        <v>13</v>
+        <v>512</v>
       </c>
       <c r="M11" t="s">
         <v>480</v>
@@ -14420,7 +15022,7 @@
         <v>324</v>
       </c>
       <c r="K12" t="s">
-        <v>35</v>
+        <v>391</v>
       </c>
       <c r="M12" t="s">
         <v>440</v>
@@ -14455,7 +15057,7 @@
         <v>325</v>
       </c>
       <c r="K13" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M13" t="s">
         <v>481</v>
@@ -14490,7 +15092,7 @@
         <v>326</v>
       </c>
       <c r="K14" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="M14" t="s">
         <v>32</v>
@@ -14522,7 +15124,7 @@
         <v>266</v>
       </c>
       <c r="K15" t="s">
-        <v>455</v>
+        <v>513</v>
       </c>
       <c r="M15" t="s">
         <v>33</v>
@@ -14554,7 +15156,7 @@
         <v>319</v>
       </c>
       <c r="K16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="M16" t="s">
         <v>36</v>
@@ -14586,7 +15188,7 @@
         <v>81</v>
       </c>
       <c r="K17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="X17" t="s">
         <v>509</v>
@@ -14609,7 +15211,7 @@
         <v>82</v>
       </c>
       <c r="K18" t="s">
-        <v>381</v>
+        <v>455</v>
       </c>
       <c r="X18" t="s">
         <v>97</v>
@@ -14629,7 +15231,7 @@
         <v>297</v>
       </c>
       <c r="K19" t="s">
-        <v>479</v>
+        <v>75</v>
       </c>
       <c r="X19" t="s">
         <v>98</v>
@@ -14649,7 +15251,7 @@
         <v>298</v>
       </c>
       <c r="K20" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="X20" t="s">
         <v>99</v>
@@ -14669,7 +15271,7 @@
         <v>299</v>
       </c>
       <c r="K21" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="X21" t="s">
         <v>100</v>
@@ -14689,7 +15291,7 @@
         <v>300</v>
       </c>
       <c r="K22" t="s">
-        <v>77</v>
+        <v>479</v>
       </c>
       <c r="X22" t="s">
         <v>490</v>
@@ -14706,7 +15308,7 @@
         <v>291</v>
       </c>
       <c r="K23" t="s">
-        <v>439</v>
+        <v>37</v>
       </c>
       <c r="X23" t="s">
         <v>102</v>
@@ -14723,7 +15325,7 @@
         <v>280</v>
       </c>
       <c r="K24" t="s">
-        <v>38</v>
+        <v>393</v>
       </c>
       <c r="X24" t="s">
         <v>103</v>
@@ -14740,7 +15342,7 @@
         <v>68</v>
       </c>
       <c r="K25" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="X25" t="s">
         <v>104</v>
@@ -14756,6 +15358,9 @@
       <c r="G26" t="s">
         <v>283</v>
       </c>
+      <c r="K26" t="s">
+        <v>439</v>
+      </c>
       <c r="X26" t="s">
         <v>105</v>
       </c>
@@ -14770,6 +15375,9 @@
       <c r="G27" t="s">
         <v>267</v>
       </c>
+      <c r="K27" t="s">
+        <v>38</v>
+      </c>
       <c r="X27" t="s">
         <v>106</v>
       </c>
@@ -14784,6 +15392,9 @@
       <c r="G28" t="s">
         <v>284</v>
       </c>
+      <c r="K28" t="s">
+        <v>39</v>
+      </c>
       <c r="X28" t="s">
         <v>328</v>
       </c>
@@ -15367,126 +15978,131 @@
     </row>
     <row r="100">
       <c r="X100" t="s">
-        <v>141</v>
+        <v>514</v>
       </c>
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>384</v>
+        <v>141</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>142</v>
+        <v>384</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>443</v>
+        <v>154</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>155</v>
+        <v>443</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>40</v>
+        <v>158</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>159</v>
+        <v>40</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="123">
       <c r="X123" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="124">
       <c r="X124" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="X125" t="s">
         <v>162</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro.xlsx
@@ -22,7 +22,7 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$92</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$94</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$4</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10732" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11249" uniqueCount="517">
   <si>
     <t>description</t>
   </si>
@@ -1610,6 +1610,12 @@
   </si>
   <si>
     <t>saveValues(var,locator)</t>
+  </si>
+  <si>
+    <t>clickElementOffset(name,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>saveTextByLocator(var,locator)</t>
   </si>
 </sst>
 </file>
@@ -1617,7 +1623,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="341" x14ac:knownFonts="1">
+  <fonts count="357" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3766,8 +3772,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="570">
+  <fills count="597">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6993,8 +7100,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="590">
+  <borders count="618">
     <border>
       <left/>
       <right/>
@@ -7016,6 +7276,288 @@
         <color theme="2" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -12945,7 +13487,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="352">
+  <cellXfs count="368">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -13959,52 +14501,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="324" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="325" fillId="545" borderId="569" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="569" fillId="545" fontId="325" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="326" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="326" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="327" fillId="548" borderId="573" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="573" fillId="548" fontId="327" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="328" fillId="551" borderId="577" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="577" fillId="551" fontId="328" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="329" fillId="554" borderId="577" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="577" fillId="554" fontId="329" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="330" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="331" fillId="557" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="557" fontId="331" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="332" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="332" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="333" fillId="560" borderId="581" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="581" fillId="560" fontId="333" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="334" fillId="563" borderId="585" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="585" fillId="563" fontId="334" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="335" fillId="566" borderId="589" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="589" fillId="566" fontId="335" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="336" fillId="566" borderId="589" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="589" fillId="566" fontId="336" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="337" fillId="554" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="554" fontId="337" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="338" fillId="569" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="569" fontId="338" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="339" fillId="554" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="554" fontId="339" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="340" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="341" fillId="572" borderId="597" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="342" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="343" fillId="575" borderId="601" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="344" fillId="578" borderId="605" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="345" fillId="581" borderId="605" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="346" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="347" fillId="584" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="348" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="349" fillId="587" borderId="609" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="350" fillId="590" borderId="613" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="351" fillId="593" borderId="617" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="352" fillId="593" borderId="617" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="353" fillId="581" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="354" fillId="596" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="355" fillId="581" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="356" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -15451,7 +16041,7 @@
         <v>59</v>
       </c>
       <c r="G33" t="s">
-        <v>261</v>
+        <v>515</v>
       </c>
       <c r="X33" t="s">
         <v>111</v>
@@ -15462,7 +16052,7 @@
         <v>60</v>
       </c>
       <c r="G34" t="s">
-        <v>331</v>
+        <v>261</v>
       </c>
       <c r="X34" t="s">
         <v>112</v>
@@ -15473,7 +16063,7 @@
         <v>61</v>
       </c>
       <c r="G35" t="s">
-        <v>309</v>
+        <v>331</v>
       </c>
       <c r="X35" t="s">
         <v>202</v>
@@ -15484,7 +16074,7 @@
         <v>62</v>
       </c>
       <c r="G36" t="s">
-        <v>262</v>
+        <v>309</v>
       </c>
       <c r="X36" t="s">
         <v>113</v>
@@ -15495,7 +16085,7 @@
         <v>63</v>
       </c>
       <c r="G37" t="s">
-        <v>310</v>
+        <v>262</v>
       </c>
       <c r="X37" t="s">
         <v>339</v>
@@ -15503,7 +16093,7 @@
     </row>
     <row r="38">
       <c r="G38" t="s">
-        <v>268</v>
+        <v>310</v>
       </c>
       <c r="X38" t="s">
         <v>428</v>
@@ -15511,7 +16101,7 @@
     </row>
     <row r="39">
       <c r="G39" t="s">
-        <v>70</v>
+        <v>268</v>
       </c>
       <c r="X39" t="s">
         <v>394</v>
@@ -15519,7 +16109,7 @@
     </row>
     <row r="40">
       <c r="G40" t="s">
-        <v>204</v>
+        <v>70</v>
       </c>
       <c r="X40" t="s">
         <v>114</v>
@@ -15527,7 +16117,7 @@
     </row>
     <row r="41">
       <c r="G41" t="s">
-        <v>290</v>
+        <v>204</v>
       </c>
       <c r="X41" t="s">
         <v>115</v>
@@ -15535,7 +16125,7 @@
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="X42" t="s">
         <v>116</v>
@@ -15543,7 +16133,7 @@
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="X43" t="s">
         <v>117</v>
@@ -15551,7 +16141,7 @@
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>344</v>
+        <v>302</v>
       </c>
       <c r="X44" t="s">
         <v>118</v>
@@ -15559,7 +16149,7 @@
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="X45" t="s">
         <v>119</v>
@@ -15567,7 +16157,7 @@
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>203</v>
+        <v>343</v>
       </c>
       <c r="X46" t="s">
         <v>441</v>
@@ -15575,7 +16165,7 @@
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>303</v>
+        <v>203</v>
       </c>
       <c r="X47" t="s">
         <v>205</v>
@@ -15583,7 +16173,7 @@
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>340</v>
+        <v>303</v>
       </c>
       <c r="X48" t="s">
         <v>69</v>
@@ -15591,7 +16181,7 @@
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>369</v>
+        <v>340</v>
       </c>
       <c r="X49" t="s">
         <v>120</v>
@@ -15599,7 +16189,7 @@
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>304</v>
+        <v>369</v>
       </c>
       <c r="X50" t="s">
         <v>121</v>
@@ -15607,7 +16197,7 @@
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>357</v>
+        <v>304</v>
       </c>
       <c r="X51" t="s">
         <v>122</v>
@@ -15615,7 +16205,7 @@
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>332</v>
+        <v>357</v>
       </c>
       <c r="X52" t="s">
         <v>491</v>
@@ -15623,7 +16213,7 @@
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>269</v>
+        <v>332</v>
       </c>
       <c r="X53" t="s">
         <v>472</v>
@@ -15631,7 +16221,7 @@
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
       <c r="X54" t="s">
         <v>123</v>
@@ -15639,7 +16229,7 @@
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="X55" t="s">
         <v>347</v>
@@ -15647,7 +16237,7 @@
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="X56" t="s">
         <v>465</v>
@@ -15655,7 +16245,7 @@
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="X57" t="s">
         <v>124</v>
@@ -15663,7 +16253,7 @@
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="X58" t="s">
         <v>125</v>
@@ -15671,7 +16261,7 @@
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>338</v>
+        <v>314</v>
       </c>
       <c r="X59" t="s">
         <v>126</v>
@@ -15679,7 +16269,7 @@
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>311</v>
+        <v>338</v>
       </c>
       <c r="X60" t="s">
         <v>127</v>
@@ -15687,7 +16277,7 @@
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="X61" t="s">
         <v>128</v>
@@ -15695,7 +16285,7 @@
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>370</v>
+        <v>312</v>
       </c>
       <c r="X62" t="s">
         <v>129</v>
@@ -15703,7 +16293,7 @@
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="X63" t="s">
         <v>130</v>
@@ -15711,7 +16301,7 @@
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>346</v>
+        <v>371</v>
       </c>
       <c r="X64" t="s">
         <v>437</v>
@@ -15719,7 +16309,7 @@
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>315</v>
+        <v>346</v>
       </c>
       <c r="X65" t="s">
         <v>482</v>
@@ -15727,7 +16317,7 @@
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>270</v>
+        <v>315</v>
       </c>
       <c r="X66" t="s">
         <v>206</v>
@@ -15735,7 +16325,7 @@
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>354</v>
+        <v>270</v>
       </c>
       <c r="X67" t="s">
         <v>390</v>
@@ -15743,7 +16333,7 @@
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>316</v>
+        <v>354</v>
       </c>
       <c r="X68" t="s">
         <v>442</v>
@@ -15751,7 +16341,7 @@
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>409</v>
+        <v>316</v>
       </c>
       <c r="X69" t="s">
         <v>131</v>
@@ -15759,7 +16349,7 @@
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>306</v>
+        <v>409</v>
       </c>
       <c r="X70" t="s">
         <v>132</v>
@@ -15767,7 +16357,7 @@
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>410</v>
+        <v>306</v>
       </c>
       <c r="X71" t="s">
         <v>133</v>
@@ -15775,7 +16365,7 @@
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>263</v>
+        <v>410</v>
       </c>
       <c r="X72" t="s">
         <v>134</v>
@@ -15783,7 +16373,7 @@
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>345</v>
+        <v>263</v>
       </c>
       <c r="X73" t="s">
         <v>189</v>
@@ -15791,7 +16381,7 @@
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>281</v>
+        <v>516</v>
       </c>
       <c r="X74" t="s">
         <v>190</v>
@@ -15799,7 +16389,7 @@
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>287</v>
+        <v>345</v>
       </c>
       <c r="X75" t="s">
         <v>453</v>
@@ -15807,7 +16397,7 @@
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="X76" t="s">
         <v>476</v>
@@ -15815,7 +16405,7 @@
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>416</v>
+        <v>287</v>
       </c>
       <c r="X77" t="s">
         <v>135</v>
@@ -15823,7 +16413,7 @@
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>333</v>
+        <v>292</v>
       </c>
       <c r="X78" t="s">
         <v>136</v>
@@ -15831,7 +16421,7 @@
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>271</v>
+        <v>416</v>
       </c>
       <c r="X79" t="s">
         <v>137</v>
@@ -15839,7 +16429,7 @@
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>282</v>
+        <v>333</v>
       </c>
       <c r="X80" t="s">
         <v>503</v>
@@ -15847,7 +16437,7 @@
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="X81" t="s">
         <v>138</v>
@@ -15855,7 +16445,7 @@
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="X82" t="s">
         <v>139</v>
@@ -15863,7 +16453,7 @@
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="X83" t="s">
         <v>191</v>
@@ -15871,7 +16461,7 @@
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="X84" t="s">
         <v>492</v>
@@ -15879,7 +16469,7 @@
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="X85" t="s">
         <v>192</v>
@@ -15887,7 +16477,7 @@
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="X86" t="s">
         <v>452</v>
@@ -15895,7 +16485,7 @@
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>307</v>
+        <v>273</v>
       </c>
       <c r="X87" t="s">
         <v>193</v>
@@ -15903,7 +16493,7 @@
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>313</v>
+        <v>274</v>
       </c>
       <c r="X88" t="s">
         <v>194</v>
@@ -15911,7 +16501,7 @@
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="X89" t="s">
         <v>207</v>
@@ -15919,7 +16509,7 @@
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>341</v>
+        <v>313</v>
       </c>
       <c r="X90" t="s">
         <v>140</v>
@@ -15927,7 +16517,7 @@
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>278</v>
+        <v>296</v>
       </c>
       <c r="X91" t="s">
         <v>195</v>
@@ -15935,18 +16525,24 @@
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>279</v>
+        <v>341</v>
       </c>
       <c r="X92" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="93">
+      <c r="G93" t="s">
+        <v>278</v>
+      </c>
       <c r="X93" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="94">
+      <c r="G94" t="s">
+        <v>279</v>
+      </c>
       <c r="X94" t="s">
         <v>196</v>
       </c>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro.xlsx
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$125</definedName>
+    <definedName name="web">'#system'!$X$2:$X$127</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11249" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11768" uniqueCount="519">
   <si>
     <t>description</t>
   </si>
@@ -1616,6 +1616,12 @@
   </si>
   <si>
     <t>saveTextByLocator(var,locator)</t>
+  </si>
+  <si>
+    <t>scrollElement(locator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>scrollPage(xOffset,yOffset)</t>
   </si>
 </sst>
 </file>
@@ -1623,7 +1629,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="357" x14ac:knownFonts="1">
+  <fonts count="373" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3873,8 +3879,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="597">
+  <fills count="627">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7253,8 +7360,178 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="618">
+  <borders count="646">
     <border>
       <left/>
       <right/>
@@ -7276,6 +7553,288 @@
         <color theme="2" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -13487,7 +14046,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="368">
+  <cellXfs count="384">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -14549,52 +15108,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="340" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="341" fillId="572" borderId="597" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="597" fillId="572" fontId="341" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="342" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="342" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="343" fillId="575" borderId="601" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="601" fillId="575" fontId="343" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="344" fillId="578" borderId="605" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="605" fillId="578" fontId="344" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="345" fillId="581" borderId="605" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="605" fillId="581" fontId="345" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="346" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="346" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="347" fillId="584" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="584" fontId="347" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="348" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="348" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="349" fillId="587" borderId="609" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="609" fillId="587" fontId="349" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="350" fillId="590" borderId="613" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="613" fillId="590" fontId="350" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="351" fillId="593" borderId="617" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="617" fillId="593" fontId="351" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="352" fillId="593" borderId="617" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="617" fillId="593" fontId="352" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="353" fillId="581" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="581" fontId="353" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="354" fillId="596" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="596" fontId="354" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="355" fillId="581" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="581" fontId="355" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="356" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="356" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="357" fillId="599" borderId="625" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="358" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="359" fillId="602" borderId="629" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="360" fillId="605" borderId="633" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="361" fillId="608" borderId="633" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="362" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="363" fillId="611" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="364" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="365" fillId="614" borderId="637" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="366" fillId="617" borderId="641" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="367" fillId="620" borderId="645" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="368" fillId="620" borderId="645" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="369" fillId="608" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="370" fillId="623" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="371" fillId="608" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="372" fillId="626" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -14892,7 +15499,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD125"/>
+  <dimension ref="A1:AD127"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -16579,126 +17186,136 @@
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>141</v>
+        <v>517</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>384</v>
+        <v>141</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>142</v>
+        <v>518</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>143</v>
+        <v>384</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>443</v>
+        <v>153</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>156</v>
+        <v>443</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>40</v>
+        <v>157</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="123">
       <c r="X123" t="s">
-        <v>160</v>
+        <v>40</v>
       </c>
     </row>
     <row r="124">
       <c r="X124" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="125">
       <c r="X125" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="X126" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="X127" t="s">
         <v>162</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro.xlsx
@@ -29,28 +29,29 @@
     <definedName name="io">'#system'!$K$2:$K$28</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
-    <definedName name="mail">'#system'!$O$2:$O$2</definedName>
+    <definedName name="mail">'#system'!$P$2:$P$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$P$2:$P$16</definedName>
-    <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
-    <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
-    <definedName name="redis">'#system'!$S$2:$S$10</definedName>
-    <definedName name="sms">'#system'!$T$2:$T$2</definedName>
-    <definedName name="sound">'#system'!$U$2:$U$5</definedName>
-    <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
-    <definedName name="step">'#system'!$W$2:$W$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$127</definedName>
-    <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
-    <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
-    <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="xml">'#system'!$AC$2:$AC$21</definedName>
+    <definedName name="number">'#system'!$Q$2:$Q$16</definedName>
+    <definedName name="pdf">'#system'!$R$2:$R$16</definedName>
+    <definedName name="rdbms">'#system'!$S$2:$S$7</definedName>
+    <definedName name="redis">'#system'!$T$2:$T$10</definedName>
+    <definedName name="sms">'#system'!$U$2:$U$2</definedName>
+    <definedName name="sound">'#system'!$V$2:$V$5</definedName>
+    <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
+    <definedName name="step">'#system'!$X$2:$X$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$30</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$127</definedName>
+    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
+    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="macro">'#system'!$N$2:$N$4</definedName>
+    <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$7</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -65,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11768" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12295" uniqueCount="526">
   <si>
     <t>description</t>
   </si>
@@ -1622,6 +1623,27 @@
   </si>
   <si>
     <t>scrollPage(xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>localdb</t>
+  </si>
+  <si>
+    <t>cloneTable(var,source,target)</t>
+  </si>
+  <si>
+    <t>dropTables(var,tables)</t>
+  </si>
+  <si>
+    <t>exportCSV(sql,output)</t>
+  </si>
+  <si>
+    <t>importRecords(var,sourceDb,sql,table)</t>
+  </si>
+  <si>
+    <t>purge(var)</t>
+  </si>
+  <si>
+    <t>runSQLs(var,sqls)</t>
   </si>
 </sst>
 </file>
@@ -1629,7 +1651,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="373" x14ac:knownFonts="1">
+  <fonts count="389" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3980,8 +4002,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="627">
+  <fills count="657">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7530,8 +7653,178 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="646">
+  <borders count="674">
     <border>
       <left/>
       <right/>
@@ -7553,6 +7846,288 @@
         <color theme="2" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -14046,7 +14621,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="384">
+  <cellXfs count="400">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -15156,52 +15731,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="356" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="357" fillId="599" borderId="625" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="625" fillId="599" fontId="357" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="358" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="358" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="359" fillId="602" borderId="629" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="629" fillId="602" fontId="359" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="360" fillId="605" borderId="633" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="633" fillId="605" fontId="360" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="361" fillId="608" borderId="633" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="633" fillId="608" fontId="361" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="362" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="362" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="363" fillId="611" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="611" fontId="363" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="364" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="364" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="365" fillId="614" borderId="637" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="637" fillId="614" fontId="365" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="366" fillId="617" borderId="641" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="641" fillId="617" fontId="366" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="367" fillId="620" borderId="645" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="645" fillId="620" fontId="367" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="368" fillId="620" borderId="645" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="645" fillId="620" fontId="368" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="369" fillId="608" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="608" fontId="369" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="370" fillId="623" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="623" fontId="370" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="371" fillId="608" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="608" fontId="371" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="372" fillId="626" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="626" fontId="372" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="373" fillId="629" borderId="653" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="374" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="375" fillId="632" borderId="657" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="376" fillId="635" borderId="661" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="377" fillId="638" borderId="661" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="378" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="379" fillId="641" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="380" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="381" fillId="644" borderId="665" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="382" fillId="647" borderId="669" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="383" fillId="650" borderId="673" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="384" fillId="650" borderId="673" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="385" fillId="638" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="386" fillId="653" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="387" fillId="638" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="388" fillId="656" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -15499,7 +16122,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD127"/>
+  <dimension ref="A1:AE127"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -15549,51 +16172,54 @@
         <v>17</v>
       </c>
       <c r="N1" t="s">
+        <v>519</v>
+      </c>
+      <c r="O1" t="s">
         <v>246</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>188</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>230</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>45</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>399</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>411</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>412</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>358</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>395</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>46</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>47</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>48</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>49</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>413</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>218</v>
       </c>
     </row>
@@ -15638,51 +16264,54 @@
         <v>417</v>
       </c>
       <c r="N2" t="s">
+        <v>520</v>
+      </c>
+      <c r="O2" t="s">
         <v>487</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>418</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>419</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>244</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>209</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>400</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>423</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>424</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>382</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>396</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>89</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>163</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>168</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>175</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>430</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>498</v>
       </c>
     </row>
@@ -15727,45 +16356,48 @@
         <v>78</v>
       </c>
       <c r="N3" t="s">
+        <v>521</v>
+      </c>
+      <c r="O3" t="s">
         <v>488</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>420</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>231</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>210</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>401</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>425</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>383</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>397</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>90</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>164</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>169</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>365</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>176</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>219</v>
       </c>
     </row>
@@ -15807,45 +16439,48 @@
         <v>18</v>
       </c>
       <c r="N4" t="s">
+        <v>522</v>
+      </c>
+      <c r="O4" t="s">
         <v>489</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>232</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>211</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>402</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>426</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>359</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>398</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>355</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>165</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>170</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>176</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>431</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>220</v>
       </c>
     </row>
@@ -15880,40 +16515,43 @@
       <c r="M5" t="s">
         <v>79</v>
       </c>
-      <c r="P5" t="s">
+      <c r="N5" t="s">
+        <v>523</v>
+      </c>
+      <c r="Q5" t="s">
         <v>23</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>233</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>212</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>403</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>427</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>360</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>356</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>166</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>171</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>177</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>432</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>221</v>
       </c>
     </row>
@@ -15945,37 +16583,40 @@
       <c r="M6" t="s">
         <v>22</v>
       </c>
-      <c r="P6" t="s">
+      <c r="N6" t="s">
+        <v>524</v>
+      </c>
+      <c r="Q6" t="s">
         <v>24</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>234</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>392</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>404</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>362</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>91</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>444</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>172</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>178</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>433</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>222</v>
       </c>
     </row>
@@ -16001,37 +16642,40 @@
       <c r="M7" t="s">
         <v>317</v>
       </c>
-      <c r="P7" t="s">
+      <c r="N7" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q7" t="s">
         <v>26</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>235</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>422</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>405</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>361</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>92</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>445</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>173</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>179</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>434</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>223</v>
       </c>
     </row>
@@ -16057,34 +16701,34 @@
       <c r="M8" t="s">
         <v>27</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>83</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>236</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>406</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>363</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>93</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>167</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>174</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>180</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>435</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>224</v>
       </c>
     </row>
@@ -16110,25 +16754,25 @@
       <c r="M9" t="s">
         <v>28</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>84</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>237</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>407</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>364</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>201</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>181</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>225</v>
       </c>
     </row>
@@ -16151,22 +16795,22 @@
       <c r="M10" t="s">
         <v>29</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>421</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>238</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
         <v>408</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>258</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>182</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>483</v>
       </c>
     </row>
@@ -16189,19 +16833,19 @@
       <c r="M11" t="s">
         <v>480</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>85</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>239</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>259</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
         <v>260</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
         <v>499</v>
       </c>
     </row>
@@ -16224,19 +16868,19 @@
       <c r="M12" t="s">
         <v>440</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>34</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>240</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>94</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
         <v>183</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
         <v>500</v>
       </c>
     </row>
@@ -16259,25 +16903,25 @@
       <c r="M13" t="s">
         <v>481</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>86</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>245</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>327</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
         <v>184</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AD13" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>246</v>
+        <v>519</v>
       </c>
       <c r="E14" t="s">
         <v>30</v>
@@ -16294,25 +16938,25 @@
       <c r="M14" t="s">
         <v>32</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>87</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>241</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>95</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AB14" t="s">
         <v>185</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AD14" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>188</v>
+        <v>246</v>
       </c>
       <c r="E15" t="s">
         <v>51</v>
@@ -16326,25 +16970,25 @@
       <c r="M15" t="s">
         <v>33</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>507</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>242</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>96</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AB15" t="s">
         <v>186</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>188</v>
       </c>
       <c r="E16" t="s">
         <v>386</v>
@@ -16358,25 +17002,25 @@
       <c r="M16" t="s">
         <v>36</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>508</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>243</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Y16" t="s">
         <v>67</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AB16" t="s">
         <v>187</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AD16" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>230</v>
+        <v>44</v>
       </c>
       <c r="E17" t="s">
         <v>387</v>
@@ -16387,19 +17031,19 @@
       <c r="K17" t="s">
         <v>74</v>
       </c>
-      <c r="X17" t="s">
+      <c r="Y17" t="s">
         <v>509</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AB17" t="s">
         <v>470</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AD17" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>230</v>
       </c>
       <c r="E18" t="s">
         <v>414</v>
@@ -16410,16 +17054,16 @@
       <c r="K18" t="s">
         <v>455</v>
       </c>
-      <c r="X18" t="s">
+      <c r="Y18" t="s">
         <v>97</v>
       </c>
-      <c r="AC18" t="s">
+      <c r="AD18" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>399</v>
+        <v>45</v>
       </c>
       <c r="E19" t="s">
         <v>52</v>
@@ -16430,16 +17074,16 @@
       <c r="K19" t="s">
         <v>75</v>
       </c>
-      <c r="X19" t="s">
+      <c r="Y19" t="s">
         <v>98</v>
       </c>
-      <c r="AC19" t="s">
+      <c r="AD19" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="E20" t="s">
         <v>53</v>
@@ -16450,16 +17094,16 @@
       <c r="K20" t="s">
         <v>76</v>
       </c>
-      <c r="X20" t="s">
+      <c r="Y20" t="s">
         <v>99</v>
       </c>
-      <c r="AC20" t="s">
+      <c r="AD20" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E21" t="s">
         <v>54</v>
@@ -16470,16 +17114,16 @@
       <c r="K21" t="s">
         <v>381</v>
       </c>
-      <c r="X21" t="s">
+      <c r="Y21" t="s">
         <v>100</v>
       </c>
-      <c r="AC21" t="s">
+      <c r="AD21" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>358</v>
+        <v>412</v>
       </c>
       <c r="E22" t="s">
         <v>322</v>
@@ -16490,13 +17134,13 @@
       <c r="K22" t="s">
         <v>479</v>
       </c>
-      <c r="X22" t="s">
+      <c r="Y22" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>395</v>
+        <v>358</v>
       </c>
       <c r="E23" t="s">
         <v>55</v>
@@ -16507,13 +17151,13 @@
       <c r="K23" t="s">
         <v>37</v>
       </c>
-      <c r="X23" t="s">
+      <c r="Y23" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>395</v>
       </c>
       <c r="E24" t="s">
         <v>448</v>
@@ -16524,13 +17168,13 @@
       <c r="K24" t="s">
         <v>393</v>
       </c>
-      <c r="X24" t="s">
+      <c r="Y24" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E25" t="s">
         <v>216</v>
@@ -16541,13 +17185,13 @@
       <c r="K25" t="s">
         <v>77</v>
       </c>
-      <c r="X25" t="s">
+      <c r="Y25" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E26" t="s">
         <v>217</v>
@@ -16558,13 +17202,13 @@
       <c r="K26" t="s">
         <v>439</v>
       </c>
-      <c r="X26" t="s">
+      <c r="Y26" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E27" t="s">
         <v>477</v>
@@ -16575,13 +17219,13 @@
       <c r="K27" t="s">
         <v>38</v>
       </c>
-      <c r="X27" t="s">
+      <c r="Y27" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>413</v>
+        <v>49</v>
       </c>
       <c r="E28" t="s">
         <v>478</v>
@@ -16592,13 +17236,13 @@
       <c r="K28" t="s">
         <v>39</v>
       </c>
-      <c r="X28" t="s">
+      <c r="Y28" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>218</v>
+        <v>413</v>
       </c>
       <c r="E29" t="s">
         <v>415</v>
@@ -16606,18 +17250,21 @@
       <c r="G29" t="s">
         <v>285</v>
       </c>
-      <c r="X29" t="s">
+      <c r="Y29" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="s">
+        <v>218</v>
+      </c>
       <c r="E30" t="s">
         <v>56</v>
       </c>
       <c r="G30" t="s">
         <v>208</v>
       </c>
-      <c r="X30" t="s">
+      <c r="Y30" t="s">
         <v>108</v>
       </c>
     </row>
@@ -16628,7 +17275,7 @@
       <c r="G31" t="s">
         <v>276</v>
       </c>
-      <c r="X31" t="s">
+      <c r="Y31" t="s">
         <v>109</v>
       </c>
     </row>
@@ -16639,7 +17286,7 @@
       <c r="G32" t="s">
         <v>286</v>
       </c>
-      <c r="X32" t="s">
+      <c r="Y32" t="s">
         <v>110</v>
       </c>
     </row>
@@ -16650,7 +17297,7 @@
       <c r="G33" t="s">
         <v>515</v>
       </c>
-      <c r="X33" t="s">
+      <c r="Y33" t="s">
         <v>111</v>
       </c>
     </row>
@@ -16661,7 +17308,7 @@
       <c r="G34" t="s">
         <v>261</v>
       </c>
-      <c r="X34" t="s">
+      <c r="Y34" t="s">
         <v>112</v>
       </c>
     </row>
@@ -16672,7 +17319,7 @@
       <c r="G35" t="s">
         <v>331</v>
       </c>
-      <c r="X35" t="s">
+      <c r="Y35" t="s">
         <v>202</v>
       </c>
     </row>
@@ -16683,7 +17330,7 @@
       <c r="G36" t="s">
         <v>309</v>
       </c>
-      <c r="X36" t="s">
+      <c r="Y36" t="s">
         <v>113</v>
       </c>
     </row>
@@ -16694,7 +17341,7 @@
       <c r="G37" t="s">
         <v>262</v>
       </c>
-      <c r="X37" t="s">
+      <c r="Y37" t="s">
         <v>339</v>
       </c>
     </row>
@@ -16702,7 +17349,7 @@
       <c r="G38" t="s">
         <v>310</v>
       </c>
-      <c r="X38" t="s">
+      <c r="Y38" t="s">
         <v>428</v>
       </c>
     </row>
@@ -16710,7 +17357,7 @@
       <c r="G39" t="s">
         <v>268</v>
       </c>
-      <c r="X39" t="s">
+      <c r="Y39" t="s">
         <v>394</v>
       </c>
     </row>
@@ -16718,7 +17365,7 @@
       <c r="G40" t="s">
         <v>70</v>
       </c>
-      <c r="X40" t="s">
+      <c r="Y40" t="s">
         <v>114</v>
       </c>
     </row>
@@ -16726,7 +17373,7 @@
       <c r="G41" t="s">
         <v>204</v>
       </c>
-      <c r="X41" t="s">
+      <c r="Y41" t="s">
         <v>115</v>
       </c>
     </row>
@@ -16734,7 +17381,7 @@
       <c r="G42" t="s">
         <v>290</v>
       </c>
-      <c r="X42" t="s">
+      <c r="Y42" t="s">
         <v>116</v>
       </c>
     </row>
@@ -16742,7 +17389,7 @@
       <c r="G43" t="s">
         <v>301</v>
       </c>
-      <c r="X43" t="s">
+      <c r="Y43" t="s">
         <v>117</v>
       </c>
     </row>
@@ -16750,7 +17397,7 @@
       <c r="G44" t="s">
         <v>302</v>
       </c>
-      <c r="X44" t="s">
+      <c r="Y44" t="s">
         <v>118</v>
       </c>
     </row>
@@ -16758,7 +17405,7 @@
       <c r="G45" t="s">
         <v>344</v>
       </c>
-      <c r="X45" t="s">
+      <c r="Y45" t="s">
         <v>119</v>
       </c>
     </row>
@@ -16766,7 +17413,7 @@
       <c r="G46" t="s">
         <v>343</v>
       </c>
-      <c r="X46" t="s">
+      <c r="Y46" t="s">
         <v>441</v>
       </c>
     </row>
@@ -16774,7 +17421,7 @@
       <c r="G47" t="s">
         <v>203</v>
       </c>
-      <c r="X47" t="s">
+      <c r="Y47" t="s">
         <v>205</v>
       </c>
     </row>
@@ -16782,7 +17429,7 @@
       <c r="G48" t="s">
         <v>303</v>
       </c>
-      <c r="X48" t="s">
+      <c r="Y48" t="s">
         <v>69</v>
       </c>
     </row>
@@ -16790,7 +17437,7 @@
       <c r="G49" t="s">
         <v>340</v>
       </c>
-      <c r="X49" t="s">
+      <c r="Y49" t="s">
         <v>120</v>
       </c>
     </row>
@@ -16798,7 +17445,7 @@
       <c r="G50" t="s">
         <v>369</v>
       </c>
-      <c r="X50" t="s">
+      <c r="Y50" t="s">
         <v>121</v>
       </c>
     </row>
@@ -16806,7 +17453,7 @@
       <c r="G51" t="s">
         <v>304</v>
       </c>
-      <c r="X51" t="s">
+      <c r="Y51" t="s">
         <v>122</v>
       </c>
     </row>
@@ -16814,7 +17461,7 @@
       <c r="G52" t="s">
         <v>357</v>
       </c>
-      <c r="X52" t="s">
+      <c r="Y52" t="s">
         <v>491</v>
       </c>
     </row>
@@ -16822,7 +17469,7 @@
       <c r="G53" t="s">
         <v>332</v>
       </c>
-      <c r="X53" t="s">
+      <c r="Y53" t="s">
         <v>472</v>
       </c>
     </row>
@@ -16830,7 +17477,7 @@
       <c r="G54" t="s">
         <v>269</v>
       </c>
-      <c r="X54" t="s">
+      <c r="Y54" t="s">
         <v>123</v>
       </c>
     </row>
@@ -16838,7 +17485,7 @@
       <c r="G55" t="s">
         <v>293</v>
       </c>
-      <c r="X55" t="s">
+      <c r="Y55" t="s">
         <v>347</v>
       </c>
     </row>
@@ -16846,7 +17493,7 @@
       <c r="G56" t="s">
         <v>294</v>
       </c>
-      <c r="X56" t="s">
+      <c r="Y56" t="s">
         <v>465</v>
       </c>
     </row>
@@ -16854,7 +17501,7 @@
       <c r="G57" t="s">
         <v>295</v>
       </c>
-      <c r="X57" t="s">
+      <c r="Y57" t="s">
         <v>124</v>
       </c>
     </row>
@@ -16862,7 +17509,7 @@
       <c r="G58" t="s">
         <v>305</v>
       </c>
-      <c r="X58" t="s">
+      <c r="Y58" t="s">
         <v>125</v>
       </c>
     </row>
@@ -16870,7 +17517,7 @@
       <c r="G59" t="s">
         <v>314</v>
       </c>
-      <c r="X59" t="s">
+      <c r="Y59" t="s">
         <v>126</v>
       </c>
     </row>
@@ -16878,7 +17525,7 @@
       <c r="G60" t="s">
         <v>338</v>
       </c>
-      <c r="X60" t="s">
+      <c r="Y60" t="s">
         <v>127</v>
       </c>
     </row>
@@ -16886,7 +17533,7 @@
       <c r="G61" t="s">
         <v>311</v>
       </c>
-      <c r="X61" t="s">
+      <c r="Y61" t="s">
         <v>128</v>
       </c>
     </row>
@@ -16894,7 +17541,7 @@
       <c r="G62" t="s">
         <v>312</v>
       </c>
-      <c r="X62" t="s">
+      <c r="Y62" t="s">
         <v>129</v>
       </c>
     </row>
@@ -16902,7 +17549,7 @@
       <c r="G63" t="s">
         <v>370</v>
       </c>
-      <c r="X63" t="s">
+      <c r="Y63" t="s">
         <v>130</v>
       </c>
     </row>
@@ -16910,7 +17557,7 @@
       <c r="G64" t="s">
         <v>371</v>
       </c>
-      <c r="X64" t="s">
+      <c r="Y64" t="s">
         <v>437</v>
       </c>
     </row>
@@ -16918,7 +17565,7 @@
       <c r="G65" t="s">
         <v>346</v>
       </c>
-      <c r="X65" t="s">
+      <c r="Y65" t="s">
         <v>482</v>
       </c>
     </row>
@@ -16926,7 +17573,7 @@
       <c r="G66" t="s">
         <v>315</v>
       </c>
-      <c r="X66" t="s">
+      <c r="Y66" t="s">
         <v>206</v>
       </c>
     </row>
@@ -16934,7 +17581,7 @@
       <c r="G67" t="s">
         <v>270</v>
       </c>
-      <c r="X67" t="s">
+      <c r="Y67" t="s">
         <v>390</v>
       </c>
     </row>
@@ -16942,7 +17589,7 @@
       <c r="G68" t="s">
         <v>354</v>
       </c>
-      <c r="X68" t="s">
+      <c r="Y68" t="s">
         <v>442</v>
       </c>
     </row>
@@ -16950,7 +17597,7 @@
       <c r="G69" t="s">
         <v>316</v>
       </c>
-      <c r="X69" t="s">
+      <c r="Y69" t="s">
         <v>131</v>
       </c>
     </row>
@@ -16958,7 +17605,7 @@
       <c r="G70" t="s">
         <v>409</v>
       </c>
-      <c r="X70" t="s">
+      <c r="Y70" t="s">
         <v>132</v>
       </c>
     </row>
@@ -16966,7 +17613,7 @@
       <c r="G71" t="s">
         <v>306</v>
       </c>
-      <c r="X71" t="s">
+      <c r="Y71" t="s">
         <v>133</v>
       </c>
     </row>
@@ -16974,7 +17621,7 @@
       <c r="G72" t="s">
         <v>410</v>
       </c>
-      <c r="X72" t="s">
+      <c r="Y72" t="s">
         <v>134</v>
       </c>
     </row>
@@ -16982,7 +17629,7 @@
       <c r="G73" t="s">
         <v>263</v>
       </c>
-      <c r="X73" t="s">
+      <c r="Y73" t="s">
         <v>189</v>
       </c>
     </row>
@@ -16990,7 +17637,7 @@
       <c r="G74" t="s">
         <v>516</v>
       </c>
-      <c r="X74" t="s">
+      <c r="Y74" t="s">
         <v>190</v>
       </c>
     </row>
@@ -16998,7 +17645,7 @@
       <c r="G75" t="s">
         <v>345</v>
       </c>
-      <c r="X75" t="s">
+      <c r="Y75" t="s">
         <v>453</v>
       </c>
     </row>
@@ -17006,7 +17653,7 @@
       <c r="G76" t="s">
         <v>281</v>
       </c>
-      <c r="X76" t="s">
+      <c r="Y76" t="s">
         <v>476</v>
       </c>
     </row>
@@ -17014,7 +17661,7 @@
       <c r="G77" t="s">
         <v>287</v>
       </c>
-      <c r="X77" t="s">
+      <c r="Y77" t="s">
         <v>135</v>
       </c>
     </row>
@@ -17022,7 +17669,7 @@
       <c r="G78" t="s">
         <v>292</v>
       </c>
-      <c r="X78" t="s">
+      <c r="Y78" t="s">
         <v>136</v>
       </c>
     </row>
@@ -17030,7 +17677,7 @@
       <c r="G79" t="s">
         <v>416</v>
       </c>
-      <c r="X79" t="s">
+      <c r="Y79" t="s">
         <v>137</v>
       </c>
     </row>
@@ -17038,7 +17685,7 @@
       <c r="G80" t="s">
         <v>333</v>
       </c>
-      <c r="X80" t="s">
+      <c r="Y80" t="s">
         <v>503</v>
       </c>
     </row>
@@ -17046,7 +17693,7 @@
       <c r="G81" t="s">
         <v>271</v>
       </c>
-      <c r="X81" t="s">
+      <c r="Y81" t="s">
         <v>138</v>
       </c>
     </row>
@@ -17054,7 +17701,7 @@
       <c r="G82" t="s">
         <v>282</v>
       </c>
-      <c r="X82" t="s">
+      <c r="Y82" t="s">
         <v>139</v>
       </c>
     </row>
@@ -17062,7 +17709,7 @@
       <c r="G83" t="s">
         <v>288</v>
       </c>
-      <c r="X83" t="s">
+      <c r="Y83" t="s">
         <v>191</v>
       </c>
     </row>
@@ -17070,7 +17717,7 @@
       <c r="G84" t="s">
         <v>277</v>
       </c>
-      <c r="X84" t="s">
+      <c r="Y84" t="s">
         <v>492</v>
       </c>
     </row>
@@ -17078,7 +17725,7 @@
       <c r="G85" t="s">
         <v>272</v>
       </c>
-      <c r="X85" t="s">
+      <c r="Y85" t="s">
         <v>192</v>
       </c>
     </row>
@@ -17086,7 +17733,7 @@
       <c r="G86" t="s">
         <v>289</v>
       </c>
-      <c r="X86" t="s">
+      <c r="Y86" t="s">
         <v>452</v>
       </c>
     </row>
@@ -17094,7 +17741,7 @@
       <c r="G87" t="s">
         <v>273</v>
       </c>
-      <c r="X87" t="s">
+      <c r="Y87" t="s">
         <v>193</v>
       </c>
     </row>
@@ -17102,7 +17749,7 @@
       <c r="G88" t="s">
         <v>274</v>
       </c>
-      <c r="X88" t="s">
+      <c r="Y88" t="s">
         <v>194</v>
       </c>
     </row>
@@ -17110,7 +17757,7 @@
       <c r="G89" t="s">
         <v>307</v>
       </c>
-      <c r="X89" t="s">
+      <c r="Y89" t="s">
         <v>207</v>
       </c>
     </row>
@@ -17118,7 +17765,7 @@
       <c r="G90" t="s">
         <v>313</v>
       </c>
-      <c r="X90" t="s">
+      <c r="Y90" t="s">
         <v>140</v>
       </c>
     </row>
@@ -17126,7 +17773,7 @@
       <c r="G91" t="s">
         <v>296</v>
       </c>
-      <c r="X91" t="s">
+      <c r="Y91" t="s">
         <v>195</v>
       </c>
     </row>
@@ -17134,7 +17781,7 @@
       <c r="G92" t="s">
         <v>341</v>
       </c>
-      <c r="X92" t="s">
+      <c r="Y92" t="s">
         <v>429</v>
       </c>
     </row>
@@ -17142,7 +17789,7 @@
       <c r="G93" t="s">
         <v>278</v>
       </c>
-      <c r="X93" t="s">
+      <c r="Y93" t="s">
         <v>436</v>
       </c>
     </row>
@@ -17150,172 +17797,172 @@
       <c r="G94" t="s">
         <v>279</v>
       </c>
-      <c r="X94" t="s">
+      <c r="Y94" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="95">
-      <c r="X95" t="s">
+      <c r="Y95" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="96">
-      <c r="X96" t="s">
+      <c r="Y96" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="97">
-      <c r="X97" t="s">
+      <c r="Y97" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="98">
-      <c r="X98" t="s">
+      <c r="Y98" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="99">
-      <c r="X99" t="s">
+      <c r="Y99" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="100">
-      <c r="X100" t="s">
+      <c r="Y100" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="101">
-      <c r="X101" t="s">
+      <c r="Y101" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="102">
-      <c r="X102" t="s">
+      <c r="Y102" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="103">
-      <c r="X103" t="s">
+      <c r="Y103" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="104">
-      <c r="X104" t="s">
+      <c r="Y104" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="105">
-      <c r="X105" t="s">
+      <c r="Y105" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="106">
-      <c r="X106" t="s">
+      <c r="Y106" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="107">
-      <c r="X107" t="s">
+      <c r="Y107" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="108">
-      <c r="X108" t="s">
+      <c r="Y108" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="109">
-      <c r="X109" t="s">
+      <c r="Y109" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="110">
-      <c r="X110" t="s">
+      <c r="Y110" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="111">
-      <c r="X111" t="s">
+      <c r="Y111" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="112">
-      <c r="X112" t="s">
+      <c r="Y112" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="113">
-      <c r="X113" t="s">
+      <c r="Y113" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="114">
-      <c r="X114" t="s">
+      <c r="Y114" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="115">
-      <c r="X115" t="s">
+      <c r="Y115" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="116">
-      <c r="X116" t="s">
+      <c r="Y116" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="117">
-      <c r="X117" t="s">
+      <c r="Y117" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="118">
-      <c r="X118" t="s">
+      <c r="Y118" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="119">
-      <c r="X119" t="s">
+      <c r="Y119" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="120">
-      <c r="X120" t="s">
+      <c r="Y120" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="121">
-      <c r="X121" t="s">
+      <c r="Y121" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="122">
-      <c r="X122" t="s">
+      <c r="Y122" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="123">
-      <c r="X123" t="s">
+      <c r="Y123" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="124">
-      <c r="X124" t="s">
+      <c r="Y124" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="125">
-      <c r="X125" t="s">
+      <c r="Y125" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="126">
-      <c r="X126" t="s">
+      <c r="Y126" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="127">
-      <c r="X127" t="s">
+      <c r="Y127" t="s">
         <v>162</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro.xlsx
@@ -26,7 +26,7 @@
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$4</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
-    <definedName name="io">'#system'!$K$2:$K$28</definedName>
+    <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
@@ -51,7 +51,7 @@
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$7</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$10</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12295" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13356" uniqueCount="530">
   <si>
     <t>description</t>
   </si>
@@ -1644,6 +1644,18 @@
   </si>
   <si>
     <t>runSQLs(var,sqls)</t>
+  </si>
+  <si>
+    <t>exportJSON(sql,output,header)</t>
+  </si>
+  <si>
+    <t>exportXML(sql,output,root,row,cell)</t>
+  </si>
+  <si>
+    <t>importCSV(var,csv,table)</t>
+  </si>
+  <si>
+    <t>writeBase64decode(encodedSource,decodedTarget)</t>
   </si>
 </sst>
 </file>
@@ -1651,7 +1663,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="389" x14ac:knownFonts="1">
+  <fonts count="421" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4103,8 +4115,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="657">
+  <fills count="717">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7823,8 +8037,348 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="674">
+  <borders count="730">
     <border>
       <left/>
       <right/>
@@ -7846,6 +8400,570 @@
         <color theme="2" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -14621,7 +15739,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="400">
+  <cellXfs count="432">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -15779,52 +16897,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="626" fontId="372" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="373" fillId="629" borderId="653" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="653" fillId="629" fontId="373" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="374" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="374" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="375" fillId="632" borderId="657" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="657" fillId="632" fontId="375" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="376" fillId="635" borderId="661" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="661" fillId="635" fontId="376" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="377" fillId="638" borderId="661" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="661" fillId="638" fontId="377" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="378" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="378" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="379" fillId="641" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="641" fontId="379" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="380" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="380" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="381" fillId="644" borderId="665" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="665" fillId="644" fontId="381" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="382" fillId="647" borderId="669" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="669" fillId="647" fontId="382" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="383" fillId="650" borderId="673" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="673" fillId="650" fontId="383" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="384" fillId="650" borderId="673" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="673" fillId="650" fontId="384" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="385" fillId="638" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="638" fontId="385" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="386" fillId="653" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="653" fontId="386" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="387" fillId="638" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="638" fontId="387" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="388" fillId="656" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="656" fontId="388" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="681" fillId="659" fontId="389" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="390" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="685" fillId="662" fontId="391" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="689" fillId="665" fontId="392" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="689" fillId="668" fontId="393" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="394" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="671" fontId="395" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="396" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="693" fillId="674" fontId="397" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="697" fillId="677" fontId="398" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="701" fillId="680" fontId="399" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="701" fillId="680" fontId="400" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="668" fontId="401" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="683" fontId="402" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="668" fontId="403" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="686" fontId="404" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="405" fillId="689" borderId="709" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="406" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="407" fillId="692" borderId="713" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="408" fillId="695" borderId="717" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="409" fillId="698" borderId="717" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="410" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="411" fillId="701" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="412" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="413" fillId="704" borderId="721" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="414" fillId="707" borderId="725" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="415" fillId="710" borderId="729" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="416" fillId="710" borderId="729" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="417" fillId="698" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="418" fillId="713" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="419" fillId="698" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="420" fillId="716" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -16516,7 +17730,7 @@
         <v>79</v>
       </c>
       <c r="N5" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="Q5" t="s">
         <v>23</v>
@@ -16584,7 +17798,7 @@
         <v>22</v>
       </c>
       <c r="N6" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="Q6" t="s">
         <v>24</v>
@@ -16643,7 +17857,7 @@
         <v>317</v>
       </c>
       <c r="N7" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="Q7" t="s">
         <v>26</v>
@@ -16701,6 +17915,9 @@
       <c r="M8" t="s">
         <v>27</v>
       </c>
+      <c r="N8" t="s">
+        <v>523</v>
+      </c>
       <c r="Q8" t="s">
         <v>83</v>
       </c>
@@ -16754,6 +17971,9 @@
       <c r="M9" t="s">
         <v>28</v>
       </c>
+      <c r="N9" t="s">
+        <v>524</v>
+      </c>
       <c r="Q9" t="s">
         <v>84</v>
       </c>
@@ -16795,6 +18015,9 @@
       <c r="M10" t="s">
         <v>29</v>
       </c>
+      <c r="N10" t="s">
+        <v>525</v>
+      </c>
       <c r="Q10" t="s">
         <v>421</v>
       </c>
@@ -17183,7 +18406,7 @@
         <v>68</v>
       </c>
       <c r="K25" t="s">
-        <v>77</v>
+        <v>529</v>
       </c>
       <c r="Y25" t="s">
         <v>104</v>
@@ -17200,7 +18423,7 @@
         <v>283</v>
       </c>
       <c r="K26" t="s">
-        <v>439</v>
+        <v>77</v>
       </c>
       <c r="Y26" t="s">
         <v>105</v>
@@ -17217,7 +18440,7 @@
         <v>267</v>
       </c>
       <c r="K27" t="s">
-        <v>38</v>
+        <v>439</v>
       </c>
       <c r="Y27" t="s">
         <v>106</v>
@@ -17234,7 +18457,7 @@
         <v>284</v>
       </c>
       <c r="K28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Y28" t="s">
         <v>328</v>
@@ -17249,6 +18472,9 @@
       </c>
       <c r="G29" t="s">
         <v>285</v>
+      </c>
+      <c r="K29" t="s">
+        <v>39</v>
       </c>
       <c r="Y29" t="s">
         <v>107</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro.xlsx
@@ -50,8 +50,8 @@
     <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
-    <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$10</definedName>
+    <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13356" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13890" uniqueCount="534">
   <si>
     <t>description</t>
   </si>
@@ -1656,6 +1656,18 @@
   </si>
   <si>
     <t>writeBase64decode(encodedSource,decodedTarget)</t>
+  </si>
+  <si>
+    <t>purgeQueue(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>writeBase64decode(encodedSource,decodedTarget,append)</t>
+  </si>
+  <si>
+    <t>exportEXCEL(sql,output,sheet,start)</t>
+  </si>
+  <si>
+    <t>importEXCEL(var,excel,sheet,ranges,table)</t>
   </si>
 </sst>
 </file>
@@ -1663,7 +1675,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="421" x14ac:knownFonts="1">
+  <fonts count="437" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4317,8 +4329,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="717">
+  <fills count="747">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8377,8 +8490,178 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="730">
+  <borders count="758">
     <border>
       <left/>
       <right/>
@@ -8400,6 +8683,288 @@
         <color theme="2" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -15739,7 +16304,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="432">
+  <cellXfs count="448">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -16993,52 +17558,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="686" fontId="404" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="405" fillId="689" borderId="709" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="709" fillId="689" fontId="405" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="406" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="406" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="407" fillId="692" borderId="713" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="713" fillId="692" fontId="407" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="408" fillId="695" borderId="717" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="717" fillId="695" fontId="408" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="409" fillId="698" borderId="717" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="717" fillId="698" fontId="409" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="410" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="410" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="411" fillId="701" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="701" fontId="411" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="412" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="412" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="413" fillId="704" borderId="721" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="721" fillId="704" fontId="413" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="414" fillId="707" borderId="725" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="725" fillId="707" fontId="414" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="415" fillId="710" borderId="729" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="729" fillId="710" fontId="415" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="416" fillId="710" borderId="729" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="729" fillId="710" fontId="416" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="417" fillId="698" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="698" fontId="417" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="418" fillId="713" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="713" fontId="418" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="419" fillId="698" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="698" fontId="419" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="420" fillId="716" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="716" fontId="420" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="421" fillId="719" borderId="737" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="422" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="423" fillId="722" borderId="741" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="424" fillId="725" borderId="745" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="425" fillId="728" borderId="745" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="426" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="427" fillId="731" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="428" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="429" fillId="734" borderId="749" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="430" fillId="737" borderId="753" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="431" fillId="740" borderId="757" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="432" fillId="740" borderId="757" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="433" fillId="728" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="434" fillId="743" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="435" fillId="728" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="436" fillId="746" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -17540,7 +18153,7 @@
         <v>468</v>
       </c>
       <c r="D3" t="s">
-        <v>495</v>
+        <v>530</v>
       </c>
       <c r="E3" t="s">
         <v>463</v>
@@ -17623,7 +18236,7 @@
         <v>375</v>
       </c>
       <c r="D4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
@@ -17706,7 +18319,7 @@
         <v>376</v>
       </c>
       <c r="D5" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E5" t="s">
         <v>464</v>
@@ -17730,7 +18343,7 @@
         <v>79</v>
       </c>
       <c r="N5" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="Q5" t="s">
         <v>23</v>
@@ -17776,6 +18389,9 @@
       <c r="B6" t="s">
         <v>377</v>
       </c>
+      <c r="D6" t="s">
+        <v>497</v>
+      </c>
       <c r="E6" t="s">
         <v>20</v>
       </c>
@@ -17798,7 +18414,7 @@
         <v>22</v>
       </c>
       <c r="N6" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Q6" t="s">
         <v>24</v>
@@ -17857,7 +18473,7 @@
         <v>317</v>
       </c>
       <c r="N7" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="Q7" t="s">
         <v>26</v>
@@ -17916,7 +18532,7 @@
         <v>27</v>
       </c>
       <c r="N8" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="Q8" t="s">
         <v>83</v>
@@ -17972,7 +18588,7 @@
         <v>28</v>
       </c>
       <c r="N9" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
       <c r="Q9" t="s">
         <v>84</v>
@@ -18016,7 +18632,7 @@
         <v>29</v>
       </c>
       <c r="N10" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="Q10" t="s">
         <v>421</v>
@@ -18056,6 +18672,9 @@
       <c r="M11" t="s">
         <v>480</v>
       </c>
+      <c r="N11" t="s">
+        <v>524</v>
+      </c>
       <c r="Q11" t="s">
         <v>85</v>
       </c>
@@ -18091,6 +18710,9 @@
       <c r="M12" t="s">
         <v>440</v>
       </c>
+      <c r="N12" t="s">
+        <v>525</v>
+      </c>
       <c r="Q12" t="s">
         <v>34</v>
       </c>
@@ -18406,7 +19028,7 @@
         <v>68</v>
       </c>
       <c r="K25" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="Y25" t="s">
         <v>104</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro.xlsx
@@ -24,7 +24,7 @@
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$G$2:$G$94</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
-    <definedName name="external">'#system'!$I$2:$I$4</definedName>
+    <definedName name="external">'#system'!$I$2:$I$5</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$127</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$128</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13890" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14426" uniqueCount="536">
   <si>
     <t>description</t>
   </si>
@@ -1668,6 +1668,12 @@
   </si>
   <si>
     <t>importEXCEL(var,excel,sheet,ranges,table)</t>
+  </si>
+  <si>
+    <t>tail(id,file)</t>
+  </si>
+  <si>
+    <t>assertTextNotContains(locator,text)</t>
   </si>
 </sst>
 </file>
@@ -1675,7 +1681,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="437" x14ac:knownFonts="1">
+  <fonts count="453" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4430,8 +4436,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="747">
+  <fills count="777">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8660,8 +8767,178 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="758">
+  <borders count="786">
     <border>
       <left/>
       <right/>
@@ -8683,6 +8960,288 @@
         <color theme="2" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -16304,7 +16863,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="448">
+  <cellXfs count="464">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -17606,52 +18165,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="716" fontId="420" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="421" fillId="719" borderId="737" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="737" fillId="719" fontId="421" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="422" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="422" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="423" fillId="722" borderId="741" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="741" fillId="722" fontId="423" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="424" fillId="725" borderId="745" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="745" fillId="725" fontId="424" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="425" fillId="728" borderId="745" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="745" fillId="728" fontId="425" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="426" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="426" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="427" fillId="731" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="731" fontId="427" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="428" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="428" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="429" fillId="734" borderId="749" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="749" fillId="734" fontId="429" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="430" fillId="737" borderId="753" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="753" fillId="737" fontId="430" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="431" fillId="740" borderId="757" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="757" fillId="740" fontId="431" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="432" fillId="740" borderId="757" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="757" fillId="740" fontId="432" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="433" fillId="728" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="728" fontId="433" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="434" fillId="743" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="743" fontId="434" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="435" fillId="728" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="728" fontId="435" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="436" fillId="746" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="746" fontId="436" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="437" fillId="749" borderId="765" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="438" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="439" fillId="752" borderId="769" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="440" fillId="755" borderId="773" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="441" fillId="758" borderId="773" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="442" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="443" fillId="761" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="444" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="445" fillId="764" borderId="777" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="446" fillId="767" borderId="781" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="447" fillId="770" borderId="785" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="448" fillId="770" borderId="785" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="449" fillId="758" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="450" fillId="773" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="451" fillId="758" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="452" fillId="776" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -17949,7 +18556,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE127"/>
+  <dimension ref="A1:AE128"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -18333,6 +18940,9 @@
       <c r="H5" t="s">
         <v>454</v>
       </c>
+      <c r="I5" t="s">
+        <v>534</v>
+      </c>
       <c r="J5" t="s">
         <v>352</v>
       </c>
@@ -19206,7 +19816,7 @@
         <v>268</v>
       </c>
       <c r="Y39" t="s">
-        <v>394</v>
+        <v>535</v>
       </c>
     </row>
     <row r="40">
@@ -19214,7 +19824,7 @@
         <v>70</v>
       </c>
       <c r="Y40" t="s">
-        <v>114</v>
+        <v>394</v>
       </c>
     </row>
     <row r="41">
@@ -19222,7 +19832,7 @@
         <v>204</v>
       </c>
       <c r="Y41" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42">
@@ -19230,7 +19840,7 @@
         <v>290</v>
       </c>
       <c r="Y42" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43">
@@ -19238,7 +19848,7 @@
         <v>301</v>
       </c>
       <c r="Y43" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="44">
@@ -19246,7 +19856,7 @@
         <v>302</v>
       </c>
       <c r="Y44" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="45">
@@ -19254,7 +19864,7 @@
         <v>344</v>
       </c>
       <c r="Y45" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="46">
@@ -19262,7 +19872,7 @@
         <v>343</v>
       </c>
       <c r="Y46" t="s">
-        <v>441</v>
+        <v>119</v>
       </c>
     </row>
     <row r="47">
@@ -19270,7 +19880,7 @@
         <v>203</v>
       </c>
       <c r="Y47" t="s">
-        <v>205</v>
+        <v>441</v>
       </c>
     </row>
     <row r="48">
@@ -19278,7 +19888,7 @@
         <v>303</v>
       </c>
       <c r="Y48" t="s">
-        <v>69</v>
+        <v>205</v>
       </c>
     </row>
     <row r="49">
@@ -19286,7 +19896,7 @@
         <v>340</v>
       </c>
       <c r="Y49" t="s">
-        <v>120</v>
+        <v>69</v>
       </c>
     </row>
     <row r="50">
@@ -19294,7 +19904,7 @@
         <v>369</v>
       </c>
       <c r="Y50" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="51">
@@ -19302,7 +19912,7 @@
         <v>304</v>
       </c>
       <c r="Y51" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="52">
@@ -19310,7 +19920,7 @@
         <v>357</v>
       </c>
       <c r="Y52" t="s">
-        <v>491</v>
+        <v>122</v>
       </c>
     </row>
     <row r="53">
@@ -19318,7 +19928,7 @@
         <v>332</v>
       </c>
       <c r="Y53" t="s">
-        <v>472</v>
+        <v>491</v>
       </c>
     </row>
     <row r="54">
@@ -19326,7 +19936,7 @@
         <v>269</v>
       </c>
       <c r="Y54" t="s">
-        <v>123</v>
+        <v>472</v>
       </c>
     </row>
     <row r="55">
@@ -19334,7 +19944,7 @@
         <v>293</v>
       </c>
       <c r="Y55" t="s">
-        <v>347</v>
+        <v>123</v>
       </c>
     </row>
     <row r="56">
@@ -19342,7 +19952,7 @@
         <v>294</v>
       </c>
       <c r="Y56" t="s">
-        <v>465</v>
+        <v>347</v>
       </c>
     </row>
     <row r="57">
@@ -19350,7 +19960,7 @@
         <v>295</v>
       </c>
       <c r="Y57" t="s">
-        <v>124</v>
+        <v>465</v>
       </c>
     </row>
     <row r="58">
@@ -19358,7 +19968,7 @@
         <v>305</v>
       </c>
       <c r="Y58" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="59">
@@ -19366,7 +19976,7 @@
         <v>314</v>
       </c>
       <c r="Y59" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="60">
@@ -19374,7 +19984,7 @@
         <v>338</v>
       </c>
       <c r="Y60" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="61">
@@ -19382,7 +19992,7 @@
         <v>311</v>
       </c>
       <c r="Y61" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="62">
@@ -19390,7 +20000,7 @@
         <v>312</v>
       </c>
       <c r="Y62" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="63">
@@ -19398,7 +20008,7 @@
         <v>370</v>
       </c>
       <c r="Y63" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="64">
@@ -19406,7 +20016,7 @@
         <v>371</v>
       </c>
       <c r="Y64" t="s">
-        <v>437</v>
+        <v>130</v>
       </c>
     </row>
     <row r="65">
@@ -19414,7 +20024,7 @@
         <v>346</v>
       </c>
       <c r="Y65" t="s">
-        <v>482</v>
+        <v>437</v>
       </c>
     </row>
     <row r="66">
@@ -19422,7 +20032,7 @@
         <v>315</v>
       </c>
       <c r="Y66" t="s">
-        <v>206</v>
+        <v>482</v>
       </c>
     </row>
     <row r="67">
@@ -19430,7 +20040,7 @@
         <v>270</v>
       </c>
       <c r="Y67" t="s">
-        <v>390</v>
+        <v>206</v>
       </c>
     </row>
     <row r="68">
@@ -19438,7 +20048,7 @@
         <v>354</v>
       </c>
       <c r="Y68" t="s">
-        <v>442</v>
+        <v>390</v>
       </c>
     </row>
     <row r="69">
@@ -19446,7 +20056,7 @@
         <v>316</v>
       </c>
       <c r="Y69" t="s">
-        <v>131</v>
+        <v>442</v>
       </c>
     </row>
     <row r="70">
@@ -19454,7 +20064,7 @@
         <v>409</v>
       </c>
       <c r="Y70" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="71">
@@ -19462,7 +20072,7 @@
         <v>306</v>
       </c>
       <c r="Y71" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="72">
@@ -19470,7 +20080,7 @@
         <v>410</v>
       </c>
       <c r="Y72" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="73">
@@ -19478,7 +20088,7 @@
         <v>263</v>
       </c>
       <c r="Y73" t="s">
-        <v>189</v>
+        <v>134</v>
       </c>
     </row>
     <row r="74">
@@ -19486,7 +20096,7 @@
         <v>516</v>
       </c>
       <c r="Y74" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="75">
@@ -19494,7 +20104,7 @@
         <v>345</v>
       </c>
       <c r="Y75" t="s">
-        <v>453</v>
+        <v>190</v>
       </c>
     </row>
     <row r="76">
@@ -19502,7 +20112,7 @@
         <v>281</v>
       </c>
       <c r="Y76" t="s">
-        <v>476</v>
+        <v>453</v>
       </c>
     </row>
     <row r="77">
@@ -19510,7 +20120,7 @@
         <v>287</v>
       </c>
       <c r="Y77" t="s">
-        <v>135</v>
+        <v>476</v>
       </c>
     </row>
     <row r="78">
@@ -19518,7 +20128,7 @@
         <v>292</v>
       </c>
       <c r="Y78" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="79">
@@ -19526,7 +20136,7 @@
         <v>416</v>
       </c>
       <c r="Y79" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="80">
@@ -19534,7 +20144,7 @@
         <v>333</v>
       </c>
       <c r="Y80" t="s">
-        <v>503</v>
+        <v>137</v>
       </c>
     </row>
     <row r="81">
@@ -19542,7 +20152,7 @@
         <v>271</v>
       </c>
       <c r="Y81" t="s">
-        <v>138</v>
+        <v>503</v>
       </c>
     </row>
     <row r="82">
@@ -19550,7 +20160,7 @@
         <v>282</v>
       </c>
       <c r="Y82" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="83">
@@ -19558,7 +20168,7 @@
         <v>288</v>
       </c>
       <c r="Y83" t="s">
-        <v>191</v>
+        <v>139</v>
       </c>
     </row>
     <row r="84">
@@ -19566,7 +20176,7 @@
         <v>277</v>
       </c>
       <c r="Y84" t="s">
-        <v>492</v>
+        <v>191</v>
       </c>
     </row>
     <row r="85">
@@ -19574,7 +20184,7 @@
         <v>272</v>
       </c>
       <c r="Y85" t="s">
-        <v>192</v>
+        <v>492</v>
       </c>
     </row>
     <row r="86">
@@ -19582,7 +20192,7 @@
         <v>289</v>
       </c>
       <c r="Y86" t="s">
-        <v>452</v>
+        <v>192</v>
       </c>
     </row>
     <row r="87">
@@ -19590,7 +20200,7 @@
         <v>273</v>
       </c>
       <c r="Y87" t="s">
-        <v>193</v>
+        <v>452</v>
       </c>
     </row>
     <row r="88">
@@ -19598,7 +20208,7 @@
         <v>274</v>
       </c>
       <c r="Y88" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="89">
@@ -19606,7 +20216,7 @@
         <v>307</v>
       </c>
       <c r="Y89" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
     </row>
     <row r="90">
@@ -19614,7 +20224,7 @@
         <v>313</v>
       </c>
       <c r="Y90" t="s">
-        <v>140</v>
+        <v>207</v>
       </c>
     </row>
     <row r="91">
@@ -19622,7 +20232,7 @@
         <v>296</v>
       </c>
       <c r="Y91" t="s">
-        <v>195</v>
+        <v>140</v>
       </c>
     </row>
     <row r="92">
@@ -19630,7 +20240,7 @@
         <v>341</v>
       </c>
       <c r="Y92" t="s">
-        <v>429</v>
+        <v>195</v>
       </c>
     </row>
     <row r="93">
@@ -19638,7 +20248,7 @@
         <v>278</v>
       </c>
       <c r="Y93" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
     </row>
     <row r="94">
@@ -19646,171 +20256,176 @@
         <v>279</v>
       </c>
       <c r="Y94" t="s">
-        <v>196</v>
+        <v>436</v>
       </c>
     </row>
     <row r="95">
       <c r="Y95" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="96">
       <c r="Y96" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="97">
       <c r="Y97" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="98">
       <c r="Y98" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>514</v>
+        <v>200</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>141</v>
+        <v>517</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>518</v>
+        <v>141</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>384</v>
+        <v>518</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>142</v>
+        <v>384</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>443</v>
+        <v>154</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>155</v>
+        <v>443</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>40</v>
+        <v>158</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>159</v>
+        <v>40</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="Y128" t="s">
         <v>162</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro.xlsx
@@ -22,13 +22,13 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$94</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$95</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$5</definedName>
-    <definedName name="image">'#system'!$J$2:$J$6</definedName>
+    <definedName name="image">'#system'!$J$2:$J$7</definedName>
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$16</definedName>
+    <definedName name="json">'#system'!$M$2:$M$17</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -42,12 +42,12 @@
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$128</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
     <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14426" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14972" uniqueCount="547">
   <si>
     <t>description</t>
   </si>
@@ -1674,6 +1674,39 @@
   </si>
   <si>
     <t>assertTextNotContains(locator,text)</t>
+  </si>
+  <si>
+    <t>saveModalDialogTextByLocator(var,locator)</t>
+  </si>
+  <si>
+    <t>typeKeys(os,keystrokes)</t>
+  </si>
+  <si>
+    <t>saveDiff(var,baseline,actual)</t>
+  </si>
+  <si>
+    <t>compact(var,json,removeEmpty)</t>
+  </si>
+  <si>
+    <t>clickAll(locator)</t>
+  </si>
+  <si>
+    <t>assertSoap(wsdl,xml)</t>
+  </si>
+  <si>
+    <t>assertSoapFaultCode(expected,xml)</t>
+  </si>
+  <si>
+    <t>assertSoapFaultString(expected,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultCode(var,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultDetail(var,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultString(var,xml)</t>
   </si>
 </sst>
 </file>
@@ -1681,7 +1714,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="453" x14ac:knownFonts="1">
+  <fonts count="469" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4537,8 +4570,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="777">
+  <fills count="804">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8937,8 +9071,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="786">
+  <borders count="818">
     <border>
       <left/>
       <right/>
@@ -16679,6 +16966,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -16863,7 +17476,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="464">
+  <cellXfs count="480">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -18213,52 +18826,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="746" fontId="436" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="437" fillId="749" borderId="765" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="765" fillId="749" fontId="437" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="438" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="438" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="439" fillId="752" borderId="769" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="769" fillId="752" fontId="439" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="440" fillId="755" borderId="773" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="773" fillId="755" fontId="440" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="441" fillId="758" borderId="773" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="773" fillId="758" fontId="441" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="442" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="442" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="443" fillId="761" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="761" fontId="443" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="444" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="444" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="445" fillId="764" borderId="777" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="777" fillId="764" fontId="445" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="446" fillId="767" borderId="781" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="781" fillId="767" fontId="446" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="447" fillId="770" borderId="785" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="785" fillId="770" fontId="447" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="448" fillId="770" borderId="785" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="785" fillId="770" fontId="448" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="449" fillId="758" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="758" fontId="449" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="450" fillId="773" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="773" fontId="450" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="451" fillId="758" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="758" fontId="451" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="452" fillId="776" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="776" fontId="452" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="453" fillId="779" borderId="793" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="454" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="455" fillId="782" borderId="797" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="456" fillId="785" borderId="801" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="457" fillId="788" borderId="805" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="458" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="459" fillId="791" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="460" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="461" fillId="794" borderId="809" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="462" fillId="785" borderId="813" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="463" fillId="797" borderId="817" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="464" fillId="797" borderId="817" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="465" fillId="788" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="466" fillId="800" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="467" fillId="788" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="468" fillId="803" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -18556,7 +19217,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE128"/>
+  <dimension ref="A1:AE129"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -19076,6 +19737,9 @@
       <c r="H7" t="s">
         <v>446</v>
       </c>
+      <c r="J7" t="s">
+        <v>538</v>
+      </c>
       <c r="K7" t="s">
         <v>12</v>
       </c>
@@ -19116,7 +19780,7 @@
         <v>434</v>
       </c>
       <c r="AD7" t="s">
-        <v>223</v>
+        <v>541</v>
       </c>
     </row>
     <row r="8">
@@ -19172,7 +19836,7 @@
         <v>435</v>
       </c>
       <c r="AD8" t="s">
-        <v>224</v>
+        <v>542</v>
       </c>
     </row>
     <row r="9">
@@ -19219,7 +19883,7 @@
         <v>181</v>
       </c>
       <c r="AD9" t="s">
-        <v>225</v>
+        <v>543</v>
       </c>
     </row>
     <row r="10">
@@ -19260,7 +19924,7 @@
         <v>182</v>
       </c>
       <c r="AD10" t="s">
-        <v>483</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11">
@@ -19298,7 +19962,7 @@
         <v>260</v>
       </c>
       <c r="AD11" t="s">
-        <v>499</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12">
@@ -19318,7 +19982,7 @@
         <v>391</v>
       </c>
       <c r="M12" t="s">
-        <v>440</v>
+        <v>539</v>
       </c>
       <c r="N12" t="s">
         <v>525</v>
@@ -19336,7 +20000,7 @@
         <v>183</v>
       </c>
       <c r="AD12" t="s">
-        <v>500</v>
+        <v>225</v>
       </c>
     </row>
     <row r="13">
@@ -19356,7 +20020,7 @@
         <v>13</v>
       </c>
       <c r="M13" t="s">
-        <v>481</v>
+        <v>440</v>
       </c>
       <c r="Q13" t="s">
         <v>86</v>
@@ -19371,7 +20035,7 @@
         <v>184</v>
       </c>
       <c r="AD13" t="s">
-        <v>504</v>
+        <v>483</v>
       </c>
     </row>
     <row r="14">
@@ -19391,7 +20055,7 @@
         <v>35</v>
       </c>
       <c r="M14" t="s">
-        <v>32</v>
+        <v>481</v>
       </c>
       <c r="Q14" t="s">
         <v>87</v>
@@ -19406,7 +20070,7 @@
         <v>185</v>
       </c>
       <c r="AD14" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
     </row>
     <row r="15">
@@ -19423,7 +20087,7 @@
         <v>513</v>
       </c>
       <c r="M15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q15" t="s">
         <v>507</v>
@@ -19438,7 +20102,7 @@
         <v>186</v>
       </c>
       <c r="AD15" t="s">
-        <v>484</v>
+        <v>500</v>
       </c>
     </row>
     <row r="16">
@@ -19455,7 +20119,7 @@
         <v>73</v>
       </c>
       <c r="M16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="Q16" t="s">
         <v>508</v>
@@ -19470,7 +20134,7 @@
         <v>187</v>
       </c>
       <c r="AD16" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
     </row>
     <row r="17">
@@ -19486,6 +20150,9 @@
       <c r="K17" t="s">
         <v>74</v>
       </c>
+      <c r="M17" t="s">
+        <v>36</v>
+      </c>
       <c r="Y17" t="s">
         <v>509</v>
       </c>
@@ -19493,7 +20160,7 @@
         <v>470</v>
       </c>
       <c r="AD17" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
     </row>
     <row r="18">
@@ -19513,7 +20180,7 @@
         <v>97</v>
       </c>
       <c r="AD18" t="s">
-        <v>506</v>
+        <v>484</v>
       </c>
     </row>
     <row r="19">
@@ -19533,7 +20200,7 @@
         <v>98</v>
       </c>
       <c r="AD19" t="s">
-        <v>226</v>
+        <v>501</v>
       </c>
     </row>
     <row r="20">
@@ -19553,7 +20220,7 @@
         <v>99</v>
       </c>
       <c r="AD20" t="s">
-        <v>227</v>
+        <v>502</v>
       </c>
     </row>
     <row r="21">
@@ -19573,7 +20240,7 @@
         <v>100</v>
       </c>
       <c r="AD21" t="s">
-        <v>228</v>
+        <v>506</v>
       </c>
     </row>
     <row r="22">
@@ -19592,6 +20259,9 @@
       <c r="Y22" t="s">
         <v>490</v>
       </c>
+      <c r="AD22" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -19609,6 +20279,9 @@
       <c r="Y23" t="s">
         <v>102</v>
       </c>
+      <c r="AD23" t="s">
+        <v>544</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -19626,6 +20299,9 @@
       <c r="Y24" t="s">
         <v>103</v>
       </c>
+      <c r="AD24" t="s">
+        <v>545</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -19643,6 +20319,9 @@
       <c r="Y25" t="s">
         <v>104</v>
       </c>
+      <c r="AD25" t="s">
+        <v>546</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -19660,6 +20339,9 @@
       <c r="Y26" t="s">
         <v>105</v>
       </c>
+      <c r="AD26" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -19677,6 +20359,9 @@
       <c r="Y27" t="s">
         <v>106</v>
       </c>
+      <c r="AD27" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -19904,7 +20589,7 @@
         <v>369</v>
       </c>
       <c r="Y50" t="s">
-        <v>120</v>
+        <v>540</v>
       </c>
     </row>
     <row r="51">
@@ -19912,7 +20597,7 @@
         <v>304</v>
       </c>
       <c r="Y51" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="52">
@@ -19920,7 +20605,7 @@
         <v>357</v>
       </c>
       <c r="Y52" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="53">
@@ -19928,7 +20613,7 @@
         <v>332</v>
       </c>
       <c r="Y53" t="s">
-        <v>491</v>
+        <v>122</v>
       </c>
     </row>
     <row r="54">
@@ -19936,7 +20621,7 @@
         <v>269</v>
       </c>
       <c r="Y54" t="s">
-        <v>472</v>
+        <v>491</v>
       </c>
     </row>
     <row r="55">
@@ -19944,7 +20629,7 @@
         <v>293</v>
       </c>
       <c r="Y55" t="s">
-        <v>123</v>
+        <v>472</v>
       </c>
     </row>
     <row r="56">
@@ -19952,7 +20637,7 @@
         <v>294</v>
       </c>
       <c r="Y56" t="s">
-        <v>347</v>
+        <v>123</v>
       </c>
     </row>
     <row r="57">
@@ -19960,7 +20645,7 @@
         <v>295</v>
       </c>
       <c r="Y57" t="s">
-        <v>465</v>
+        <v>347</v>
       </c>
     </row>
     <row r="58">
@@ -19968,7 +20653,7 @@
         <v>305</v>
       </c>
       <c r="Y58" t="s">
-        <v>124</v>
+        <v>465</v>
       </c>
     </row>
     <row r="59">
@@ -19976,7 +20661,7 @@
         <v>314</v>
       </c>
       <c r="Y59" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="60">
@@ -19984,7 +20669,7 @@
         <v>338</v>
       </c>
       <c r="Y60" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="61">
@@ -19992,7 +20677,7 @@
         <v>311</v>
       </c>
       <c r="Y61" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="62">
@@ -20000,7 +20685,7 @@
         <v>312</v>
       </c>
       <c r="Y62" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="63">
@@ -20008,7 +20693,7 @@
         <v>370</v>
       </c>
       <c r="Y63" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="64">
@@ -20016,7 +20701,7 @@
         <v>371</v>
       </c>
       <c r="Y64" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="65">
@@ -20024,7 +20709,7 @@
         <v>346</v>
       </c>
       <c r="Y65" t="s">
-        <v>437</v>
+        <v>130</v>
       </c>
     </row>
     <row r="66">
@@ -20032,7 +20717,7 @@
         <v>315</v>
       </c>
       <c r="Y66" t="s">
-        <v>482</v>
+        <v>437</v>
       </c>
     </row>
     <row r="67">
@@ -20040,15 +20725,15 @@
         <v>270</v>
       </c>
       <c r="Y67" t="s">
-        <v>206</v>
+        <v>482</v>
       </c>
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>354</v>
+        <v>536</v>
       </c>
       <c r="Y68" t="s">
-        <v>390</v>
+        <v>206</v>
       </c>
     </row>
     <row r="69">
@@ -20056,7 +20741,7 @@
         <v>316</v>
       </c>
       <c r="Y69" t="s">
-        <v>442</v>
+        <v>390</v>
       </c>
     </row>
     <row r="70">
@@ -20064,7 +20749,7 @@
         <v>409</v>
       </c>
       <c r="Y70" t="s">
-        <v>131</v>
+        <v>442</v>
       </c>
     </row>
     <row r="71">
@@ -20072,7 +20757,7 @@
         <v>306</v>
       </c>
       <c r="Y71" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="72">
@@ -20080,7 +20765,7 @@
         <v>410</v>
       </c>
       <c r="Y72" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="73">
@@ -20088,7 +20773,7 @@
         <v>263</v>
       </c>
       <c r="Y73" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="74">
@@ -20096,7 +20781,7 @@
         <v>516</v>
       </c>
       <c r="Y74" t="s">
-        <v>189</v>
+        <v>134</v>
       </c>
     </row>
     <row r="75">
@@ -20104,7 +20789,7 @@
         <v>345</v>
       </c>
       <c r="Y75" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="76">
@@ -20112,7 +20797,7 @@
         <v>281</v>
       </c>
       <c r="Y76" t="s">
-        <v>453</v>
+        <v>190</v>
       </c>
     </row>
     <row r="77">
@@ -20120,7 +20805,7 @@
         <v>287</v>
       </c>
       <c r="Y77" t="s">
-        <v>476</v>
+        <v>453</v>
       </c>
     </row>
     <row r="78">
@@ -20128,7 +20813,7 @@
         <v>292</v>
       </c>
       <c r="Y78" t="s">
-        <v>135</v>
+        <v>476</v>
       </c>
     </row>
     <row r="79">
@@ -20136,7 +20821,7 @@
         <v>416</v>
       </c>
       <c r="Y79" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="80">
@@ -20144,7 +20829,7 @@
         <v>333</v>
       </c>
       <c r="Y80" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="81">
@@ -20152,7 +20837,7 @@
         <v>271</v>
       </c>
       <c r="Y81" t="s">
-        <v>503</v>
+        <v>137</v>
       </c>
     </row>
     <row r="82">
@@ -20160,7 +20845,7 @@
         <v>282</v>
       </c>
       <c r="Y82" t="s">
-        <v>138</v>
+        <v>503</v>
       </c>
     </row>
     <row r="83">
@@ -20168,7 +20853,7 @@
         <v>288</v>
       </c>
       <c r="Y83" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="84">
@@ -20176,256 +20861,264 @@
         <v>277</v>
       </c>
       <c r="Y84" t="s">
-        <v>191</v>
+        <v>139</v>
       </c>
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>272</v>
+        <v>537</v>
       </c>
       <c r="Y85" t="s">
-        <v>492</v>
+        <v>191</v>
       </c>
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="Y86" t="s">
-        <v>192</v>
+        <v>492</v>
       </c>
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="Y87" t="s">
-        <v>452</v>
+        <v>192</v>
       </c>
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Y88" t="s">
-        <v>193</v>
+        <v>452</v>
       </c>
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>307</v>
+        <v>274</v>
       </c>
       <c r="Y89" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="Y90" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>296</v>
+        <v>313</v>
       </c>
       <c r="Y91" t="s">
-        <v>140</v>
+        <v>207</v>
       </c>
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="Y92" t="s">
-        <v>195</v>
+        <v>140</v>
       </c>
     </row>
     <row r="93">
       <c r="G93" t="s">
-        <v>278</v>
+        <v>341</v>
       </c>
       <c r="Y93" t="s">
-        <v>429</v>
+        <v>195</v>
       </c>
     </row>
     <row r="94">
       <c r="G94" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="G95" t="s">
         <v>279</v>
       </c>
-      <c r="Y94" t="s">
+      <c r="Y95" t="s">
         <v>436</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="Y95" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="96">
       <c r="Y96" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="97">
       <c r="Y97" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="98">
       <c r="Y98" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>514</v>
+        <v>200</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>141</v>
+        <v>517</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>518</v>
+        <v>141</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>384</v>
+        <v>518</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>142</v>
+        <v>384</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>443</v>
+        <v>154</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>155</v>
+        <v>443</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>40</v>
+        <v>158</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>159</v>
+        <v>40</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="128">
       <c r="Y128" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="Y129" t="s">
         <v>162</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$E$2:$E$38</definedName>
+    <definedName name="base">'#system'!$E$2:$E$39</definedName>
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -41,17 +41,18 @@
     <definedName name="sound">'#system'!$V$2:$V$5</definedName>
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
-    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
-    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
+    <definedName name="target">'#system'!$A$2:$A$31</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$129</definedName>
+    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
+    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
+    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
+    <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -66,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14972" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15522" uniqueCount="550">
   <si>
     <t>description</t>
   </si>
@@ -1707,6 +1708,15 @@
   </si>
   <si>
     <t>storeSoapFaultString(var,xml)</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>outputToCloud(resource)</t>
+  </si>
+  <si>
+    <t>spellCheck(var,profile,text)</t>
   </si>
 </sst>
 </file>
@@ -1714,7 +1724,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="469" x14ac:knownFonts="1">
+  <fonts count="485" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4671,8 +4681,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="804">
+  <fills count="831">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9224,8 +9335,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="818">
+  <borders count="850">
     <border>
       <left/>
       <right/>
@@ -16966,6 +17230,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -17476,7 +18066,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="480">
+  <cellXfs count="496">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -18874,52 +19464,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="776" fontId="452" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="453" fillId="779" borderId="793" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="793" fillId="779" fontId="453" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="454" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="454" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="455" fillId="782" borderId="797" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="797" fillId="782" fontId="455" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="456" fillId="785" borderId="801" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="801" fillId="785" fontId="456" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="457" fillId="788" borderId="805" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="805" fillId="788" fontId="457" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="458" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="458" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="459" fillId="791" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="791" fontId="459" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="460" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="460" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="461" fillId="794" borderId="809" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="809" fillId="794" fontId="461" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="462" fillId="785" borderId="813" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="813" fillId="785" fontId="462" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="463" fillId="797" borderId="817" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="817" fillId="797" fontId="463" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="464" fillId="797" borderId="817" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="817" fillId="797" fontId="464" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="465" fillId="788" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="788" fontId="465" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="466" fillId="800" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="800" fontId="466" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="467" fillId="788" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="788" fontId="467" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="468" fillId="803" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="803" fontId="468" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="469" fillId="806" borderId="825" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="470" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="471" fillId="809" borderId="829" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="472" fillId="812" borderId="833" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="473" fillId="815" borderId="837" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="474" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="475" fillId="818" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="476" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="477" fillId="821" borderId="841" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="478" fillId="812" borderId="845" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="479" fillId="824" borderId="849" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="480" fillId="824" borderId="849" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="481" fillId="815" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="482" fillId="827" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="483" fillId="815" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="484" fillId="830" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -19217,7 +19855,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE129"/>
+  <dimension ref="A1:AF129"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -19300,21 +19938,24 @@
         <v>395</v>
       </c>
       <c r="Y1" t="s">
+        <v>547</v>
+      </c>
+      <c r="Z1" t="s">
         <v>46</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>47</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>48</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>49</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>413</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>218</v>
       </c>
     </row>
@@ -19392,21 +20033,24 @@
         <v>396</v>
       </c>
       <c r="Y2" t="s">
+        <v>549</v>
+      </c>
+      <c r="Z2" t="s">
         <v>89</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>163</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>168</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>175</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>430</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>498</v>
       </c>
     </row>
@@ -19477,22 +20121,22 @@
       <c r="X3" t="s">
         <v>397</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>90</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>164</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>169</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>365</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>176</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>219</v>
       </c>
     </row>
@@ -19560,22 +20204,22 @@
       <c r="X4" t="s">
         <v>398</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>355</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>165</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>170</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>176</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>431</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>220</v>
       </c>
     </row>
@@ -19634,22 +20278,22 @@
       <c r="W5" t="s">
         <v>360</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>356</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>166</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>171</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>177</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>432</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>221</v>
       </c>
     </row>
@@ -19702,22 +20346,22 @@
       <c r="W6" t="s">
         <v>362</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>91</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>444</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>172</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>178</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>433</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>222</v>
       </c>
     </row>
@@ -19764,22 +20408,22 @@
       <c r="W7" t="s">
         <v>361</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>92</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>445</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>173</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>179</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>434</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>541</v>
       </c>
     </row>
@@ -19820,22 +20464,22 @@
       <c r="W8" t="s">
         <v>363</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>93</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>167</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>174</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>180</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>435</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>542</v>
       </c>
     </row>
@@ -19876,13 +20520,13 @@
       <c r="W9" t="s">
         <v>364</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>201</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>181</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>543</v>
       </c>
     </row>
@@ -19917,13 +20561,13 @@
       <c r="T10" t="s">
         <v>408</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>258</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>182</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>223</v>
       </c>
     </row>
@@ -19955,13 +20599,13 @@
       <c r="R11" t="s">
         <v>239</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>259</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>260</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>224</v>
       </c>
     </row>
@@ -19993,13 +20637,13 @@
       <c r="R12" t="s">
         <v>240</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>94</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>183</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>225</v>
       </c>
     </row>
@@ -20028,13 +20672,13 @@
       <c r="R13" t="s">
         <v>245</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>327</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>184</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>483</v>
       </c>
     </row>
@@ -20063,13 +20707,13 @@
       <c r="R14" t="s">
         <v>241</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>95</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>185</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>499</v>
       </c>
     </row>
@@ -20095,13 +20739,13 @@
       <c r="R15" t="s">
         <v>242</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>96</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>186</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>500</v>
       </c>
     </row>
@@ -20127,13 +20771,13 @@
       <c r="R16" t="s">
         <v>243</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>67</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>187</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>504</v>
       </c>
     </row>
@@ -20153,13 +20797,13 @@
       <c r="M17" t="s">
         <v>36</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>509</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>470</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>505</v>
       </c>
     </row>
@@ -20176,10 +20820,10 @@
       <c r="K18" t="s">
         <v>455</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
         <v>97</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AE18" t="s">
         <v>484</v>
       </c>
     </row>
@@ -20196,10 +20840,10 @@
       <c r="K19" t="s">
         <v>75</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Z19" t="s">
         <v>98</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AE19" t="s">
         <v>501</v>
       </c>
     </row>
@@ -20216,10 +20860,10 @@
       <c r="K20" t="s">
         <v>76</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Z20" t="s">
         <v>99</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AE20" t="s">
         <v>502</v>
       </c>
     </row>
@@ -20228,7 +20872,7 @@
         <v>411</v>
       </c>
       <c r="E21" t="s">
-        <v>54</v>
+        <v>548</v>
       </c>
       <c r="G21" t="s">
         <v>299</v>
@@ -20236,10 +20880,10 @@
       <c r="K21" t="s">
         <v>381</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="Z21" t="s">
         <v>100</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AE21" t="s">
         <v>506</v>
       </c>
     </row>
@@ -20248,7 +20892,7 @@
         <v>412</v>
       </c>
       <c r="E22" t="s">
-        <v>322</v>
+        <v>54</v>
       </c>
       <c r="G22" t="s">
         <v>300</v>
@@ -20256,10 +20900,10 @@
       <c r="K22" t="s">
         <v>479</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="Z22" t="s">
         <v>490</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AE22" t="s">
         <v>226</v>
       </c>
     </row>
@@ -20268,7 +20912,7 @@
         <v>358</v>
       </c>
       <c r="E23" t="s">
-        <v>55</v>
+        <v>322</v>
       </c>
       <c r="G23" t="s">
         <v>291</v>
@@ -20276,10 +20920,10 @@
       <c r="K23" t="s">
         <v>37</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="Z23" t="s">
         <v>102</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AE23" t="s">
         <v>544</v>
       </c>
     </row>
@@ -20288,7 +20932,7 @@
         <v>395</v>
       </c>
       <c r="E24" t="s">
-        <v>448</v>
+        <v>55</v>
       </c>
       <c r="G24" t="s">
         <v>280</v>
@@ -20296,19 +20940,19 @@
       <c r="K24" t="s">
         <v>393</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Z24" t="s">
         <v>103</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AE24" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>547</v>
       </c>
       <c r="E25" t="s">
-        <v>216</v>
+        <v>448</v>
       </c>
       <c r="G25" t="s">
         <v>68</v>
@@ -20316,19 +20960,19 @@
       <c r="K25" t="s">
         <v>531</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="Z25" t="s">
         <v>104</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AE25" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E26" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G26" t="s">
         <v>283</v>
@@ -20336,19 +20980,19 @@
       <c r="K26" t="s">
         <v>77</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="Z26" t="s">
         <v>105</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AE26" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E27" t="s">
-        <v>477</v>
+        <v>217</v>
       </c>
       <c r="G27" t="s">
         <v>267</v>
@@ -20356,19 +21000,19 @@
       <c r="K27" t="s">
         <v>439</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="Z27" t="s">
         <v>106</v>
       </c>
-      <c r="AD27" t="s">
+      <c r="AE27" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E28" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G28" t="s">
         <v>284</v>
@@ -20376,16 +21020,16 @@
       <c r="K28" t="s">
         <v>38</v>
       </c>
-      <c r="Y28" t="s">
+      <c r="Z28" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>413</v>
+        <v>49</v>
       </c>
       <c r="E29" t="s">
-        <v>415</v>
+        <v>478</v>
       </c>
       <c r="G29" t="s">
         <v>285</v>
@@ -20393,106 +21037,112 @@
       <c r="K29" t="s">
         <v>39</v>
       </c>
-      <c r="Y29" t="s">
+      <c r="Z29" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>218</v>
+        <v>413</v>
       </c>
       <c r="E30" t="s">
-        <v>56</v>
+        <v>415</v>
       </c>
       <c r="G30" t="s">
         <v>208</v>
       </c>
-      <c r="Y30" t="s">
+      <c r="Z30" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="s">
+        <v>218</v>
+      </c>
       <c r="E31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G31" t="s">
         <v>276</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="Z31" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="32">
       <c r="E32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G32" t="s">
         <v>286</v>
       </c>
-      <c r="Y32" t="s">
+      <c r="Z32" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="33">
       <c r="E33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G33" t="s">
         <v>515</v>
       </c>
-      <c r="Y33" t="s">
+      <c r="Z33" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="34">
       <c r="E34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G34" t="s">
         <v>261</v>
       </c>
-      <c r="Y34" t="s">
+      <c r="Z34" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="35">
       <c r="E35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G35" t="s">
         <v>331</v>
       </c>
-      <c r="Y35" t="s">
+      <c r="Z35" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="36">
       <c r="E36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G36" t="s">
         <v>309</v>
       </c>
-      <c r="Y36" t="s">
+      <c r="Z36" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="37">
       <c r="E37" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G37" t="s">
         <v>262</v>
       </c>
-      <c r="Y37" t="s">
+      <c r="Z37" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="38">
+      <c r="E38" t="s">
+        <v>63</v>
+      </c>
       <c r="G38" t="s">
         <v>310</v>
       </c>
-      <c r="Y38" t="s">
+      <c r="Z38" t="s">
         <v>428</v>
       </c>
     </row>
@@ -20500,7 +21150,7 @@
       <c r="G39" t="s">
         <v>268</v>
       </c>
-      <c r="Y39" t="s">
+      <c r="Z39" t="s">
         <v>535</v>
       </c>
     </row>
@@ -20508,7 +21158,7 @@
       <c r="G40" t="s">
         <v>70</v>
       </c>
-      <c r="Y40" t="s">
+      <c r="Z40" t="s">
         <v>394</v>
       </c>
     </row>
@@ -20516,7 +21166,7 @@
       <c r="G41" t="s">
         <v>204</v>
       </c>
-      <c r="Y41" t="s">
+      <c r="Z41" t="s">
         <v>114</v>
       </c>
     </row>
@@ -20524,7 +21174,7 @@
       <c r="G42" t="s">
         <v>290</v>
       </c>
-      <c r="Y42" t="s">
+      <c r="Z42" t="s">
         <v>115</v>
       </c>
     </row>
@@ -20532,7 +21182,7 @@
       <c r="G43" t="s">
         <v>301</v>
       </c>
-      <c r="Y43" t="s">
+      <c r="Z43" t="s">
         <v>116</v>
       </c>
     </row>
@@ -20540,7 +21190,7 @@
       <c r="G44" t="s">
         <v>302</v>
       </c>
-      <c r="Y44" t="s">
+      <c r="Z44" t="s">
         <v>117</v>
       </c>
     </row>
@@ -20548,7 +21198,7 @@
       <c r="G45" t="s">
         <v>344</v>
       </c>
-      <c r="Y45" t="s">
+      <c r="Z45" t="s">
         <v>118</v>
       </c>
     </row>
@@ -20556,7 +21206,7 @@
       <c r="G46" t="s">
         <v>343</v>
       </c>
-      <c r="Y46" t="s">
+      <c r="Z46" t="s">
         <v>119</v>
       </c>
     </row>
@@ -20564,7 +21214,7 @@
       <c r="G47" t="s">
         <v>203</v>
       </c>
-      <c r="Y47" t="s">
+      <c r="Z47" t="s">
         <v>441</v>
       </c>
     </row>
@@ -20572,7 +21222,7 @@
       <c r="G48" t="s">
         <v>303</v>
       </c>
-      <c r="Y48" t="s">
+      <c r="Z48" t="s">
         <v>205</v>
       </c>
     </row>
@@ -20580,7 +21230,7 @@
       <c r="G49" t="s">
         <v>340</v>
       </c>
-      <c r="Y49" t="s">
+      <c r="Z49" t="s">
         <v>69</v>
       </c>
     </row>
@@ -20588,7 +21238,7 @@
       <c r="G50" t="s">
         <v>369</v>
       </c>
-      <c r="Y50" t="s">
+      <c r="Z50" t="s">
         <v>540</v>
       </c>
     </row>
@@ -20596,7 +21246,7 @@
       <c r="G51" t="s">
         <v>304</v>
       </c>
-      <c r="Y51" t="s">
+      <c r="Z51" t="s">
         <v>120</v>
       </c>
     </row>
@@ -20604,7 +21254,7 @@
       <c r="G52" t="s">
         <v>357</v>
       </c>
-      <c r="Y52" t="s">
+      <c r="Z52" t="s">
         <v>121</v>
       </c>
     </row>
@@ -20612,7 +21262,7 @@
       <c r="G53" t="s">
         <v>332</v>
       </c>
-      <c r="Y53" t="s">
+      <c r="Z53" t="s">
         <v>122</v>
       </c>
     </row>
@@ -20620,7 +21270,7 @@
       <c r="G54" t="s">
         <v>269</v>
       </c>
-      <c r="Y54" t="s">
+      <c r="Z54" t="s">
         <v>491</v>
       </c>
     </row>
@@ -20628,7 +21278,7 @@
       <c r="G55" t="s">
         <v>293</v>
       </c>
-      <c r="Y55" t="s">
+      <c r="Z55" t="s">
         <v>472</v>
       </c>
     </row>
@@ -20636,7 +21286,7 @@
       <c r="G56" t="s">
         <v>294</v>
       </c>
-      <c r="Y56" t="s">
+      <c r="Z56" t="s">
         <v>123</v>
       </c>
     </row>
@@ -20644,7 +21294,7 @@
       <c r="G57" t="s">
         <v>295</v>
       </c>
-      <c r="Y57" t="s">
+      <c r="Z57" t="s">
         <v>347</v>
       </c>
     </row>
@@ -20652,7 +21302,7 @@
       <c r="G58" t="s">
         <v>305</v>
       </c>
-      <c r="Y58" t="s">
+      <c r="Z58" t="s">
         <v>465</v>
       </c>
     </row>
@@ -20660,7 +21310,7 @@
       <c r="G59" t="s">
         <v>314</v>
       </c>
-      <c r="Y59" t="s">
+      <c r="Z59" t="s">
         <v>124</v>
       </c>
     </row>
@@ -20668,7 +21318,7 @@
       <c r="G60" t="s">
         <v>338</v>
       </c>
-      <c r="Y60" t="s">
+      <c r="Z60" t="s">
         <v>125</v>
       </c>
     </row>
@@ -20676,7 +21326,7 @@
       <c r="G61" t="s">
         <v>311</v>
       </c>
-      <c r="Y61" t="s">
+      <c r="Z61" t="s">
         <v>126</v>
       </c>
     </row>
@@ -20684,7 +21334,7 @@
       <c r="G62" t="s">
         <v>312</v>
       </c>
-      <c r="Y62" t="s">
+      <c r="Z62" t="s">
         <v>127</v>
       </c>
     </row>
@@ -20692,7 +21342,7 @@
       <c r="G63" t="s">
         <v>370</v>
       </c>
-      <c r="Y63" t="s">
+      <c r="Z63" t="s">
         <v>128</v>
       </c>
     </row>
@@ -20700,7 +21350,7 @@
       <c r="G64" t="s">
         <v>371</v>
       </c>
-      <c r="Y64" t="s">
+      <c r="Z64" t="s">
         <v>129</v>
       </c>
     </row>
@@ -20708,7 +21358,7 @@
       <c r="G65" t="s">
         <v>346</v>
       </c>
-      <c r="Y65" t="s">
+      <c r="Z65" t="s">
         <v>130</v>
       </c>
     </row>
@@ -20716,7 +21366,7 @@
       <c r="G66" t="s">
         <v>315</v>
       </c>
-      <c r="Y66" t="s">
+      <c r="Z66" t="s">
         <v>437</v>
       </c>
     </row>
@@ -20724,7 +21374,7 @@
       <c r="G67" t="s">
         <v>270</v>
       </c>
-      <c r="Y67" t="s">
+      <c r="Z67" t="s">
         <v>482</v>
       </c>
     </row>
@@ -20732,7 +21382,7 @@
       <c r="G68" t="s">
         <v>536</v>
       </c>
-      <c r="Y68" t="s">
+      <c r="Z68" t="s">
         <v>206</v>
       </c>
     </row>
@@ -20740,7 +21390,7 @@
       <c r="G69" t="s">
         <v>316</v>
       </c>
-      <c r="Y69" t="s">
+      <c r="Z69" t="s">
         <v>390</v>
       </c>
     </row>
@@ -20748,7 +21398,7 @@
       <c r="G70" t="s">
         <v>409</v>
       </c>
-      <c r="Y70" t="s">
+      <c r="Z70" t="s">
         <v>442</v>
       </c>
     </row>
@@ -20756,7 +21406,7 @@
       <c r="G71" t="s">
         <v>306</v>
       </c>
-      <c r="Y71" t="s">
+      <c r="Z71" t="s">
         <v>131</v>
       </c>
     </row>
@@ -20764,7 +21414,7 @@
       <c r="G72" t="s">
         <v>410</v>
       </c>
-      <c r="Y72" t="s">
+      <c r="Z72" t="s">
         <v>132</v>
       </c>
     </row>
@@ -20772,7 +21422,7 @@
       <c r="G73" t="s">
         <v>263</v>
       </c>
-      <c r="Y73" t="s">
+      <c r="Z73" t="s">
         <v>133</v>
       </c>
     </row>
@@ -20780,7 +21430,7 @@
       <c r="G74" t="s">
         <v>516</v>
       </c>
-      <c r="Y74" t="s">
+      <c r="Z74" t="s">
         <v>134</v>
       </c>
     </row>
@@ -20788,7 +21438,7 @@
       <c r="G75" t="s">
         <v>345</v>
       </c>
-      <c r="Y75" t="s">
+      <c r="Z75" t="s">
         <v>189</v>
       </c>
     </row>
@@ -20796,7 +21446,7 @@
       <c r="G76" t="s">
         <v>281</v>
       </c>
-      <c r="Y76" t="s">
+      <c r="Z76" t="s">
         <v>190</v>
       </c>
     </row>
@@ -20804,7 +21454,7 @@
       <c r="G77" t="s">
         <v>287</v>
       </c>
-      <c r="Y77" t="s">
+      <c r="Z77" t="s">
         <v>453</v>
       </c>
     </row>
@@ -20812,7 +21462,7 @@
       <c r="G78" t="s">
         <v>292</v>
       </c>
-      <c r="Y78" t="s">
+      <c r="Z78" t="s">
         <v>476</v>
       </c>
     </row>
@@ -20820,7 +21470,7 @@
       <c r="G79" t="s">
         <v>416</v>
       </c>
-      <c r="Y79" t="s">
+      <c r="Z79" t="s">
         <v>135</v>
       </c>
     </row>
@@ -20828,7 +21478,7 @@
       <c r="G80" t="s">
         <v>333</v>
       </c>
-      <c r="Y80" t="s">
+      <c r="Z80" t="s">
         <v>136</v>
       </c>
     </row>
@@ -20836,7 +21486,7 @@
       <c r="G81" t="s">
         <v>271</v>
       </c>
-      <c r="Y81" t="s">
+      <c r="Z81" t="s">
         <v>137</v>
       </c>
     </row>
@@ -20844,7 +21494,7 @@
       <c r="G82" t="s">
         <v>282</v>
       </c>
-      <c r="Y82" t="s">
+      <c r="Z82" t="s">
         <v>503</v>
       </c>
     </row>
@@ -20852,7 +21502,7 @@
       <c r="G83" t="s">
         <v>288</v>
       </c>
-      <c r="Y83" t="s">
+      <c r="Z83" t="s">
         <v>138</v>
       </c>
     </row>
@@ -20860,7 +21510,7 @@
       <c r="G84" t="s">
         <v>277</v>
       </c>
-      <c r="Y84" t="s">
+      <c r="Z84" t="s">
         <v>139</v>
       </c>
     </row>
@@ -20868,7 +21518,7 @@
       <c r="G85" t="s">
         <v>537</v>
       </c>
-      <c r="Y85" t="s">
+      <c r="Z85" t="s">
         <v>191</v>
       </c>
     </row>
@@ -20876,7 +21526,7 @@
       <c r="G86" t="s">
         <v>272</v>
       </c>
-      <c r="Y86" t="s">
+      <c r="Z86" t="s">
         <v>492</v>
       </c>
     </row>
@@ -20884,7 +21534,7 @@
       <c r="G87" t="s">
         <v>289</v>
       </c>
-      <c r="Y87" t="s">
+      <c r="Z87" t="s">
         <v>192</v>
       </c>
     </row>
@@ -20892,7 +21542,7 @@
       <c r="G88" t="s">
         <v>273</v>
       </c>
-      <c r="Y88" t="s">
+      <c r="Z88" t="s">
         <v>452</v>
       </c>
     </row>
@@ -20900,7 +21550,7 @@
       <c r="G89" t="s">
         <v>274</v>
       </c>
-      <c r="Y89" t="s">
+      <c r="Z89" t="s">
         <v>193</v>
       </c>
     </row>
@@ -20908,7 +21558,7 @@
       <c r="G90" t="s">
         <v>307</v>
       </c>
-      <c r="Y90" t="s">
+      <c r="Z90" t="s">
         <v>194</v>
       </c>
     </row>
@@ -20916,7 +21566,7 @@
       <c r="G91" t="s">
         <v>313</v>
       </c>
-      <c r="Y91" t="s">
+      <c r="Z91" t="s">
         <v>207</v>
       </c>
     </row>
@@ -20924,7 +21574,7 @@
       <c r="G92" t="s">
         <v>296</v>
       </c>
-      <c r="Y92" t="s">
+      <c r="Z92" t="s">
         <v>140</v>
       </c>
     </row>
@@ -20932,7 +21582,7 @@
       <c r="G93" t="s">
         <v>341</v>
       </c>
-      <c r="Y93" t="s">
+      <c r="Z93" t="s">
         <v>195</v>
       </c>
     </row>
@@ -20940,7 +21590,7 @@
       <c r="G94" t="s">
         <v>278</v>
       </c>
-      <c r="Y94" t="s">
+      <c r="Z94" t="s">
         <v>429</v>
       </c>
     </row>
@@ -20948,177 +21598,177 @@
       <c r="G95" t="s">
         <v>279</v>
       </c>
-      <c r="Y95" t="s">
+      <c r="Z95" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="96">
-      <c r="Y96" t="s">
+      <c r="Z96" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="97">
-      <c r="Y97" t="s">
+      <c r="Z97" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="98">
-      <c r="Y98" t="s">
+      <c r="Z98" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="99">
-      <c r="Y99" t="s">
+      <c r="Z99" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="100">
-      <c r="Y100" t="s">
+      <c r="Z100" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="101">
-      <c r="Y101" t="s">
+      <c r="Z101" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="102">
-      <c r="Y102" t="s">
+      <c r="Z102" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="103">
-      <c r="Y103" t="s">
+      <c r="Z103" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="104">
-      <c r="Y104" t="s">
+      <c r="Z104" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="105">
-      <c r="Y105" t="s">
+      <c r="Z105" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="106">
-      <c r="Y106" t="s">
+      <c r="Z106" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="107">
-      <c r="Y107" t="s">
+      <c r="Z107" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="108">
-      <c r="Y108" t="s">
+      <c r="Z108" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="109">
-      <c r="Y109" t="s">
+      <c r="Z109" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="110">
-      <c r="Y110" t="s">
+      <c r="Z110" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="111">
-      <c r="Y111" t="s">
+      <c r="Z111" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="112">
-      <c r="Y112" t="s">
+      <c r="Z112" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="113">
-      <c r="Y113" t="s">
+      <c r="Z113" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="114">
-      <c r="Y114" t="s">
+      <c r="Z114" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="115">
-      <c r="Y115" t="s">
+      <c r="Z115" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="116">
-      <c r="Y116" t="s">
+      <c r="Z116" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="117">
-      <c r="Y117" t="s">
+      <c r="Z117" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="118">
-      <c r="Y118" t="s">
+      <c r="Z118" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="119">
-      <c r="Y119" t="s">
+      <c r="Z119" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="120">
-      <c r="Y120" t="s">
+      <c r="Z120" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="121">
-      <c r="Y121" t="s">
+      <c r="Z121" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="122">
-      <c r="Y122" t="s">
+      <c r="Z122" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="123">
-      <c r="Y123" t="s">
+      <c r="Z123" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="124">
-      <c r="Y124" t="s">
+      <c r="Z124" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="125">
-      <c r="Y125" t="s">
+      <c r="Z125" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="126">
-      <c r="Y126" t="s">
+      <c r="Z126" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="127">
-      <c r="Y127" t="s">
+      <c r="Z127" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="128">
-      <c r="Y128" t="s">
+      <c r="Z128" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="129">
-      <c r="Y129" t="s">
+      <c r="Z129" t="s">
         <v>162</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro.xlsx
@@ -22,7 +22,7 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$95</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$97</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$5</definedName>
     <definedName name="image">'#system'!$J$2:$J$7</definedName>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15522" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16074" uniqueCount="552">
   <si>
     <t>description</t>
   </si>
@@ -1717,6 +1717,12 @@
   </si>
   <si>
     <t>spellCheck(var,profile,text)</t>
+  </si>
+  <si>
+    <t>clickScreen(button,modifiers,x,y)</t>
+  </si>
+  <si>
+    <t>mouseWheel(amount,modifiers,x,y)</t>
   </si>
 </sst>
 </file>
@@ -1724,7 +1730,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="485" x14ac:knownFonts="1">
+  <fonts count="501" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4782,8 +4788,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="831">
+  <fills count="858">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9488,8 +9595,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="850">
+  <borders count="882">
     <border>
       <left/>
       <right/>
@@ -17230,6 +17490,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -18066,7 +18652,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="496">
+  <cellXfs count="512">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -19512,52 +20098,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="803" fontId="468" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="469" fillId="806" borderId="825" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="825" fillId="806" fontId="469" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="470" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="470" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="471" fillId="809" borderId="829" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="829" fillId="809" fontId="471" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="472" fillId="812" borderId="833" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="833" fillId="812" fontId="472" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="473" fillId="815" borderId="837" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="837" fillId="815" fontId="473" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="474" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="474" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="475" fillId="818" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="818" fontId="475" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="476" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="476" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="477" fillId="821" borderId="841" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="841" fillId="821" fontId="477" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="478" fillId="812" borderId="845" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="845" fillId="812" fontId="478" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="479" fillId="824" borderId="849" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="849" fillId="824" fontId="479" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="480" fillId="824" borderId="849" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="849" fillId="824" fontId="480" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="481" fillId="815" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="815" fontId="481" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="482" fillId="827" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="827" fontId="482" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="483" fillId="815" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="815" fontId="483" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="484" fillId="830" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="830" fontId="484" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="485" fillId="833" borderId="857" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="486" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="487" fillId="836" borderId="861" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="488" fillId="839" borderId="865" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="489" fillId="842" borderId="869" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="490" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="491" fillId="845" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="492" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="493" fillId="848" borderId="873" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="494" fillId="839" borderId="877" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="495" fillId="851" borderId="881" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="496" fillId="851" borderId="881" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="497" fillId="842" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="498" fillId="854" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="499" fillId="842" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="500" fillId="857" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -21172,7 +21806,7 @@
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>290</v>
+        <v>550</v>
       </c>
       <c r="Z42" t="s">
         <v>115</v>
@@ -21180,7 +21814,7 @@
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="Z43" t="s">
         <v>116</v>
@@ -21188,7 +21822,7 @@
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Z44" t="s">
         <v>117</v>
@@ -21196,7 +21830,7 @@
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>344</v>
+        <v>302</v>
       </c>
       <c r="Z45" t="s">
         <v>118</v>
@@ -21204,7 +21838,7 @@
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Z46" t="s">
         <v>119</v>
@@ -21212,7 +21846,7 @@
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>203</v>
+        <v>343</v>
       </c>
       <c r="Z47" t="s">
         <v>441</v>
@@ -21220,7 +21854,7 @@
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>303</v>
+        <v>203</v>
       </c>
       <c r="Z48" t="s">
         <v>205</v>
@@ -21228,7 +21862,7 @@
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>340</v>
+        <v>303</v>
       </c>
       <c r="Z49" t="s">
         <v>69</v>
@@ -21236,7 +21870,7 @@
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>369</v>
+        <v>340</v>
       </c>
       <c r="Z50" t="s">
         <v>540</v>
@@ -21244,7 +21878,7 @@
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>304</v>
+        <v>369</v>
       </c>
       <c r="Z51" t="s">
         <v>120</v>
@@ -21252,7 +21886,7 @@
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>357</v>
+        <v>304</v>
       </c>
       <c r="Z52" t="s">
         <v>121</v>
@@ -21260,7 +21894,7 @@
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>332</v>
+        <v>357</v>
       </c>
       <c r="Z53" t="s">
         <v>122</v>
@@ -21268,7 +21902,7 @@
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>269</v>
+        <v>332</v>
       </c>
       <c r="Z54" t="s">
         <v>491</v>
@@ -21276,7 +21910,7 @@
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
       <c r="Z55" t="s">
         <v>472</v>
@@ -21284,7 +21918,7 @@
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Z56" t="s">
         <v>123</v>
@@ -21292,7 +21926,7 @@
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Z57" t="s">
         <v>347</v>
@@ -21300,7 +21934,7 @@
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>305</v>
+        <v>551</v>
       </c>
       <c r="Z58" t="s">
         <v>465</v>
@@ -21308,7 +21942,7 @@
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
       <c r="Z59" t="s">
         <v>124</v>
@@ -21316,7 +21950,7 @@
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>338</v>
+        <v>305</v>
       </c>
       <c r="Z60" t="s">
         <v>125</v>
@@ -21324,7 +21958,7 @@
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Z61" t="s">
         <v>126</v>
@@ -21332,7 +21966,7 @@
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>312</v>
+        <v>338</v>
       </c>
       <c r="Z62" t="s">
         <v>127</v>
@@ -21340,7 +21974,7 @@
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>370</v>
+        <v>311</v>
       </c>
       <c r="Z63" t="s">
         <v>128</v>
@@ -21348,7 +21982,7 @@
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>371</v>
+        <v>312</v>
       </c>
       <c r="Z64" t="s">
         <v>129</v>
@@ -21356,7 +21990,7 @@
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>346</v>
+        <v>370</v>
       </c>
       <c r="Z65" t="s">
         <v>130</v>
@@ -21364,7 +21998,7 @@
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>315</v>
+        <v>371</v>
       </c>
       <c r="Z66" t="s">
         <v>437</v>
@@ -21372,7 +22006,7 @@
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>270</v>
+        <v>346</v>
       </c>
       <c r="Z67" t="s">
         <v>482</v>
@@ -21380,7 +22014,7 @@
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>536</v>
+        <v>315</v>
       </c>
       <c r="Z68" t="s">
         <v>206</v>
@@ -21388,7 +22022,7 @@
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>316</v>
+        <v>270</v>
       </c>
       <c r="Z69" t="s">
         <v>390</v>
@@ -21396,7 +22030,7 @@
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>409</v>
+        <v>536</v>
       </c>
       <c r="Z70" t="s">
         <v>442</v>
@@ -21404,7 +22038,7 @@
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="Z71" t="s">
         <v>131</v>
@@ -21412,7 +22046,7 @@
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="Z72" t="s">
         <v>132</v>
@@ -21420,7 +22054,7 @@
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>263</v>
+        <v>306</v>
       </c>
       <c r="Z73" t="s">
         <v>133</v>
@@ -21428,7 +22062,7 @@
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>516</v>
+        <v>410</v>
       </c>
       <c r="Z74" t="s">
         <v>134</v>
@@ -21436,7 +22070,7 @@
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>345</v>
+        <v>263</v>
       </c>
       <c r="Z75" t="s">
         <v>189</v>
@@ -21444,7 +22078,7 @@
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>281</v>
+        <v>516</v>
       </c>
       <c r="Z76" t="s">
         <v>190</v>
@@ -21452,7 +22086,7 @@
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>287</v>
+        <v>345</v>
       </c>
       <c r="Z77" t="s">
         <v>453</v>
@@ -21460,7 +22094,7 @@
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="Z78" t="s">
         <v>476</v>
@@ -21468,7 +22102,7 @@
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>416</v>
+        <v>287</v>
       </c>
       <c r="Z79" t="s">
         <v>135</v>
@@ -21476,7 +22110,7 @@
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>333</v>
+        <v>292</v>
       </c>
       <c r="Z80" t="s">
         <v>136</v>
@@ -21484,7 +22118,7 @@
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>271</v>
+        <v>416</v>
       </c>
       <c r="Z81" t="s">
         <v>137</v>
@@ -21492,7 +22126,7 @@
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>282</v>
+        <v>333</v>
       </c>
       <c r="Z82" t="s">
         <v>503</v>
@@ -21500,7 +22134,7 @@
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="Z83" t="s">
         <v>138</v>
@@ -21508,7 +22142,7 @@
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="Z84" t="s">
         <v>139</v>
@@ -21516,7 +22150,7 @@
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>537</v>
+        <v>288</v>
       </c>
       <c r="Z85" t="s">
         <v>191</v>
@@ -21524,7 +22158,7 @@
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="Z86" t="s">
         <v>492</v>
@@ -21532,7 +22166,7 @@
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>289</v>
+        <v>537</v>
       </c>
       <c r="Z87" t="s">
         <v>192</v>
@@ -21540,7 +22174,7 @@
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Z88" t="s">
         <v>452</v>
@@ -21548,7 +22182,7 @@
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="Z89" t="s">
         <v>193</v>
@@ -21556,7 +22190,7 @@
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>307</v>
+        <v>273</v>
       </c>
       <c r="Z90" t="s">
         <v>194</v>
@@ -21564,7 +22198,7 @@
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>313</v>
+        <v>274</v>
       </c>
       <c r="Z91" t="s">
         <v>207</v>
@@ -21572,7 +22206,7 @@
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="Z92" t="s">
         <v>140</v>
@@ -21580,7 +22214,7 @@
     </row>
     <row r="93">
       <c r="G93" t="s">
-        <v>341</v>
+        <v>313</v>
       </c>
       <c r="Z93" t="s">
         <v>195</v>
@@ -21588,7 +22222,7 @@
     </row>
     <row r="94">
       <c r="G94" t="s">
-        <v>278</v>
+        <v>296</v>
       </c>
       <c r="Z94" t="s">
         <v>429</v>
@@ -21596,18 +22230,24 @@
     </row>
     <row r="95">
       <c r="G95" t="s">
-        <v>279</v>
+        <v>341</v>
       </c>
       <c r="Z95" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="96">
+      <c r="G96" t="s">
+        <v>278</v>
+      </c>
       <c r="Z96" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="97">
+      <c r="G97" t="s">
+        <v>279</v>
+      </c>
       <c r="Z97" t="s">
         <v>197</v>
       </c>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro.xlsx
@@ -28,7 +28,7 @@
     <definedName name="image">'#system'!$J$2:$J$7</definedName>
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$17</definedName>
+    <definedName name="json">'#system'!$M$2:$M$18</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -41,13 +41,13 @@
     <definedName name="sound">'#system'!$V$2:$V$5</definedName>
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$129</definedName>
-    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
-    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
-    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
+    <definedName name="target">'#system'!$A$2:$A$30</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
+    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
+    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16074" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16624" uniqueCount="553">
   <si>
     <t>description</t>
   </si>
@@ -1723,6 +1723,9 @@
   </si>
   <si>
     <t>mouseWheel(amount,modifiers,x,y)</t>
+  </si>
+  <si>
+    <t>storeKeys(json,jsonpath,var)</t>
   </si>
 </sst>
 </file>
@@ -1730,7 +1733,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="501" x14ac:knownFonts="1">
+  <fonts count="517" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4889,8 +4892,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="858">
+  <fills count="885">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9748,8 +9852,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="882">
+  <borders count="914">
     <border>
       <left/>
       <right/>
@@ -17490,6 +17747,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -18652,7 +19235,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="512">
+  <cellXfs count="528">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -20146,52 +20729,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="830" fontId="484" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="485" fillId="833" borderId="857" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="857" fillId="833" fontId="485" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="486" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="486" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="487" fillId="836" borderId="861" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="861" fillId="836" fontId="487" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="488" fillId="839" borderId="865" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="865" fillId="839" fontId="488" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="489" fillId="842" borderId="869" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="869" fillId="842" fontId="489" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="490" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="490" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="491" fillId="845" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="845" fontId="491" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="492" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="492" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="493" fillId="848" borderId="873" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="873" fillId="848" fontId="493" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="494" fillId="839" borderId="877" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="877" fillId="839" fontId="494" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="495" fillId="851" borderId="881" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="881" fillId="851" fontId="495" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="496" fillId="851" borderId="881" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="881" fillId="851" fontId="496" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="497" fillId="842" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="842" fontId="497" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="498" fillId="854" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="854" fontId="498" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="499" fillId="842" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="842" fontId="499" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="500" fillId="857" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="857" fontId="500" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="501" fillId="860" borderId="889" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="502" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="503" fillId="863" borderId="893" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="504" fillId="866" borderId="897" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="505" fillId="869" borderId="901" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="506" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="507" fillId="872" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="508" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="509" fillId="875" borderId="905" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="510" fillId="866" borderId="909" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="511" fillId="878" borderId="913" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="512" fillId="878" borderId="913" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="513" fillId="869" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="514" fillId="881" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="515" fillId="869" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="516" fillId="884" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -20489,7 +21120,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF129"/>
+  <dimension ref="A1:AE129"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -20572,24 +21203,21 @@
         <v>395</v>
       </c>
       <c r="Y1" t="s">
-        <v>547</v>
+        <v>46</v>
       </c>
       <c r="Z1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AA1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AB1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AC1" t="s">
-        <v>49</v>
+        <v>413</v>
       </c>
       <c r="AD1" t="s">
-        <v>413</v>
-      </c>
-      <c r="AE1" t="s">
         <v>218</v>
       </c>
     </row>
@@ -20667,24 +21295,21 @@
         <v>396</v>
       </c>
       <c r="Y2" t="s">
-        <v>549</v>
+        <v>89</v>
       </c>
       <c r="Z2" t="s">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="AA2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="AB2" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="AC2" t="s">
-        <v>175</v>
+        <v>430</v>
       </c>
       <c r="AD2" t="s">
-        <v>430</v>
-      </c>
-      <c r="AE2" t="s">
         <v>498</v>
       </c>
     </row>
@@ -20755,22 +21380,22 @@
       <c r="X3" t="s">
         <v>397</v>
       </c>
+      <c r="Y3" t="s">
+        <v>90</v>
+      </c>
       <c r="Z3" t="s">
-        <v>90</v>
+        <v>164</v>
       </c>
       <c r="AA3" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="AB3" t="s">
-        <v>169</v>
+        <v>365</v>
       </c>
       <c r="AC3" t="s">
-        <v>365</v>
+        <v>176</v>
       </c>
       <c r="AD3" t="s">
-        <v>176</v>
-      </c>
-      <c r="AE3" t="s">
         <v>219</v>
       </c>
     </row>
@@ -20838,22 +21463,22 @@
       <c r="X4" t="s">
         <v>398</v>
       </c>
+      <c r="Y4" t="s">
+        <v>355</v>
+      </c>
       <c r="Z4" t="s">
-        <v>355</v>
+        <v>165</v>
       </c>
       <c r="AA4" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="AB4" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="AC4" t="s">
-        <v>176</v>
+        <v>431</v>
       </c>
       <c r="AD4" t="s">
-        <v>431</v>
-      </c>
-      <c r="AE4" t="s">
         <v>220</v>
       </c>
     </row>
@@ -20912,22 +21537,22 @@
       <c r="W5" t="s">
         <v>360</v>
       </c>
+      <c r="Y5" t="s">
+        <v>356</v>
+      </c>
       <c r="Z5" t="s">
-        <v>356</v>
+        <v>166</v>
       </c>
       <c r="AA5" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="AB5" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="AC5" t="s">
-        <v>177</v>
+        <v>432</v>
       </c>
       <c r="AD5" t="s">
-        <v>432</v>
-      </c>
-      <c r="AE5" t="s">
         <v>221</v>
       </c>
     </row>
@@ -20980,22 +21605,22 @@
       <c r="W6" t="s">
         <v>362</v>
       </c>
+      <c r="Y6" t="s">
+        <v>91</v>
+      </c>
       <c r="Z6" t="s">
-        <v>91</v>
+        <v>444</v>
       </c>
       <c r="AA6" t="s">
-        <v>444</v>
+        <v>172</v>
       </c>
       <c r="AB6" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="AC6" t="s">
-        <v>178</v>
+        <v>433</v>
       </c>
       <c r="AD6" t="s">
-        <v>433</v>
-      </c>
-      <c r="AE6" t="s">
         <v>222</v>
       </c>
     </row>
@@ -21042,22 +21667,22 @@
       <c r="W7" t="s">
         <v>361</v>
       </c>
+      <c r="Y7" t="s">
+        <v>92</v>
+      </c>
       <c r="Z7" t="s">
-        <v>92</v>
+        <v>445</v>
       </c>
       <c r="AA7" t="s">
-        <v>445</v>
+        <v>173</v>
       </c>
       <c r="AB7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="AC7" t="s">
-        <v>179</v>
+        <v>434</v>
       </c>
       <c r="AD7" t="s">
-        <v>434</v>
-      </c>
-      <c r="AE7" t="s">
         <v>541</v>
       </c>
     </row>
@@ -21098,22 +21723,22 @@
       <c r="W8" t="s">
         <v>363</v>
       </c>
+      <c r="Y8" t="s">
+        <v>93</v>
+      </c>
       <c r="Z8" t="s">
-        <v>93</v>
+        <v>167</v>
       </c>
       <c r="AA8" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="AB8" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="AC8" t="s">
-        <v>180</v>
+        <v>435</v>
       </c>
       <c r="AD8" t="s">
-        <v>435</v>
-      </c>
-      <c r="AE8" t="s">
         <v>542</v>
       </c>
     </row>
@@ -21154,13 +21779,13 @@
       <c r="W9" t="s">
         <v>364</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="Y9" t="s">
         <v>201</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AB9" t="s">
         <v>181</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AD9" t="s">
         <v>543</v>
       </c>
     </row>
@@ -21195,13 +21820,13 @@
       <c r="T10" t="s">
         <v>408</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="Y10" t="s">
         <v>258</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AB10" t="s">
         <v>182</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AD10" t="s">
         <v>223</v>
       </c>
     </row>
@@ -21233,13 +21858,13 @@
       <c r="R11" t="s">
         <v>239</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="Y11" t="s">
         <v>259</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AB11" t="s">
         <v>260</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AD11" t="s">
         <v>224</v>
       </c>
     </row>
@@ -21271,13 +21896,13 @@
       <c r="R12" t="s">
         <v>240</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="Y12" t="s">
         <v>94</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AB12" t="s">
         <v>183</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AD12" t="s">
         <v>225</v>
       </c>
     </row>
@@ -21306,13 +21931,13 @@
       <c r="R13" t="s">
         <v>245</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="Y13" t="s">
         <v>327</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AB13" t="s">
         <v>184</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AD13" t="s">
         <v>483</v>
       </c>
     </row>
@@ -21341,13 +21966,13 @@
       <c r="R14" t="s">
         <v>241</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="Y14" t="s">
         <v>95</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AB14" t="s">
         <v>185</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AD14" t="s">
         <v>499</v>
       </c>
     </row>
@@ -21373,13 +21998,13 @@
       <c r="R15" t="s">
         <v>242</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="Y15" t="s">
         <v>96</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AB15" t="s">
         <v>186</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AD15" t="s">
         <v>500</v>
       </c>
     </row>
@@ -21397,7 +22022,7 @@
         <v>73</v>
       </c>
       <c r="M16" t="s">
-        <v>33</v>
+        <v>552</v>
       </c>
       <c r="Q16" t="s">
         <v>508</v>
@@ -21405,13 +22030,13 @@
       <c r="R16" t="s">
         <v>243</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="Y16" t="s">
         <v>67</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AB16" t="s">
         <v>187</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AD16" t="s">
         <v>504</v>
       </c>
     </row>
@@ -21429,15 +22054,15 @@
         <v>74</v>
       </c>
       <c r="M17" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z17" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y17" t="s">
         <v>509</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AB17" t="s">
         <v>470</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AD17" t="s">
         <v>505</v>
       </c>
     </row>
@@ -21454,10 +22079,13 @@
       <c r="K18" t="s">
         <v>455</v>
       </c>
-      <c r="Z18" t="s">
+      <c r="M18" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y18" t="s">
         <v>97</v>
       </c>
-      <c r="AE18" t="s">
+      <c r="AD18" t="s">
         <v>484</v>
       </c>
     </row>
@@ -21474,10 +22102,10 @@
       <c r="K19" t="s">
         <v>75</v>
       </c>
-      <c r="Z19" t="s">
+      <c r="Y19" t="s">
         <v>98</v>
       </c>
-      <c r="AE19" t="s">
+      <c r="AD19" t="s">
         <v>501</v>
       </c>
     </row>
@@ -21494,10 +22122,10 @@
       <c r="K20" t="s">
         <v>76</v>
       </c>
-      <c r="Z20" t="s">
+      <c r="Y20" t="s">
         <v>99</v>
       </c>
-      <c r="AE20" t="s">
+      <c r="AD20" t="s">
         <v>502</v>
       </c>
     </row>
@@ -21514,10 +22142,10 @@
       <c r="K21" t="s">
         <v>381</v>
       </c>
-      <c r="Z21" t="s">
+      <c r="Y21" t="s">
         <v>100</v>
       </c>
-      <c r="AE21" t="s">
+      <c r="AD21" t="s">
         <v>506</v>
       </c>
     </row>
@@ -21534,10 +22162,10 @@
       <c r="K22" t="s">
         <v>479</v>
       </c>
-      <c r="Z22" t="s">
+      <c r="Y22" t="s">
         <v>490</v>
       </c>
-      <c r="AE22" t="s">
+      <c r="AD22" t="s">
         <v>226</v>
       </c>
     </row>
@@ -21554,10 +22182,10 @@
       <c r="K23" t="s">
         <v>37</v>
       </c>
-      <c r="Z23" t="s">
+      <c r="Y23" t="s">
         <v>102</v>
       </c>
-      <c r="AE23" t="s">
+      <c r="AD23" t="s">
         <v>544</v>
       </c>
     </row>
@@ -21574,16 +22202,16 @@
       <c r="K24" t="s">
         <v>393</v>
       </c>
-      <c r="Z24" t="s">
+      <c r="Y24" t="s">
         <v>103</v>
       </c>
-      <c r="AE24" t="s">
+      <c r="AD24" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>547</v>
+        <v>46</v>
       </c>
       <c r="E25" t="s">
         <v>448</v>
@@ -21594,16 +22222,16 @@
       <c r="K25" t="s">
         <v>531</v>
       </c>
-      <c r="Z25" t="s">
+      <c r="Y25" t="s">
         <v>104</v>
       </c>
-      <c r="AE25" t="s">
+      <c r="AD25" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E26" t="s">
         <v>216</v>
@@ -21614,16 +22242,16 @@
       <c r="K26" t="s">
         <v>77</v>
       </c>
-      <c r="Z26" t="s">
+      <c r="Y26" t="s">
         <v>105</v>
       </c>
-      <c r="AE26" t="s">
+      <c r="AD26" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E27" t="s">
         <v>217</v>
@@ -21634,16 +22262,16 @@
       <c r="K27" t="s">
         <v>439</v>
       </c>
-      <c r="Z27" t="s">
+      <c r="Y27" t="s">
         <v>106</v>
       </c>
-      <c r="AE27" t="s">
+      <c r="AD27" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E28" t="s">
         <v>477</v>
@@ -21654,13 +22282,13 @@
       <c r="K28" t="s">
         <v>38</v>
       </c>
-      <c r="Z28" t="s">
+      <c r="Y28" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>49</v>
+        <v>413</v>
       </c>
       <c r="E29" t="s">
         <v>478</v>
@@ -21671,13 +22299,13 @@
       <c r="K29" t="s">
         <v>39</v>
       </c>
-      <c r="Z29" t="s">
+      <c r="Y29" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>413</v>
+        <v>218</v>
       </c>
       <c r="E30" t="s">
         <v>415</v>
@@ -21685,21 +22313,18 @@
       <c r="G30" t="s">
         <v>208</v>
       </c>
-      <c r="Z30" t="s">
+      <c r="Y30" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s">
-        <v>218</v>
-      </c>
       <c r="E31" t="s">
         <v>56</v>
       </c>
       <c r="G31" t="s">
         <v>276</v>
       </c>
-      <c r="Z31" t="s">
+      <c r="Y31" t="s">
         <v>109</v>
       </c>
     </row>
@@ -21710,7 +22335,7 @@
       <c r="G32" t="s">
         <v>286</v>
       </c>
-      <c r="Z32" t="s">
+      <c r="Y32" t="s">
         <v>110</v>
       </c>
     </row>
@@ -21721,7 +22346,7 @@
       <c r="G33" t="s">
         <v>515</v>
       </c>
-      <c r="Z33" t="s">
+      <c r="Y33" t="s">
         <v>111</v>
       </c>
     </row>
@@ -21732,7 +22357,7 @@
       <c r="G34" t="s">
         <v>261</v>
       </c>
-      <c r="Z34" t="s">
+      <c r="Y34" t="s">
         <v>112</v>
       </c>
     </row>
@@ -21743,7 +22368,7 @@
       <c r="G35" t="s">
         <v>331</v>
       </c>
-      <c r="Z35" t="s">
+      <c r="Y35" t="s">
         <v>202</v>
       </c>
     </row>
@@ -21754,7 +22379,7 @@
       <c r="G36" t="s">
         <v>309</v>
       </c>
-      <c r="Z36" t="s">
+      <c r="Y36" t="s">
         <v>113</v>
       </c>
     </row>
@@ -21765,7 +22390,7 @@
       <c r="G37" t="s">
         <v>262</v>
       </c>
-      <c r="Z37" t="s">
+      <c r="Y37" t="s">
         <v>339</v>
       </c>
     </row>
@@ -21776,7 +22401,7 @@
       <c r="G38" t="s">
         <v>310</v>
       </c>
-      <c r="Z38" t="s">
+      <c r="Y38" t="s">
         <v>428</v>
       </c>
     </row>
@@ -21784,7 +22409,7 @@
       <c r="G39" t="s">
         <v>268</v>
       </c>
-      <c r="Z39" t="s">
+      <c r="Y39" t="s">
         <v>535</v>
       </c>
     </row>
@@ -21792,7 +22417,7 @@
       <c r="G40" t="s">
         <v>70</v>
       </c>
-      <c r="Z40" t="s">
+      <c r="Y40" t="s">
         <v>394</v>
       </c>
     </row>
@@ -21800,7 +22425,7 @@
       <c r="G41" t="s">
         <v>204</v>
       </c>
-      <c r="Z41" t="s">
+      <c r="Y41" t="s">
         <v>114</v>
       </c>
     </row>
@@ -21808,7 +22433,7 @@
       <c r="G42" t="s">
         <v>550</v>
       </c>
-      <c r="Z42" t="s">
+      <c r="Y42" t="s">
         <v>115</v>
       </c>
     </row>
@@ -21816,7 +22441,7 @@
       <c r="G43" t="s">
         <v>290</v>
       </c>
-      <c r="Z43" t="s">
+      <c r="Y43" t="s">
         <v>116</v>
       </c>
     </row>
@@ -21824,7 +22449,7 @@
       <c r="G44" t="s">
         <v>301</v>
       </c>
-      <c r="Z44" t="s">
+      <c r="Y44" t="s">
         <v>117</v>
       </c>
     </row>
@@ -21832,7 +22457,7 @@
       <c r="G45" t="s">
         <v>302</v>
       </c>
-      <c r="Z45" t="s">
+      <c r="Y45" t="s">
         <v>118</v>
       </c>
     </row>
@@ -21840,7 +22465,7 @@
       <c r="G46" t="s">
         <v>344</v>
       </c>
-      <c r="Z46" t="s">
+      <c r="Y46" t="s">
         <v>119</v>
       </c>
     </row>
@@ -21848,7 +22473,7 @@
       <c r="G47" t="s">
         <v>343</v>
       </c>
-      <c r="Z47" t="s">
+      <c r="Y47" t="s">
         <v>441</v>
       </c>
     </row>
@@ -21856,7 +22481,7 @@
       <c r="G48" t="s">
         <v>203</v>
       </c>
-      <c r="Z48" t="s">
+      <c r="Y48" t="s">
         <v>205</v>
       </c>
     </row>
@@ -21864,7 +22489,7 @@
       <c r="G49" t="s">
         <v>303</v>
       </c>
-      <c r="Z49" t="s">
+      <c r="Y49" t="s">
         <v>69</v>
       </c>
     </row>
@@ -21872,7 +22497,7 @@
       <c r="G50" t="s">
         <v>340</v>
       </c>
-      <c r="Z50" t="s">
+      <c r="Y50" t="s">
         <v>540</v>
       </c>
     </row>
@@ -21880,7 +22505,7 @@
       <c r="G51" t="s">
         <v>369</v>
       </c>
-      <c r="Z51" t="s">
+      <c r="Y51" t="s">
         <v>120</v>
       </c>
     </row>
@@ -21888,7 +22513,7 @@
       <c r="G52" t="s">
         <v>304</v>
       </c>
-      <c r="Z52" t="s">
+      <c r="Y52" t="s">
         <v>121</v>
       </c>
     </row>
@@ -21896,7 +22521,7 @@
       <c r="G53" t="s">
         <v>357</v>
       </c>
-      <c r="Z53" t="s">
+      <c r="Y53" t="s">
         <v>122</v>
       </c>
     </row>
@@ -21904,7 +22529,7 @@
       <c r="G54" t="s">
         <v>332</v>
       </c>
-      <c r="Z54" t="s">
+      <c r="Y54" t="s">
         <v>491</v>
       </c>
     </row>
@@ -21912,7 +22537,7 @@
       <c r="G55" t="s">
         <v>269</v>
       </c>
-      <c r="Z55" t="s">
+      <c r="Y55" t="s">
         <v>472</v>
       </c>
     </row>
@@ -21920,7 +22545,7 @@
       <c r="G56" t="s">
         <v>293</v>
       </c>
-      <c r="Z56" t="s">
+      <c r="Y56" t="s">
         <v>123</v>
       </c>
     </row>
@@ -21928,7 +22553,7 @@
       <c r="G57" t="s">
         <v>294</v>
       </c>
-      <c r="Z57" t="s">
+      <c r="Y57" t="s">
         <v>347</v>
       </c>
     </row>
@@ -21936,7 +22561,7 @@
       <c r="G58" t="s">
         <v>551</v>
       </c>
-      <c r="Z58" t="s">
+      <c r="Y58" t="s">
         <v>465</v>
       </c>
     </row>
@@ -21944,7 +22569,7 @@
       <c r="G59" t="s">
         <v>295</v>
       </c>
-      <c r="Z59" t="s">
+      <c r="Y59" t="s">
         <v>124</v>
       </c>
     </row>
@@ -21952,7 +22577,7 @@
       <c r="G60" t="s">
         <v>305</v>
       </c>
-      <c r="Z60" t="s">
+      <c r="Y60" t="s">
         <v>125</v>
       </c>
     </row>
@@ -21960,7 +22585,7 @@
       <c r="G61" t="s">
         <v>314</v>
       </c>
-      <c r="Z61" t="s">
+      <c r="Y61" t="s">
         <v>126</v>
       </c>
     </row>
@@ -21968,7 +22593,7 @@
       <c r="G62" t="s">
         <v>338</v>
       </c>
-      <c r="Z62" t="s">
+      <c r="Y62" t="s">
         <v>127</v>
       </c>
     </row>
@@ -21976,7 +22601,7 @@
       <c r="G63" t="s">
         <v>311</v>
       </c>
-      <c r="Z63" t="s">
+      <c r="Y63" t="s">
         <v>128</v>
       </c>
     </row>
@@ -21984,7 +22609,7 @@
       <c r="G64" t="s">
         <v>312</v>
       </c>
-      <c r="Z64" t="s">
+      <c r="Y64" t="s">
         <v>129</v>
       </c>
     </row>
@@ -21992,7 +22617,7 @@
       <c r="G65" t="s">
         <v>370</v>
       </c>
-      <c r="Z65" t="s">
+      <c r="Y65" t="s">
         <v>130</v>
       </c>
     </row>
@@ -22000,7 +22625,7 @@
       <c r="G66" t="s">
         <v>371</v>
       </c>
-      <c r="Z66" t="s">
+      <c r="Y66" t="s">
         <v>437</v>
       </c>
     </row>
@@ -22008,7 +22633,7 @@
       <c r="G67" t="s">
         <v>346</v>
       </c>
-      <c r="Z67" t="s">
+      <c r="Y67" t="s">
         <v>482</v>
       </c>
     </row>
@@ -22016,7 +22641,7 @@
       <c r="G68" t="s">
         <v>315</v>
       </c>
-      <c r="Z68" t="s">
+      <c r="Y68" t="s">
         <v>206</v>
       </c>
     </row>
@@ -22024,7 +22649,7 @@
       <c r="G69" t="s">
         <v>270</v>
       </c>
-      <c r="Z69" t="s">
+      <c r="Y69" t="s">
         <v>390</v>
       </c>
     </row>
@@ -22032,7 +22657,7 @@
       <c r="G70" t="s">
         <v>536</v>
       </c>
-      <c r="Z70" t="s">
+      <c r="Y70" t="s">
         <v>442</v>
       </c>
     </row>
@@ -22040,7 +22665,7 @@
       <c r="G71" t="s">
         <v>316</v>
       </c>
-      <c r="Z71" t="s">
+      <c r="Y71" t="s">
         <v>131</v>
       </c>
     </row>
@@ -22048,7 +22673,7 @@
       <c r="G72" t="s">
         <v>409</v>
       </c>
-      <c r="Z72" t="s">
+      <c r="Y72" t="s">
         <v>132</v>
       </c>
     </row>
@@ -22056,7 +22681,7 @@
       <c r="G73" t="s">
         <v>306</v>
       </c>
-      <c r="Z73" t="s">
+      <c r="Y73" t="s">
         <v>133</v>
       </c>
     </row>
@@ -22064,7 +22689,7 @@
       <c r="G74" t="s">
         <v>410</v>
       </c>
-      <c r="Z74" t="s">
+      <c r="Y74" t="s">
         <v>134</v>
       </c>
     </row>
@@ -22072,7 +22697,7 @@
       <c r="G75" t="s">
         <v>263</v>
       </c>
-      <c r="Z75" t="s">
+      <c r="Y75" t="s">
         <v>189</v>
       </c>
     </row>
@@ -22080,7 +22705,7 @@
       <c r="G76" t="s">
         <v>516</v>
       </c>
-      <c r="Z76" t="s">
+      <c r="Y76" t="s">
         <v>190</v>
       </c>
     </row>
@@ -22088,7 +22713,7 @@
       <c r="G77" t="s">
         <v>345</v>
       </c>
-      <c r="Z77" t="s">
+      <c r="Y77" t="s">
         <v>453</v>
       </c>
     </row>
@@ -22096,7 +22721,7 @@
       <c r="G78" t="s">
         <v>281</v>
       </c>
-      <c r="Z78" t="s">
+      <c r="Y78" t="s">
         <v>476</v>
       </c>
     </row>
@@ -22104,7 +22729,7 @@
       <c r="G79" t="s">
         <v>287</v>
       </c>
-      <c r="Z79" t="s">
+      <c r="Y79" t="s">
         <v>135</v>
       </c>
     </row>
@@ -22112,7 +22737,7 @@
       <c r="G80" t="s">
         <v>292</v>
       </c>
-      <c r="Z80" t="s">
+      <c r="Y80" t="s">
         <v>136</v>
       </c>
     </row>
@@ -22120,7 +22745,7 @@
       <c r="G81" t="s">
         <v>416</v>
       </c>
-      <c r="Z81" t="s">
+      <c r="Y81" t="s">
         <v>137</v>
       </c>
     </row>
@@ -22128,7 +22753,7 @@
       <c r="G82" t="s">
         <v>333</v>
       </c>
-      <c r="Z82" t="s">
+      <c r="Y82" t="s">
         <v>503</v>
       </c>
     </row>
@@ -22136,7 +22761,7 @@
       <c r="G83" t="s">
         <v>271</v>
       </c>
-      <c r="Z83" t="s">
+      <c r="Y83" t="s">
         <v>138</v>
       </c>
     </row>
@@ -22144,7 +22769,7 @@
       <c r="G84" t="s">
         <v>282</v>
       </c>
-      <c r="Z84" t="s">
+      <c r="Y84" t="s">
         <v>139</v>
       </c>
     </row>
@@ -22152,7 +22777,7 @@
       <c r="G85" t="s">
         <v>288</v>
       </c>
-      <c r="Z85" t="s">
+      <c r="Y85" t="s">
         <v>191</v>
       </c>
     </row>
@@ -22160,7 +22785,7 @@
       <c r="G86" t="s">
         <v>277</v>
       </c>
-      <c r="Z86" t="s">
+      <c r="Y86" t="s">
         <v>492</v>
       </c>
     </row>
@@ -22168,7 +22793,7 @@
       <c r="G87" t="s">
         <v>537</v>
       </c>
-      <c r="Z87" t="s">
+      <c r="Y87" t="s">
         <v>192</v>
       </c>
     </row>
@@ -22176,7 +22801,7 @@
       <c r="G88" t="s">
         <v>272</v>
       </c>
-      <c r="Z88" t="s">
+      <c r="Y88" t="s">
         <v>452</v>
       </c>
     </row>
@@ -22184,7 +22809,7 @@
       <c r="G89" t="s">
         <v>289</v>
       </c>
-      <c r="Z89" t="s">
+      <c r="Y89" t="s">
         <v>193</v>
       </c>
     </row>
@@ -22192,7 +22817,7 @@
       <c r="G90" t="s">
         <v>273</v>
       </c>
-      <c r="Z90" t="s">
+      <c r="Y90" t="s">
         <v>194</v>
       </c>
     </row>
@@ -22200,7 +22825,7 @@
       <c r="G91" t="s">
         <v>274</v>
       </c>
-      <c r="Z91" t="s">
+      <c r="Y91" t="s">
         <v>207</v>
       </c>
     </row>
@@ -22208,7 +22833,7 @@
       <c r="G92" t="s">
         <v>307</v>
       </c>
-      <c r="Z92" t="s">
+      <c r="Y92" t="s">
         <v>140</v>
       </c>
     </row>
@@ -22216,7 +22841,7 @@
       <c r="G93" t="s">
         <v>313</v>
       </c>
-      <c r="Z93" t="s">
+      <c r="Y93" t="s">
         <v>195</v>
       </c>
     </row>
@@ -22224,7 +22849,7 @@
       <c r="G94" t="s">
         <v>296</v>
       </c>
-      <c r="Z94" t="s">
+      <c r="Y94" t="s">
         <v>429</v>
       </c>
     </row>
@@ -22232,7 +22857,7 @@
       <c r="G95" t="s">
         <v>341</v>
       </c>
-      <c r="Z95" t="s">
+      <c r="Y95" t="s">
         <v>436</v>
       </c>
     </row>
@@ -22240,7 +22865,7 @@
       <c r="G96" t="s">
         <v>278</v>
       </c>
-      <c r="Z96" t="s">
+      <c r="Y96" t="s">
         <v>196</v>
       </c>
     </row>
@@ -22248,167 +22873,167 @@
       <c r="G97" t="s">
         <v>279</v>
       </c>
-      <c r="Z97" t="s">
+      <c r="Y97" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="98">
-      <c r="Z98" t="s">
+      <c r="Y98" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="99">
-      <c r="Z99" t="s">
+      <c r="Y99" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="100">
-      <c r="Z100" t="s">
+      <c r="Y100" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="101">
-      <c r="Z101" t="s">
+      <c r="Y101" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="102">
-      <c r="Z102" t="s">
+      <c r="Y102" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="103">
-      <c r="Z103" t="s">
+      <c r="Y103" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="104">
-      <c r="Z104" t="s">
+      <c r="Y104" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="105">
-      <c r="Z105" t="s">
+      <c r="Y105" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="106">
-      <c r="Z106" t="s">
+      <c r="Y106" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="107">
-      <c r="Z107" t="s">
+      <c r="Y107" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="108">
-      <c r="Z108" t="s">
+      <c r="Y108" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="109">
-      <c r="Z109" t="s">
+      <c r="Y109" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="110">
-      <c r="Z110" t="s">
+      <c r="Y110" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="111">
-      <c r="Z111" t="s">
+      <c r="Y111" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="112">
-      <c r="Z112" t="s">
+      <c r="Y112" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="113">
-      <c r="Z113" t="s">
+      <c r="Y113" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="114">
-      <c r="Z114" t="s">
+      <c r="Y114" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="115">
-      <c r="Z115" t="s">
+      <c r="Y115" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="116">
-      <c r="Z116" t="s">
+      <c r="Y116" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="117">
-      <c r="Z117" t="s">
+      <c r="Y117" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="118">
-      <c r="Z118" t="s">
+      <c r="Y118" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="119">
-      <c r="Z119" t="s">
+      <c r="Y119" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="120">
-      <c r="Z120" t="s">
+      <c r="Y120" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="121">
-      <c r="Z121" t="s">
+      <c r="Y121" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="122">
-      <c r="Z122" t="s">
+      <c r="Y122" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="123">
-      <c r="Z123" t="s">
+      <c r="Y123" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="124">
-      <c r="Z124" t="s">
+      <c r="Y124" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="125">
-      <c r="Z125" t="s">
+      <c r="Y125" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="126">
-      <c r="Z126" t="s">
+      <c r="Y126" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="127">
-      <c r="Z127" t="s">
+      <c r="Y127" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="128">
-      <c r="Z128" t="s">
+      <c r="Y128" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="129">
-      <c r="Z129" t="s">
+      <c r="Y129" t="s">
         <v>162</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro.xlsx
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$133</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16624" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19390" uniqueCount="557">
   <si>
     <t>description</t>
   </si>
@@ -1726,6 +1726,18 @@
   </si>
   <si>
     <t>storeKeys(json,jsonpath,var)</t>
+  </si>
+  <si>
+    <t>assertMultiSelect(locator)</t>
+  </si>
+  <si>
+    <t>assertSingleSelect(locator)</t>
+  </si>
+  <si>
+    <t>updateAttribute(locator,attrName,value)</t>
+  </si>
+  <si>
+    <t>saveISTDivsAsCsv(config,file)</t>
   </si>
 </sst>
 </file>
@@ -1733,7 +1745,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="517" x14ac:knownFonts="1">
+  <fonts count="597" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4993,8 +5005,513 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="885">
+  <fills count="1020">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10005,8 +10522,773 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="914">
+  <borders count="1074">
     <border>
       <left/>
       <right/>
@@ -17747,6 +19029,1636 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -19235,7 +22147,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="528">
+  <cellXfs count="608">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -20777,52 +23689,292 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="857" fontId="500" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="501" fillId="860" borderId="889" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="502" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="889" fillId="860" fontId="501" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="502" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="503" fillId="863" borderId="893" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="893" fillId="863" fontId="503" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="504" fillId="866" borderId="897" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="897" fillId="866" fontId="504" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="505" fillId="869" borderId="901" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="901" fillId="869" fontId="505" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="506" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="506" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="507" fillId="872" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="872" fontId="507" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="508" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="509" fillId="875" borderId="905" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="510" fillId="866" borderId="909" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="511" fillId="878" borderId="913" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="512" fillId="878" borderId="913" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="513" fillId="869" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="514" fillId="881" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="515" fillId="869" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="516" fillId="884" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="508" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="905" fillId="875" fontId="509" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="909" fillId="866" fontId="510" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="913" fillId="878" fontId="511" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="913" fillId="878" fontId="512" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="869" fontId="513" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="881" fontId="514" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="869" fontId="515" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="884" fontId="516" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="921" fillId="887" fontId="517" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="518" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="925" fillId="890" fontId="519" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="929" fillId="893" fontId="520" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="933" fillId="896" fontId="521" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="522" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="899" fontId="523" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="524" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="937" fillId="902" fontId="525" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="941" fillId="893" fontId="526" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="945" fillId="905" fontId="527" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="945" fillId="905" fontId="528" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="896" fontId="529" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="908" fontId="530" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="896" fontId="531" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="911" fontId="532" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="953" fillId="914" fontId="533" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="534" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="957" fillId="917" fontId="535" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="961" fillId="920" fontId="536" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="965" fillId="923" fontId="537" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="538" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="926" fontId="539" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="540" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="969" fillId="929" fontId="541" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="973" fillId="920" fontId="542" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="977" fillId="932" fontId="543" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="977" fillId="932" fontId="544" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="923" fontId="545" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="935" fontId="546" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="923" fontId="547" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="938" fontId="548" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="985" fillId="941" fontId="549" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="550" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="989" fillId="944" fontId="551" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="993" fillId="947" fontId="552" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="997" fillId="950" fontId="553" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="554" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="953" fontId="555" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="556" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1001" fillId="956" fontId="557" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1005" fillId="947" fontId="558" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1009" fillId="959" fontId="559" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1009" fillId="959" fontId="560" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="950" fontId="561" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="962" fontId="562" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="950" fontId="563" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="965" fontId="564" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1017" fillId="968" fontId="565" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="566" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1021" fillId="971" fontId="567" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1025" fillId="974" fontId="568" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1029" fillId="977" fontId="569" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="570" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="980" fontId="571" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="572" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1033" fillId="983" fontId="573" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1037" fillId="974" fontId="574" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1041" fillId="986" fontId="575" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1041" fillId="986" fontId="576" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="977" fontId="577" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="989" fontId="578" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="977" fontId="579" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="992" fontId="580" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="581" fillId="995" borderId="1049" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="582" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="583" fillId="998" borderId="1053" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="584" fillId="1001" borderId="1057" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="585" fillId="1004" borderId="1061" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="586" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="587" fillId="1007" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="588" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="589" fillId="1010" borderId="1065" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="590" fillId="1001" borderId="1069" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="591" fillId="1013" borderId="1073" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="592" fillId="1013" borderId="1073" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="593" fillId="1004" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="594" fillId="1016" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="595" fillId="1004" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="596" fillId="1019" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -21120,7 +24272,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE129"/>
+  <dimension ref="A1:AE133"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -22203,7 +25355,7 @@
         <v>393</v>
       </c>
       <c r="Y24" t="s">
-        <v>103</v>
+        <v>553</v>
       </c>
       <c r="AD24" t="s">
         <v>545</v>
@@ -22223,7 +25375,7 @@
         <v>531</v>
       </c>
       <c r="Y25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AD25" t="s">
         <v>546</v>
@@ -22243,7 +25395,7 @@
         <v>77</v>
       </c>
       <c r="Y26" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AD26" t="s">
         <v>227</v>
@@ -22263,7 +25415,7 @@
         <v>439</v>
       </c>
       <c r="Y27" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AD27" t="s">
         <v>228</v>
@@ -22283,7 +25435,7 @@
         <v>38</v>
       </c>
       <c r="Y28" t="s">
-        <v>328</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29">
@@ -22300,7 +25452,7 @@
         <v>39</v>
       </c>
       <c r="Y29" t="s">
-        <v>107</v>
+        <v>328</v>
       </c>
     </row>
     <row r="30">
@@ -22314,7 +25466,7 @@
         <v>208</v>
       </c>
       <c r="Y30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31">
@@ -22325,7 +25477,7 @@
         <v>276</v>
       </c>
       <c r="Y31" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32">
@@ -22336,7 +25488,7 @@
         <v>286</v>
       </c>
       <c r="Y32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33">
@@ -22347,7 +25499,7 @@
         <v>515</v>
       </c>
       <c r="Y33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34">
@@ -22358,7 +25510,7 @@
         <v>261</v>
       </c>
       <c r="Y34" t="s">
-        <v>112</v>
+        <v>554</v>
       </c>
     </row>
     <row r="35">
@@ -22369,7 +25521,7 @@
         <v>331</v>
       </c>
       <c r="Y35" t="s">
-        <v>202</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36">
@@ -22380,7 +25532,7 @@
         <v>309</v>
       </c>
       <c r="Y36" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37">
@@ -22391,7 +25543,7 @@
         <v>262</v>
       </c>
       <c r="Y37" t="s">
-        <v>339</v>
+        <v>202</v>
       </c>
     </row>
     <row r="38">
@@ -22402,7 +25554,7 @@
         <v>310</v>
       </c>
       <c r="Y38" t="s">
-        <v>428</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39">
@@ -22410,7 +25562,7 @@
         <v>268</v>
       </c>
       <c r="Y39" t="s">
-        <v>535</v>
+        <v>339</v>
       </c>
     </row>
     <row r="40">
@@ -22418,7 +25570,7 @@
         <v>70</v>
       </c>
       <c r="Y40" t="s">
-        <v>394</v>
+        <v>428</v>
       </c>
     </row>
     <row r="41">
@@ -22426,7 +25578,7 @@
         <v>204</v>
       </c>
       <c r="Y41" t="s">
-        <v>114</v>
+        <v>535</v>
       </c>
     </row>
     <row r="42">
@@ -22434,7 +25586,7 @@
         <v>550</v>
       </c>
       <c r="Y42" t="s">
-        <v>115</v>
+        <v>394</v>
       </c>
     </row>
     <row r="43">
@@ -22442,7 +25594,7 @@
         <v>290</v>
       </c>
       <c r="Y43" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44">
@@ -22450,7 +25602,7 @@
         <v>301</v>
       </c>
       <c r="Y44" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45">
@@ -22458,7 +25610,7 @@
         <v>302</v>
       </c>
       <c r="Y45" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="46">
@@ -22466,7 +25618,7 @@
         <v>344</v>
       </c>
       <c r="Y46" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="47">
@@ -22474,7 +25626,7 @@
         <v>343</v>
       </c>
       <c r="Y47" t="s">
-        <v>441</v>
+        <v>118</v>
       </c>
     </row>
     <row r="48">
@@ -22482,7 +25634,7 @@
         <v>203</v>
       </c>
       <c r="Y48" t="s">
-        <v>205</v>
+        <v>119</v>
       </c>
     </row>
     <row r="49">
@@ -22490,7 +25642,7 @@
         <v>303</v>
       </c>
       <c r="Y49" t="s">
-        <v>69</v>
+        <v>441</v>
       </c>
     </row>
     <row r="50">
@@ -22498,7 +25650,7 @@
         <v>340</v>
       </c>
       <c r="Y50" t="s">
-        <v>540</v>
+        <v>205</v>
       </c>
     </row>
     <row r="51">
@@ -22506,7 +25658,7 @@
         <v>369</v>
       </c>
       <c r="Y51" t="s">
-        <v>120</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52">
@@ -22514,7 +25666,7 @@
         <v>304</v>
       </c>
       <c r="Y52" t="s">
-        <v>121</v>
+        <v>540</v>
       </c>
     </row>
     <row r="53">
@@ -22522,7 +25674,7 @@
         <v>357</v>
       </c>
       <c r="Y53" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="54">
@@ -22530,7 +25682,7 @@
         <v>332</v>
       </c>
       <c r="Y54" t="s">
-        <v>491</v>
+        <v>121</v>
       </c>
     </row>
     <row r="55">
@@ -22538,7 +25690,7 @@
         <v>269</v>
       </c>
       <c r="Y55" t="s">
-        <v>472</v>
+        <v>122</v>
       </c>
     </row>
     <row r="56">
@@ -22546,7 +25698,7 @@
         <v>293</v>
       </c>
       <c r="Y56" t="s">
-        <v>123</v>
+        <v>491</v>
       </c>
     </row>
     <row r="57">
@@ -22554,7 +25706,7 @@
         <v>294</v>
       </c>
       <c r="Y57" t="s">
-        <v>347</v>
+        <v>472</v>
       </c>
     </row>
     <row r="58">
@@ -22562,7 +25714,7 @@
         <v>551</v>
       </c>
       <c r="Y58" t="s">
-        <v>465</v>
+        <v>123</v>
       </c>
     </row>
     <row r="59">
@@ -22570,7 +25722,7 @@
         <v>295</v>
       </c>
       <c r="Y59" t="s">
-        <v>124</v>
+        <v>347</v>
       </c>
     </row>
     <row r="60">
@@ -22578,7 +25730,7 @@
         <v>305</v>
       </c>
       <c r="Y60" t="s">
-        <v>125</v>
+        <v>465</v>
       </c>
     </row>
     <row r="61">
@@ -22586,7 +25738,7 @@
         <v>314</v>
       </c>
       <c r="Y61" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="62">
@@ -22594,7 +25746,7 @@
         <v>338</v>
       </c>
       <c r="Y62" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="63">
@@ -22602,7 +25754,7 @@
         <v>311</v>
       </c>
       <c r="Y63" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="64">
@@ -22610,7 +25762,7 @@
         <v>312</v>
       </c>
       <c r="Y64" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="65">
@@ -22618,7 +25770,7 @@
         <v>370</v>
       </c>
       <c r="Y65" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="66">
@@ -22626,7 +25778,7 @@
         <v>371</v>
       </c>
       <c r="Y66" t="s">
-        <v>437</v>
+        <v>129</v>
       </c>
     </row>
     <row r="67">
@@ -22634,7 +25786,7 @@
         <v>346</v>
       </c>
       <c r="Y67" t="s">
-        <v>482</v>
+        <v>130</v>
       </c>
     </row>
     <row r="68">
@@ -22642,7 +25794,7 @@
         <v>315</v>
       </c>
       <c r="Y68" t="s">
-        <v>206</v>
+        <v>437</v>
       </c>
     </row>
     <row r="69">
@@ -22650,7 +25802,7 @@
         <v>270</v>
       </c>
       <c r="Y69" t="s">
-        <v>390</v>
+        <v>482</v>
       </c>
     </row>
     <row r="70">
@@ -22658,7 +25810,7 @@
         <v>536</v>
       </c>
       <c r="Y70" t="s">
-        <v>442</v>
+        <v>206</v>
       </c>
     </row>
     <row r="71">
@@ -22666,7 +25818,7 @@
         <v>316</v>
       </c>
       <c r="Y71" t="s">
-        <v>131</v>
+        <v>390</v>
       </c>
     </row>
     <row r="72">
@@ -22674,7 +25826,7 @@
         <v>409</v>
       </c>
       <c r="Y72" t="s">
-        <v>132</v>
+        <v>442</v>
       </c>
     </row>
     <row r="73">
@@ -22682,7 +25834,7 @@
         <v>306</v>
       </c>
       <c r="Y73" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="74">
@@ -22690,7 +25842,7 @@
         <v>410</v>
       </c>
       <c r="Y74" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="75">
@@ -22698,7 +25850,7 @@
         <v>263</v>
       </c>
       <c r="Y75" t="s">
-        <v>189</v>
+        <v>133</v>
       </c>
     </row>
     <row r="76">
@@ -22706,7 +25858,7 @@
         <v>516</v>
       </c>
       <c r="Y76" t="s">
-        <v>190</v>
+        <v>134</v>
       </c>
     </row>
     <row r="77">
@@ -22714,7 +25866,7 @@
         <v>345</v>
       </c>
       <c r="Y77" t="s">
-        <v>453</v>
+        <v>189</v>
       </c>
     </row>
     <row r="78">
@@ -22722,7 +25874,7 @@
         <v>281</v>
       </c>
       <c r="Y78" t="s">
-        <v>476</v>
+        <v>190</v>
       </c>
     </row>
     <row r="79">
@@ -22730,7 +25882,7 @@
         <v>287</v>
       </c>
       <c r="Y79" t="s">
-        <v>135</v>
+        <v>453</v>
       </c>
     </row>
     <row r="80">
@@ -22738,7 +25890,7 @@
         <v>292</v>
       </c>
       <c r="Y80" t="s">
-        <v>136</v>
+        <v>476</v>
       </c>
     </row>
     <row r="81">
@@ -22746,7 +25898,7 @@
         <v>416</v>
       </c>
       <c r="Y81" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="82">
@@ -22754,7 +25906,7 @@
         <v>333</v>
       </c>
       <c r="Y82" t="s">
-        <v>503</v>
+        <v>136</v>
       </c>
     </row>
     <row r="83">
@@ -22762,7 +25914,7 @@
         <v>271</v>
       </c>
       <c r="Y83" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="84">
@@ -22770,7 +25922,7 @@
         <v>282</v>
       </c>
       <c r="Y84" t="s">
-        <v>139</v>
+        <v>503</v>
       </c>
     </row>
     <row r="85">
@@ -22778,7 +25930,7 @@
         <v>288</v>
       </c>
       <c r="Y85" t="s">
-        <v>191</v>
+        <v>138</v>
       </c>
     </row>
     <row r="86">
@@ -22786,7 +25938,7 @@
         <v>277</v>
       </c>
       <c r="Y86" t="s">
-        <v>492</v>
+        <v>139</v>
       </c>
     </row>
     <row r="87">
@@ -22794,7 +25946,7 @@
         <v>537</v>
       </c>
       <c r="Y87" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="88">
@@ -22802,7 +25954,7 @@
         <v>272</v>
       </c>
       <c r="Y88" t="s">
-        <v>452</v>
+        <v>492</v>
       </c>
     </row>
     <row r="89">
@@ -22810,7 +25962,7 @@
         <v>289</v>
       </c>
       <c r="Y89" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="90">
@@ -22818,7 +25970,7 @@
         <v>273</v>
       </c>
       <c r="Y90" t="s">
-        <v>194</v>
+        <v>452</v>
       </c>
     </row>
     <row r="91">
@@ -22826,7 +25978,7 @@
         <v>274</v>
       </c>
       <c r="Y91" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
     </row>
     <row r="92">
@@ -22834,7 +25986,7 @@
         <v>307</v>
       </c>
       <c r="Y92" t="s">
-        <v>140</v>
+        <v>194</v>
       </c>
     </row>
     <row r="93">
@@ -22842,7 +25994,7 @@
         <v>313</v>
       </c>
       <c r="Y93" t="s">
-        <v>195</v>
+        <v>556</v>
       </c>
     </row>
     <row r="94">
@@ -22850,7 +26002,7 @@
         <v>296</v>
       </c>
       <c r="Y94" t="s">
-        <v>429</v>
+        <v>207</v>
       </c>
     </row>
     <row r="95">
@@ -22858,7 +26010,7 @@
         <v>341</v>
       </c>
       <c r="Y95" t="s">
-        <v>436</v>
+        <v>140</v>
       </c>
     </row>
     <row r="96">
@@ -22866,7 +26018,7 @@
         <v>278</v>
       </c>
       <c r="Y96" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="97">
@@ -22874,166 +26026,186 @@
         <v>279</v>
       </c>
       <c r="Y97" t="s">
-        <v>197</v>
+        <v>429</v>
       </c>
     </row>
     <row r="98">
       <c r="Y98" t="s">
-        <v>198</v>
+        <v>436</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>514</v>
+        <v>199</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>517</v>
+        <v>214</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>141</v>
+        <v>200</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>384</v>
+        <v>517</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>143</v>
+        <v>518</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>144</v>
+        <v>384</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>443</v>
+        <v>152</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>157</v>
+        <v>443</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>40</v>
+        <v>555</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="128">
       <c r="Y128" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="129">
       <c r="Y129" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="Y130" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="Y131" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="Y132" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="Y133" t="s">
         <v>162</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro.xlsx
@@ -22,7 +22,7 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$97</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$98</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$5</definedName>
     <definedName name="image">'#system'!$J$2:$J$7</definedName>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19390" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19945" uniqueCount="559">
   <si>
     <t>description</t>
   </si>
@@ -1738,6 +1738,12 @@
   </si>
   <si>
     <t>saveISTDivsAsCsv(config,file)</t>
+  </si>
+  <si>
+    <t>assertElementNotPresent(name)</t>
+  </si>
+  <si>
+    <t>saveInfiniteDivsAsCsv(config,file)</t>
   </si>
 </sst>
 </file>
@@ -1745,7 +1751,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="597" x14ac:knownFonts="1">
+  <fonts count="613" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5510,8 +5516,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1020">
+  <fills count="1047">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -11287,8 +11394,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1074">
+  <borders count="1106">
     <border>
       <left/>
       <right/>
@@ -19029,6 +19289,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+    